--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="1074">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3211,12 +3211,6 @@
     <t>(15) 99636-4470 (P)</t>
   </si>
   <si>
-    <t>(15) 99754-0557 (P)</t>
-  </si>
-  <si>
-    <t>Aluno, Sub07, Camilla, Miguel (P)</t>
-  </si>
-  <si>
     <t>Theo Hendrick Puetzi</t>
   </si>
   <si>
@@ -3254,6 +3248,42 @@
   </si>
   <si>
     <t>(11) 98241-8182 (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub09, Flavio, Gabriel (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub13, Carlos, Pedro (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub05, Priscila, Theo (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub05, Sergio, Gustavo (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub05, Eliane, Joaquim (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub05, Paulo, Branca (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub05, Gustavo, Cesar (P)</t>
+  </si>
+  <si>
+    <t>(15) 98181-0134</t>
+  </si>
+  <si>
+    <t>Lorenzo Camargo de Mello</t>
+  </si>
+  <si>
+    <t>camilla, miguel</t>
+  </si>
+  <si>
+    <t>marcelo, pedro</t>
+  </si>
+  <si>
+    <t>Eduardo (amigo Vitor)</t>
   </si>
 </sst>
 </file>
@@ -3280,7 +3310,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3355,12 +3385,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3402,7 +3426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3467,32 +3491,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6739,9 +6760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6764,45 +6785,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="60" t="s">
+      <c r="AC1" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -6925,7 +6946,7 @@
         <v>39967</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I24" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
+        <f t="shared" ref="I3:I25" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
         <v>12 anos, 8 meses 9 dias</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -8341,13 +8362,13 @@
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1">
       <c r="A24" s="31" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="31" t="s">
@@ -8355,7 +8376,7 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="31" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H24" s="30">
         <v>42471</v>
@@ -8404,14 +8425,29 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="G25" s="45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H25" s="59">
+        <v>41928</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7 anos, 3 meses 24 dias</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="6">
+        <v>44604</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="6"/>
       <c r="O25" s="15"/>
@@ -19647,7 +19683,7 @@
       <c r="F127" s="33" t="s">
         <v>966</v>
       </c>
-      <c r="H127" s="57">
+      <c r="H127" s="52">
         <v>44597</v>
       </c>
       <c r="I127" s="33" t="s">
@@ -19672,7 +19708,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B129" s="58" t="s">
+      <c r="B129" s="53" t="s">
         <v>1027</v>
       </c>
       <c r="C129" s="43">
@@ -19684,7 +19720,7 @@
       <c r="F129" s="33" t="s">
         <v>1025</v>
       </c>
-      <c r="H129" s="57">
+      <c r="H129" s="52">
         <v>44596</v>
       </c>
       <c r="I129" s="33" t="s">
@@ -19704,7 +19740,7 @@
       <c r="F130" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="H130" s="57">
+      <c r="H130" s="52">
         <v>44596</v>
       </c>
       <c r="I130" s="33" t="s">
@@ -20708,7 +20744,7 @@
   <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AB11"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20735,70 +20771,70 @@
     <col min="25" max="25" width="38.36328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.54296875" customWidth="1"/>
+    <col min="28" max="28" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="23.1796875" customWidth="1"/>
     <col min="35" max="35" width="8.54296875" customWidth="1"/>
     <col min="36" max="1026" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A1" s="61">
+      <c r="A1" s="58">
         <v>44541</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58">
         <v>44548</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58">
         <v>44569</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58">
         <v>44576</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58">
         <v>44583</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="62">
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="57">
         <v>44596</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57">
         <v>44597</v>
       </c>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62">
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57">
         <v>44603</v>
       </c>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62">
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57">
         <v>44604</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AH1" s="62">
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AH1" s="57">
         <v>44610</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57">
         <v>44611</v>
       </c>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
     </row>
     <row r="2" spans="1:38" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -20969,22 +21005,22 @@
       <c r="W3" s="37" t="s">
         <v>1035</v>
       </c>
-      <c r="X3" s="59" t="s">
+      <c r="X3" s="54" t="s">
         <v>96</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>998</v>
+        <v>1063</v>
       </c>
       <c r="Z3" s="38" t="s">
         <v>973</v>
       </c>
-      <c r="AA3" s="56" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AB3" s="54" t="s">
+      <c r="AA3" s="54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AB3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="56" t="s">
+      <c r="AH3" s="51" t="s">
         <v>1012</v>
       </c>
       <c r="AI3" s="33" t="s">
@@ -21066,13 +21102,13 @@
       <c r="Y4" s="35" t="s">
         <v>1042</v>
       </c>
-      <c r="Z4" s="34" t="s">
-        <v>990</v>
-      </c>
-      <c r="AA4" s="55" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AB4" s="47" t="s">
+      <c r="Z4" s="35" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AA4" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AB4" s="34" t="s">
         <v>995</v>
       </c>
       <c r="AH4" s="33" t="s">
@@ -21150,16 +21186,16 @@
       <c r="X5" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="59" t="s">
+      <c r="Y5" s="54" t="s">
         <v>1043</v>
       </c>
       <c r="Z5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" s="46" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AB5" s="47" t="s">
+      <c r="AA5" s="35" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AB5" s="34" t="s">
         <v>998</v>
       </c>
       <c r="AH5" s="33" t="s">
@@ -21234,18 +21270,18 @@
         <v>998</v>
       </c>
       <c r="X6" s="35" t="s">
-        <v>1063</v>
-      </c>
-      <c r="Y6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA6" s="56" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AB6" s="46" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Z6" s="35" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AA6" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="35" t="s">
         <v>32</v>
       </c>
       <c r="AH6" s="33"/>
@@ -21314,19 +21350,19 @@
       <c r="W7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="63" t="s">
+      <c r="X7" s="55" t="s">
         <v>988</v>
       </c>
-      <c r="Y7" s="50" t="s">
+      <c r="Y7" s="48" t="s">
         <v>1044</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA7" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB7" s="46" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AA7" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AB7" s="35" t="s">
         <v>1016</v>
       </c>
       <c r="AH7" s="33"/>
@@ -21397,13 +21433,13 @@
       <c r="Y8" s="35" t="s">
         <v>1045</v>
       </c>
-      <c r="Z8" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA8" s="46" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AB8" s="46" t="s">
+      <c r="Z8" s="35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB8" s="35" t="s">
         <v>16</v>
       </c>
       <c r="AH8" s="33"/>
@@ -21470,12 +21506,14 @@
         <v>1046</v>
       </c>
       <c r="Z9" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA9" s="56" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AB9" s="45"/>
+        <v>1064</v>
+      </c>
+      <c r="AA9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="38" t="s">
+        <v>1073</v>
+      </c>
       <c r="AH9" s="33"/>
       <c r="AI9" s="33"/>
       <c r="AJ9" s="33"/>
@@ -21530,8 +21568,8 @@
       </c>
       <c r="X10" s="45"/>
       <c r="Z10" s="45"/>
-      <c r="AA10" s="47" t="s">
-        <v>56</v>
+      <c r="AA10" s="60" t="s">
+        <v>1069</v>
       </c>
       <c r="AB10" s="45"/>
       <c r="AH10" s="33"/>
@@ -21575,12 +21613,15 @@
         <v>104</v>
       </c>
       <c r="V11" s="8"/>
-      <c r="W11" s="50" t="s">
+      <c r="W11" s="48" t="s">
         <v>32</v>
       </c>
       <c r="X11" s="45"/>
       <c r="Y11" s="45"/>
       <c r="Z11" s="45"/>
+      <c r="AA11" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="AB11" s="45"/>
       <c r="AH11" s="33"/>
       <c r="AI11" s="33"/>
@@ -21660,7 +21701,7 @@
       <c r="Y13" s="45"/>
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
+      <c r="AB13" s="59"/>
       <c r="AH13" s="33"/>
       <c r="AI13" s="33"/>
       <c r="AJ13" s="33"/>
@@ -21726,7 +21767,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="49" t="s">
+      <c r="V15" s="47" t="s">
         <v>62</v>
       </c>
       <c r="W15" s="8"/>
@@ -21770,7 +21811,7 @@
       <c r="X16" s="45"/>
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
-      <c r="AA16" s="50" t="s">
+      <c r="AA16" s="48" t="s">
         <v>1013</v>
       </c>
       <c r="AB16" s="45"/>
@@ -21809,8 +21850,10 @@
       <c r="X17" s="45"/>
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="41" t="s">
+      <c r="AA17" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB17" s="40" t="s">
         <v>1001</v>
       </c>
       <c r="AH17" s="33"/>
@@ -21842,20 +21885,20 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="48" t="s">
+      <c r="W18" s="46" t="s">
         <v>25</v>
       </c>
       <c r="X18" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="Y18" s="53" t="s">
+      <c r="Y18" s="50" t="s">
         <v>25</v>
       </c>
       <c r="Z18" s="40" t="s">
         <v>104</v>
       </c>
       <c r="AA18" s="45"/>
-      <c r="AB18" s="53" t="s">
+      <c r="AB18" s="50" t="s">
         <v>25</v>
       </c>
       <c r="AH18" s="33"/>
@@ -21994,7 +22037,7 @@
       <c r="W22" s="8"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
-      <c r="Z22" s="51"/>
+      <c r="Z22" s="49"/>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45"/>
       <c r="AH22" s="33"/>
@@ -22983,6 +23026,11 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AH1:AI1"/>
@@ -22990,11 +23038,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -23043,10 +23086,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23064,7 +23107,7 @@
         <v>44603</v>
       </c>
       <c r="B2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -23078,7 +23121,7 @@
         <v>44603</v>
       </c>
       <c r="B3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C3">
         <v>129.9</v>
@@ -23092,7 +23135,7 @@
         <v>44603</v>
       </c>
       <c r="B4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -23106,7 +23149,7 @@
         <v>44603</v>
       </c>
       <c r="B5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -23120,7 +23163,7 @@
         <v>44603</v>
       </c>
       <c r="B6" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C6">
         <v>129.9</v>
@@ -23134,7 +23177,7 @@
         <v>44603</v>
       </c>
       <c r="B7" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C7">
         <v>110</v>
@@ -23143,7 +23186,7 @@
         <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -23151,13 +23194,41 @@
         <v>44604</v>
       </c>
       <c r="B8" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C8">
         <v>99.9</v>
       </c>
       <c r="D8" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="42">
+        <v>44604</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="42">
+        <v>44604</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C10">
+        <v>99.9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,10 @@
     <sheet name="PRESENÇA" sheetId="7" r:id="rId7"/>
     <sheet name="FACEBOOK" sheetId="8" r:id="rId8"/>
     <sheet name="acertaram" sheetId="9" r:id="rId9"/>
+    <sheet name="caderneta" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1083">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3241,9 +3243,6 @@
     <t>2,5 agua + 7,50 credito</t>
   </si>
   <si>
-    <t>cabelo, toomy</t>
-  </si>
-  <si>
     <t>priscila, theo</t>
   </si>
   <si>
@@ -3277,26 +3276,57 @@
     <t>Lorenzo Camargo de Mello</t>
   </si>
   <si>
-    <t>camilla, miguel</t>
-  </si>
-  <si>
     <t>marcelo, pedro</t>
   </si>
   <si>
-    <t>Eduardo (amigo Vitor)</t>
+    <t>Aluno, Sub13, Helio, Vitor (Eduardo)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub07, Camilla, Miguel (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub05, Fernanda, Davi (P)</t>
+  </si>
+  <si>
+    <t>cabelo, tommy</t>
+  </si>
+  <si>
+    <t>forma de pagamento</t>
+  </si>
+  <si>
+    <t>próximo pagamento</t>
+  </si>
+  <si>
+    <t>6,5 gatorade</t>
+  </si>
+  <si>
+    <t>camilla (flavio), miguel</t>
+  </si>
+  <si>
+    <t>aline (alisson), davi</t>
+  </si>
+  <si>
+    <t>fábio (gabriel)</t>
+  </si>
+  <si>
+    <t>carlos (pedro)</t>
+  </si>
+  <si>
+    <t>hélio (vitor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;R$ &quot;#,##0.00;[Red]&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3309,8 +3339,20 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3389,6 +3431,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3426,7 +3474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3494,7 +3542,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3503,17 +3550,21 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3884,27 +3935,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="76.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="13" width="16.26953125" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="76.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" customWidth="1"/>
+    <col min="17" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6756,6 +6807,94 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="43">
+        <v>44603</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C2" s="33">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43">
+        <v>44603</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C3" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="43">
+        <v>44604</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C4" s="33">
+        <f>5 + 5 + 2.5 + 2.5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="43">
+        <v>44604</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C5" s="33">
+        <f>5+2.5</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="43">
+        <v>44604</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C6" s="33">
+        <f xml:space="preserve"> 5 + 6.5</f>
+        <v>11.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE993"/>
@@ -6765,65 +6904,65 @@
       <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -6947,7 +7086,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I25" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 8 meses 9 dias</v>
+        <v>12 anos, 8 meses 11 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7015,7 +7154,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 12 dias</v>
+        <v>10 anos, 2 meses 14 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7089,7 +7228,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 12 dias</v>
+        <v>122 anos, 1 meses 14 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7145,7 +7284,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 12 dias</v>
+        <v>122 anos, 1 meses 14 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7211,7 +7350,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 9 meses 15 dias</v>
+        <v>13 anos, 9 meses 17 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -7283,7 +7422,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 5 meses 8 dias</v>
+        <v>8 anos, 5 meses 10 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -7355,7 +7494,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 1 meses 21 dias</v>
+        <v>9 anos, 1 meses 23 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -7421,7 +7560,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 25 dias</v>
+        <v>6 anos, 3 meses 27 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -7485,7 +7624,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 20 dias</v>
+        <v>5 anos, 7 meses 22 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -7559,7 +7698,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 9 dias</v>
+        <v>6 anos, 6 meses 11 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -7633,7 +7772,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 16 dias</v>
+        <v>5 anos, 3 meses 18 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -7707,7 +7846,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 10 dias</v>
+        <v>6 anos, 2 meses 12 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -7783,7 +7922,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 14 dias</v>
+        <v>6 anos, 0 meses 16 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -7853,7 +7992,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 7 dias</v>
+        <v>7 anos, 0 meses 9 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -7925,7 +8064,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 3 dias</v>
+        <v>5 anos, 7 meses 5 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -7999,7 +8138,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 25 dias</v>
+        <v>6 anos, 7 meses 27 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8073,7 +8212,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 3 meses 9 dias</v>
+        <v>12 anos, 3 meses 11 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8137,7 +8276,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 0 dias</v>
+        <v>11 anos, 1 meses 2 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8201,7 +8340,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 24 dias</v>
+        <v>5 anos, 4 meses 26 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -8265,7 +8404,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 1 dias</v>
+        <v>5 anos, 7 meses 3 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -8329,7 +8468,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 7 dias</v>
+        <v>6 anos, 1 meses 9 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -8383,7 +8522,7 @@
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 1 dias</v>
+        <v>5 anos, 10 meses 3 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -8426,18 +8565,18 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="45" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H25" s="59">
+        <v>1069</v>
+      </c>
+      <c r="H25" s="55">
         <v>41928</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 3 meses 24 dias</v>
+        <v>7 anos, 3 meses 26 dias</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>21</v>
@@ -9219,7 +9358,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ref="I48:I55" ca="1" si="1">DATEDIF(H48,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H48,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H48,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 4 meses 15 dias</v>
+        <v>3 anos, 4 meses 17 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>76</v>
@@ -9279,7 +9418,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 7 meses 10 dias</v>
+        <v>7 anos, 7 meses 12 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -9341,7 +9480,7 @@
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 8 meses 9 dias</v>
+        <v>10 anos, 8 meses 11 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -9403,7 +9542,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 7 meses 19 dias</v>
+        <v>8 anos, 7 meses 21 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>52</v>
@@ -9461,7 +9600,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 1 meses 12 dias</v>
+        <v>122 anos, 1 meses 14 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>21</v>
@@ -9529,7 +9668,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 4 meses 14 dias</v>
+        <v>10 anos, 4 meses 16 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -9591,7 +9730,7 @@
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 7 meses 5 dias</v>
+        <v>13 anos, 7 meses 7 dias</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>35</v>
@@ -9653,7 +9792,7 @@
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 9 meses 26 dias</v>
+        <v>7 anos, 10 meses 0 dias</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>52</v>
@@ -10870,14 +11009,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12060,13 +12199,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13606,18 +13745,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -16810,18 +16949,18 @@
       <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -19683,7 +19822,7 @@
       <c r="F127" s="33" t="s">
         <v>966</v>
       </c>
-      <c r="H127" s="52">
+      <c r="H127" s="51">
         <v>44597</v>
       </c>
       <c r="I127" s="33" t="s">
@@ -19708,7 +19847,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B129" s="53" t="s">
+      <c r="B129" s="52" t="s">
         <v>1027</v>
       </c>
       <c r="C129" s="43">
@@ -19720,7 +19859,7 @@
       <c r="F129" s="33" t="s">
         <v>1025</v>
       </c>
-      <c r="H129" s="52">
+      <c r="H129" s="51">
         <v>44596</v>
       </c>
       <c r="I129" s="33" t="s">
@@ -19740,7 +19879,7 @@
       <c r="F130" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="H130" s="52">
+      <c r="H130" s="51">
         <v>44596</v>
       </c>
       <c r="I130" s="33" t="s">
@@ -20743,98 +20882,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" customWidth="1"/>
-    <col min="19" max="19" width="32.7265625" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29" customWidth="1"/>
-    <col min="22" max="22" width="14.7265625" customWidth="1"/>
-    <col min="23" max="23" width="36" customWidth="1"/>
-    <col min="24" max="24" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.1796875" customWidth="1"/>
-    <col min="35" max="35" width="8.54296875" customWidth="1"/>
-    <col min="36" max="1026" width="14.453125" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
+    <col min="14" max="14" width="12" style="33" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
+    <col min="23" max="23" width="36" style="33" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.140625" customWidth="1"/>
+    <col min="35" max="35" width="8.5703125" customWidth="1"/>
+    <col min="36" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A1" s="58">
+      <c r="A1" s="62">
         <v>44541</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62">
         <v>44548</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62">
         <v>44569</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62">
         <v>44576</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62">
         <v>44583</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="57">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="63">
         <v>44596</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57">
+      <c r="T1" s="63"/>
+      <c r="U1" s="63">
         <v>44597</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57">
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63">
         <v>44603</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57">
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63">
         <v>44604</v>
       </c>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AH1" s="57">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AH1" s="63">
         <v>44610</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57">
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63">
         <v>44611</v>
       </c>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
     </row>
     <row r="2" spans="1:38" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -21005,22 +21144,22 @@
       <c r="W3" s="37" t="s">
         <v>1035</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="53" t="s">
         <v>96</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Z3" s="38" t="s">
         <v>973</v>
       </c>
-      <c r="AA3" s="54" t="s">
+      <c r="AA3" s="53" t="s">
         <v>1047</v>
       </c>
       <c r="AB3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="51" t="s">
+      <c r="AH3" s="50" t="s">
         <v>1012</v>
       </c>
       <c r="AI3" s="33" t="s">
@@ -21092,7 +21231,6 @@
       <c r="U4" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="V4" s="33"/>
       <c r="W4" s="38" t="s">
         <v>1037</v>
       </c>
@@ -21103,7 +21241,7 @@
         <v>1042</v>
       </c>
       <c r="Z4" s="35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AA4" s="38" t="s">
         <v>1007</v>
@@ -21179,14 +21317,13 @@
       <c r="U5" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="V5" s="33"/>
       <c r="W5" s="34" t="s">
         <v>995</v>
       </c>
       <c r="X5" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="54" t="s">
+      <c r="Y5" s="53" t="s">
         <v>1043</v>
       </c>
       <c r="Z5" s="34" t="s">
@@ -21195,8 +21332,8 @@
       <c r="AA5" s="35" t="s">
         <v>1048</v>
       </c>
-      <c r="AB5" s="34" t="s">
-        <v>998</v>
+      <c r="AB5" s="35" t="s">
+        <v>1062</v>
       </c>
       <c r="AH5" s="33" t="s">
         <v>1015</v>
@@ -21270,15 +21407,15 @@
         <v>998</v>
       </c>
       <c r="X6" s="35" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Y6" s="35" t="s">
         <v>1061</v>
       </c>
-      <c r="Y6" s="35" t="s">
-        <v>1062</v>
-      </c>
       <c r="Z6" s="35" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AA6" s="54" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AA6" s="53" t="s">
         <v>62</v>
       </c>
       <c r="AB6" s="35" t="s">
@@ -21350,14 +21487,14 @@
       <c r="W7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="55" t="s">
+      <c r="X7" s="54" t="s">
         <v>988</v>
       </c>
       <c r="Y7" s="48" t="s">
         <v>1044</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AA7" s="35" t="s">
         <v>1000</v>
@@ -21434,10 +21571,10 @@
         <v>1045</v>
       </c>
       <c r="Z8" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AA8" s="35" t="s">
-        <v>73</v>
+        <v>1072</v>
       </c>
       <c r="AB8" s="35" t="s">
         <v>16</v>
@@ -21506,13 +21643,13 @@
         <v>1046</v>
       </c>
       <c r="Z9" s="35" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AA9" s="34" t="s">
-        <v>56</v>
+        <v>1063</v>
+      </c>
+      <c r="AA9" s="35" t="s">
+        <v>1061</v>
       </c>
       <c r="AB9" s="38" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AH9" s="33"/>
       <c r="AI9" s="33"/>
@@ -21568,8 +21705,8 @@
       </c>
       <c r="X10" s="45"/>
       <c r="Z10" s="45"/>
-      <c r="AA10" s="60" t="s">
-        <v>1069</v>
+      <c r="AA10" s="38" t="s">
+        <v>1068</v>
       </c>
       <c r="AB10" s="45"/>
       <c r="AH10" s="33"/>
@@ -21619,8 +21756,8 @@
       <c r="X11" s="45"/>
       <c r="Y11" s="45"/>
       <c r="Z11" s="45"/>
-      <c r="AA11" s="54" t="s">
-        <v>96</v>
+      <c r="AA11" s="53" t="s">
+        <v>1073</v>
       </c>
       <c r="AB11" s="45"/>
       <c r="AH11" s="33"/>
@@ -21701,7 +21838,7 @@
       <c r="Y13" s="45"/>
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
-      <c r="AB13" s="59"/>
+      <c r="AB13" s="55"/>
       <c r="AH13" s="33"/>
       <c r="AI13" s="33"/>
       <c r="AJ13" s="33"/>
@@ -21811,9 +21948,6 @@
       <c r="X16" s="45"/>
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
-      <c r="AA16" s="48" t="s">
-        <v>1013</v>
-      </c>
       <c r="AB16" s="45"/>
       <c r="AH16" s="33"/>
       <c r="AI16" s="33"/>
@@ -21850,12 +21984,6 @@
       <c r="X17" s="45"/>
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
-      <c r="AA17" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>1001</v>
-      </c>
       <c r="AH17" s="33"/>
       <c r="AI17" s="33"/>
       <c r="AJ17" s="33"/>
@@ -21891,16 +22019,7 @@
       <c r="X18" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="Y18" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z18" s="40" t="s">
-        <v>104</v>
-      </c>
       <c r="AA18" s="45"/>
-      <c r="AB18" s="50" t="s">
-        <v>25</v>
-      </c>
       <c r="AH18" s="33"/>
       <c r="AI18" s="33"/>
       <c r="AJ18" s="33"/>
@@ -22003,8 +22122,12 @@
       <c r="X21" s="45"/>
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
+      <c r="AA21" s="48" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AB21" s="40" t="s">
+        <v>1001</v>
+      </c>
       <c r="AH21" s="33"/>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="33"/>
@@ -22036,10 +22159,18 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
+      <c r="Y22" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA22" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB22" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="AH22" s="33"/>
       <c r="AI22" s="33"/>
       <c r="AJ22" s="33"/>
@@ -23026,11 +23157,6 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AH1:AI1"/>
@@ -23038,6 +23164,11 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -23052,9 +23183,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23086,152 +23217,194 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="56" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="42">
+      <c r="B1" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="43">
         <v>44603</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="45" t="s">
         <v>1053</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="58">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="33" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="42">
+      <c r="E2" s="43">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="43">
         <v>44603</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="45" t="s">
         <v>1054</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="58">
         <v>129.9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="42">
+    <row r="4" spans="1:6">
+      <c r="A4" s="43">
         <v>44603</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="45" t="s">
         <v>1055</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="58">
+        <v>129</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43">
+        <v>44603</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C5" s="58">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43">
+        <v>44603</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C6" s="58">
+        <v>137</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="42">
+      <c r="F6" s="59" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="43">
         <v>44603</v>
       </c>
-      <c r="B5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C5">
+      <c r="B7" s="45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C7" s="58">
+        <v>110</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="43">
+        <v>44604</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C8" s="58">
+        <v>99.9</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="43">
+        <v>44604</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C9" s="58">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="42">
-        <v>44603</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C6">
-        <v>129.9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D9" s="33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="42">
-        <v>44603</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C7">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="43">
+        <v>44604</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C10" s="58">
+        <v>99.9</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="43">
+        <v>44606</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C11" s="58">
+        <v>99.9</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E7" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="42">
-        <v>44604</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C8">
-        <v>99.9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="42">
-        <v>44604</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="42">
-        <v>44604</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C10">
-        <v>99.9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>221</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F10"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1099">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3313,6 +3313,54 @@
   </si>
   <si>
     <t>hélio (vitor)</t>
+  </si>
+  <si>
+    <t>segunda quinzena de março</t>
+  </si>
+  <si>
+    <t>(15) 97403-1178 (P)</t>
+  </si>
+  <si>
+    <t>(15) 99723-6562 (P)</t>
+  </si>
+  <si>
+    <t>(11) 97507-3311 (P)</t>
+  </si>
+  <si>
+    <t>Aluno, Sub05, Eder, Theo (P)</t>
+  </si>
+  <si>
+    <t>Enzo Yatsugafo Nakagawa</t>
+  </si>
+  <si>
+    <t>(11) 96560-7209</t>
+  </si>
+  <si>
+    <t>Fernando Kiyoshi Nakagawa</t>
+  </si>
+  <si>
+    <t>329.949.808-86</t>
+  </si>
+  <si>
+    <t>Avenida Darci Dafferner, 151 - bloco 03 - apartamento 304</t>
+  </si>
+  <si>
+    <t>kiyoshinakagawa@hotmail.com</t>
+  </si>
+  <si>
+    <t>Enrico Ferreira Guarisi</t>
+  </si>
+  <si>
+    <t>Luis Gustavo Guarisi</t>
+  </si>
+  <si>
+    <t>248.061.588-01</t>
+  </si>
+  <si>
+    <t>Rua Alexsandro Bueno, quadra b13 - lote 08 - Ibity Royal Park</t>
+  </si>
+  <si>
+    <t>lgguarisi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3352,7 +3400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3427,12 +3475,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3474,7 +3516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3543,7 +3585,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3551,8 +3592,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3560,11 +3601,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3935,27 +3983,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="76.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="76.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="13" width="16.26953125" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="17" max="18" width="8.26953125" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="25" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6811,14 +6859,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="33"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6899,70 +6947,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE993"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="61" t="s">
+      <c r="AC1" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7085,8 +7133,8 @@
         <v>39967</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I25" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 8 meses 11 dias</v>
+        <f t="shared" ref="I3:I27" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
+        <v>12 anos, 8 meses 15 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7154,7 +7202,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 14 dias</v>
+        <v>10 anos, 2 meses 18 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7228,7 +7276,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 14 dias</v>
+        <v>122 anos, 1 meses 18 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7284,7 +7332,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 14 dias</v>
+        <v>122 anos, 1 meses 18 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7350,7 +7398,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 9 meses 17 dias</v>
+        <v>13 anos, 9 meses 21 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -7422,7 +7470,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 5 meses 10 dias</v>
+        <v>8 anos, 5 meses 14 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -7494,7 +7542,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 1 meses 23 dias</v>
+        <v>9 anos, 1 meses 27 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -7560,7 +7608,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 27 dias</v>
+        <v>6 anos, 4 meses 3 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -7624,7 +7672,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 22 dias</v>
+        <v>5 anos, 7 meses 26 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -7698,7 +7746,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 11 dias</v>
+        <v>6 anos, 6 meses 15 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -7772,7 +7820,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 18 dias</v>
+        <v>5 anos, 3 meses 22 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -7846,7 +7894,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 12 dias</v>
+        <v>6 anos, 2 meses 16 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -7922,7 +7970,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 16 dias</v>
+        <v>6 anos, 0 meses 20 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -7992,7 +8040,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 9 dias</v>
+        <v>7 anos, 0 meses 13 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8064,7 +8112,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 5 dias</v>
+        <v>5 anos, 7 meses 9 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8138,7 +8186,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 27 dias</v>
+        <v>6 anos, 8 meses 3 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8212,7 +8260,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 3 meses 11 dias</v>
+        <v>12 anos, 3 meses 15 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8276,7 +8324,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 2 dias</v>
+        <v>11 anos, 1 meses 6 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8340,7 +8388,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 26 dias</v>
+        <v>5 anos, 5 meses 2 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -8404,7 +8452,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 3 dias</v>
+        <v>5 anos, 7 meses 7 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -8468,7 +8516,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 9 dias</v>
+        <v>6 anos, 1 meses 13 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -8522,7 +8570,7 @@
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 3 dias</v>
+        <v>5 anos, 10 meses 7 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -8571,12 +8619,12 @@
       <c r="G25" s="45" t="s">
         <v>1069</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="54">
         <v>41928</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 3 meses 26 dias</v>
+        <v>7 anos, 4 meses 2 dias</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>21</v>
@@ -8608,15 +8656,34 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="A26" s="66" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H26" s="30">
+        <v>42877</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4 anos, 8 meses 24 dias</v>
+      </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -8641,15 +8708,32 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="66" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>988</v>
+      </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="66" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H27" s="30">
+        <v>42482</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5 anos, 9 meses 24 dias</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -9358,7 +9442,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ref="I48:I55" ca="1" si="1">DATEDIF(H48,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H48,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H48,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 4 meses 17 dias</v>
+        <v>3 anos, 4 meses 21 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>76</v>
@@ -9418,7 +9502,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 7 meses 12 dias</v>
+        <v>7 anos, 7 meses 16 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -9480,7 +9564,7 @@
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 8 meses 11 dias</v>
+        <v>10 anos, 8 meses 15 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -9542,7 +9626,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 7 meses 21 dias</v>
+        <v>8 anos, 7 meses 25 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>52</v>
@@ -9600,7 +9684,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 1 meses 14 dias</v>
+        <v>122 anos, 1 meses 18 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>21</v>
@@ -9668,7 +9752,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 4 meses 16 dias</v>
+        <v>10 anos, 4 meses 20 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -9730,7 +9814,7 @@
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 7 meses 7 dias</v>
+        <v>13 anos, 7 meses 11 dias</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>35</v>
@@ -9792,7 +9876,7 @@
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 0 dias</v>
+        <v>7 anos, 10 meses 4 dias</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>52</v>
@@ -11009,14 +11093,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="1" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12199,13 +12283,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13745,18 +13829,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="51.7265625" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="17" width="9.1796875" customWidth="1"/>
+    <col min="18" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -16945,22 +17029,22 @@
   <dimension ref="A1:K999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -19394,7 +19478,7 @@
         <v>383</v>
       </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="12" t="s">
+      <c r="F108" s="63" t="s">
         <v>904</v>
       </c>
       <c r="G108" s="8"/>
@@ -19822,7 +19906,7 @@
       <c r="F127" s="33" t="s">
         <v>966</v>
       </c>
-      <c r="H127" s="51">
+      <c r="H127" s="50">
         <v>44597</v>
       </c>
       <c r="I127" s="33" t="s">
@@ -19847,7 +19931,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B129" s="52" t="s">
+      <c r="B129" s="51" t="s">
         <v>1027</v>
       </c>
       <c r="C129" s="43">
@@ -19859,7 +19943,7 @@
       <c r="F129" s="33" t="s">
         <v>1025</v>
       </c>
-      <c r="H129" s="51">
+      <c r="H129" s="50">
         <v>44596</v>
       </c>
       <c r="I129" s="33" t="s">
@@ -19879,7 +19963,7 @@
       <c r="F130" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="H130" s="51">
+      <c r="H130" s="50">
         <v>44596</v>
       </c>
       <c r="I130" s="33" t="s">
@@ -20008,8 +20092,16 @@
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="13.5" customHeight="1"/>
-    <row r="138" spans="2:9" ht="13.5" customHeight="1"/>
+    <row r="137" spans="2:9" ht="13.5" customHeight="1">
+      <c r="F137" s="33" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="13.5" customHeight="1">
+      <c r="F138" s="33" t="s">
+        <v>1015</v>
+      </c>
+    </row>
     <row r="139" spans="2:9" ht="13.5" customHeight="1"/>
     <row r="140" spans="2:9" ht="13.5" customHeight="1"/>
     <row r="141" spans="2:9" ht="13.5" customHeight="1"/>
@@ -20880,43 +20972,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL1000"/>
+  <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" customWidth="1"/>
-    <col min="35" max="35" width="8.5703125" customWidth="1"/>
-    <col min="36" max="1026" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="1026" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="13.5" customHeight="1">
+    <row r="1" spans="1:40" ht="13.5" customHeight="1">
       <c r="A1" s="62">
         <v>44541</v>
       </c>
@@ -20947,35 +21039,38 @@
       </c>
       <c r="Q1" s="62"/>
       <c r="R1" s="62"/>
-      <c r="S1" s="63">
+      <c r="S1" s="61">
         <v>44596</v>
       </c>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63">
+      <c r="T1" s="61"/>
+      <c r="U1" s="61">
         <v>44597</v>
       </c>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63">
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61">
         <v>44603</v>
       </c>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61">
         <v>44604</v>
       </c>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AH1" s="63">
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61">
         <v>44610</v>
       </c>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63">
+      <c r="AD1" s="61"/>
+      <c r="AJ1" s="61">
         <v>44611</v>
       </c>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-    </row>
-    <row r="2" spans="1:38" ht="13.5" customHeight="1">
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AN1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>956</v>
       </c>
@@ -21060,10 +21155,10 @@
       <c r="AB2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>958</v>
       </c>
       <c r="AJ2" s="4" t="s">
@@ -21075,8 +21170,11 @@
       <c r="AL2" s="4" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" ht="13.5" customHeight="1">
+      <c r="AN2" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="13.5" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>959</v>
       </c>
@@ -21144,7 +21242,7 @@
       <c r="W3" s="37" t="s">
         <v>1035</v>
       </c>
-      <c r="X3" s="53" t="s">
+      <c r="X3" s="52" t="s">
         <v>96</v>
       </c>
       <c r="Y3" s="35" t="s">
@@ -21153,25 +21251,30 @@
       <c r="Z3" s="38" t="s">
         <v>973</v>
       </c>
-      <c r="AA3" s="53" t="s">
+      <c r="AA3" s="52" t="s">
         <v>1047</v>
       </c>
       <c r="AB3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="50" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AC3" s="65" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AD3" s="59" t="s">
+        <v>998</v>
+      </c>
+      <c r="AJ3" s="33" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AK3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="33"/>
+      <c r="AN3" s="33" t="s">
         <v>1024</v>
       </c>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL3" s="33"/>
-    </row>
-    <row r="4" spans="1:38" ht="13.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:40" ht="13.5" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>968</v>
       </c>
@@ -21249,15 +21352,19 @@
       <c r="AB4" s="34" t="s">
         <v>995</v>
       </c>
-      <c r="AH4" s="33" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AI4" s="33"/>
+      <c r="AC4" s="65" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AD4" s="45" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
+      <c r="AK4" s="33" t="s">
+        <v>1084</v>
+      </c>
       <c r="AL4" s="33"/>
     </row>
-    <row r="5" spans="1:38" ht="13.5" customHeight="1">
+    <row r="5" spans="1:40" ht="13.5" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>975</v>
       </c>
@@ -21323,7 +21430,7 @@
       <c r="X5" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="53" t="s">
+      <c r="Y5" s="52" t="s">
         <v>1043</v>
       </c>
       <c r="Z5" s="34" t="s">
@@ -21335,15 +21442,17 @@
       <c r="AB5" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="AH5" s="33" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AI5" s="33"/>
+      <c r="AC5" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AD5" s="59" t="s">
+        <v>1045</v>
+      </c>
       <c r="AJ5" s="33"/>
       <c r="AK5" s="33"/>
       <c r="AL5" s="33"/>
     </row>
-    <row r="6" spans="1:38" ht="13.5" customHeight="1">
+    <row r="6" spans="1:40" ht="13.5" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>984</v>
       </c>
@@ -21415,19 +21524,23 @@
       <c r="Z6" s="35" t="s">
         <v>1066</v>
       </c>
-      <c r="AA6" s="53" t="s">
+      <c r="AA6" s="52" t="s">
         <v>62</v>
       </c>
       <c r="AB6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
+      <c r="AC6" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" s="59" t="s">
+        <v>1046</v>
+      </c>
       <c r="AJ6" s="33"/>
       <c r="AK6" s="33"/>
       <c r="AL6" s="33"/>
     </row>
-    <row r="7" spans="1:38" ht="13.5" customHeight="1">
+    <row r="7" spans="1:40" ht="13.5" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>989</v>
       </c>
@@ -21487,7 +21600,7 @@
       <c r="W7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="54" t="s">
+      <c r="X7" s="53" t="s">
         <v>988</v>
       </c>
       <c r="Y7" s="48" t="s">
@@ -21502,13 +21615,17 @@
       <c r="AB7" s="35" t="s">
         <v>1016</v>
       </c>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
+      <c r="AC7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD7" s="64" t="s">
+        <v>25</v>
+      </c>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="33"/>
       <c r="AL7" s="33"/>
     </row>
-    <row r="8" spans="1:38" ht="13.5" customHeight="1">
+    <row r="8" spans="1:40" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>830</v>
       </c>
@@ -21579,13 +21696,15 @@
       <c r="AB8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
+      <c r="AC8" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD8" s="33"/>
       <c r="AJ8" s="33"/>
       <c r="AK8" s="33"/>
       <c r="AL8" s="33"/>
     </row>
-    <row r="9" spans="1:38" ht="13.5" customHeight="1">
+    <row r="9" spans="1:40" ht="13.5" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>960</v>
       </c>
@@ -21651,13 +21770,15 @@
       <c r="AB9" s="38" t="s">
         <v>1071</v>
       </c>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
+      <c r="AC9" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD9" s="33"/>
       <c r="AJ9" s="33"/>
       <c r="AK9" s="33"/>
       <c r="AL9" s="33"/>
     </row>
-    <row r="10" spans="1:38" ht="13.5" customHeight="1">
+    <row r="10" spans="1:40" ht="13.5" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>118</v>
       </c>
@@ -21709,13 +21830,13 @@
         <v>1068</v>
       </c>
       <c r="AB10" s="45"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
       <c r="AJ10" s="33"/>
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
     </row>
-    <row r="11" spans="1:38" ht="13.5" customHeight="1">
+    <row r="11" spans="1:40" ht="13.5" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>999</v>
       </c>
@@ -21756,17 +21877,17 @@
       <c r="X11" s="45"/>
       <c r="Y11" s="45"/>
       <c r="Z11" s="45"/>
-      <c r="AA11" s="53" t="s">
+      <c r="AA11" s="52" t="s">
         <v>1073</v>
       </c>
       <c r="AB11" s="45"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
       <c r="AJ11" s="33"/>
       <c r="AK11" s="33"/>
       <c r="AL11" s="33"/>
     </row>
-    <row r="12" spans="1:38" ht="13.5" customHeight="1">
+    <row r="12" spans="1:40" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>986</v>
       </c>
@@ -21802,13 +21923,13 @@
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
       <c r="AB12" s="45"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
       <c r="AL12" s="33"/>
     </row>
-    <row r="13" spans="1:38" ht="13.5" customHeight="1">
+    <row r="13" spans="1:40" ht="13.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -21838,14 +21959,16 @@
       <c r="Y13" s="45"/>
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
-      <c r="AB13" s="55"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="48" t="s">
+        <v>1042</v>
+      </c>
       <c r="AJ13" s="33"/>
       <c r="AK13" s="33"/>
       <c r="AL13" s="33"/>
     </row>
-    <row r="14" spans="1:38" ht="13.5" customHeight="1">
+    <row r="14" spans="1:40" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -21876,13 +21999,17 @@
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
       <c r="AB14" s="45"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="48" t="s">
+        <v>62</v>
+      </c>
       <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
+      <c r="AK14" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="AL14" s="33"/>
     </row>
-    <row r="15" spans="1:38" ht="13.5" customHeight="1">
+    <row r="15" spans="1:40" ht="13.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -21913,13 +22040,19 @@
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
       <c r="AB15" s="45"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
+      <c r="AC15" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="AD15" s="48" t="s">
+        <v>1000</v>
+      </c>
       <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
+      <c r="AK15" s="33" t="s">
+        <v>1000</v>
+      </c>
       <c r="AL15" s="33"/>
     </row>
-    <row r="16" spans="1:38" ht="13.5" customHeight="1">
+    <row r="16" spans="1:40" ht="13.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -21949,8 +22082,10 @@
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
       <c r="AB16" s="45"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
+      <c r="AC16" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD16" s="33"/>
       <c r="AJ16" s="33"/>
       <c r="AK16" s="33"/>
       <c r="AL16" s="33"/>
@@ -21984,8 +22119,8 @@
       <c r="X17" s="45"/>
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
       <c r="AJ17" s="33"/>
       <c r="AK17" s="33"/>
       <c r="AL17" s="33"/>
@@ -22020,8 +22155,8 @@
         <v>100</v>
       </c>
       <c r="AA18" s="45"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
       <c r="AJ18" s="33"/>
       <c r="AK18" s="33"/>
       <c r="AL18" s="33"/>
@@ -22055,8 +22190,8 @@
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
       <c r="AB19" s="45"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
       <c r="AJ19" s="33"/>
       <c r="AK19" s="33"/>
       <c r="AL19" s="33"/>
@@ -22090,8 +22225,8 @@
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
       <c r="AJ20" s="33"/>
       <c r="AK20" s="33"/>
       <c r="AL20" s="33"/>
@@ -22128,8 +22263,8 @@
       <c r="AB21" s="40" t="s">
         <v>1001</v>
       </c>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
       <c r="AJ21" s="33"/>
       <c r="AK21" s="33"/>
       <c r="AL21" s="33"/>
@@ -22171,8 +22306,8 @@
       <c r="AB22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
       <c r="AJ22" s="33"/>
       <c r="AK22" s="33"/>
       <c r="AL22" s="33"/>
@@ -23157,21 +23292,21 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Z1:AB1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23183,9 +23318,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23223,33 +23358,33 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="33"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>1075</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>1076</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>165</v>
       </c>
     </row>
@@ -23260,7 +23395,7 @@
       <c r="B2" s="45" t="s">
         <v>1053</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="57">
         <v>100</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -23277,7 +23412,7 @@
       <c r="B3" s="45" t="s">
         <v>1054</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="57">
         <v>129.9</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -23291,7 +23426,7 @@
       <c r="B4" s="45" t="s">
         <v>1055</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="57">
         <v>129</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -23305,7 +23440,7 @@
       <c r="B5" s="45" t="s">
         <v>1052</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="57">
         <v>100</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -23319,13 +23454,13 @@
       <c r="B6" s="45" t="s">
         <v>1056</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <v>137</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -23336,7 +23471,7 @@
       <c r="B7" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="57">
         <v>110</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -23353,7 +23488,7 @@
       <c r="B8" s="45" t="s">
         <v>1059</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="57">
         <v>99.9</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -23364,10 +23499,10 @@
       <c r="A9" s="43">
         <v>44604</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>1078</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="57">
         <v>100</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -23381,7 +23516,7 @@
       <c r="B10" s="45" t="s">
         <v>1070</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="57">
         <v>99.9</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -23395,7 +23530,7 @@
       <c r="B11" s="33" t="s">
         <v>1079</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="57">
         <v>99.9</v>
       </c>
       <c r="D11" s="33" t="s">

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="1106">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3361,6 +3361,27 @@
   </si>
   <si>
     <t>lgguarisi@gmail.com</t>
+  </si>
+  <si>
+    <t>paulo (gabriel)</t>
+  </si>
+  <si>
+    <t>10,00 cerveja</t>
+  </si>
+  <si>
+    <t>luis, enrico</t>
+  </si>
+  <si>
+    <t>fernando, enzo</t>
+  </si>
+  <si>
+    <t>helio (vitor)</t>
+  </si>
+  <si>
+    <t>eder (theo)</t>
+  </si>
+  <si>
+    <t>fabio (gabriel)</t>
   </si>
 </sst>
 </file>
@@ -3597,22 +3618,22 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3983,27 +4004,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="76.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="13" width="16.26953125" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="76.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" customWidth="1"/>
+    <col min="17" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6857,16 +6878,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" style="33"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6936,6 +6957,39 @@
       <c r="C6" s="33">
         <f xml:space="preserve"> 5 + 6.5</f>
         <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="43">
+        <v>44610</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="43">
+        <v>44610</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="43">
+        <v>44610</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C9" s="33">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6947,70 +7001,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="60" t="s">
+      <c r="AC1" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7134,7 +7188,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I27" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 8 meses 15 dias</v>
+        <v>12 anos, 8 meses 16 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7202,7 +7256,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 18 dias</v>
+        <v>10 anos, 2 meses 19 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7276,7 +7330,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 18 dias</v>
+        <v>122 anos, 1 meses 19 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7332,7 +7386,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 18 dias</v>
+        <v>122 anos, 1 meses 19 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7398,7 +7452,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 9 meses 21 dias</v>
+        <v>13 anos, 9 meses 22 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -7470,7 +7524,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 5 meses 14 dias</v>
+        <v>8 anos, 5 meses 15 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -7542,7 +7596,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 1 meses 27 dias</v>
+        <v>9 anos, 2 meses 0 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -7608,7 +7662,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 3 dias</v>
+        <v>6 anos, 4 meses 4 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -7672,7 +7726,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 26 dias</v>
+        <v>5 anos, 7 meses 27 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -7746,7 +7800,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 15 dias</v>
+        <v>6 anos, 6 meses 16 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -7820,7 +7874,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 22 dias</v>
+        <v>5 anos, 3 meses 23 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -7894,7 +7948,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 16 dias</v>
+        <v>6 anos, 2 meses 17 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -7970,7 +8024,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 20 dias</v>
+        <v>6 anos, 0 meses 21 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -8040,7 +8094,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 13 dias</v>
+        <v>7 anos, 0 meses 14 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8112,7 +8166,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 9 dias</v>
+        <v>5 anos, 7 meses 10 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8186,7 +8240,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 3 dias</v>
+        <v>6 anos, 8 meses 4 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8260,7 +8314,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 3 meses 15 dias</v>
+        <v>12 anos, 3 meses 16 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8324,7 +8378,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 6 dias</v>
+        <v>11 anos, 1 meses 7 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8388,7 +8442,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 2 dias</v>
+        <v>5 anos, 5 meses 3 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -8452,7 +8506,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 7 dias</v>
+        <v>5 anos, 7 meses 8 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -8516,7 +8570,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 13 dias</v>
+        <v>6 anos, 1 meses 14 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -8570,7 +8624,7 @@
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 7 dias</v>
+        <v>5 anos, 10 meses 8 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -8624,7 +8678,7 @@
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 2 dias</v>
+        <v>7 anos, 4 meses 3 dias</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>21</v>
@@ -8656,25 +8710,25 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="62" t="s">
         <v>1090</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="62" t="s">
         <v>1091</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="62" t="s">
         <v>1092</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="62" t="s">
         <v>1093</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="62" t="s">
         <v>1012</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="62" t="s">
         <v>1089</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="62" t="s">
         <v>1088</v>
       </c>
       <c r="H26" s="30">
@@ -8682,7 +8736,7 @@
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 8 meses 24 dias</v>
+        <v>4 anos, 8 meses 25 dias</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -8708,23 +8762,23 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="62" t="s">
         <v>1095</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="62" t="s">
         <v>1096</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="63" t="s">
         <v>1097</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="62" t="s">
         <v>1098</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="62" t="s">
         <v>988</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="62" t="s">
         <v>1094</v>
       </c>
       <c r="H27" s="30">
@@ -8732,7 +8786,7 @@
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 24 dias</v>
+        <v>5 anos, 9 meses 25 dias</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -9442,7 +9496,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ref="I48:I55" ca="1" si="1">DATEDIF(H48,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H48,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H48,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 4 meses 21 dias</v>
+        <v>3 anos, 4 meses 22 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>76</v>
@@ -9502,7 +9556,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 7 meses 16 dias</v>
+        <v>7 anos, 7 meses 17 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -9564,7 +9618,7 @@
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 8 meses 15 dias</v>
+        <v>10 anos, 8 meses 16 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -9626,7 +9680,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 7 meses 25 dias</v>
+        <v>8 anos, 7 meses 26 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>52</v>
@@ -9684,7 +9738,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 1 meses 18 dias</v>
+        <v>122 anos, 1 meses 19 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>21</v>
@@ -9752,7 +9806,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 4 meses 20 dias</v>
+        <v>10 anos, 4 meses 21 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -9814,7 +9868,7 @@
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 7 meses 11 dias</v>
+        <v>13 anos, 7 meses 12 dias</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>35</v>
@@ -9876,7 +9930,7 @@
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 4 dias</v>
+        <v>7 anos, 10 meses 5 dias</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>52</v>
@@ -11093,14 +11147,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12283,13 +12337,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13829,18 +13883,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17033,18 +17087,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -19478,7 +19532,7 @@
         <v>383</v>
       </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="63" t="s">
+      <c r="F108" s="60" t="s">
         <v>904</v>
       </c>
       <c r="G108" s="8"/>
@@ -20974,98 +21028,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="1026" width="14.453125" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="14.42578125" customWidth="1"/>
+    <col min="39" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" customHeight="1">
-      <c r="A1" s="62">
+      <c r="A1" s="65">
         <v>44541</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65">
         <v>44548</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65">
         <v>44569</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62">
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65">
         <v>44576</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65">
         <v>44583</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="61">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="66">
         <v>44596</v>
       </c>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61">
+      <c r="T1" s="66"/>
+      <c r="U1" s="66">
         <v>44597</v>
       </c>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61">
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66">
         <v>44603</v>
       </c>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61">
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66">
         <v>44604</v>
       </c>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61">
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66">
         <v>44610</v>
       </c>
-      <c r="AD1" s="61"/>
-      <c r="AJ1" s="61">
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66">
         <v>44611</v>
       </c>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
       <c r="AN1" t="s">
         <v>1083</v>
       </c>
@@ -21161,13 +21216,13 @@
       <c r="AD2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>958</v>
       </c>
       <c r="AN2" s="4" t="s">
@@ -21257,19 +21312,19 @@
       <c r="AB3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="65" t="s">
+      <c r="AC3" s="61" t="s">
         <v>1086</v>
       </c>
-      <c r="AD3" s="59" t="s">
+      <c r="AD3" s="61" t="s">
         <v>998</v>
       </c>
-      <c r="AJ3" s="33" t="s">
+      <c r="AE3" s="33" t="s">
         <v>1087</v>
       </c>
-      <c r="AK3" s="31" t="s">
+      <c r="AF3" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="33"/>
+      <c r="AG3" s="33"/>
       <c r="AN3" s="33" t="s">
         <v>1024</v>
       </c>
@@ -21352,17 +21407,17 @@
       <c r="AB4" s="34" t="s">
         <v>995</v>
       </c>
-      <c r="AC4" s="65" t="s">
+      <c r="AC4" s="61" t="s">
         <v>1085</v>
       </c>
-      <c r="AD4" s="45" t="s">
+      <c r="AD4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33" t="s">
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33" t="s">
         <v>1084</v>
       </c>
-      <c r="AL4" s="33"/>
+      <c r="AG4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="13.5" customHeight="1">
       <c r="A5" s="23" t="s">
@@ -21445,12 +21500,12 @@
       <c r="AC5" s="35" t="s">
         <v>1087</v>
       </c>
-      <c r="AD5" s="59" t="s">
+      <c r="AD5" s="61" t="s">
         <v>1045</v>
       </c>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
     </row>
     <row r="6" spans="1:40" ht="13.5" customHeight="1">
       <c r="A6" s="23" t="s">
@@ -21533,12 +21588,12 @@
       <c r="AC6" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="AD6" s="59" t="s">
+      <c r="AD6" s="61" t="s">
         <v>1046</v>
       </c>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
     </row>
     <row r="7" spans="1:40" ht="13.5" customHeight="1">
       <c r="A7" s="23" t="s">
@@ -21618,12 +21673,12 @@
       <c r="AC7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AD7" s="64" t="s">
+      <c r="AD7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
     </row>
     <row r="8" spans="1:40" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
@@ -21700,9 +21755,9 @@
         <v>109</v>
       </c>
       <c r="AD8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
     </row>
     <row r="9" spans="1:40" ht="13.5" customHeight="1">
       <c r="A9" s="23" t="s">
@@ -21770,13 +21825,13 @@
       <c r="AB9" s="38" t="s">
         <v>1071</v>
       </c>
-      <c r="AC9" s="65" t="s">
+      <c r="AC9" s="61" t="s">
         <v>319</v>
       </c>
       <c r="AD9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
     </row>
     <row r="10" spans="1:40" ht="13.5" customHeight="1">
       <c r="A10" s="24" t="s">
@@ -21832,9 +21887,9 @@
       <c r="AB10" s="45"/>
       <c r="AC10" s="33"/>
       <c r="AD10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
     </row>
     <row r="11" spans="1:40" ht="13.5" customHeight="1">
       <c r="A11" s="24" t="s">
@@ -21883,9 +21938,9 @@
       <c r="AB11" s="45"/>
       <c r="AC11" s="33"/>
       <c r="AD11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
     </row>
     <row r="12" spans="1:40" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
@@ -21925,9 +21980,9 @@
       <c r="AB12" s="45"/>
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
     </row>
     <row r="13" spans="1:40" ht="13.5" customHeight="1">
       <c r="A13" s="8"/>
@@ -21964,9 +22019,9 @@
       <c r="AD13" s="48" t="s">
         <v>1042</v>
       </c>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
     </row>
     <row r="14" spans="1:40" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
@@ -22003,11 +22058,11 @@
       <c r="AD14" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33" t="s">
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AL14" s="33"/>
+      <c r="AG14" s="33"/>
     </row>
     <row r="15" spans="1:40" ht="13.5" customHeight="1">
       <c r="A15" s="8"/>
@@ -22046,11 +22101,11 @@
       <c r="AD15" s="48" t="s">
         <v>1000</v>
       </c>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33" t="s">
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33" t="s">
         <v>1000</v>
       </c>
-      <c r="AL15" s="33"/>
+      <c r="AG15" s="33"/>
     </row>
     <row r="16" spans="1:40" ht="13.5" customHeight="1">
       <c r="A16" s="8"/>
@@ -22082,15 +22137,15 @@
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
       <c r="AB16" s="45"/>
-      <c r="AC16" s="37" t="s">
+      <c r="AC16" s="49" t="s">
         <v>314</v>
       </c>
       <c r="AD16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-    </row>
-    <row r="17" spans="1:38" ht="13.5" customHeight="1">
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+    </row>
+    <row r="17" spans="1:33" ht="13.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -22121,11 +22176,11 @@
       <c r="Z17" s="45"/>
       <c r="AC17" s="33"/>
       <c r="AD17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-    </row>
-    <row r="18" spans="1:38" ht="13.5" customHeight="1">
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+    </row>
+    <row r="18" spans="1:33" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -22157,11 +22212,11 @@
       <c r="AA18" s="45"/>
       <c r="AC18" s="33"/>
       <c r="AD18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-    </row>
-    <row r="19" spans="1:38" ht="13.5" customHeight="1">
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+    </row>
+    <row r="19" spans="1:33" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -22192,11 +22247,11 @@
       <c r="AB19" s="45"/>
       <c r="AC19" s="33"/>
       <c r="AD19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-    </row>
-    <row r="20" spans="1:38" ht="13.5" customHeight="1">
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+    </row>
+    <row r="20" spans="1:33" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22227,11 +22282,11 @@
       <c r="AB20" s="45"/>
       <c r="AC20" s="33"/>
       <c r="AD20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-    </row>
-    <row r="21" spans="1:38" ht="13.5" customHeight="1">
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+    </row>
+    <row r="21" spans="1:33" ht="13.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -22265,11 +22320,11 @@
       </c>
       <c r="AC21" s="33"/>
       <c r="AD21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-    </row>
-    <row r="22" spans="1:38" ht="13.5" customHeight="1">
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+    </row>
+    <row r="22" spans="1:33" ht="13.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -22308,20 +22363,20 @@
       </c>
       <c r="AC22" s="33"/>
       <c r="AD22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-    </row>
-    <row r="23" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:38" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:38" ht="13.5" customHeight="1"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+    </row>
+    <row r="23" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:33" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:33" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -23292,18 +23347,18 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23318,9 +23373,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23352,20 +23407,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="33"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23535,6 +23590,61 @@
       </c>
       <c r="D11" s="33" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="43">
+        <v>44610</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C12" s="57">
+        <v>109.9</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="43">
+        <v>44610</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C13" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$C$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NÃO RESPONDEU'!$A$1:$M$8</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1122">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3318,9 +3319,6 @@
     <t>segunda quinzena de março</t>
   </si>
   <si>
-    <t>(15) 97403-1178 (P)</t>
-  </si>
-  <si>
     <t>(15) 99723-6562 (P)</t>
   </si>
   <si>
@@ -3382,6 +3380,57 @@
   </si>
   <si>
     <t>fabio (gabriel)</t>
+  </si>
+  <si>
+    <t>miguel</t>
+  </si>
+  <si>
+    <t>enzo</t>
+  </si>
+  <si>
+    <t>conrado</t>
+  </si>
+  <si>
+    <t>Eduardo Henrique Gonçalves Cardoso</t>
+  </si>
+  <si>
+    <t>Jerry Adriano Marques Gonçalves</t>
+  </si>
+  <si>
+    <t>217.841.158-43</t>
+  </si>
+  <si>
+    <t>Rua Joaquim Firmiano de Camargo Pires, 56 - Santa Rosália</t>
+  </si>
+  <si>
+    <t>jerry@enexytransportes.com.br</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>marcelo (pedro)</t>
+  </si>
+  <si>
+    <t>tommy</t>
+  </si>
+  <si>
+    <t>miguel (jerry)</t>
+  </si>
+  <si>
+    <t>pedro (marcelo)</t>
+  </si>
+  <si>
+    <t>wanis (junior)</t>
+  </si>
+  <si>
+    <t>eduardo</t>
+  </si>
+  <si>
+    <t>10,00 cerveja + refrigerante</t>
+  </si>
+  <si>
+    <t>rogerio (leonardo)</t>
   </si>
 </sst>
 </file>
@@ -3537,7 +3586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3624,16 +3673,17 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4004,27 +4054,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="76.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="76.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="13" width="16.26953125" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="17" max="18" width="8.26953125" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="25" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6878,26 +6928,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="33"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="56" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6908,7 +6959,7 @@
       <c r="B2" s="33" t="s">
         <v>1081</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="57">
         <v>6.5</v>
       </c>
     </row>
@@ -6919,7 +6970,7 @@
       <c r="B3" s="33" t="s">
         <v>1080</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="57">
         <v>5</v>
       </c>
     </row>
@@ -6930,7 +6981,7 @@
       <c r="B4" s="33" t="s">
         <v>1082</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="57">
         <f>5 + 5 + 2.5 + 2.5</f>
         <v>15</v>
       </c>
@@ -6942,7 +6993,7 @@
       <c r="B5" s="33" t="s">
         <v>1080</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="57">
         <f>5+2.5</f>
         <v>7.5</v>
       </c>
@@ -6954,7 +7005,7 @@
       <c r="B6" s="33" t="s">
         <v>1081</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="57">
         <f xml:space="preserve"> 5 + 6.5</f>
         <v>11.5</v>
       </c>
@@ -6966,7 +7017,8 @@
       <c r="B7" s="33" t="s">
         <v>1081</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="57">
+        <f>6.5 +6.5</f>
         <v>13</v>
       </c>
     </row>
@@ -6977,7 +7029,7 @@
       <c r="B8" s="33" t="s">
         <v>1082</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="57">
         <v>2.5</v>
       </c>
     </row>
@@ -6986,14 +7038,67 @@
         <v>44610</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C9" s="33">
+        <v>1098</v>
+      </c>
+      <c r="C9" s="57">
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C10" s="57">
+        <f>6.5+5+199.9</f>
+        <v>211.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C11" s="57">
+        <f>5 + 6.5+2.5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C12" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C13" s="57">
+        <f xml:space="preserve"> 5 + 2.5 +5</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="58"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C13"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7002,69 +7107,69 @@
   <dimension ref="A1:AE993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7187,7 +7292,7 @@
         <v>39967</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I27" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
+        <f t="shared" ref="I3:I28" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
         <v>12 anos, 8 meses 16 dias</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -8711,25 +8816,25 @@
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
       <c r="A26" s="62" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B26" s="62" t="s">
         <v>1090</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="C26" s="62" t="s">
         <v>1091</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="D26" s="62" t="s">
         <v>1092</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>1093</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>1012</v>
       </c>
       <c r="F26" s="62" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H26" s="30">
         <v>42877</v>
@@ -8763,23 +8868,23 @@
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B27" s="62" t="s">
         <v>1095</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="C27" s="63" t="s">
         <v>1096</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="D27" s="62" t="s">
         <v>1097</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>1098</v>
       </c>
       <c r="E27" s="62" t="s">
         <v>988</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="62" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H27" s="30">
         <v>42482</v>
@@ -8812,15 +8917,32 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>1007</v>
+      </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="31" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H28" s="30">
+        <v>42294</v>
+      </c>
+      <c r="I28" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 4 meses 2 dias</v>
+      </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -11147,14 +11269,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="1" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12337,13 +12459,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13883,18 +14005,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="51.7265625" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="17" width="9.1796875" customWidth="1"/>
+    <col min="18" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17087,18 +17209,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -21028,72 +21150,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3:AG12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="14.42578125" customWidth="1"/>
-    <col min="39" max="1026" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.453125" customWidth="1"/>
+    <col min="39" max="1026" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" customHeight="1">
-      <c r="A1" s="65">
+      <c r="A1" s="67">
         <v>44541</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67">
         <v>44548</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67">
         <v>44569</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67">
         <v>44576</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67">
         <v>44583</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
       <c r="S1" s="66">
         <v>44596</v>
       </c>
@@ -21313,18 +21436,20 @@
         <v>39</v>
       </c>
       <c r="AC3" s="61" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AD3" s="61" t="s">
         <v>998</v>
       </c>
-      <c r="AE3" s="33" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AE3" s="35" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AF3" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="33"/>
+      <c r="AG3" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="AN3" s="33" t="s">
         <v>1024</v>
       </c>
@@ -21408,16 +21533,20 @@
         <v>995</v>
       </c>
       <c r="AC4" s="61" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AD4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AG4" s="33"/>
+      <c r="AE4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="61" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AG4" s="61" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="5" spans="1:40" ht="13.5" customHeight="1">
       <c r="A5" s="23" t="s">
@@ -21498,14 +21627,20 @@
         <v>1062</v>
       </c>
       <c r="AC5" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AD5" s="61" t="s">
         <v>1045</v>
       </c>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
+      <c r="AE5" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF5" s="61" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AG5" s="35" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:40" ht="13.5" customHeight="1">
       <c r="A6" s="23" t="s">
@@ -21591,9 +21726,15 @@
       <c r="AD6" s="61" t="s">
         <v>1046</v>
       </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
+      <c r="AE6" s="35" t="s">
+        <v>990</v>
+      </c>
+      <c r="AF6" s="61" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AG6" s="35" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="7" spans="1:40" ht="13.5" customHeight="1">
       <c r="A7" s="23" t="s">
@@ -21673,12 +21814,18 @@
       <c r="AC7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AD7" s="67" t="s">
+      <c r="AD7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
+      <c r="AE7" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG7" s="35" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:40" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
@@ -21755,9 +21902,15 @@
         <v>109</v>
       </c>
       <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
+      <c r="AE8" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" s="61" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AG8" s="64" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:40" ht="13.5" customHeight="1">
       <c r="A9" s="23" t="s">
@@ -21829,7 +21982,9 @@
         <v>319</v>
       </c>
       <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
+      <c r="AE9" s="36" t="s">
+        <v>104</v>
+      </c>
       <c r="AF9" s="33"/>
       <c r="AG9" s="33"/>
     </row>
@@ -21887,7 +22042,9 @@
       <c r="AB10" s="45"/>
       <c r="AC10" s="33"/>
       <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
+      <c r="AE10" s="38" t="s">
+        <v>1105</v>
+      </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
     </row>
@@ -21938,7 +22095,9 @@
       <c r="AB11" s="45"/>
       <c r="AC11" s="33"/>
       <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
+      <c r="AE11" s="38" t="s">
+        <v>1106</v>
+      </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="33"/>
     </row>
@@ -21980,7 +22139,9 @@
       <c r="AB12" s="45"/>
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
+      <c r="AE12" s="61" t="s">
+        <v>1107</v>
+      </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="33"/>
     </row>
@@ -22059,10 +22220,12 @@
         <v>62</v>
       </c>
       <c r="AE14" s="33"/>
-      <c r="AF14" s="33" t="s">
+      <c r="AF14" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AG14" s="33"/>
+      <c r="AG14" s="39" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="15" spans="1:40" ht="13.5" customHeight="1">
       <c r="A15" s="8"/>
@@ -22102,7 +22265,7 @@
         <v>1000</v>
       </c>
       <c r="AE15" s="33"/>
-      <c r="AF15" s="33" t="s">
+      <c r="AF15" s="48" t="s">
         <v>1000</v>
       </c>
       <c r="AG15" s="33"/>
@@ -23347,6 +23510,11 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -23354,11 +23522,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23373,9 +23536,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23407,20 +23570,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="33"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23597,7 +23760,7 @@
         <v>44610</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C12" s="57">
         <v>109.9</v>
@@ -23606,7 +23769,7 @@
         <v>196</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -23614,7 +23777,7 @@
         <v>44610</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C13" s="57">
         <v>99.9</v>
@@ -23623,28 +23786,107 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="14" spans="1:6">
+      <c r="A14" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C14" s="57">
+        <v>129.9</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C15" s="57">
+        <v>102.4</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C16" s="57">
+        <v>100</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="43">
         <v>44611</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="43">
+      <c r="B17" s="58" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C17" s="57">
+        <v>100</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="43">
         <v>44611</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B23" s="33" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C23" s="57">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="43">
+      <c r="C24" s="57">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="43">
         <v>44611</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>1105</v>
+      <c r="B25" s="58" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C25" s="57">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>995</v>
+      </c>
+      <c r="C26" s="57">
+        <v>129.9</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NÃO RESPONDEU'!$A$1:$M$8</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1130">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3361,9 +3361,6 @@
     <t>lgguarisi@gmail.com</t>
   </si>
   <si>
-    <t>paulo (gabriel)</t>
-  </si>
-  <si>
     <t>10,00 cerveja</t>
   </si>
   <si>
@@ -3382,9 +3379,6 @@
     <t>fabio (gabriel)</t>
   </si>
   <si>
-    <t>miguel</t>
-  </si>
-  <si>
     <t>enzo</t>
   </si>
   <si>
@@ -3406,18 +3400,12 @@
     <t>jerry@enexytransportes.com.br</t>
   </si>
   <si>
-    <t>junior</t>
-  </si>
-  <si>
     <t>marcelo (pedro)</t>
   </si>
   <si>
     <t>tommy</t>
   </si>
   <si>
-    <t>miguel (jerry)</t>
-  </si>
-  <si>
     <t>pedro (marcelo)</t>
   </si>
   <si>
@@ -3431,6 +3419,42 @@
   </si>
   <si>
     <t>rogerio (leonardo)</t>
+  </si>
+  <si>
+    <t>enviado</t>
+  </si>
+  <si>
+    <t>(35) 9170-0117</t>
+  </si>
+  <si>
+    <t>24 cerveja + refrigerante</t>
+  </si>
+  <si>
+    <t>15 99769-0278</t>
+  </si>
+  <si>
+    <t>15 99116-5953</t>
+  </si>
+  <si>
+    <t>15 99160-6387</t>
+  </si>
+  <si>
+    <t>15 99613-7876</t>
+  </si>
+  <si>
+    <t>15 99778-5319</t>
+  </si>
+  <si>
+    <t>15 99678-1634</t>
+  </si>
+  <si>
+    <t>15 99178-1804</t>
+  </si>
+  <si>
+    <t>15 99645-1879 (N)</t>
+  </si>
+  <si>
+    <t>enzo (S)</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3494,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3549,8 +3573,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3582,11 +3612,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3674,6 +3717,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3683,7 +3727,14 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4054,27 +4105,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="76.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="13" width="16.26953125" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="76.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" customWidth="1"/>
+    <col min="17" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6928,20 +6979,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57"/>
+    <col min="3" max="3" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="55" t="s">
         <v>166</v>
       </c>
@@ -6952,7 +7003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="43">
         <v>44603</v>
       </c>
@@ -6962,8 +7013,11 @@
       <c r="C2" s="57">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="43">
         <v>44603</v>
       </c>
@@ -6973,8 +7027,11 @@
       <c r="C3" s="57">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="43">
         <v>44604</v>
       </c>
@@ -6985,8 +7042,11 @@
         <f>5 + 5 + 2.5 + 2.5</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="43">
         <v>44604</v>
       </c>
@@ -6994,11 +7054,14 @@
         <v>1080</v>
       </c>
       <c r="C5" s="57">
-        <f>5+2.5</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <f>5+5+2.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="43">
         <v>44604</v>
       </c>
@@ -7009,8 +7072,11 @@
         <f xml:space="preserve"> 5 + 6.5</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="43">
         <v>44610</v>
       </c>
@@ -7021,8 +7087,11 @@
         <f>6.5 +6.5</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="43">
         <v>44610</v>
       </c>
@@ -7032,71 +7101,71 @@
       <c r="C8" s="57">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="43">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="C9" s="57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <f>6.5+5+199.9</f>
+        <v>211.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="43">
         <v>44611</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C10" s="57">
-        <f>6.5+5+199.9</f>
-        <v>211.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <f>5 + 6.5+2.5</f>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="43">
         <v>44611</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
       <c r="C11" s="57">
-        <f>5 + 6.5+2.5</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <f xml:space="preserve"> 5 + 2.5 +5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="43">
         <v>44611</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1113</v>
+        <v>1080</v>
       </c>
       <c r="C12" s="57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C13" s="57">
-        <f xml:space="preserve"> 5 + 2.5 +5</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="58"/>
+        <v>6.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1118</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C13"/>
+  <autoFilter ref="A1:C12"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7111,65 +7180,65 @@
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7293,7 +7362,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I28" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 8 meses 16 dias</v>
+        <v>12 anos, 8 meses 22 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7361,7 +7430,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 19 dias</v>
+        <v>10 anos, 2 meses 25 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7435,7 +7504,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 19 dias</v>
+        <v>122 anos, 1 meses 25 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7491,7 +7560,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 19 dias</v>
+        <v>122 anos, 1 meses 25 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7557,7 +7626,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 9 meses 22 dias</v>
+        <v>13 anos, 10 meses 0 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -7629,7 +7698,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 5 meses 15 dias</v>
+        <v>8 anos, 5 meses 21 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -7701,7 +7770,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 0 dias</v>
+        <v>9 anos, 2 meses 6 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -7767,7 +7836,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 4 dias</v>
+        <v>6 anos, 4 meses 10 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -7831,7 +7900,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 27 dias</v>
+        <v>5 anos, 8 meses 5 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -7905,7 +7974,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 16 dias</v>
+        <v>6 anos, 6 meses 22 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -7979,7 +8048,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 23 dias</v>
+        <v>5 anos, 4 meses 1 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -8053,7 +8122,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 17 dias</v>
+        <v>6 anos, 2 meses 23 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -8129,7 +8198,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 21 dias</v>
+        <v>6 anos, 0 meses 27 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -8199,7 +8268,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 14 dias</v>
+        <v>7 anos, 0 meses 20 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8271,7 +8340,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 10 dias</v>
+        <v>5 anos, 7 meses 16 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8345,7 +8414,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 4 dias</v>
+        <v>6 anos, 8 meses 10 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8419,7 +8488,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 3 meses 16 dias</v>
+        <v>12 anos, 3 meses 22 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8483,7 +8552,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 7 dias</v>
+        <v>11 anos, 1 meses 13 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8547,7 +8616,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 3 dias</v>
+        <v>5 anos, 5 meses 9 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -8611,7 +8680,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 8 dias</v>
+        <v>5 anos, 7 meses 14 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -8675,7 +8744,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 14 dias</v>
+        <v>6 anos, 1 meses 20 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -8729,7 +8798,7 @@
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 8 dias</v>
+        <v>5 anos, 10 meses 14 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -8783,7 +8852,7 @@
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 3 dias</v>
+        <v>7 anos, 4 meses 9 dias</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>21</v>
@@ -8841,7 +8910,7 @@
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 8 meses 25 dias</v>
+        <v>4 anos, 9 meses 3 dias</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -8891,7 +8960,7 @@
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 25 dias</v>
+        <v>5 anos, 10 meses 3 dias</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -8918,30 +8987,30 @@
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>1109</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="D28" s="31" t="s">
         <v>1110</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>1112</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>1007</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="31" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H28" s="30">
         <v>42294</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 2 dias</v>
+        <v>6 anos, 4 meses 8 dias</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -9618,7 +9687,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ref="I48:I55" ca="1" si="1">DATEDIF(H48,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H48,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H48,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 4 meses 22 dias</v>
+        <v>3 anos, 5 meses 0 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>76</v>
@@ -9678,7 +9747,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 7 meses 17 dias</v>
+        <v>7 anos, 7 meses 23 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -9740,7 +9809,7 @@
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 8 meses 16 dias</v>
+        <v>10 anos, 8 meses 22 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -9802,7 +9871,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 7 meses 26 dias</v>
+        <v>8 anos, 8 meses 4 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>52</v>
@@ -9860,7 +9929,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 1 meses 19 dias</v>
+        <v>122 anos, 1 meses 25 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>21</v>
@@ -9928,7 +9997,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 4 meses 21 dias</v>
+        <v>10 anos, 4 meses 27 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -9990,7 +10059,7 @@
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 7 meses 12 dias</v>
+        <v>13 anos, 7 meses 18 dias</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>35</v>
@@ -10052,7 +10121,7 @@
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 5 dias</v>
+        <v>7 anos, 10 meses 11 dias</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>52</v>
@@ -11269,14 +11338,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12459,13 +12528,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14005,18 +14074,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17209,18 +17278,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -21148,107 +21217,124 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN1000"/>
+  <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AG12"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.453125" customWidth="1"/>
-    <col min="39" max="1026" width="14.453125" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" customWidth="1"/>
+    <col min="35" max="35" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.42578125" customWidth="1"/>
+    <col min="44" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="13.5" customHeight="1">
-      <c r="A1" s="67">
+    <row r="1" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A1" s="68">
         <v>44541</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68">
         <v>44548</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68">
         <v>44569</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67">
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68">
         <v>44576</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68">
         <v>44583</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67" t="s">
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="66">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="67">
         <v>44596</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66">
+      <c r="T1" s="67"/>
+      <c r="U1" s="67">
         <v>44597</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66">
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67">
         <v>44603</v>
       </c>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66">
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67">
         <v>44604</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67">
         <v>44610</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66">
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67">
         <v>44611</v>
       </c>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AN1" t="s">
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AI1" s="67">
+        <v>44610</v>
+      </c>
+      <c r="AJ1" s="67"/>
+      <c r="AL1" s="67">
+        <v>44611</v>
+      </c>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AQ1" s="4">
+        <v>44624</v>
+      </c>
+      <c r="AS1" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="13.5" customHeight="1">
+    <row r="2" spans="1:45" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>956</v>
       </c>
@@ -21348,11 +21434,29 @@
       <c r="AG2" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="AI2" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>957</v>
+      </c>
       <c r="AN2" s="4" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AQ2" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="13.5" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>959</v>
       </c>
@@ -21442,7 +21546,7 @@
         <v>998</v>
       </c>
       <c r="AE3" s="35" t="s">
-        <v>1086</v>
+        <v>80</v>
       </c>
       <c r="AF3" s="52" t="s">
         <v>56</v>
@@ -21450,11 +21554,29 @@
       <c r="AG3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="33" t="s">
+      <c r="AI3" s="69" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AJ3" s="69" t="s">
+        <v>998</v>
+      </c>
+      <c r="AL3" s="75" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AM3" s="75" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AN3" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AS3" s="33" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="13.5" customHeight="1">
+    <row r="4" spans="1:45" ht="13.5" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>968</v>
       </c>
@@ -21547,8 +21669,23 @@
       <c r="AG4" s="61" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI4" s="69" t="s">
+        <v>988</v>
+      </c>
+      <c r="AJ4" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL4" s="75" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AM4" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" s="69" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="13.5" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>975</v>
       </c>
@@ -21636,13 +21773,28 @@
         <v>109</v>
       </c>
       <c r="AF5" s="61" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="AG5" s="35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI5" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" s="69" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AL5" s="75" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AM5" s="69" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AN5" s="70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="13.5" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>984</v>
       </c>
@@ -21730,13 +21882,28 @@
         <v>990</v>
       </c>
       <c r="AF6" s="61" t="s">
-        <v>1116</v>
+        <v>73</v>
       </c>
       <c r="AG6" s="35" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI6" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM6" s="69" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AN6" s="70" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="13.5" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>989</v>
       </c>
@@ -21826,8 +21993,23 @@
       <c r="AG7" s="35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI7" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ7" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL7" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM7" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN7" s="70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>830</v>
       </c>
@@ -21906,13 +22088,28 @@
         <v>91</v>
       </c>
       <c r="AF8" s="61" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AG8" s="64" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI8" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ8" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="AL8" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM8" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN8" s="73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="13.5" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>960</v>
       </c>
@@ -21987,8 +22184,20 @@
       </c>
       <c r="AF9" s="33"/>
       <c r="AG9" s="33"/>
-    </row>
-    <row r="10" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI9" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ9" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL9" s="70" t="s">
+        <v>990</v>
+      </c>
+      <c r="AM9" s="69" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="13.5" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>118</v>
       </c>
@@ -22043,12 +22252,24 @@
       <c r="AC10" s="33"/>
       <c r="AD10" s="33"/>
       <c r="AE10" s="38" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
-    </row>
-    <row r="11" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI10" s="72" t="s">
+        <v>994</v>
+      </c>
+      <c r="AJ10" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AL10" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM10" s="75" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="13.5" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>999</v>
       </c>
@@ -22096,12 +22317,20 @@
       <c r="AC11" s="33"/>
       <c r="AD11" s="33"/>
       <c r="AE11" s="38" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="33"/>
-    </row>
-    <row r="12" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AL11" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11" s="75" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>986</v>
       </c>
@@ -22140,12 +22369,20 @@
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
       <c r="AE12" s="61" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="33"/>
-    </row>
-    <row r="13" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AL12" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM12" s="75" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="13.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -22183,8 +22420,13 @@
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
       <c r="AG13" s="33"/>
-    </row>
-    <row r="14" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
+      <c r="AL13" s="70" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -22226,8 +22468,13 @@
       <c r="AG14" s="39" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AL14" s="69" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="13.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -22269,8 +22516,10 @@
         <v>1000</v>
       </c>
       <c r="AG15" s="33"/>
-    </row>
-    <row r="16" spans="1:40" ht="13.5" customHeight="1">
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+    </row>
+    <row r="16" spans="1:45" ht="13.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -22307,8 +22556,10 @@
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
       <c r="AG16" s="33"/>
-    </row>
-    <row r="17" spans="1:33" ht="13.5" customHeight="1">
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+    </row>
+    <row r="17" spans="1:36" ht="13.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -22342,8 +22593,10 @@
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
       <c r="AG17" s="33"/>
-    </row>
-    <row r="18" spans="1:33" ht="13.5" customHeight="1">
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+    </row>
+    <row r="18" spans="1:36" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -22378,8 +22631,10 @@
       <c r="AE18" s="33"/>
       <c r="AF18" s="33"/>
       <c r="AG18" s="33"/>
-    </row>
-    <row r="19" spans="1:33" ht="13.5" customHeight="1">
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+    </row>
+    <row r="19" spans="1:36" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -22413,8 +22668,10 @@
       <c r="AE19" s="33"/>
       <c r="AF19" s="33"/>
       <c r="AG19" s="33"/>
-    </row>
-    <row r="20" spans="1:33" ht="13.5" customHeight="1">
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+    </row>
+    <row r="20" spans="1:36" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22448,8 +22705,10 @@
       <c r="AE20" s="33"/>
       <c r="AF20" s="33"/>
       <c r="AG20" s="33"/>
-    </row>
-    <row r="21" spans="1:33" ht="13.5" customHeight="1">
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
+    </row>
+    <row r="21" spans="1:36" ht="13.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -22486,8 +22745,10 @@
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
       <c r="AG21" s="33"/>
-    </row>
-    <row r="22" spans="1:33" ht="13.5" customHeight="1">
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+    </row>
+    <row r="22" spans="1:36" ht="13.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -22529,17 +22790,19 @@
       <c r="AE22" s="33"/>
       <c r="AF22" s="33"/>
       <c r="AG22" s="33"/>
-    </row>
-    <row r="23" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:33" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:33" ht="13.5" customHeight="1"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="74"/>
+    </row>
+    <row r="23" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:36" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:36" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -23509,7 +23772,9 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -23536,9 +23801,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23570,20 +23835,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C27"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="33"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23760,7 +24025,7 @@
         <v>44610</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C12" s="57">
         <v>109.9</v>
@@ -23769,7 +24034,7 @@
         <v>196</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -23777,7 +24042,7 @@
         <v>44610</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C13" s="57">
         <v>99.9</v>
@@ -23791,7 +24056,7 @@
         <v>44611</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C14" s="57">
         <v>129.9</v>
@@ -23805,7 +24070,7 @@
         <v>44611</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C15" s="57">
         <v>102.4</v>
@@ -23819,7 +24084,7 @@
         <v>44611</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C16" s="57">
         <v>100</v>
@@ -23833,7 +24098,7 @@
         <v>44611</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C17" s="57">
         <v>100</v>
@@ -23842,7 +24107,7 @@
         <v>181</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -23850,10 +24115,16 @@
         <v>44611</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C23" s="57">
-        <v>99.9</v>
+        <v>123.9</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -23861,31 +24132,31 @@
         <v>44611</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C24" s="57">
         <v>99.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="43">
+    <row r="28" spans="1:6">
+      <c r="A28" s="43">
         <v>44611</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C25" s="57">
+      <c r="B28" s="58" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C28" s="57">
         <v>129.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="43">
+    <row r="29" spans="1:6">
+      <c r="A29" s="43">
         <v>44611</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B29" s="65" t="s">
         <v>995</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C29" s="57">
         <v>129.9</v>
       </c>
     </row>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1131">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3455,6 +3455,9 @@
   </si>
   <si>
     <t>enzo (S)</t>
+  </si>
+  <si>
+    <t>miguel (condominio encanto, filho do daniel)</t>
   </si>
 </sst>
 </file>
@@ -3580,7 +3583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3610,19 +3613,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3718,6 +3708,15 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3727,14 +3726,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4105,27 +4097,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="76.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="76.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="13" width="16.26953125" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="17" max="18" width="8.26953125" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="25" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6985,11 +6977,11 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="57"/>
+    <col min="3" max="3" width="9.1796875" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7180,65 +7172,65 @@
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -11338,14 +11330,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="1" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12528,13 +12520,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14074,18 +14066,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="51.7265625" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="17" width="9.1796875" customWidth="1"/>
+    <col min="18" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17278,18 +17270,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -21219,114 +21211,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" customWidth="1"/>
-    <col min="35" max="35" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.42578125" customWidth="1"/>
-    <col min="44" max="1026" width="14.42578125" customWidth="1"/>
+    <col min="32" max="32" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.453125" customWidth="1"/>
+    <col min="34" max="34" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.453125" customWidth="1"/>
+    <col min="44" max="1026" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A1" s="68">
+      <c r="A1" s="75">
         <v>44541</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75">
         <v>44548</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75">
         <v>44569</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75">
         <v>44576</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75">
         <v>44583</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68" t="s">
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="67">
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="74">
         <v>44596</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67">
+      <c r="T1" s="74"/>
+      <c r="U1" s="74">
         <v>44597</v>
       </c>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67">
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74">
         <v>44603</v>
       </c>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74">
         <v>44604</v>
       </c>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67">
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74">
         <v>44610</v>
       </c>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67">
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74">
         <v>44611</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AI1" s="67">
-        <v>44610</v>
-      </c>
-      <c r="AJ1" s="67"/>
-      <c r="AL1" s="67">
-        <v>44611</v>
-      </c>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="66">
+        <v>44617</v>
+      </c>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66">
+        <v>44618</v>
+      </c>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="33"/>
       <c r="AQ1" s="4">
         <v>44624</v>
       </c>
@@ -21434,21 +21428,22 @@
       <c r="AG2" s="4" t="s">
         <v>958</v>
       </c>
+      <c r="AH2" s="4" t="s">
+        <v>956</v>
+      </c>
       <c r="AI2" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="AL2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AL2" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>958</v>
-      </c>
+      <c r="AM2" s="33"/>
       <c r="AQ2" s="4" t="s">
         <v>956</v>
       </c>
@@ -21554,21 +21549,22 @@
       <c r="AG3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="69" t="s">
+      <c r="AH3" s="61" t="s">
         <v>1012</v>
       </c>
-      <c r="AJ3" s="69" t="s">
+      <c r="AI3" s="67" t="s">
         <v>998</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AJ3" s="68" t="s">
         <v>1121</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AK3" s="68" t="s">
         <v>1123</v>
       </c>
-      <c r="AN3" s="76" t="s">
+      <c r="AL3" s="72" t="s">
         <v>39</v>
       </c>
+      <c r="AM3" s="33"/>
       <c r="AQ3" t="s">
         <v>1119</v>
       </c>
@@ -21669,21 +21665,22 @@
       <c r="AG4" s="61" t="s">
         <v>998</v>
       </c>
-      <c r="AI4" s="69" t="s">
-        <v>988</v>
-      </c>
-      <c r="AJ4" s="70" t="s">
+      <c r="AH4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI4" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="AL4" s="75" t="s">
+      <c r="AJ4" s="68" t="s">
         <v>1122</v>
       </c>
-      <c r="AM4" s="71" t="s">
+      <c r="AK4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="AN4" s="69" t="s">
+      <c r="AL4" s="67" t="s">
         <v>998</v>
       </c>
+      <c r="AM4" s="33"/>
     </row>
     <row r="5" spans="1:45" ht="13.5" customHeight="1">
       <c r="A5" s="23" t="s">
@@ -21778,21 +21775,22 @@
       <c r="AG5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AI5" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ5" s="69" t="s">
+      <c r="AH5" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI5" s="67" t="s">
         <v>1016</v>
       </c>
-      <c r="AL5" s="75" t="s">
+      <c r="AJ5" s="68" t="s">
         <v>1124</v>
       </c>
-      <c r="AM5" s="69" t="s">
+      <c r="AK5" s="67" t="s">
         <v>1007</v>
       </c>
-      <c r="AN5" s="70" t="s">
+      <c r="AL5" s="68" t="s">
         <v>32</v>
       </c>
+      <c r="AM5" s="33"/>
     </row>
     <row r="6" spans="1:45" ht="13.5" customHeight="1">
       <c r="A6" s="23" t="s">
@@ -21887,21 +21885,22 @@
       <c r="AG6" s="35" t="s">
         <v>1016</v>
       </c>
-      <c r="AI6" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ6" s="69" t="s">
+      <c r="AH6" s="36" t="s">
+        <v>994</v>
+      </c>
+      <c r="AI6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="70" t="s">
+      <c r="AJ6" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="AM6" s="69" t="s">
+      <c r="AK6" s="67" t="s">
         <v>1112</v>
       </c>
-      <c r="AN6" s="70" t="s">
+      <c r="AL6" s="68" t="s">
         <v>1016</v>
       </c>
+      <c r="AM6" s="33"/>
     </row>
     <row r="7" spans="1:45" ht="13.5" customHeight="1">
       <c r="A7" s="23" t="s">
@@ -21993,21 +21992,22 @@
       <c r="AG7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="AI7" s="70" t="s">
+      <c r="AH7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AJ7" s="73" t="s">
+      <c r="AI7" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AL7" s="70" t="s">
+      <c r="AJ7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="AM7" s="69" t="s">
+      <c r="AK7" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="AN7" s="70" t="s">
+      <c r="AL7" s="68" t="s">
         <v>16</v>
       </c>
+      <c r="AM7" s="33"/>
     </row>
     <row r="8" spans="1:45" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
@@ -22093,21 +22093,22 @@
       <c r="AG8" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AI8" s="70" t="s">
+      <c r="AH8" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AJ8" s="70" t="s">
-        <v>995</v>
-      </c>
-      <c r="AL8" s="70" t="s">
+      <c r="AI8" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ8" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="AM8" s="70" t="s">
+      <c r="AK8" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="AN8" s="73" t="s">
+      <c r="AL8" s="71" t="s">
         <v>25</v>
       </c>
+      <c r="AM8" s="33"/>
     </row>
     <row r="9" spans="1:45" ht="13.5" customHeight="1">
       <c r="A9" s="23" t="s">
@@ -22184,18 +22185,20 @@
       </c>
       <c r="AF9" s="33"/>
       <c r="AG9" s="33"/>
-      <c r="AI9" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ9" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL9" s="70" t="s">
+      <c r="AH9" s="35" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AI9" s="68" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" s="68" t="s">
         <v>990</v>
       </c>
-      <c r="AM9" s="69" t="s">
+      <c r="AK9" s="67" t="s">
         <v>1113</v>
       </c>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
     </row>
     <row r="10" spans="1:45" ht="13.5" customHeight="1">
       <c r="A10" s="24" t="s">
@@ -22256,18 +22259,18 @@
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
-      <c r="AI10" s="72" t="s">
-        <v>994</v>
-      </c>
-      <c r="AJ10" s="70" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AH10" s="38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="75" t="s">
+      <c r="AK10" s="68" t="s">
         <v>1125</v>
       </c>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="33"/>
     </row>
     <row r="11" spans="1:45" ht="13.5" customHeight="1">
       <c r="A11" s="24" t="s">
@@ -22321,14 +22324,16 @@
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
       <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AL11" s="70" t="s">
+      <c r="AJ11" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="AM11" s="75" t="s">
+      <c r="AK11" s="68" t="s">
         <v>1126</v>
       </c>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
     </row>
     <row r="12" spans="1:45" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
@@ -22373,14 +22378,18 @@
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
       <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AL12" s="72" t="s">
+      <c r="AJ12" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="AM12" s="75" t="s">
+      <c r="AK12" s="68" t="s">
         <v>1127</v>
       </c>
+      <c r="AL12" s="48" t="s">
+        <v>995</v>
+      </c>
+      <c r="AM12" s="33"/>
     </row>
     <row r="13" spans="1:45" ht="13.5" customHeight="1">
       <c r="A13" s="8"/>
@@ -22420,11 +22429,18 @@
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
       <c r="AG13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AL13" s="70" t="s">
-        <v>1104</v>
-      </c>
+      <c r="AH13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI13" s="48" t="s">
+        <v>995</v>
+      </c>
+      <c r="AJ13" s="67" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
     </row>
     <row r="14" spans="1:45" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
@@ -22468,11 +22484,14 @@
       <c r="AG14" s="39" t="s">
         <v>995</v>
       </c>
+      <c r="AH14" s="76" t="s">
+        <v>988</v>
+      </c>
       <c r="AI14" s="33"/>
       <c r="AJ14" s="33"/>
-      <c r="AL14" s="69" t="s">
-        <v>1105</v>
-      </c>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
     </row>
     <row r="15" spans="1:45" ht="13.5" customHeight="1">
       <c r="A15" s="8"/>
@@ -22516,8 +22535,12 @@
         <v>1000</v>
       </c>
       <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
       <c r="AI15" s="33"/>
       <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
     </row>
     <row r="16" spans="1:45" ht="13.5" customHeight="1">
       <c r="A16" s="8"/>
@@ -22556,10 +22579,14 @@
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
       <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
       <c r="AI16" s="33"/>
       <c r="AJ16" s="33"/>
-    </row>
-    <row r="17" spans="1:36" ht="13.5" customHeight="1">
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+    </row>
+    <row r="17" spans="1:39" ht="13.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -22593,10 +22620,14 @@
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
       <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
       <c r="AI17" s="33"/>
       <c r="AJ17" s="33"/>
-    </row>
-    <row r="18" spans="1:36" ht="13.5" customHeight="1">
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+    </row>
+    <row r="18" spans="1:39" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -22631,10 +22662,14 @@
       <c r="AE18" s="33"/>
       <c r="AF18" s="33"/>
       <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
       <c r="AI18" s="33"/>
       <c r="AJ18" s="33"/>
-    </row>
-    <row r="19" spans="1:36" ht="13.5" customHeight="1">
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+    </row>
+    <row r="19" spans="1:39" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -22668,10 +22703,14 @@
       <c r="AE19" s="33"/>
       <c r="AF19" s="33"/>
       <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
       <c r="AI19" s="33"/>
       <c r="AJ19" s="33"/>
-    </row>
-    <row r="20" spans="1:36" ht="13.5" customHeight="1">
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+    </row>
+    <row r="20" spans="1:39" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22705,10 +22744,14 @@
       <c r="AE20" s="33"/>
       <c r="AF20" s="33"/>
       <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
       <c r="AI20" s="33"/>
       <c r="AJ20" s="33"/>
-    </row>
-    <row r="21" spans="1:36" ht="13.5" customHeight="1">
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="33"/>
+    </row>
+    <row r="21" spans="1:39" ht="13.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -22745,10 +22788,14 @@
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
       <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="33"/>
-    </row>
-    <row r="22" spans="1:36" ht="13.5" customHeight="1">
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="33"/>
+    </row>
+    <row r="22" spans="1:39" ht="13.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -22790,19 +22837,23 @@
       <c r="AE22" s="33"/>
       <c r="AF22" s="33"/>
       <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
       <c r="AI22" s="33"/>
-      <c r="AJ22" s="74"/>
-    </row>
-    <row r="23" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:36" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:36" ht="13.5" customHeight="1"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="33"/>
+      <c r="AM22" s="33"/>
+    </row>
+    <row r="23" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:39" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:39" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -23772,9 +23823,7 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AL1:AN1"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -23801,9 +23850,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23841,14 +23890,14 @@
       <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="33"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,18 @@
     <sheet name="FACEBOOK" sheetId="8" r:id="rId8"/>
     <sheet name="acertaram" sheetId="9" r:id="rId9"/>
     <sheet name="caderneta" sheetId="10" r:id="rId10"/>
+    <sheet name="uniformes" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NÃO RESPONDEU'!$A$1:$M$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PAGAMENTOS!$A$2:$V$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIM!$A$1:$M$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">uniformes!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="1137">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3307,15 +3309,9 @@
     <t>aline (alisson), davi</t>
   </si>
   <si>
-    <t>fábio (gabriel)</t>
-  </si>
-  <si>
     <t>carlos (pedro)</t>
   </si>
   <si>
-    <t>hélio (vitor)</t>
-  </si>
-  <si>
     <t>segunda quinzena de março</t>
   </si>
   <si>
@@ -3427,9 +3423,6 @@
     <t>(35) 9170-0117</t>
   </si>
   <si>
-    <t>24 cerveja + refrigerante</t>
-  </si>
-  <si>
     <t>15 99769-0278</t>
   </si>
   <si>
@@ -3458,6 +3451,33 @@
   </si>
   <si>
     <t>miguel (condominio encanto, filho do daniel)</t>
+  </si>
+  <si>
+    <t>(15) 99160-6387</t>
+  </si>
+  <si>
+    <t>24,00 bebidas</t>
+  </si>
+  <si>
+    <t>31,00 bebidas</t>
+  </si>
+  <si>
+    <t>enzo (sub05 casas bahia)</t>
+  </si>
+  <si>
+    <t>paulo (gabriel)</t>
+  </si>
+  <si>
+    <t>aline (davi)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>tamanho</t>
+  </si>
+  <si>
+    <t>forma de pagamentp</t>
   </si>
 </sst>
 </file>
@@ -3619,7 +3639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3717,16 +3737,17 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4097,27 +4118,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="76.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="13" width="16.26953125" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="76.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" customWidth="1"/>
+    <col min="17" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6971,17 +6992,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57"/>
+    <col min="3" max="3" width="9.140625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6997,169 +7018,148 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="43">
-        <v>44603</v>
+        <v>44611</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1081</v>
+        <v>1109</v>
       </c>
       <c r="C2" s="57">
-        <v>6.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="43">
-        <v>44603</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C3" s="57">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="43">
-        <v>44604</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C4" s="57">
-        <f>5 + 5 + 2.5 + 2.5</f>
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="43">
-        <v>44604</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C5" s="57">
-        <f>5+5+2.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="43">
-        <v>44604</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C6" s="57">
-        <f xml:space="preserve"> 5 + 6.5</f>
-        <v>11.5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="43">
-        <v>44610</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C7" s="57">
-        <f>6.5 +6.5</f>
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="43">
-        <v>44610</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C8" s="57">
-        <v>2.5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C9" s="57">
-        <f>6.5+5+199.9</f>
-        <v>211.4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C10" s="57">
-        <f>5 + 6.5+2.5</f>
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C11" s="57">
         <f xml:space="preserve"> 5 + 2.5 +5</f>
         <v>12.5</v>
       </c>
-      <c r="D11" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C12" s="57">
-        <v>6.5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1118</v>
+      <c r="D2" t="s">
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C12"/>
+  <autoFilter ref="A1:C2"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B2" s="33">
+        <v>199.9</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B3" s="33">
+        <v>199.9</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="33" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B4" s="33">
+        <v>199.9</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7172,65 +7172,65 @@
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I28" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 8 meses 22 dias</v>
+        <v>12 anos, 8 meses 23 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 25 dias</v>
+        <v>10 anos, 2 meses 26 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7496,7 +7496,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 25 dias</v>
+        <v>122 anos, 1 meses 26 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7552,7 +7552,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 25 dias</v>
+        <v>122 anos, 1 meses 26 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 10 meses 0 dias</v>
+        <v>13 anos, 10 meses 1 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 5 meses 21 dias</v>
+        <v>8 anos, 5 meses 22 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 6 dias</v>
+        <v>9 anos, 2 meses 7 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 10 dias</v>
+        <v>6 anos, 4 meses 11 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 5 dias</v>
+        <v>5 anos, 8 meses 6 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 22 dias</v>
+        <v>6 anos, 6 meses 23 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 1 dias</v>
+        <v>5 anos, 4 meses 2 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 23 dias</v>
+        <v>6 anos, 2 meses 24 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 27 dias</v>
+        <v>6 anos, 1 meses 0 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 20 dias</v>
+        <v>7 anos, 0 meses 21 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 16 dias</v>
+        <v>5 anos, 7 meses 17 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8406,7 +8406,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 10 dias</v>
+        <v>6 anos, 8 meses 11 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 3 meses 22 dias</v>
+        <v>12 anos, 3 meses 23 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 13 dias</v>
+        <v>11 anos, 1 meses 14 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 9 dias</v>
+        <v>5 anos, 5 meses 10 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 14 dias</v>
+        <v>5 anos, 7 meses 15 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 20 dias</v>
+        <v>6 anos, 1 meses 21 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 14 dias</v>
+        <v>5 anos, 10 meses 15 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 9 dias</v>
+        <v>7 anos, 4 meses 10 dias</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>21</v>
@@ -8877,32 +8877,32 @@
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
       <c r="A26" s="62" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C26" s="62" t="s">
         <v>1089</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="D26" s="62" t="s">
         <v>1090</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>1092</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>1012</v>
       </c>
       <c r="F26" s="62" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H26" s="30">
         <v>42877</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 3 dias</v>
+        <v>4 anos, 9 meses 4 dias</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -8929,30 +8929,30 @@
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="62" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C27" s="63" t="s">
         <v>1094</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="D27" s="62" t="s">
         <v>1095</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>1097</v>
       </c>
       <c r="E27" s="62" t="s">
         <v>988</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="62" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H27" s="30">
         <v>42482</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 3 dias</v>
+        <v>5 anos, 10 meses 4 dias</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -8979,30 +8979,30 @@
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>1107</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="D28" s="31" t="s">
         <v>1108</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>1110</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>1007</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="31" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H28" s="30">
         <v>42294</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 8 dias</v>
+        <v>6 anos, 4 meses 9 dias</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ref="I48:I55" ca="1" si="1">DATEDIF(H48,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H48,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H48,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 5 meses 0 dias</v>
+        <v>3 anos, 5 meses 1 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>76</v>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 7 meses 23 dias</v>
+        <v>7 anos, 7 meses 24 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 8 meses 22 dias</v>
+        <v>10 anos, 8 meses 23 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 8 meses 4 dias</v>
+        <v>8 anos, 8 meses 5 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>52</v>
@@ -9921,7 +9921,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 1 meses 25 dias</v>
+        <v>122 anos, 1 meses 26 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>21</v>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 4 meses 27 dias</v>
+        <v>10 anos, 5 meses 0 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 7 meses 18 dias</v>
+        <v>13 anos, 7 meses 19 dias</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>35</v>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 11 dias</v>
+        <v>7 anos, 10 meses 12 dias</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>52</v>
@@ -11330,14 +11330,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12520,13 +12520,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14066,18 +14066,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17270,18 +17270,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -21211,46 +21211,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.453125" customWidth="1"/>
-    <col min="34" max="34" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.453125" customWidth="1"/>
-    <col min="44" max="1026" width="14.453125" customWidth="1"/>
+    <col min="32" max="32" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" customWidth="1"/>
+    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.42578125" customWidth="1"/>
+    <col min="44" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="13.5" customHeight="1">
@@ -21284,33 +21284,33 @@
       </c>
       <c r="Q1" s="75"/>
       <c r="R1" s="75"/>
-      <c r="S1" s="74">
+      <c r="S1" s="76">
         <v>44596</v>
       </c>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76">
         <v>44597</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74">
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76">
         <v>44603</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74">
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76">
         <v>44604</v>
       </c>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74">
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76">
         <v>44610</v>
       </c>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74">
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76">
         <v>44611</v>
       </c>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
       <c r="AH1" s="66">
         <v>44617</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>44624</v>
       </c>
       <c r="AS1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="13.5" customHeight="1">
@@ -21535,7 +21535,7 @@
         <v>39</v>
       </c>
       <c r="AC3" s="61" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AD3" s="61" t="s">
         <v>998</v>
@@ -21552,21 +21552,21 @@
       <c r="AH3" s="61" t="s">
         <v>1012</v>
       </c>
-      <c r="AI3" s="67" t="s">
+      <c r="AI3" s="61" t="s">
         <v>998</v>
       </c>
       <c r="AJ3" s="68" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="AK3" s="68" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="AL3" s="72" t="s">
         <v>39</v>
       </c>
       <c r="AM3" s="33"/>
       <c r="AQ3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AS3" s="33" t="s">
         <v>1024</v>
@@ -21651,7 +21651,7 @@
         <v>995</v>
       </c>
       <c r="AC4" s="61" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AD4" s="35" t="s">
         <v>32</v>
@@ -21668,11 +21668,11 @@
       <c r="AH4" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="AI4" s="68" t="s">
+      <c r="AI4" s="35" t="s">
         <v>32</v>
       </c>
       <c r="AJ4" s="68" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AK4" s="69" t="s">
         <v>56</v>
@@ -21761,7 +21761,7 @@
         <v>1062</v>
       </c>
       <c r="AC5" s="35" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AD5" s="61" t="s">
         <v>1045</v>
@@ -21770,7 +21770,7 @@
         <v>109</v>
       </c>
       <c r="AF5" s="61" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AG5" s="35" t="s">
         <v>32</v>
@@ -21778,11 +21778,11 @@
       <c r="AH5" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="AI5" s="67" t="s">
-        <v>1016</v>
+      <c r="AI5" s="64" t="s">
+        <v>25</v>
       </c>
       <c r="AJ5" s="68" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="AK5" s="67" t="s">
         <v>1007</v>
@@ -21888,14 +21888,14 @@
       <c r="AH6" s="36" t="s">
         <v>994</v>
       </c>
-      <c r="AI6" s="67" t="s">
-        <v>16</v>
+      <c r="AI6" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="AJ6" s="68" t="s">
         <v>80</v>
       </c>
       <c r="AK6" s="67" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AL6" s="68" t="s">
         <v>1016</v>
@@ -21995,8 +21995,8 @@
       <c r="AH7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AI7" s="71" t="s">
-        <v>25</v>
+      <c r="AI7" s="35" t="s">
+        <v>1000</v>
       </c>
       <c r="AJ7" s="68" t="s">
         <v>85</v>
@@ -22088,7 +22088,7 @@
         <v>91</v>
       </c>
       <c r="AF8" s="61" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AG8" s="64" t="s">
         <v>25</v>
@@ -22096,8 +22096,8 @@
       <c r="AH8" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AI8" s="68" t="s">
-        <v>62</v>
+      <c r="AI8" s="77" t="s">
+        <v>1128</v>
       </c>
       <c r="AJ8" s="68" t="s">
         <v>109</v>
@@ -22186,16 +22186,13 @@
       <c r="AF9" s="33"/>
       <c r="AG9" s="33"/>
       <c r="AH9" s="35" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AI9" s="68" t="s">
-        <v>1000</v>
+        <v>1102</v>
       </c>
       <c r="AJ9" s="68" t="s">
         <v>990</v>
       </c>
       <c r="AK9" s="67" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AL9" s="33"/>
       <c r="AM9" s="33"/>
@@ -22255,19 +22252,19 @@
       <c r="AC10" s="33"/>
       <c r="AD10" s="33"/>
       <c r="AE10" s="38" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="38" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="AI10" s="33"/>
       <c r="AJ10" s="68" t="s">
         <v>114</v>
       </c>
       <c r="AK10" s="68" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="AL10" s="33"/>
       <c r="AM10" s="33"/>
@@ -22320,7 +22317,7 @@
       <c r="AC11" s="33"/>
       <c r="AD11" s="33"/>
       <c r="AE11" s="38" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="33"/>
@@ -22330,7 +22327,7 @@
         <v>91</v>
       </c>
       <c r="AK11" s="68" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="AL11" s="33"/>
       <c r="AM11" s="33"/>
@@ -22374,7 +22371,7 @@
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
       <c r="AE12" s="61" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="33"/>
@@ -22384,7 +22381,7 @@
         <v>104</v>
       </c>
       <c r="AK12" s="68" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="AL12" s="48" t="s">
         <v>995</v>
@@ -22436,7 +22433,7 @@
         <v>995</v>
       </c>
       <c r="AJ13" s="67" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AK13" s="33"/>
       <c r="AL13" s="33"/>
@@ -22484,10 +22481,12 @@
       <c r="AG14" s="39" t="s">
         <v>995</v>
       </c>
-      <c r="AH14" s="76" t="s">
+      <c r="AH14" s="73" t="s">
         <v>988</v>
       </c>
-      <c r="AI14" s="33"/>
+      <c r="AI14" s="73" t="s">
+        <v>16</v>
+      </c>
       <c r="AJ14" s="33"/>
       <c r="AK14" s="33"/>
       <c r="AL14" s="33"/>
@@ -22536,7 +22535,9 @@
       </c>
       <c r="AG15" s="33"/>
       <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
+      <c r="AI15" s="73" t="s">
+        <v>1016</v>
+      </c>
       <c r="AJ15" s="33"/>
       <c r="AK15" s="33"/>
       <c r="AL15" s="33"/>
@@ -23824,11 +23825,6 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -23836,6 +23832,11 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23850,9 +23851,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23884,20 +23885,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="33"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -24074,7 +24075,7 @@
         <v>44610</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C12" s="57">
         <v>109.9</v>
@@ -24083,7 +24084,7 @@
         <v>196</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -24091,7 +24092,7 @@
         <v>44610</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C13" s="57">
         <v>99.9</v>
@@ -24105,7 +24106,7 @@
         <v>44611</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C14" s="57">
         <v>129.9</v>
@@ -24119,7 +24120,7 @@
         <v>44611</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C15" s="57">
         <v>102.4</v>
@@ -24133,7 +24134,7 @@
         <v>44611</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C16" s="57">
         <v>100</v>
@@ -24147,7 +24148,7 @@
         <v>44611</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C17" s="57">
         <v>100</v>
@@ -24156,57 +24157,83 @@
         <v>181</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>1116</v>
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C19" s="57">
+        <v>131</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C20" s="57">
+        <v>123.9</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>1101</v>
+        <v>44617</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>1115</v>
       </c>
       <c r="C23" s="57">
-        <v>123.9</v>
+        <v>130</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>1120</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>1103</v>
+        <v>44617</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>995</v>
       </c>
       <c r="C24" s="57">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C28" s="57">
         <v>129.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="43">
-        <v>44611</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>995</v>
-      </c>
-      <c r="C29" s="57">
+      <c r="D24" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="43">
+        <v>44617</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C25" s="57">
         <v>129.9</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1141">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3478,6 +3478,18 @@
   </si>
   <si>
     <t>forma de pagamentp</t>
+  </si>
+  <si>
+    <t>(11) 97507-3311 (enzo)</t>
+  </si>
+  <si>
+    <t>(11) 98241-8182 (theo)</t>
+  </si>
+  <si>
+    <t>15 99676-2533 (enzo, casas bahia)</t>
+  </si>
+  <si>
+    <t>(15) 99723-6562 (enrico)</t>
   </si>
 </sst>
 </file>
@@ -3491,7 +3503,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3515,6 +3527,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -3603,7 +3629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3635,11 +3661,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3681,39 +3733,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3723,31 +3754,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5864,9 +5910,9 @@
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -7000,30 +7046,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="57"/>
+    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="35" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="43">
+      <c r="A2" s="28">
         <v>44611</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="25" t="s">
         <v>1109</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="36">
         <f xml:space="preserve"> 5 + 2.5 +5</f>
         <v>12.5</v>
       </c>
@@ -7042,7 +7088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7055,106 +7101,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="34" t="s">
         <v>1136</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="34" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="25" t="s">
         <v>1132</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="25">
         <v>199.9</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="25" t="s">
         <v>1080</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="25">
         <v>199.9</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="25" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="25" t="s">
         <v>1133</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="25">
         <v>199.9</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="25" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -7167,70 +7213,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="25" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="25" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="25" customWidth="1"/>
+    <col min="14" max="28" width="18.28515625" style="25" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="25" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="25" customWidth="1"/>
     <col min="32" max="1028" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="74" t="s">
+      <c r="AC1" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7354,7 +7400,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I28" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 8 meses 23 dias</v>
+        <v>12 anos, 9 meses 1 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7422,7 +7468,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 26 dias</v>
+        <v>10 anos, 3 meses 7 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7496,7 +7542,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 26 dias</v>
+        <v>122 anos, 2 meses 4 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7552,7 +7598,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 1 meses 26 dias</v>
+        <v>122 anos, 2 meses 4 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7618,7 +7664,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 10 meses 1 dias</v>
+        <v>13 anos, 10 meses 10 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -7690,7 +7736,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 5 meses 22 dias</v>
+        <v>8 anos, 6 meses 0 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -7728,13 +7774,13 @@
       <c r="Y8" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="23">
         <v>44597</v>
       </c>
       <c r="AA8" s="15">
         <v>99.9</v>
       </c>
-      <c r="AB8" s="31" t="s">
+      <c r="AB8" s="24" t="s">
         <v>221</v>
       </c>
       <c r="AC8" s="8"/>
@@ -7762,7 +7808,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 7 dias</v>
+        <v>9 anos, 2 meses 16 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -7828,7 +7874,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 11 dias</v>
+        <v>6 anos, 4 meses 20 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -7892,7 +7938,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 6 dias</v>
+        <v>5 anos, 8 meses 15 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -7966,7 +8012,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 23 dias</v>
+        <v>6 anos, 7 meses 1 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -8000,13 +8046,13 @@
       <c r="Y12" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="Z12" s="30">
+      <c r="Z12" s="23">
         <v>44603</v>
       </c>
       <c r="AA12" s="8">
         <v>100</v>
       </c>
-      <c r="AB12" s="31" t="s">
+      <c r="AB12" s="24" t="s">
         <v>175</v>
       </c>
       <c r="AC12" s="8"/>
@@ -8040,7 +8086,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 2 dias</v>
+        <v>5 anos, 4 meses 11 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -8114,7 +8160,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 24 dias</v>
+        <v>6 anos, 3 meses 5 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -8152,13 +8198,13 @@
       <c r="Y14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="Z14" s="30">
+      <c r="Z14" s="23">
         <v>44603</v>
       </c>
       <c r="AA14" s="8">
         <v>129.9</v>
       </c>
-      <c r="AB14" s="31" t="s">
+      <c r="AB14" s="24" t="s">
         <v>247</v>
       </c>
       <c r="AC14" s="8"/>
@@ -8190,7 +8236,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 0 dias</v>
+        <v>6 anos, 1 meses 9 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -8260,7 +8306,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 21 dias</v>
+        <v>7 anos, 0 meses 30 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8288,13 +8334,13 @@
       <c r="S16" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="23">
         <v>44583</v>
       </c>
       <c r="U16" s="15">
         <v>100</v>
       </c>
-      <c r="V16" s="31" t="s">
+      <c r="V16" s="24" t="s">
         <v>175</v>
       </c>
       <c r="W16" s="8"/>
@@ -8332,7 +8378,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 17 dias</v>
+        <v>5 anos, 7 meses 26 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8360,13 +8406,13 @@
       <c r="S17" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="T17" s="43">
+      <c r="T17" s="28">
         <v>44603</v>
       </c>
       <c r="U17" s="15">
         <v>129.9</v>
       </c>
-      <c r="V17" s="33" t="s">
+      <c r="V17" s="25" t="s">
         <v>175</v>
       </c>
       <c r="W17" s="8"/>
@@ -8406,7 +8452,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 11 dias</v>
+        <v>6 anos, 8 meses 20 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8434,7 +8480,7 @@
       <c r="S18" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="T18" s="30">
+      <c r="T18" s="23">
         <v>44597</v>
       </c>
       <c r="U18" s="15">
@@ -8480,7 +8526,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 3 meses 23 dias</v>
+        <v>12 anos, 4 meses 4 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8544,7 +8590,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 14 dias</v>
+        <v>11 anos, 1 meses 23 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8608,7 +8654,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 10 dias</v>
+        <v>5 anos, 5 meses 19 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -8672,7 +8718,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 15 dias</v>
+        <v>5 anos, 7 meses 24 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -8736,7 +8782,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 21 dias</v>
+        <v>6 anos, 1 meses 30 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -8768,29 +8814,29 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="24" t="s">
         <v>1057</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="24" t="s">
         <v>1050</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="24" t="s">
         <v>1051</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="24" t="s">
         <v>319</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="24" t="s">
         <v>1049</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="23">
         <v>42471</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 15 dias</v>
+        <v>5 anos, 10 meses 24 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -8802,13 +8848,13 @@
         <v>44596</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="30">
+      <c r="N24" s="23">
         <v>44603</v>
       </c>
       <c r="O24" s="15">
         <v>100</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="P24" s="24" t="s">
         <v>181</v>
       </c>
       <c r="Q24" s="8"/>
@@ -8836,17 +8882,17 @@
         <v>1068</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="30" t="s">
         <v>1069</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="33">
         <v>41928</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 10 dias</v>
-      </c>
-      <c r="J25" s="31" t="s">
+        <v>7 anos, 4 meses 19 dias</v>
+      </c>
+      <c r="J25" s="24" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="8" t="s">
@@ -8876,33 +8922,33 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="40" t="s">
         <v>1087</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="40" t="s">
         <v>1088</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="40" t="s">
         <v>1089</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="40" t="s">
         <v>1090</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="40" t="s">
         <v>1012</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="40" t="s">
         <v>1086</v>
       </c>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="40" t="s">
         <v>1085</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="23">
         <v>42877</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 4 dias</v>
+        <v>4 anos, 9 meses 13 dias</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -8928,31 +8974,31 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="40" t="s">
         <v>1092</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="40" t="s">
         <v>1093</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="41" t="s">
         <v>1094</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="40" t="s">
         <v>1095</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="40" t="s">
         <v>988</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="40" t="s">
         <v>1091</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="23">
         <v>42482</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 4 dias</v>
+        <v>5 anos, 10 meses 13 dias</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -8978,31 +9024,31 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="24" t="s">
         <v>1105</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="24" t="s">
         <v>1106</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="24" t="s">
         <v>1107</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="24" t="s">
         <v>1108</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="24" t="s">
         <v>1007</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="24" t="s">
         <v>1104</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="23">
         <v>42294</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 9 dias</v>
+        <v>6 anos, 4 meses 18 dias</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -9679,7 +9725,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ref="I48:I55" ca="1" si="1">DATEDIF(H48,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H48,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H48,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 5 meses 1 dias</v>
+        <v>3 anos, 5 meses 10 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>76</v>
@@ -9739,7 +9785,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 7 meses 24 dias</v>
+        <v>7 anos, 8 meses 5 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -9801,7 +9847,7 @@
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 8 meses 23 dias</v>
+        <v>10 anos, 9 meses 1 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -9863,7 +9909,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 8 meses 5 dias</v>
+        <v>8 anos, 8 meses 14 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>52</v>
@@ -9921,7 +9967,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 1 meses 26 dias</v>
+        <v>122 anos, 2 meses 4 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>21</v>
@@ -9989,7 +10035,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 5 meses 0 dias</v>
+        <v>10 anos, 5 meses 9 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -10051,7 +10097,7 @@
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 7 meses 19 dias</v>
+        <v>13 anos, 7 meses 28 dias</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>35</v>
@@ -10113,7 +10159,7 @@
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 12 dias</v>
+        <v>7 anos, 10 meses 21 dias</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>52</v>
@@ -17272,14 +17318,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="25" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="25" customWidth="1"/>
     <col min="10" max="26" width="8.5703125" customWidth="1"/>
     <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
@@ -19715,7 +19761,7 @@
         <v>383</v>
       </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="60" t="s">
+      <c r="F108" s="39" t="s">
         <v>904</v>
       </c>
       <c r="G108" s="8"/>
@@ -20068,142 +20114,142 @@
       </c>
     </row>
     <row r="124" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="26" t="s">
         <v>1003</v>
       </c>
-      <c r="C124" s="43">
+      <c r="C124" s="28">
         <v>43243</v>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="F124" s="33" t="s">
+      <c r="F124" s="25" t="s">
         <v>982</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I124" s="33" t="s">
+      <c r="I124" s="25" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B125" s="44" t="s">
+      <c r="B125" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="C125" s="43">
+      <c r="C125" s="28">
         <v>43059</v>
       </c>
-      <c r="E125" s="33" t="s">
+      <c r="E125" s="25" t="s">
         <v>1006</v>
       </c>
-      <c r="F125" s="33" t="s">
+      <c r="F125" s="25" t="s">
         <v>965</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I125" s="33" t="s">
+      <c r="I125" s="25" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="C126" s="43">
+      <c r="C126" s="28">
         <v>42985</v>
       </c>
-      <c r="E126" s="33" t="s">
+      <c r="E126" s="25" t="s">
         <v>1009</v>
       </c>
-      <c r="F126" s="33" t="s">
+      <c r="F126" s="25" t="s">
         <v>1008</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I126" s="33" t="s">
+      <c r="I126" s="25" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="25" t="s">
         <v>1021</v>
       </c>
-      <c r="C127" s="43">
+      <c r="C127" s="28">
         <v>39089</v>
       </c>
-      <c r="D127" s="33" t="s">
+      <c r="D127" s="25" t="s">
         <v>1017</v>
       </c>
-      <c r="E127" s="33" t="s">
+      <c r="E127" s="25" t="s">
         <v>1018</v>
       </c>
-      <c r="F127" s="33" t="s">
+      <c r="F127" s="25" t="s">
         <v>966</v>
       </c>
-      <c r="H127" s="50">
+      <c r="H127" s="31">
         <v>44597</v>
       </c>
-      <c r="I127" s="33" t="s">
+      <c r="I127" s="25" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B128" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="F128" s="33" t="s">
+      <c r="F128" s="25" t="s">
         <v>1024</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I128" s="33" t="s">
+      <c r="I128" s="25" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B129" s="51" t="s">
+      <c r="B129" s="32" t="s">
         <v>1027</v>
       </c>
-      <c r="C129" s="43">
+      <c r="C129" s="28">
         <v>42995</v>
       </c>
-      <c r="E129" s="33" t="s">
+      <c r="E129" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="F129" s="33" t="s">
+      <c r="F129" s="25" t="s">
         <v>1025</v>
       </c>
-      <c r="H129" s="50">
+      <c r="H129" s="31">
         <v>44596</v>
       </c>
-      <c r="I129" s="33" t="s">
+      <c r="I129" s="25" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="C130" s="43">
+      <c r="C130" s="28">
         <v>42221</v>
       </c>
-      <c r="E130" s="33" t="s">
+      <c r="E130" s="25" t="s">
         <v>1029</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F130" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="H130" s="50">
+      <c r="H130" s="31">
         <v>44596</v>
       </c>
-      <c r="I130" s="33" t="s">
+      <c r="I130" s="25" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -20220,13 +20266,13 @@
       <c r="F131" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G131" s="31" t="s">
+      <c r="G131" s="24" t="s">
         <v>303</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="I131" s="33" t="s">
+      <c r="I131" s="25" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20243,13 +20289,13 @@
       <c r="F132" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G132" s="31" t="s">
+      <c r="G132" s="24" t="s">
         <v>303</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="I132" s="33" t="s">
+      <c r="I132" s="25" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20267,7 +20313,7 @@
       <c r="H133" s="6">
         <v>44576</v>
       </c>
-      <c r="I133" s="33" t="s">
+      <c r="I133" s="25" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20285,7 +20331,7 @@
       <c r="H134" s="6">
         <v>44520</v>
       </c>
-      <c r="I134" s="33" t="s">
+      <c r="I134" s="25" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20305,7 +20351,7 @@
       <c r="H135" s="6">
         <v>44583</v>
       </c>
-      <c r="I135" s="33" t="s">
+      <c r="I135" s="25" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20325,17 +20371,17 @@
       <c r="H136" s="6">
         <v>44541</v>
       </c>
-      <c r="I136" s="33" t="s">
+      <c r="I136" s="25" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="13.5" customHeight="1">
-      <c r="F137" s="33" t="s">
+      <c r="F137" s="25" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="13.5" customHeight="1">
-      <c r="F138" s="33" t="s">
+      <c r="F138" s="25" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -21209,37 +21255,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS1000"/>
+  <dimension ref="A1:AX1000"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
-    <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
-    <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="25" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="12" style="25" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="25" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="25" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="25" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29" style="25" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="25" customWidth="1"/>
+    <col min="23" max="23" width="36" style="25" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
@@ -21249,1612 +21295,1740 @@
     <col min="35" max="35" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.42578125" customWidth="1"/>
-    <col min="44" max="1026" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="14.42578125" customWidth="1"/>
+    <col min="49" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A1" s="75">
+    <row r="1" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A1" s="58">
         <v>44541</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58">
         <v>44548</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58">
         <v>44569</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58">
         <v>44576</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58">
         <v>44583</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="76">
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="44">
         <v>44596</v>
       </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44">
         <v>44597</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76">
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44">
         <v>44603</v>
       </c>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76">
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44">
         <v>44604</v>
       </c>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76">
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44">
         <v>44610</v>
       </c>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76">
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44">
         <v>44611</v>
       </c>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="66">
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44">
         <v>44617</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66">
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44">
         <v>44618</v>
       </c>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="33"/>
-      <c r="AQ1" s="4">
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="47">
         <v>44624</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AP1" s="48"/>
+      <c r="AV1" s="4">
+        <v>44624</v>
+      </c>
+      <c r="AX1" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="AM2" s="33"/>
-      <c r="AQ2" s="4" t="s">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AP2" s="49" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="AV2" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>959</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="59" t="s">
         <v>959</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="59" t="s">
         <v>960</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="59" t="s">
         <v>830</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="59" t="s">
         <v>961</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="59" t="s">
         <v>830</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="59" t="s">
         <v>961</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="60" t="s">
         <v>962</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="61" t="s">
         <v>963</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="61" t="s">
         <v>964</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="62" t="s">
         <v>965</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="24" t="s">
+      <c r="Q3" s="62"/>
+      <c r="R3" s="60" t="s">
         <v>966</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="53" t="s">
         <v>967</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="63" t="s">
         <v>1035</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Y3" s="50" t="s">
         <v>1062</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Z3" s="56" t="s">
         <v>973</v>
       </c>
-      <c r="AA3" s="52" t="s">
+      <c r="AA3" s="53" t="s">
         <v>1047</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="61" t="s">
+      <c r="AC3" s="50" t="s">
         <v>1083</v>
       </c>
-      <c r="AD3" s="61" t="s">
+      <c r="AD3" s="50" t="s">
         <v>998</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AE3" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AF3" s="52" t="s">
+      <c r="AF3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="34" t="s">
+      <c r="AG3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="61" t="s">
+      <c r="AH3" s="50" t="s">
         <v>1012</v>
       </c>
-      <c r="AI3" s="61" t="s">
+      <c r="AI3" s="50" t="s">
         <v>998</v>
       </c>
-      <c r="AJ3" s="68" t="s">
+      <c r="AJ3" s="51" t="s">
         <v>1118</v>
       </c>
-      <c r="AK3" s="68" t="s">
+      <c r="AK3" s="51" t="s">
         <v>1120</v>
       </c>
-      <c r="AL3" s="72" t="s">
+      <c r="AL3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="33"/>
-      <c r="AQ3" t="s">
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="52" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AP3" s="52" t="s">
+        <v>998</v>
+      </c>
+      <c r="AV3" t="s">
         <v>1117</v>
       </c>
-      <c r="AS3" s="33" t="s">
+      <c r="AX3" s="25" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A4" s="59" t="s">
         <v>968</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="59" t="s">
         <v>961</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="59" t="s">
         <v>969</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="59" t="s">
         <v>968</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="59" t="s">
         <v>961</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="59" t="s">
         <v>970</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="59" t="s">
         <v>971</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="59" t="s">
         <v>972</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="59" t="s">
         <v>970</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="59" t="s">
         <v>959</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="59" t="s">
         <v>972</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="59" t="s">
         <v>970</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="59" t="s">
         <v>578</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="60" t="s">
         <v>973</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="34" t="s">
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="53" t="s">
         <v>974</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="V4" s="45"/>
+      <c r="W4" s="56" t="s">
         <v>1037</v>
       </c>
-      <c r="X4" s="36" t="s">
+      <c r="X4" s="53" t="s">
         <v>994</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Y4" s="50" t="s">
         <v>1042</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="50" t="s">
         <v>1067</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="56" t="s">
         <v>1007</v>
       </c>
-      <c r="AB4" s="34" t="s">
+      <c r="AB4" s="50" t="s">
         <v>995</v>
       </c>
-      <c r="AC4" s="61" t="s">
+      <c r="AC4" s="50" t="s">
         <v>1082</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="35" t="s">
+      <c r="AE4" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="AF4" s="61" t="s">
+      <c r="AF4" s="50" t="s">
         <v>1007</v>
       </c>
-      <c r="AG4" s="61" t="s">
+      <c r="AG4" s="50" t="s">
         <v>998</v>
       </c>
-      <c r="AH4" s="52" t="s">
+      <c r="AH4" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="AI4" s="35" t="s">
+      <c r="AI4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="68" t="s">
+      <c r="AJ4" s="51" t="s">
         <v>1119</v>
       </c>
-      <c r="AK4" s="69" t="s">
+      <c r="AK4" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AL4" s="67" t="s">
+      <c r="AL4" s="51" t="s">
         <v>998</v>
       </c>
-      <c r="AM4" s="33"/>
-    </row>
-    <row r="5" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP4" s="52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A5" s="59" t="s">
         <v>975</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="59" t="s">
         <v>972</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="59" t="s">
         <v>976</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="59" t="s">
         <v>975</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="60" t="s">
         <v>977</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="60" t="s">
         <v>978</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="59" t="s">
         <v>979</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="59" t="s">
         <v>980</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="59" t="s">
         <v>980</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="59" t="s">
         <v>981</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="59" t="s">
         <v>980</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="59" t="s">
         <v>980</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="59" t="s">
         <v>692</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="59" t="s">
         <v>970</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="62" t="s">
         <v>982</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="34" t="s">
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="53" t="s">
         <v>983</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="V5" s="45"/>
+      <c r="W5" s="50" t="s">
         <v>995</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="X5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="Y5" s="53" t="s">
         <v>1043</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" s="35" t="s">
+      <c r="AA5" s="50" t="s">
         <v>1048</v>
       </c>
-      <c r="AB5" s="35" t="s">
+      <c r="AB5" s="50" t="s">
         <v>1062</v>
       </c>
-      <c r="AC5" s="35" t="s">
+      <c r="AC5" s="50" t="s">
         <v>1084</v>
       </c>
-      <c r="AD5" s="61" t="s">
+      <c r="AD5" s="50" t="s">
         <v>1045</v>
       </c>
-      <c r="AE5" s="35" t="s">
+      <c r="AE5" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="AF5" s="61" t="s">
+      <c r="AF5" s="50" t="s">
         <v>1110</v>
       </c>
-      <c r="AG5" s="35" t="s">
+      <c r="AG5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="61" t="s">
+      <c r="AH5" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="AI5" s="64" t="s">
+      <c r="AI5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AJ5" s="68" t="s">
+      <c r="AJ5" s="51" t="s">
         <v>1121</v>
       </c>
-      <c r="AK5" s="67" t="s">
+      <c r="AK5" s="51" t="s">
         <v>1007</v>
       </c>
-      <c r="AL5" s="68" t="s">
+      <c r="AL5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AM5" s="33"/>
-    </row>
-    <row r="6" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="52" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AP5" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A6" s="59" t="s">
         <v>984</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="59" t="s">
         <v>985</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="59" t="s">
         <v>986</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="59" t="s">
         <v>987</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="59" t="s">
         <v>967</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="59" t="s">
         <v>975</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="59" t="s">
         <v>969</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="59" t="s">
         <v>975</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="59" t="s">
         <v>969</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="59" t="s">
         <v>959</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="59" t="s">
         <v>961</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="59" t="s">
         <v>967</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="62" t="s">
         <v>988</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="35" t="s">
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="50" t="s">
         <v>990</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="63" t="s">
         <v>1031</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="W6" s="34" t="s">
+      <c r="V6" s="45"/>
+      <c r="W6" s="50" t="s">
         <v>998</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="X6" s="50" t="s">
         <v>1060</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Y6" s="50" t="s">
         <v>1061</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="Z6" s="50" t="s">
         <v>1066</v>
       </c>
-      <c r="AA6" s="52" t="s">
+      <c r="AA6" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="AB6" s="35" t="s">
+      <c r="AB6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" s="52" t="s">
+      <c r="AC6" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="AD6" s="61" t="s">
+      <c r="AD6" s="50" t="s">
         <v>1046</v>
       </c>
-      <c r="AE6" s="35" t="s">
+      <c r="AE6" s="50" t="s">
         <v>990</v>
       </c>
-      <c r="AF6" s="61" t="s">
+      <c r="AF6" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="AG6" s="35" t="s">
+      <c r="AG6" s="50" t="s">
         <v>1016</v>
       </c>
-      <c r="AH6" s="36" t="s">
+      <c r="AH6" s="53" t="s">
         <v>994</v>
       </c>
-      <c r="AI6" s="35" t="s">
+      <c r="AI6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="68" t="s">
+      <c r="AJ6" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="AK6" s="67" t="s">
+      <c r="AK6" s="51" t="s">
         <v>1110</v>
       </c>
-      <c r="AL6" s="68" t="s">
+      <c r="AL6" s="51" t="s">
         <v>1016</v>
       </c>
-      <c r="AM6" s="33"/>
-    </row>
-    <row r="7" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="55" t="s">
+        <v>994</v>
+      </c>
+      <c r="AP6" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A7" s="59" t="s">
         <v>989</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="61" t="s">
         <v>985</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="61" t="s">
         <v>984</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="59" t="s">
         <v>972</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="59" t="s">
         <v>985</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="59" t="s">
         <v>986</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="59" t="s">
         <v>983</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="61" t="s">
         <v>985</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="59" t="s">
         <v>810</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="59" t="s">
         <v>981</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="59" t="s">
         <v>972</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="59" t="s">
         <v>969</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="34" t="s">
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="34" t="s">
+      <c r="T7" s="62"/>
+      <c r="U7" s="50" t="s">
         <v>990</v>
       </c>
-      <c r="V7" s="32"/>
-      <c r="W7" s="34" t="s">
+      <c r="V7" s="45"/>
+      <c r="W7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="53" t="s">
+      <c r="X7" s="56" t="s">
         <v>988</v>
       </c>
-      <c r="Y7" s="48" t="s">
+      <c r="Y7" s="57" t="s">
         <v>1044</v>
       </c>
-      <c r="Z7" s="35" t="s">
+      <c r="Z7" s="50" t="s">
         <v>1065</v>
       </c>
-      <c r="AA7" s="35" t="s">
+      <c r="AA7" s="50" t="s">
         <v>1000</v>
       </c>
-      <c r="AB7" s="35" t="s">
+      <c r="AB7" s="50" t="s">
         <v>1016</v>
       </c>
-      <c r="AC7" s="35" t="s">
+      <c r="AC7" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="AD7" s="64" t="s">
+      <c r="AD7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AE7" s="35" t="s">
+      <c r="AE7" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AF7" s="35" t="s">
+      <c r="AF7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AG7" s="35" t="s">
+      <c r="AG7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AH7" s="35" t="s">
+      <c r="AH7" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="AI7" s="35" t="s">
+      <c r="AI7" s="50" t="s">
         <v>1000</v>
       </c>
-      <c r="AJ7" s="68" t="s">
+      <c r="AJ7" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="AK7" s="67" t="s">
+      <c r="AK7" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="AL7" s="68" t="s">
+      <c r="AL7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AM7" s="33"/>
-    </row>
-    <row r="8" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP7" s="52" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A8" s="59" t="s">
         <v>830</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="60" t="s">
         <v>991</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="61" t="s">
         <v>989</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="61" t="s">
         <v>989</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="61" t="s">
         <v>985</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="60" t="s">
         <v>810</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="59" t="s">
         <v>989</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="59" t="s">
         <v>992</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="59" t="s">
         <v>975</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="59" t="s">
         <v>993</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="36" t="s">
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="53" t="s">
         <v>994</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="34" t="s">
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="50" t="s">
         <v>1045</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="50" t="s">
         <v>1064</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="50" t="s">
         <v>1072</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="35" t="s">
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="AF8" s="61" t="s">
+      <c r="AF8" s="50" t="s">
         <v>1111</v>
       </c>
-      <c r="AG8" s="64" t="s">
+      <c r="AG8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AH8" s="35" t="s">
+      <c r="AH8" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="AI8" s="77" t="s">
+      <c r="AI8" s="56" t="s">
         <v>1128</v>
       </c>
-      <c r="AJ8" s="68" t="s">
+      <c r="AJ8" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="AK8" s="68" t="s">
+      <c r="AK8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AL8" s="71" t="s">
+      <c r="AL8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AM8" s="33"/>
-    </row>
-    <row r="9" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP8" s="52" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A9" s="59" t="s">
         <v>960</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="60" t="s">
         <v>996</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="61" t="s">
         <v>830</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="61" t="s">
         <v>980</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="61" t="s">
         <v>969</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="61" t="s">
         <v>968</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="24" t="s">
+      <c r="H9" s="62"/>
+      <c r="I9" s="60" t="s">
         <v>992</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="25" t="s">
+      <c r="K9" s="62"/>
+      <c r="L9" s="61" t="s">
         <v>997</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="59" t="s">
         <v>521</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="65" t="s">
         <v>985</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="37" t="s">
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="63" t="s">
         <v>1032</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="39" t="s">
+      <c r="T9" s="62"/>
+      <c r="U9" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="38" t="s">
+      <c r="V9" s="62"/>
+      <c r="W9" s="56" t="s">
         <v>1036</v>
       </c>
-      <c r="Y9" s="35" t="s">
+      <c r="X9" s="45"/>
+      <c r="Y9" s="50" t="s">
         <v>1046</v>
       </c>
-      <c r="Z9" s="35" t="s">
+      <c r="Z9" s="50" t="s">
         <v>1063</v>
       </c>
-      <c r="AA9" s="35" t="s">
+      <c r="AA9" s="50" t="s">
         <v>1061</v>
       </c>
-      <c r="AB9" s="38" t="s">
+      <c r="AB9" s="56" t="s">
         <v>1071</v>
       </c>
-      <c r="AC9" s="61" t="s">
+      <c r="AC9" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="36" t="s">
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="35" t="s">
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="50" t="s">
         <v>1102</v>
       </c>
-      <c r="AJ9" s="68" t="s">
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="51" t="s">
         <v>990</v>
       </c>
-      <c r="AK9" s="67" t="s">
+      <c r="AK9" s="51" t="s">
         <v>1111</v>
       </c>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-    </row>
-    <row r="10" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="52" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AP9" s="52" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A10" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="61" t="s">
         <v>967</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="61" t="s">
         <v>976</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="61" t="s">
         <v>997</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="25" t="s">
+      <c r="K10" s="62"/>
+      <c r="L10" s="61" t="s">
         <v>983</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="59" t="s">
         <v>968</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="62"/>
+      <c r="O10" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="38" t="s">
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="56" t="s">
         <v>1038</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="25" t="s">
+      <c r="T10" s="62"/>
+      <c r="U10" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="39" t="s">
+      <c r="V10" s="62"/>
+      <c r="W10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="X10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="38" t="s">
+      <c r="X10" s="52"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="56" t="s">
         <v>1068</v>
       </c>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="38" t="s">
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="56" t="s">
         <v>1125</v>
       </c>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="38" t="s">
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="56" t="s">
         <v>1127</v>
       </c>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="68" t="s">
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AK10" s="68" t="s">
+      <c r="AK10" s="51" t="s">
         <v>1122</v>
       </c>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-    </row>
-    <row r="11" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="52" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP10" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A11" s="60" t="s">
         <v>999</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="61" t="s">
         <v>970</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="25" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="61" t="s">
         <v>968</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="23" t="s">
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="59" t="s">
         <v>986</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="37" t="s">
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="63" t="s">
         <v>1033</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="25" t="s">
+      <c r="T11" s="62"/>
+      <c r="U11" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="V11" s="8"/>
-      <c r="W11" s="48" t="s">
+      <c r="V11" s="62"/>
+      <c r="W11" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="52" t="s">
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="53" t="s">
         <v>1073</v>
       </c>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="38" t="s">
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="56" t="s">
         <v>1126</v>
       </c>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="68" t="s">
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="AK11" s="68" t="s">
+      <c r="AK11" s="51" t="s">
         <v>1123</v>
       </c>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-    </row>
-    <row r="12" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP11" s="52" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A12" s="61" t="s">
         <v>986</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="25" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="61" t="s">
         <v>830</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="38" t="s">
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="56" t="s">
         <v>1034</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="25" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="V12" s="8"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="61" t="s">
+      <c r="V12" s="62"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="50" t="s">
         <v>1103</v>
       </c>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="70" t="s">
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="AK12" s="68" t="s">
+      <c r="AK12" s="51" t="s">
         <v>1124</v>
       </c>
-      <c r="AL12" s="48" t="s">
+      <c r="AL12" s="57" t="s">
         <v>995</v>
       </c>
-      <c r="AM12" s="33"/>
-    </row>
-    <row r="13" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="28" t="s">
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="52" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AP12" s="52"/>
+    </row>
+    <row r="13" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="66" t="s">
         <v>989</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="48" t="s">
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="57" t="s">
         <v>1042</v>
       </c>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="48" t="s">
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AI13" s="48" t="s">
+      <c r="AI13" s="57" t="s">
         <v>995</v>
       </c>
-      <c r="AJ13" s="67" t="s">
+      <c r="AJ13" s="51" t="s">
         <v>1103</v>
       </c>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-    </row>
-    <row r="14" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="25" t="s">
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP13" s="52"/>
+    </row>
+    <row r="14" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="48" t="s">
+      <c r="W14" s="62"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="48" t="s">
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AG14" s="39" t="s">
+      <c r="AG14" s="57" t="s">
         <v>995</v>
       </c>
-      <c r="AH14" s="73" t="s">
+      <c r="AH14" s="57" t="s">
         <v>988</v>
       </c>
-      <c r="AI14" s="73" t="s">
+      <c r="AI14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-    </row>
-    <row r="15" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="47" t="s">
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
+    </row>
+    <row r="15" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="W15" s="8"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="40" t="s">
+      <c r="W15" s="62"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="69" t="s">
         <v>994</v>
       </c>
-      <c r="AD15" s="48" t="s">
+      <c r="AD15" s="57" t="s">
         <v>1000</v>
       </c>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="48" t="s">
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="57" t="s">
         <v>1000</v>
       </c>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="73" t="s">
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="57" t="s">
         <v>1016</v>
       </c>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-    </row>
-    <row r="16" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="29" t="s">
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="52"/>
+    </row>
+    <row r="16" spans="1:50" ht="13.5" customHeight="1">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="68" t="s">
         <v>1000</v>
       </c>
-      <c r="W16" s="8"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="49" t="s">
+      <c r="W16" s="62"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="69" t="s">
         <v>314</v>
       </c>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-    </row>
-    <row r="17" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="40" t="s">
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
+    </row>
+    <row r="17" spans="1:42" ht="13.5" customHeight="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="69" t="s">
         <v>1001</v>
       </c>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-    </row>
-    <row r="18" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="46" t="s">
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="52"/>
+    </row>
+    <row r="18" spans="1:42" ht="13.5" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="X18" s="40" t="s">
+      <c r="X18" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="AA18" s="45"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-    </row>
-    <row r="19" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-    </row>
-    <row r="20" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-    </row>
-    <row r="21" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="48" t="s">
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+    </row>
+    <row r="19" spans="1:42" ht="13.5" customHeight="1">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+    </row>
+    <row r="20" spans="1:42" ht="13.5" customHeight="1">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+    </row>
+    <row r="21" spans="1:42" ht="13.5" customHeight="1">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="57" t="s">
         <v>1013</v>
       </c>
-      <c r="AB21" s="40" t="s">
+      <c r="AB21" s="69" t="s">
         <v>1001</v>
       </c>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="33"/>
-    </row>
-    <row r="22" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="49" t="s">
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+    </row>
+    <row r="22" spans="1:42" ht="13.5" customHeight="1">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="Z22" s="40" t="s">
+      <c r="Z22" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="AA22" s="48" t="s">
+      <c r="AA22" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="AB22" s="49" t="s">
+      <c r="AB22" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-    </row>
-    <row r="23" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:39" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:39" ht="13.5" customHeight="1"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="46"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+    </row>
+    <row r="23" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:42" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:42" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -23824,7 +23998,10 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -23868,7 +24045,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="42">
+      <c r="A2" s="27">
         <v>44238</v>
       </c>
       <c r="B2" t="s">
@@ -23893,346 +24070,346 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="33"/>
+    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="34" t="s">
         <v>1075</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="34" t="s">
         <v>1076</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="43">
+      <c r="A2" s="28">
         <v>44603</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="30" t="s">
         <v>1053</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="36">
         <v>100</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="28">
         <v>44625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="43">
+      <c r="A3" s="28">
         <v>44603</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="30" t="s">
         <v>1054</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="36">
         <v>129.9</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="25" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43">
+      <c r="A4" s="28">
         <v>44603</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="30" t="s">
         <v>1055</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="36">
         <v>129</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43">
+      <c r="A5" s="28">
         <v>44603</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="30" t="s">
         <v>1052</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="36">
         <v>100</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43">
+      <c r="A6" s="28">
         <v>44603</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="30" t="s">
         <v>1056</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="36">
         <v>137</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="37" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="43">
+      <c r="A7" s="28">
         <v>44603</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="30" t="s">
         <v>1074</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="36">
         <v>110</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="43">
+      <c r="A8" s="28">
         <v>44604</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="30" t="s">
         <v>1059</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="36">
         <v>99.9</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="25" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="43">
+      <c r="A9" s="28">
         <v>44604</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="38" t="s">
         <v>1078</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="36">
         <v>100</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="43">
+      <c r="A10" s="28">
         <v>44604</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="30" t="s">
         <v>1070</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="36">
         <v>99.9</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="25" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="43">
+      <c r="A11" s="28">
         <v>44606</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="25" t="s">
         <v>1079</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="36">
         <v>99.9</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="43">
+      <c r="A12" s="28">
         <v>44610</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="25" t="s">
         <v>1097</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="36">
         <v>109.9</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="25" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="43">
+      <c r="A13" s="28">
         <v>44610</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="25" t="s">
         <v>1098</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="36">
         <v>99.9</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="25" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="43">
+      <c r="A14" s="28">
         <v>44611</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="25" t="s">
         <v>1100</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="36">
         <v>129.9</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="25" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="43">
+      <c r="A15" s="28">
         <v>44611</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="25" t="s">
         <v>1103</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="36">
         <v>102.4</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="25" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="43">
+      <c r="A16" s="28">
         <v>44611</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="37" t="s">
         <v>1112</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="36">
         <v>100</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="37" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="43">
+      <c r="A17" s="28">
         <v>44611</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="37" t="s">
         <v>1113</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="36">
         <v>100</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="37" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="43">
+      <c r="A19" s="28">
         <v>44611</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="25" t="s">
         <v>1099</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="36">
         <v>131</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="25" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="43">
+      <c r="A20" s="28">
         <v>44611</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="25" t="s">
         <v>1101</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="36">
         <v>123.9</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="25" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="43">
+      <c r="A23" s="28">
         <v>44617</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="37" t="s">
         <v>1115</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="36">
         <v>130</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="43">
+      <c r="A24" s="28">
         <v>44617</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="42" t="s">
         <v>995</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="36">
         <v>129.9</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="43">
+      <c r="A25" s="28">
         <v>44617</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="25" t="s">
         <v>1131</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="36">
         <v>129.9</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="25" t="s">
         <v>247</v>
       </c>
     </row>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -7215,7 +7215,7 @@
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21258,7 +21258,7 @@
   <dimension ref="A1:AX1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$C$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NÃO RESPONDEU'!$A$1:$M$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PAGAMENTOS!$A$2:$V$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIM!$A$1:$M$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">uniformes!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">uniformes!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="1183">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3396,9 +3396,6 @@
     <t>jerry@enexytransportes.com.br</t>
   </si>
   <si>
-    <t>marcelo (pedro)</t>
-  </si>
-  <si>
     <t>tommy</t>
   </si>
   <si>
@@ -3417,33 +3414,12 @@
     <t>rogerio (leonardo)</t>
   </si>
   <si>
-    <t>enviado</t>
-  </si>
-  <si>
     <t>(35) 9170-0117</t>
   </si>
   <si>
     <t>15 99769-0278</t>
   </si>
   <si>
-    <t>15 99116-5953</t>
-  </si>
-  <si>
-    <t>15 99160-6387</t>
-  </si>
-  <si>
-    <t>15 99613-7876</t>
-  </si>
-  <si>
-    <t>15 99778-5319</t>
-  </si>
-  <si>
-    <t>15 99678-1634</t>
-  </si>
-  <si>
-    <t>15 99178-1804</t>
-  </si>
-  <si>
     <t>15 99645-1879 (N)</t>
   </si>
   <si>
@@ -3480,16 +3456,166 @@
     <t>forma de pagamentp</t>
   </si>
   <si>
-    <t>(11) 97507-3311 (enzo)</t>
-  </si>
-  <si>
-    <t>(11) 98241-8182 (theo)</t>
-  </si>
-  <si>
-    <t>15 99676-2533 (enzo, casas bahia)</t>
-  </si>
-  <si>
-    <t>(15) 99723-6562 (enrico)</t>
+    <t>miguel (P)</t>
+  </si>
+  <si>
+    <t>jorge (conrado)</t>
+  </si>
+  <si>
+    <t>hélio (vitor)</t>
+  </si>
+  <si>
+    <t>daniel (miguel)</t>
+  </si>
+  <si>
+    <t>gustavo (césar)</t>
+  </si>
+  <si>
+    <t>branca</t>
+  </si>
+  <si>
+    <t>pedro (sub05 sexta)</t>
+  </si>
+  <si>
+    <t>gabriel (juliane)</t>
+  </si>
+  <si>
+    <t>Marcelo Machado de Oliveira</t>
+  </si>
+  <si>
+    <t>139.060.068-83</t>
+  </si>
+  <si>
+    <t>Rua Quirino de Mello, 1286, Bloco 1, Apto. 12, Aparecidinha</t>
+  </si>
+  <si>
+    <t>Pedro Henrique Macori de Oliveira</t>
+  </si>
+  <si>
+    <t>marcelommolt@gmail.com</t>
+  </si>
+  <si>
+    <t>(15) 99636-4470</t>
+  </si>
+  <si>
+    <t>15 99613-7876 (N, Nicolas)</t>
+  </si>
+  <si>
+    <t>nicole (irmã conrado)</t>
+  </si>
+  <si>
+    <t>15 99116-5953 (leo)</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>15 99126-3149 (S, Davi)</t>
+  </si>
+  <si>
+    <t>(15) 97403-1178 (jerry pai)</t>
+  </si>
+  <si>
+    <t>15 99160-6387 (S, Matheus)</t>
+  </si>
+  <si>
+    <t>miguel</t>
+  </si>
+  <si>
+    <t>enzo (casas bahia)</t>
+  </si>
+  <si>
+    <t>enrico</t>
+  </si>
+  <si>
+    <t>gustavo</t>
+  </si>
+  <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>enzo (japonês)</t>
+  </si>
+  <si>
+    <t>théo (éder)</t>
+  </si>
+  <si>
+    <t>davi</t>
+  </si>
+  <si>
+    <t>théo (thaís)</t>
+  </si>
+  <si>
+    <t>vitor</t>
+  </si>
+  <si>
+    <t>gabriel (paulo)</t>
+  </si>
+  <si>
+    <t>davi (aline)</t>
+  </si>
+  <si>
+    <t>15 98802-3756 (ygor)</t>
+  </si>
+  <si>
+    <t>15 98811-4870 (wesley)</t>
+  </si>
+  <si>
+    <t>matheus</t>
+  </si>
+  <si>
+    <t>pedro (carlos)</t>
+  </si>
+  <si>
+    <t>nicolas</t>
+  </si>
+  <si>
+    <t>joaquim</t>
+  </si>
+  <si>
+    <t>theo (eder)</t>
+  </si>
+  <si>
+    <t>césar</t>
+  </si>
+  <si>
+    <t>theo (priscila)</t>
+  </si>
+  <si>
+    <t>léo</t>
+  </si>
+  <si>
+    <t>sergio (gustavo)</t>
+  </si>
+  <si>
+    <t>henrique (leonardo)</t>
+  </si>
+  <si>
+    <t>SUB11</t>
+  </si>
+  <si>
+    <t>gabriel (flavio)</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>davi (cláudia)</t>
+  </si>
+  <si>
+    <t>eduardo (jerry)</t>
+  </si>
+  <si>
+    <t>amigo do junior</t>
+  </si>
+  <si>
+    <t>Pietro Fernando Silva, 15/02/2014</t>
+  </si>
+  <si>
+    <t>12,50 bebidas</t>
   </si>
 </sst>
 </file>
@@ -3503,7 +3629,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3528,22 +3654,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3622,14 +3734,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3662,19 +3768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3691,7 +3784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3733,18 +3826,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3754,46 +3868,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4164,27 +4262,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="76.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="76.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="13" width="16.26953125" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="17" max="18" width="8.26953125" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="25" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -5910,9 +6008,9 @@
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -7038,47 +7136,206 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="36"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="28">
+    <row r="2" spans="1:3">
+      <c r="A2" s="43">
+        <v>44618</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C2" s="57">
+        <f xml:space="preserve"> 7 + 2.5</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43">
+        <v>44618</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C3" s="57">
+        <f xml:space="preserve"> 2.5 + 6.5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="43">
+        <v>44618</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C4" s="57">
+        <f>2.5 + 6.5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="43">
+        <v>44618</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C5" s="57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="43">
+        <v>44624</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C6" s="57">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="43">
         <v>44611</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B7" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C7" s="57">
+        <f xml:space="preserve"> 7 + 7 + 6.5</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C8" s="57">
+        <f xml:space="preserve"> 2.5 + 6.5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C9" s="57">
+        <f xml:space="preserve"> 7 + 7 + 7 + 7 + 6.5 + 5</f>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C10" s="57">
+        <f xml:space="preserve"> 2.5 + 2.5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C11" s="57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C12" s="57">
+        <f xml:space="preserve"> 2.5 + 6.5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C13" s="57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C14" s="57">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>1109</v>
       </c>
-      <c r="C2" s="36">
-        <f xml:space="preserve"> 5 + 2.5 +5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1116</v>
+      <c r="C15" s="57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C16" s="57">
+        <f xml:space="preserve"> 6.5 +5</f>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C2"/>
+  <autoFilter ref="A1:C14"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7086,124 +7343,141 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="25" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B2" s="25">
+      <c r="D1" s="55" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C2" s="33">
         <v>199.9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="25" t="s">
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33" t="s">
         <v>1080</v>
       </c>
-      <c r="B3" s="25">
+      <c r="C3" s="33">
         <v>199.9</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="25" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B4" s="25">
+      <c r="E3" s="33" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="43">
+        <v>44617</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C4" s="33">
         <v>199.9</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="E4" s="33" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7213,74 +7487,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE993"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="D26:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="25" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="25" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="25" customWidth="1"/>
-    <col min="14" max="28" width="18.28515625" style="25" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="25" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="25" customWidth="1"/>
-    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>159</v>
@@ -7298,7 +7572,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -7399,8 +7673,8 @@
         <v>39967</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I28" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 9 meses 1 dias</v>
+        <f t="shared" ref="I3:I29" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
+        <v>12 anos, 9 meses 2 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7468,7 +7742,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 7 dias</v>
+        <v>10 anos, 3 meses 8 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7542,7 +7816,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 4 dias</v>
+        <v>122 anos, 2 meses 5 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7598,7 +7872,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 4 dias</v>
+        <v>122 anos, 2 meses 5 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7664,7 +7938,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 10 meses 10 dias</v>
+        <v>13 anos, 10 meses 11 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -7736,7 +8010,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 6 meses 0 dias</v>
+        <v>8 anos, 6 meses 1 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -7774,13 +8048,13 @@
       <c r="Y8" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="30">
         <v>44597</v>
       </c>
       <c r="AA8" s="15">
         <v>99.9</v>
       </c>
-      <c r="AB8" s="24" t="s">
+      <c r="AB8" s="31" t="s">
         <v>221</v>
       </c>
       <c r="AC8" s="8"/>
@@ -7808,7 +8082,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 16 dias</v>
+        <v>9 anos, 2 meses 17 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -7874,7 +8148,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 20 dias</v>
+        <v>6 anos, 4 meses 21 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -7938,7 +8212,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 15 dias</v>
+        <v>5 anos, 8 meses 16 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -8012,7 +8286,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 1 dias</v>
+        <v>6 anos, 7 meses 2 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -8046,13 +8320,13 @@
       <c r="Y12" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="Z12" s="30">
         <v>44603</v>
       </c>
       <c r="AA12" s="8">
         <v>100</v>
       </c>
-      <c r="AB12" s="24" t="s">
+      <c r="AB12" s="31" t="s">
         <v>175</v>
       </c>
       <c r="AC12" s="8"/>
@@ -8086,7 +8360,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 11 dias</v>
+        <v>5 anos, 4 meses 12 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -8160,7 +8434,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 5 dias</v>
+        <v>6 anos, 3 meses 6 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -8198,13 +8472,13 @@
       <c r="Y14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="Z14" s="23">
+      <c r="Z14" s="30">
         <v>44603</v>
       </c>
       <c r="AA14" s="8">
         <v>129.9</v>
       </c>
-      <c r="AB14" s="24" t="s">
+      <c r="AB14" s="31" t="s">
         <v>247</v>
       </c>
       <c r="AC14" s="8"/>
@@ -8236,7 +8510,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 9 dias</v>
+        <v>6 anos, 1 meses 10 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -8306,7 +8580,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 30 dias</v>
+        <v>7 anos, 1 meses 0 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8334,13 +8608,13 @@
       <c r="S16" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="30">
         <v>44583</v>
       </c>
       <c r="U16" s="15">
         <v>100</v>
       </c>
-      <c r="V16" s="24" t="s">
+      <c r="V16" s="31" t="s">
         <v>175</v>
       </c>
       <c r="W16" s="8"/>
@@ -8378,7 +8652,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 26 dias</v>
+        <v>5 anos, 7 meses 27 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8406,13 +8680,13 @@
       <c r="S17" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="43">
         <v>44603</v>
       </c>
       <c r="U17" s="15">
         <v>129.9</v>
       </c>
-      <c r="V17" s="25" t="s">
+      <c r="V17" s="33" t="s">
         <v>175</v>
       </c>
       <c r="W17" s="8"/>
@@ -8452,7 +8726,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 20 dias</v>
+        <v>6 anos, 8 meses 21 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8480,7 +8754,7 @@
       <c r="S18" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="30">
         <v>44597</v>
       </c>
       <c r="U18" s="15">
@@ -8526,7 +8800,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 4 meses 4 dias</v>
+        <v>12 anos, 4 meses 5 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8590,7 +8864,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 23 dias</v>
+        <v>11 anos, 1 meses 24 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8654,7 +8928,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 19 dias</v>
+        <v>5 anos, 5 meses 20 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -8718,7 +8992,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 24 dias</v>
+        <v>5 anos, 7 meses 25 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -8782,7 +9056,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 30 dias</v>
+        <v>6 anos, 2 meses 0 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -8814,29 +9088,29 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="31" t="s">
         <v>1057</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="31" t="s">
         <v>1050</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="31" t="s">
         <v>1051</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="31" t="s">
         <v>319</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="31" t="s">
         <v>1049</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="30">
         <v>42471</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 24 dias</v>
+        <v>5 anos, 10 meses 25 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -8848,13 +9122,13 @@
         <v>44596</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="23">
+      <c r="N24" s="30">
         <v>44603</v>
       </c>
       <c r="O24" s="15">
         <v>100</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="P24" s="31" t="s">
         <v>181</v>
       </c>
       <c r="Q24" s="8"/>
@@ -8882,17 +9156,17 @@
         <v>1068</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="45" t="s">
         <v>1069</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="54">
         <v>41928</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 19 dias</v>
-      </c>
-      <c r="J25" s="24" t="s">
+        <v>7 anos, 4 meses 20 dias</v>
+      </c>
+      <c r="J25" s="31" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="8" t="s">
@@ -8922,36 +9196,40 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="62" t="s">
         <v>1087</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="62" t="s">
         <v>1088</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="62" t="s">
         <v>1089</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="62" t="s">
         <v>1090</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="62" t="s">
         <v>1012</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="62" t="s">
         <v>1086</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="62" t="s">
         <v>1085</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="30">
         <v>42877</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 13 dias</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+        <v>4 anos, 9 meses 14 dias</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -8974,34 +9252,38 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="62" t="s">
         <v>1092</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="62" t="s">
         <v>1093</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="63" t="s">
         <v>1094</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="62" t="s">
         <v>1095</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="62" t="s">
         <v>988</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="62" t="s">
         <v>1091</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="30">
         <v>42482</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 13 dias</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+        <v>5 anos, 10 meses 14 dias</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -9024,34 +9306,38 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="31" t="s">
         <v>1105</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="31" t="s">
         <v>1106</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="31" t="s">
         <v>1107</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="31" t="s">
         <v>1108</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="31" t="s">
         <v>1007</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="31" t="s">
         <v>1104</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="30">
         <v>42294</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 18 dias</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+        <v>6 anos, 4 meses 19 dias</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -9074,17 +9360,38 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="31" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>1142</v>
+      </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="G29" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H29" s="72">
+        <v>41031</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9 anos, 10 meses 3 dias</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -9725,7 +10032,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ref="I48:I55" ca="1" si="1">DATEDIF(H48,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H48,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H48,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 5 meses 10 dias</v>
+        <v>3 anos, 5 meses 11 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>76</v>
@@ -9785,7 +10092,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 8 meses 5 dias</v>
+        <v>7 anos, 8 meses 6 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -9847,7 +10154,7 @@
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 9 meses 1 dias</v>
+        <v>10 anos, 9 meses 2 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -9909,7 +10216,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 8 meses 14 dias</v>
+        <v>8 anos, 8 meses 15 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>52</v>
@@ -9967,7 +10274,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 2 meses 4 dias</v>
+        <v>122 anos, 2 meses 5 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>21</v>
@@ -10035,7 +10342,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 5 meses 9 dias</v>
+        <v>10 anos, 5 meses 10 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -10097,7 +10404,7 @@
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 7 meses 28 dias</v>
+        <v>13 anos, 7 meses 29 dias</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>35</v>
@@ -10159,7 +10466,7 @@
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 21 dias</v>
+        <v>7 anos, 10 meses 22 dias</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>52</v>
@@ -11376,14 +11683,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="1" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12566,13 +12873,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14112,18 +14419,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="51.7265625" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="17" width="9.1796875" customWidth="1"/>
+    <col min="18" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17316,18 +17623,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="25" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="25" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -19761,7 +20068,7 @@
         <v>383</v>
       </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="39" t="s">
+      <c r="F108" s="60" t="s">
         <v>904</v>
       </c>
       <c r="G108" s="8"/>
@@ -20114,142 +20421,142 @@
       </c>
     </row>
     <row r="124" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="41" t="s">
         <v>1003</v>
       </c>
-      <c r="C124" s="28">
+      <c r="C124" s="43">
         <v>43243</v>
       </c>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="33" t="s">
         <v>1002</v>
       </c>
-      <c r="F124" s="25" t="s">
+      <c r="F124" s="33" t="s">
         <v>982</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I124" s="25" t="s">
+      <c r="I124" s="33" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="44" t="s">
         <v>1005</v>
       </c>
-      <c r="C125" s="28">
+      <c r="C125" s="43">
         <v>43059</v>
       </c>
-      <c r="E125" s="25" t="s">
+      <c r="E125" s="33" t="s">
         <v>1006</v>
       </c>
-      <c r="F125" s="25" t="s">
+      <c r="F125" s="33" t="s">
         <v>965</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I125" s="25" t="s">
+      <c r="I125" s="33" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B126" s="25" t="s">
+      <c r="B126" s="33" t="s">
         <v>1011</v>
       </c>
-      <c r="C126" s="28">
+      <c r="C126" s="43">
         <v>42985</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E126" s="33" t="s">
         <v>1009</v>
       </c>
-      <c r="F126" s="25" t="s">
+      <c r="F126" s="33" t="s">
         <v>1008</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I126" s="25" t="s">
+      <c r="I126" s="33" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="13.5" customHeight="1">
-      <c r="B127" s="25" t="s">
+      <c r="B127" s="33" t="s">
         <v>1021</v>
       </c>
-      <c r="C127" s="28">
+      <c r="C127" s="43">
         <v>39089</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="33" t="s">
         <v>1017</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E127" s="33" t="s">
         <v>1018</v>
       </c>
-      <c r="F127" s="25" t="s">
+      <c r="F127" s="33" t="s">
         <v>966</v>
       </c>
-      <c r="H127" s="31">
+      <c r="H127" s="50">
         <v>44597</v>
       </c>
-      <c r="I127" s="25" t="s">
+      <c r="I127" s="33" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="25" t="s">
+      <c r="B128" s="33" t="s">
         <v>1023</v>
       </c>
-      <c r="F128" s="25" t="s">
+      <c r="F128" s="33" t="s">
         <v>1024</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I128" s="25" t="s">
+      <c r="I128" s="33" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B129" s="32" t="s">
+      <c r="B129" s="51" t="s">
         <v>1027</v>
       </c>
-      <c r="C129" s="28">
+      <c r="C129" s="43">
         <v>42995</v>
       </c>
-      <c r="E129" s="25" t="s">
+      <c r="E129" s="33" t="s">
         <v>1028</v>
       </c>
-      <c r="F129" s="25" t="s">
+      <c r="F129" s="33" t="s">
         <v>1025</v>
       </c>
-      <c r="H129" s="31">
+      <c r="H129" s="50">
         <v>44596</v>
       </c>
-      <c r="I129" s="25" t="s">
+      <c r="I129" s="33" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B130" s="25" t="s">
+      <c r="B130" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="C130" s="28">
+      <c r="C130" s="43">
         <v>42221</v>
       </c>
-      <c r="E130" s="25" t="s">
+      <c r="E130" s="33" t="s">
         <v>1029</v>
       </c>
-      <c r="F130" s="25" t="s">
+      <c r="F130" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="H130" s="31">
+      <c r="H130" s="50">
         <v>44596</v>
       </c>
-      <c r="I130" s="25" t="s">
+      <c r="I130" s="33" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -20266,13 +20573,13 @@
       <c r="F131" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G131" s="24" t="s">
+      <c r="G131" s="31" t="s">
         <v>303</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="I131" s="25" t="s">
+      <c r="I131" s="33" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20289,13 +20596,13 @@
       <c r="F132" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G132" s="24" t="s">
+      <c r="G132" s="31" t="s">
         <v>303</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="I132" s="25" t="s">
+      <c r="I132" s="33" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20313,7 +20620,7 @@
       <c r="H133" s="6">
         <v>44576</v>
       </c>
-      <c r="I133" s="25" t="s">
+      <c r="I133" s="33" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20331,7 +20638,7 @@
       <c r="H134" s="6">
         <v>44520</v>
       </c>
-      <c r="I134" s="25" t="s">
+      <c r="I134" s="33" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20351,7 +20658,7 @@
       <c r="H135" s="6">
         <v>44583</v>
       </c>
-      <c r="I135" s="25" t="s">
+      <c r="I135" s="33" t="s">
         <v>315</v>
       </c>
     </row>
@@ -20371,17 +20678,17 @@
       <c r="H136" s="6">
         <v>44541</v>
       </c>
-      <c r="I136" s="25" t="s">
+      <c r="I136" s="33" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="13.5" customHeight="1">
-      <c r="F137" s="25" t="s">
+      <c r="F137" s="33" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="138" spans="2:9" ht="13.5" customHeight="1">
-      <c r="F138" s="25" t="s">
+      <c r="F138" s="33" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -21255,1780 +21562,1866 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX1000"/>
+  <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="25" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="25" customWidth="1"/>
-    <col min="14" max="14" width="12" style="25" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="25" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="25" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="25" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" style="25" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29" style="25" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="25" customWidth="1"/>
-    <col min="23" max="23" width="36" style="25" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="12" style="33" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
+    <col min="23" max="23" width="36" style="33" customWidth="1"/>
+    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" customWidth="1"/>
-    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="14.42578125" customWidth="1"/>
-    <col min="49" max="1026" width="14.42578125" customWidth="1"/>
+    <col min="32" max="32" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.453125" customWidth="1"/>
+    <col min="34" max="34" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.36328125" customWidth="1"/>
+    <col min="41" max="41" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="1026" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A1" s="58">
+    <row r="1" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A1" s="71">
         <v>44541</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71">
         <v>44548</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71">
         <v>44569</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71">
         <v>44576</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71">
         <v>44583</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="44">
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="70">
         <v>44596</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70">
         <v>44597</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44">
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70">
         <v>44603</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44">
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70">
         <v>44604</v>
       </c>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44">
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70">
         <v>44610</v>
       </c>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44">
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70">
         <v>44611</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44">
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="66">
         <v>44617</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44">
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="70">
         <v>44618</v>
       </c>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="47">
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="71">
         <v>44624</v>
       </c>
-      <c r="AP1" s="48"/>
-      <c r="AV1" s="4">
-        <v>44624</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="70">
+        <v>44625</v>
+      </c>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AS1" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AC2" s="49" t="s">
+      <c r="AC2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AD2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AK2" s="49" t="s">
+      <c r="AK2" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="AL2" s="49" t="s">
+      <c r="AL2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="49" t="s">
+      <c r="AM2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AP2" s="49" t="s">
+      <c r="AN2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="AS2" s="73" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A3" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="23" t="s">
         <v>961</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="23" t="s">
         <v>961</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="25" t="s">
         <v>963</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="8" t="s">
         <v>965</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="36" t="s">
         <v>967</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="U3" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="V3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="63" t="s">
+      <c r="W3" s="37" t="s">
         <v>1035</v>
       </c>
-      <c r="X3" s="53" t="s">
+      <c r="X3" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="Z3" s="56" t="s">
+      <c r="Z3" s="38" t="s">
         <v>973</v>
       </c>
-      <c r="AA3" s="53" t="s">
+      <c r="AA3" s="52" t="s">
         <v>1047</v>
       </c>
-      <c r="AB3" s="50" t="s">
+      <c r="AB3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="61" t="s">
         <v>1083</v>
       </c>
-      <c r="AD3" s="50" t="s">
+      <c r="AD3" s="61" t="s">
         <v>998</v>
       </c>
-      <c r="AE3" s="50" t="s">
+      <c r="AE3" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AF3" s="53" t="s">
+      <c r="AF3" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="50" t="s">
+      <c r="AG3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="50" t="s">
+      <c r="AH3" s="61" t="s">
         <v>1012</v>
       </c>
-      <c r="AI3" s="50" t="s">
+      <c r="AI3" s="61" t="s">
         <v>998</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AK3" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AL3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" s="35" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AN3" s="35" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AO3" s="35" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AP3" s="35" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AQ3" s="35" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AS3" s="74" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>974</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" s="38" t="s">
+        <v>1037</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>994</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Z4" s="35" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AA4" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="AC4" s="61" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AD4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="61" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AG4" s="61" t="s">
+        <v>998</v>
+      </c>
+      <c r="AH4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ4" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="35" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AN4" s="35" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AO4" s="35" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AP4" s="52" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AQ4" s="35" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>976</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>980</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>983</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" s="52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Z5" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5" s="35" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AC5" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AD5" s="61" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AE5" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF5" s="61" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AG5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH5" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI5" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ5" s="35" t="s">
+        <v>990</v>
+      </c>
+      <c r="AK5" s="61" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AL5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM5" s="35" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AN5" s="35" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AO5" s="48" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AP5" s="61" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AQ5" s="35" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>984</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>967</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>967</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="35" t="s">
+        <v>990</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="U6" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>998</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Z6" s="35" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AA6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" s="61" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE6" s="35" t="s">
+        <v>990</v>
+      </c>
+      <c r="AF6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AH6" s="36" t="s">
+        <v>994</v>
+      </c>
+      <c r="AI6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM6" s="35" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AN6" s="38" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AO6" s="35" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AP6" s="61" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AQ6" s="61" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>984</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="V7" s="32"/>
+      <c r="W7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="53" t="s">
+        <v>988</v>
+      </c>
+      <c r="Y7" s="48" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Z7" s="35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AA7" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AC7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE7" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI7" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK7" s="61" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AL7" s="38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AM7" s="35" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AN7" s="38" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AO7" s="35" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AP7" s="61" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AQ7" s="35" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>989</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>989</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>992</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>993</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="36" t="s">
+        <v>994</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AB8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" s="61" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AG8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI8" s="38" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AJ8" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="35" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="35" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AN8" s="35" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AO8" s="35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AP8" s="35" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AQ8" s="35" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>969</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>968</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="24" t="s">
+        <v>992</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Y9" s="35" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z9" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AA9" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AB9" s="38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AC9" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK9" s="35" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="35" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AN9" s="35" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AO9" s="52" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AP9" s="35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AQ9" s="35" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="25" t="s">
+        <v>967</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="25" t="s">
+        <v>983</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="38" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="38" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="61" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="35" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AN10" s="35" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AO10" s="61" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AP10" s="38" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AQ10" s="35" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A11" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="25" t="s">
+        <v>970</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="25" t="s">
+        <v>968</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="37" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="52" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="38" t="s">
         <v>1118</v>
       </c>
-      <c r="AK3" s="51" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AL3" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="52" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AP3" s="52" t="s">
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="35" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AN11" s="35" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AO11" s="35" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AP11" s="35" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AQ11" s="35" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="38" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="61" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="35" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="48" t="s">
+        <v>995</v>
+      </c>
+      <c r="AM12" s="35" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AN12" s="35" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AO12" s="35" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AP12" s="35" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AQ12" s="35" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="28" t="s">
+        <v>989</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI13" s="48" t="s">
+        <v>995</v>
+      </c>
+      <c r="AJ13" s="35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="48" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="35" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AP13" s="35" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AQ13" s="38" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="W14" s="8"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG14" s="39" t="s">
+        <v>995</v>
+      </c>
+      <c r="AH14" s="67" t="s">
+        <v>988</v>
+      </c>
+      <c r="AI14" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="67" t="s">
         <v>998</v>
       </c>
-      <c r="AV3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AX3" s="25" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A4" s="59" t="s">
-        <v>968</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>961</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>969</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>968</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>961</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>970</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>971</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>972</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>970</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>959</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>972</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>970</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>578</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="50" t="s">
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="35" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AQ14" s="59"/>
+    </row>
+    <row r="15" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" s="8"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="AD15" s="48" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="48" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="67" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+    </row>
+    <row r="16" spans="1:45" ht="13.5" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="W16" s="8"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+    </row>
+    <row r="17" spans="1:43" ht="13.5" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="40" t="s">
+        <v>1001</v>
+      </c>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+    </row>
+    <row r="18" spans="1:43" ht="13.5" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="45"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+    </row>
+    <row r="19" spans="1:43" ht="13.5" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK19" s="67" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="45"/>
+    </row>
+    <row r="20" spans="1:43" ht="13.5" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="T4" s="53" t="s">
-        <v>974</v>
-      </c>
-      <c r="U4" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="56" t="s">
-        <v>1037</v>
-      </c>
-      <c r="X4" s="53" t="s">
-        <v>994</v>
-      </c>
-      <c r="Y4" s="50" t="s">
-        <v>1042</v>
-      </c>
-      <c r="Z4" s="50" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AA4" s="56" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AB4" s="50" t="s">
-        <v>995</v>
-      </c>
-      <c r="AC4" s="50" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AD4" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE4" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" s="50" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AG4" s="50" t="s">
-        <v>998</v>
-      </c>
-      <c r="AH4" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI4" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ4" s="51" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AK4" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL4" s="51" t="s">
-        <v>998</v>
-      </c>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP4" s="52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A5" s="59" t="s">
-        <v>975</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>972</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>976</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>975</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>977</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>978</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>979</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>980</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>980</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="K5" s="59" t="s">
-        <v>980</v>
-      </c>
-      <c r="L5" s="59" t="s">
-        <v>980</v>
-      </c>
-      <c r="M5" s="59" t="s">
-        <v>692</v>
-      </c>
-      <c r="N5" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="59" t="s">
-        <v>970</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>982</v>
-      </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" s="53" t="s">
-        <v>983</v>
-      </c>
-      <c r="U5" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="50" t="s">
-        <v>995</v>
-      </c>
-      <c r="X5" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" s="53" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Z5" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA5" s="50" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AB5" s="50" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AC5" s="50" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AD5" s="50" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AE5" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF5" s="50" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AG5" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH5" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="AI5" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ5" s="51" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AK5" s="51" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AL5" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="52" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AP5" s="55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A6" s="59" t="s">
-        <v>984</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>985</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>986</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>987</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>967</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>975</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>969</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>975</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="59" t="s">
-        <v>969</v>
-      </c>
-      <c r="M6" s="59" t="s">
-        <v>959</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>961</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>967</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>988</v>
-      </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="50" t="s">
-        <v>990</v>
-      </c>
-      <c r="T6" s="63" t="s">
-        <v>1031</v>
-      </c>
-      <c r="U6" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" s="45"/>
-      <c r="W6" s="50" t="s">
-        <v>998</v>
-      </c>
-      <c r="X6" s="50" t="s">
-        <v>1060</v>
-      </c>
-      <c r="Y6" s="50" t="s">
-        <v>1061</v>
-      </c>
-      <c r="Z6" s="50" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AA6" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD6" s="50" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE6" s="50" t="s">
-        <v>990</v>
-      </c>
-      <c r="AF6" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG6" s="50" t="s">
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="48" t="s">
         <v>1016</v>
       </c>
-      <c r="AH6" s="53" t="s">
-        <v>994</v>
-      </c>
-      <c r="AI6" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ6" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK6" s="51" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AL6" s="51" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="55" t="s">
-        <v>994</v>
-      </c>
-      <c r="AP6" s="52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A7" s="59" t="s">
-        <v>989</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>985</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>984</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>972</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>985</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>986</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>983</v>
-      </c>
-      <c r="J7" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>985</v>
-      </c>
-      <c r="L7" s="59" t="s">
-        <v>810</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="N7" s="59" t="s">
-        <v>972</v>
-      </c>
-      <c r="O7" s="59" t="s">
-        <v>969</v>
-      </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="T7" s="62"/>
-      <c r="U7" s="50" t="s">
-        <v>990</v>
-      </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="X7" s="56" t="s">
-        <v>988</v>
-      </c>
-      <c r="Y7" s="57" t="s">
-        <v>1044</v>
-      </c>
-      <c r="Z7" s="50" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AA7" s="50" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AB7" s="50" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AC7" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD7" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE7" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF7" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG7" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH7" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI7" s="50" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK7" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL7" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP7" s="52" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A8" s="59" t="s">
-        <v>830</v>
-      </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="60" t="s">
-        <v>991</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>989</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>989</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>985</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>810</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>989</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>986</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>992</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>975</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>993</v>
-      </c>
-      <c r="O8" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="53" t="s">
-        <v>994</v>
-      </c>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y8" s="50" t="s">
-        <v>1045</v>
-      </c>
-      <c r="Z8" s="50" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AA8" s="50" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AB8" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC8" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF8" s="50" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AG8" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH8" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI8" s="56" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AJ8" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK8" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL8" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP8" s="52" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A9" s="59" t="s">
-        <v>960</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="60" t="s">
-        <v>996</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>830</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>980</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>969</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>968</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="60" t="s">
-        <v>992</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="61" t="s">
-        <v>997</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="N9" s="65" t="s">
-        <v>985</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="63" t="s">
-        <v>1032</v>
-      </c>
-      <c r="T9" s="62"/>
-      <c r="U9" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" s="62"/>
-      <c r="W9" s="56" t="s">
-        <v>1036</v>
-      </c>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="50" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Z9" s="50" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AA9" s="50" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AB9" s="56" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AC9" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="50" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="51" t="s">
-        <v>990</v>
-      </c>
-      <c r="AK9" s="51" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="52" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AP9" s="52" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A10" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="61" t="s">
-        <v>967</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="61" t="s">
-        <v>976</v>
-      </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="61" t="s">
-        <v>997</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="61" t="s">
-        <v>983</v>
-      </c>
-      <c r="M10" s="59" t="s">
-        <v>968</v>
-      </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="56" t="s">
-        <v>1038</v>
-      </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="V10" s="62"/>
-      <c r="W10" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="56" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="56" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="56" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK10" s="51" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="52" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AP10" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A11" s="60" t="s">
-        <v>999</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="61" t="s">
-        <v>970</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="61" t="s">
-        <v>968</v>
-      </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="59" t="s">
-        <v>986</v>
-      </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="63" t="s">
-        <v>1033</v>
-      </c>
-      <c r="T11" s="62"/>
-      <c r="U11" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="V11" s="62"/>
-      <c r="W11" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="53" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="56" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK11" s="51" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP11" s="52" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A12" s="61" t="s">
-        <v>986</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="61" t="s">
-        <v>830</v>
-      </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="56" t="s">
-        <v>1034</v>
-      </c>
-      <c r="T12" s="62"/>
-      <c r="U12" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="V12" s="62"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="50" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK12" s="51" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AL12" s="57" t="s">
-        <v>995</v>
-      </c>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="52" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AP12" s="52"/>
-    </row>
-    <row r="13" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="66" t="s">
-        <v>989</v>
-      </c>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="57" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI13" s="57" t="s">
-        <v>995</v>
-      </c>
-      <c r="AJ13" s="51" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP13" s="52"/>
-    </row>
-    <row r="14" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="W14" s="62"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG14" s="57" t="s">
-        <v>995</v>
-      </c>
-      <c r="AH14" s="57" t="s">
-        <v>988</v>
-      </c>
-      <c r="AI14" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
-    </row>
-    <row r="15" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="W15" s="62"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="69" t="s">
-        <v>994</v>
-      </c>
-      <c r="AD15" s="57" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="57" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="57" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-    </row>
-    <row r="16" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="68" t="s">
-        <v>1000</v>
-      </c>
-      <c r="W16" s="62"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="69" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="52"/>
-    </row>
-    <row r="17" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="69" t="s">
+    </row>
+    <row r="21" spans="1:43" ht="13.5" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="48" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AB21" s="40" t="s">
         <v>1001</v>
       </c>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="52"/>
-    </row>
-    <row r="18" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="X18" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-    </row>
-    <row r="19" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-    </row>
-    <row r="20" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="52"/>
-    </row>
-    <row r="21" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="57" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AB21" s="69" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="46"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="48" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
-    </row>
-    <row r="22" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="69" t="s">
+      <c r="AQ21" s="45"/>
+    </row>
+    <row r="22" spans="1:43" ht="13.5" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Z22" s="69" t="s">
+      <c r="Z22" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AA22" s="57" t="s">
+      <c r="AA22" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="AB22" s="69" t="s">
+      <c r="AB22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="46"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="48" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="33"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="33"/>
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
-    </row>
-    <row r="23" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:42" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:42" ht="13.5" customHeight="1"/>
+      <c r="AQ22" s="45"/>
+    </row>
+    <row r="23" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:43" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:43" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -23999,9 +24392,14 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -24009,11 +24407,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -24028,9 +24421,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -24045,7 +24438,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="27">
+      <c r="A2" s="42">
         <v>44238</v>
       </c>
       <c r="B2" t="s">
@@ -24062,355 +24455,498 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="25"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="55" t="s">
         <v>1075</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="55" t="s">
         <v>1076</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="55" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="28">
+      <c r="A2" s="43">
         <v>44603</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="45" t="s">
         <v>1053</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="57">
         <v>100</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="43">
         <v>44625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28">
+      <c r="A3" s="43">
         <v>44603</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="45" t="s">
         <v>1054</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="57">
         <v>129.9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="33" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28">
+      <c r="A4" s="43">
         <v>44603</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="45" t="s">
         <v>1055</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="57">
         <v>129</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28">
+      <c r="A5" s="43">
         <v>44603</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="45" t="s">
         <v>1052</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="57">
         <v>100</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28">
+      <c r="A6" s="43">
         <v>44603</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="45" t="s">
         <v>1056</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="57">
         <v>137</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="58" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28">
+      <c r="A7" s="43">
         <v>44603</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="57">
         <v>110</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="33" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="28">
+      <c r="A8" s="43">
         <v>44604</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="45" t="s">
         <v>1059</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="57">
         <v>99.9</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="33" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="28">
+      <c r="A9" s="43">
         <v>44604</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="59" t="s">
         <v>1078</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="57">
         <v>100</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28">
+      <c r="A10" s="43">
         <v>44604</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="45" t="s">
         <v>1070</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="57">
         <v>99.9</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="33" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="28">
+      <c r="A11" s="43">
         <v>44606</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="33" t="s">
         <v>1079</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="57">
         <v>99.9</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="28">
+      <c r="A12" s="43">
         <v>44610</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="33" t="s">
         <v>1097</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="57">
         <v>109.9</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="33" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="28">
+      <c r="A13" s="43">
         <v>44610</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="33" t="s">
         <v>1098</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="57">
         <v>99.9</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="33" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="28">
+      <c r="A14" s="43">
         <v>44611</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="33" t="s">
         <v>1100</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="57">
         <v>129.9</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="33" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28">
+      <c r="A15" s="43">
         <v>44611</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="33" t="s">
         <v>1103</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="57">
         <v>102.4</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="33" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="28">
+      <c r="A16" s="43">
         <v>44611</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="58" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C16" s="57">
+        <v>100</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="43">
+        <v>44611</v>
+      </c>
+      <c r="B17" s="58" t="s">
         <v>1112</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C17" s="57">
         <v>100</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D17" s="58" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="28">
-        <v>44611</v>
-      </c>
-      <c r="B17" s="37" t="s">
+      <c r="F17" s="58" t="s">
         <v>1113</v>
       </c>
-      <c r="C17" s="36">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="43">
+        <v>44613</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C18" s="57">
+        <v>131</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="43">
+        <v>44613</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C19" s="57">
+        <v>123.9</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="43">
+        <v>44615</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>995</v>
+      </c>
+      <c r="C20" s="57">
+        <v>129.9</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="43">
+        <v>44617</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C21" s="57">
+        <v>129.9</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="43">
+        <v>44617</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C22" s="57">
+        <v>130</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="43">
+        <v>44618</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C23" s="57">
+        <v>130</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="43">
+        <v>44618</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C24" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="43">
+        <v>44624</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C25" s="57">
+        <v>129.9</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="43">
+        <v>44624</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C26" s="57">
         <v>100</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D26" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="43">
+        <v>44624</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C27" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C28" s="57">
+        <v>130</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C29" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C30" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C31" s="57">
+        <v>100</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="37" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="28">
-        <v>44611</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C19" s="36">
-        <v>131</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="28">
-        <v>44611</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C20" s="36">
-        <v>123.9</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="28">
-        <v>44617</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C23" s="36">
-        <v>130</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="28">
-        <v>44617</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>995</v>
-      </c>
-      <c r="C24" s="36">
-        <v>129.9</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="28">
-        <v>44617</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C25" s="36">
-        <v>129.9</v>
-      </c>
-      <c r="D25" s="25" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C32" s="57">
+        <v>112.5</v>
+      </c>
+      <c r="D32" s="33" t="s">
         <v>247</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>1182</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
     <sheet name="uniformes" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$D$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NÃO RESPONDEU'!$A$1:$M$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PAGAMENTOS!$A$2:$V$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PAGAMENTOS!$A$2:$V$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIM!$A$1:$M$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">uniformes!$A$1:$E$1</definedName>
   </definedNames>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1202">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3459,12 +3459,6 @@
     <t>miguel (P)</t>
   </si>
   <si>
-    <t>jorge (conrado)</t>
-  </si>
-  <si>
-    <t>hélio (vitor)</t>
-  </si>
-  <si>
     <t>daniel (miguel)</t>
   </si>
   <si>
@@ -3616,6 +3610,69 @@
   </si>
   <si>
     <t>12,50 bebidas</t>
+  </si>
+  <si>
+    <t>vitor (hélio)</t>
+  </si>
+  <si>
+    <t>conrado (jorge)</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>2 baden baden + 1 gatorade</t>
+  </si>
+  <si>
+    <t>1 gatorade</t>
+  </si>
+  <si>
+    <t>4 heineken + 1 gatorade + 1 guaraná antarctica</t>
+  </si>
+  <si>
+    <t>Leonardo Munafó Tostes Gonçalves</t>
+  </si>
+  <si>
+    <t>Henrique José Gonçalves</t>
+  </si>
+  <si>
+    <t>296.087.398-89</t>
+  </si>
+  <si>
+    <t>Avenida Gonçalves Magalhães, 1380 - Jardim Trujillo</t>
+  </si>
+  <si>
+    <t>henrikejg@gmail.com</t>
+  </si>
+  <si>
+    <t>Davi Ricardo Alves Piva</t>
+  </si>
+  <si>
+    <t>PAUSADO</t>
+  </si>
+  <si>
+    <t>Cláudia Aparecida Alves</t>
+  </si>
+  <si>
+    <t>365.082.978-99</t>
+  </si>
+  <si>
+    <t>Elza Salvespero Bonilha, 90</t>
+  </si>
+  <si>
+    <t>claudiaapalves@gmail.com</t>
+  </si>
+  <si>
+    <t>matheus (eide)</t>
+  </si>
+  <si>
+    <t>11,50 bebidas</t>
+  </si>
+  <si>
+    <t>APARECIDO</t>
+  </si>
+  <si>
+    <t>27 bebidas</t>
   </si>
 </sst>
 </file>
@@ -3880,18 +3937,18 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4262,27 +4319,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="76.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="13" width="16.26953125" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="76.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" customWidth="1"/>
+    <col min="17" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7136,20 +7193,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="57"/>
+    <col min="4" max="4" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="55" t="s">
         <v>166</v>
       </c>
@@ -7159,183 +7217,174 @@
       <c r="C1" s="56" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="55" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="43">
+        <v>44617</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C2" s="57">
+        <f xml:space="preserve"> 7 + 7 + 6.5</f>
+        <v>20.5</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="43">
         <v>44618</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C2" s="57">
+      <c r="B3" s="33" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C3" s="57">
         <f xml:space="preserve"> 7 + 2.5</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="43">
-        <v>44618</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C3" s="57">
-        <f xml:space="preserve"> 2.5 + 6.5</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="43">
         <v>44618</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1131</v>
+        <v>1181</v>
       </c>
       <c r="C4" s="57">
         <f>2.5 + 6.5</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="43">
         <v>44618</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1125</v>
+        <v>1160</v>
       </c>
       <c r="C5" s="57">
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="43">
         <v>44624</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1080</v>
+        <v>1164</v>
       </c>
       <c r="C6" s="57">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="58" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="43">
-        <v>44611</v>
+        <v>44625</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>1080</v>
+        <v>1164</v>
       </c>
       <c r="C7" s="57">
-        <f xml:space="preserve"> 7 + 7 + 6.5</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <f xml:space="preserve"> 7 + 7 + 7 + 7 + 6.5 + 5</f>
+        <v>39.5</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="43">
-        <v>44611</v>
+        <v>44625</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>1124</v>
+        <v>1160</v>
       </c>
       <c r="C8" s="57">
-        <f xml:space="preserve"> 2.5 + 6.5</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <f xml:space="preserve"> 2.5 + 2.5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="43">
         <v>44625</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1080</v>
+        <v>1176</v>
       </c>
       <c r="C9" s="57">
-        <f xml:space="preserve"> 7 + 7 + 7 + 7 + 6.5 + 5</f>
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="43">
         <v>44625</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1162</v>
+        <v>1177</v>
       </c>
       <c r="C10" s="57">
-        <f xml:space="preserve"> 2.5 + 2.5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="43">
         <v>44625</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="C11" s="57">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="43">
         <v>44625</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1161</v>
+        <v>1109</v>
       </c>
       <c r="C12" s="57">
-        <f xml:space="preserve"> 2.5 + 6.5</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="43">
         <v>44625</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="C13" s="57">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <f xml:space="preserve"> 6.5 +5</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="43">
         <v>44625</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="C14" s="57">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="43">
-        <v>44625</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C15" s="57">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="43">
-        <v>44625</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C16" s="57">
-        <f xml:space="preserve"> 6.5 +5</f>
-        <v>11.5</v>
+        <f>2.5 + 5</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C14"/>
+  <autoFilter ref="A1:D14"/>
+  <sortState ref="A2:C17">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7346,16 +7395,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7389,7 +7438,9 @@
       <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="33"/>
+      <c r="A3" s="43">
+        <v>44617</v>
+      </c>
       <c r="B3" s="33" t="s">
         <v>1080</v>
       </c>
@@ -7485,72 +7536,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE993"/>
+  <dimension ref="A1:AE991"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="D26:G26"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="69" t="s">
+      <c r="AC1" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7674,7 +7725,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I29" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 9 meses 2 dias</v>
+        <v>12 anos, 9 meses 6 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7742,7 +7793,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 8 dias</v>
+        <v>10 anos, 3 meses 12 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7816,7 +7867,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 5 dias</v>
+        <v>122 anos, 2 meses 9 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7872,7 +7923,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 5 dias</v>
+        <v>122 anos, 2 meses 9 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7938,7 +7989,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 10 meses 11 dias</v>
+        <v>13 anos, 10 meses 15 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -8010,7 +8061,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 6 meses 1 dias</v>
+        <v>8 anos, 6 meses 5 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -8082,7 +8133,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 17 dias</v>
+        <v>9 anos, 2 meses 21 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -8148,7 +8199,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 21 dias</v>
+        <v>6 anos, 4 meses 25 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -8212,7 +8263,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 16 dias</v>
+        <v>5 anos, 8 meses 20 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -8286,7 +8337,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 2 dias</v>
+        <v>6 anos, 7 meses 6 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -8360,7 +8411,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 12 dias</v>
+        <v>5 anos, 4 meses 16 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -8434,7 +8485,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 6 dias</v>
+        <v>6 anos, 3 meses 10 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -8487,73 +8538,48 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="8" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="H15" s="6">
-        <v>42395</v>
+        <v>43368</v>
       </c>
       <c r="I15" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 10 dias</v>
+        <f ca="1">DATEDIF(H15,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H15,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H15,TODAY(),"MD")&amp;" dias"</f>
+        <v>3 anos, 5 meses 15 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="62" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="6">
-        <v>44492</v>
-      </c>
-      <c r="R15" s="15">
+      <c r="N15" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" s="15">
         <v>99.9</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="6">
-        <v>44527</v>
-      </c>
-      <c r="U15" s="15">
-        <v>100</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="W15" s="6">
-        <v>44567</v>
-      </c>
-      <c r="X15" s="15">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="8"/>
+      <c r="P15" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="8" t="s">
@@ -8580,7 +8606,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 1 meses 0 dias</v>
+        <v>7 anos, 1 meses 4 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8652,7 +8678,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 27 dias</v>
+        <v>5 anos, 8 meses 0 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8726,7 +8752,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 21 dias</v>
+        <v>6 anos, 8 meses 25 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8800,7 +8826,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 4 meses 5 dias</v>
+        <v>12 anos, 4 meses 9 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8864,7 +8890,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 24 dias</v>
+        <v>11 anos, 1 meses 28 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8928,7 +8954,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 20 dias</v>
+        <v>5 anos, 5 meses 24 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -8992,7 +9018,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 25 dias</v>
+        <v>5 anos, 7 meses 29 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -9030,47 +9056,49 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H23" s="6">
-        <v>42374</v>
+      <c r="A23" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H23" s="30">
+        <v>42471</v>
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 0 dias</v>
+        <v>5 anos, 10 meses 29 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L23" s="6">
-        <v>44583</v>
+        <v>44596</v>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="8"/>
+      <c r="N23" s="30">
+        <v>44603</v>
+      </c>
+      <c r="O23" s="15">
+        <v>100</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>181</v>
+      </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="15"/>
       <c r="S23" s="8"/>
@@ -9088,49 +9116,45 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A24" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="31" t="s">
-        <v>1049</v>
+      <c r="A24" s="62" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>1085</v>
       </c>
       <c r="H24" s="30">
-        <v>42471</v>
-      </c>
-      <c r="I24" s="6" t="str">
+        <v>42877</v>
+      </c>
+      <c r="I24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 25 dias</v>
+        <v>4 anos, 9 meses 18 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="6">
-        <v>44596</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="30">
-        <v>44603</v>
-      </c>
-      <c r="O24" s="15">
-        <v>100</v>
-      </c>
-      <c r="P24" s="31" t="s">
-        <v>181</v>
-      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="15"/>
       <c r="S24" s="8"/>
@@ -9148,35 +9172,41 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>1068</v>
+      <c r="A25" s="62" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>988</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="45" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H25" s="54">
-        <v>41928</v>
-      </c>
-      <c r="I25" s="6" t="str">
+      <c r="G25" s="62" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H25" s="30">
+        <v>42482</v>
+      </c>
+      <c r="I25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 20 dias</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="6">
-        <v>44604</v>
-      </c>
+        <v>5 anos, 10 meses 18 dias</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="6"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="15"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
@@ -9196,36 +9226,34 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A26" s="62" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>1085</v>
+      <c r="A26" s="31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="31" t="s">
+        <v>1104</v>
       </c>
       <c r="H26" s="30">
-        <v>42877</v>
+        <v>42294</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 14 dias</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>76</v>
+        <v>6 anos, 4 meses 23 dias</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>11</v>
@@ -9252,34 +9280,34 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A27" s="62" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>988</v>
+      <c r="A27" s="31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>1140</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="62" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H27" s="30">
-        <v>42482</v>
+      <c r="G27" s="31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H27" s="69">
+        <v>41031</v>
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 14 dias</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>76</v>
+        <v>9 anos, 10 meses 7 dias</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>11</v>
@@ -9306,34 +9334,34 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A28" s="31" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>1007</v>
+      <c r="A28" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>973</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="31" t="s">
-        <v>1104</v>
+      <c r="G28" s="8" t="s">
+        <v>1187</v>
       </c>
       <c r="H28" s="30">
-        <v>42294</v>
+        <v>42707</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 19 dias</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>52</v>
+        <v>5 anos, 3 meses 6 dias</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>11</v>
@@ -9360,31 +9388,29 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>1142</v>
-      </c>
+      <c r="A29" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="31" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H29" s="72">
-        <v>41031</v>
+      <c r="G29" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H29" s="30">
+        <v>41047</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 3 dias</v>
+        <v>9 anos, 9 meses 22 dias</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>21</v>
@@ -9546,19 +9572,44 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="A34" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="6">
+        <v>42374</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f ca="1">DATEDIF(H34,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H34,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H34,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 2 meses 4 dias</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" s="6">
+        <v>44583</v>
+      </c>
+      <c r="M34" s="6"/>
       <c r="N34" s="8"/>
       <c r="O34" s="15"/>
       <c r="P34" s="8"/>
@@ -9583,16 +9634,31 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>1068</v>
+      </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="G35" s="45" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H35" s="54">
+        <v>41928</v>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f ca="1">DATEDIF(H35,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H35,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H35,TODAY(),"MD")&amp;" dias"</f>
+        <v>7 anos, 4 meses 24 dias</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="6">
+        <v>44604</v>
+      </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="N35" s="6"/>
       <c r="O35" s="15"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
@@ -9909,31 +9975,68 @@
       <c r="AE44" s="8"/>
     </row>
     <row r="45" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" s="6">
+        <v>42395</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f ca="1">DATEDIF(H45,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H45,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H45,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 1 meses 14 dias</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="62" t="s">
+        <v>1193</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="15"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="15"/>
+      <c r="Q45" s="6">
+        <v>44492</v>
+      </c>
+      <c r="R45" s="15">
+        <v>99.9</v>
+      </c>
       <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="8"/>
+      <c r="T45" s="6">
+        <v>44527</v>
+      </c>
+      <c r="U45" s="15">
+        <v>100</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="W45" s="6">
+        <v>44567</v>
+      </c>
+      <c r="X45" s="15">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
@@ -9942,22 +10045,6 @@
       <c r="AE45" s="8"/>
     </row>
     <row r="46" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="15"/>
       <c r="S46" s="8"/>
@@ -9975,22 +10062,49 @@
       <c r="AE46" s="8"/>
     </row>
     <row r="47" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="G47" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H47" s="6">
+        <v>41820</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f t="shared" ref="I47:I53" ca="1" si="1">DATEDIF(H47,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H47,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H47,TODAY(),"MD")&amp;" dias"</f>
+        <v>7 anos, 8 meses 10 dias</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="8"/>
+      <c r="N47" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="O47" s="15">
+        <v>65</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="15"/>
       <c r="S47" s="8"/>
@@ -10009,33 +10123,35 @@
     </row>
     <row r="48" spans="1:31" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="G48" s="8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H48" s="6">
-        <v>43368</v>
+        <v>40697</v>
       </c>
       <c r="I48" s="6" t="str">
-        <f t="shared" ref="I48:I55" ca="1" si="1">DATEDIF(H48,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H48,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H48,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 5 meses 11 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10 anos, 9 meses 6 dias</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>116</v>
@@ -10069,30 +10185,32 @@
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>266</v>
+        <v>128</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F49" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>279</v>
+      </c>
       <c r="G49" s="8" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="H49" s="6">
-        <v>41820</v>
+        <v>41446</v>
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 8 meses 6 dias</v>
+        <v>8 anos, 8 meses 19 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -10106,10 +10224,10 @@
         <v>180</v>
       </c>
       <c r="O49" s="15">
-        <v>65</v>
+        <v>129.9</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="15"/>
@@ -10129,32 +10247,28 @@
     </row>
     <row r="50" spans="1:31" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>275</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50" s="6">
-        <v>40697</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="H50" s="8"/>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 9 meses 2 dias</v>
+        <v>122 anos, 2 meses 9 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -10164,18 +10278,24 @@
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="8" t="s">
-        <v>180</v>
+      <c r="N50" s="6">
+        <v>44485</v>
       </c>
       <c r="O50" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>44537</v>
+      </c>
+      <c r="R50" s="15">
+        <v>100</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="T50" s="8"/>
       <c r="U50" s="15"/>
       <c r="V50" s="8"/>
@@ -10191,46 +10311,46 @@
     </row>
     <row r="51" spans="1:31" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H51" s="6">
-        <v>41446</v>
+        <v>40812</v>
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 8 meses 15 dias</v>
+        <v>10 anos, 5 meses 14 dias</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>116</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="8" t="s">
-        <v>180</v>
+      <c r="N51" s="6">
+        <v>44520</v>
       </c>
       <c r="O51" s="15">
-        <v>129.9</v>
+        <v>100</v>
       </c>
       <c r="P51" s="8" t="s">
         <v>180</v>
@@ -10253,55 +10373,55 @@
     </row>
     <row r="52" spans="1:31" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="G52" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H52" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="H52" s="6">
+        <v>39636</v>
+      </c>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 2 meses 5 dias</v>
+        <v>13 anos, 8 meses 2 dias</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+      <c r="L52" s="6">
+        <v>44520</v>
+      </c>
+      <c r="M52" s="6"/>
       <c r="N52" s="6">
-        <v>44485</v>
+        <v>44541</v>
       </c>
       <c r="O52" s="15">
         <v>100</v>
       </c>
-      <c r="P52" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>44537</v>
-      </c>
-      <c r="R52" s="15">
-        <v>100</v>
-      </c>
-      <c r="S52" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="P52" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="8"/>
       <c r="T52" s="8"/>
       <c r="U52" s="15"/>
       <c r="V52" s="8"/>
@@ -10317,35 +10437,33 @@
     </row>
     <row r="53" spans="1:31" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>284</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="H53" s="6">
-        <v>40812</v>
+        <v>41743</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 5 meses 10 dias</v>
+        <v>7 anos, 10 meses 26 dias</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>116</v>
@@ -10353,18 +10471,18 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="6">
-        <v>44520</v>
+        <v>44548</v>
       </c>
       <c r="O53" s="15">
         <v>100</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="15"/>
       <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
+      <c r="T53" s="6"/>
       <c r="U53" s="15"/>
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
@@ -10378,53 +10496,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="6">
-        <v>39636</v>
-      </c>
-      <c r="I54" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 7 meses 29 dias</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L54" s="6">
-        <v>44520</v>
-      </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6">
-        <v>44541</v>
-      </c>
-      <c r="O54" s="15">
-        <v>100</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="15"/>
       <c r="S54" s="8"/>
@@ -10442,53 +10529,26 @@
       <c r="AE54" s="8"/>
     </row>
     <row r="55" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="A55" s="8"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" s="6">
-        <v>41743</v>
-      </c>
-      <c r="I55" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 22 dias</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="6">
-        <v>44548</v>
-      </c>
-      <c r="O55" s="15">
-        <v>100</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="N55" s="8"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="15"/>
       <c r="S55" s="8"/>
-      <c r="T55" s="6"/>
+      <c r="T55" s="8"/>
       <c r="U55" s="15"/>
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
@@ -10666,72 +10726,8 @@
       <c r="AD60" s="16"/>
       <c r="AE60" s="8"/>
     </row>
-    <row r="61" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="16"/>
-      <c r="AE61" s="8"/>
-    </row>
-    <row r="62" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-      <c r="AC62" s="8"/>
-      <c r="AD62" s="16"/>
-      <c r="AE62" s="8"/>
-    </row>
+    <row r="61" spans="1:31" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:31" ht="15.75" customHeight="1"/>
     <row r="63" spans="1:31" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:31" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
@@ -11661,10 +11657,8 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:V23"/>
+  <autoFilter ref="A2:V22"/>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
@@ -11683,14 +11677,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12873,13 +12867,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14419,18 +14413,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17623,18 +17617,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -21568,122 +21562,122 @@
       <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.453125" customWidth="1"/>
-    <col min="34" max="34" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.36328125" customWidth="1"/>
-    <col min="41" max="41" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="44" max="1026" width="14.453125" customWidth="1"/>
+    <col min="32" max="32" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" customWidth="1"/>
+    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" customWidth="1"/>
+    <col min="41" max="41" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A1" s="71">
+      <c r="A1" s="73">
         <v>44541</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73">
         <v>44548</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73">
         <v>44569</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71">
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73">
         <v>44576</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73">
         <v>44583</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="70">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="74">
         <v>44596</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70">
+      <c r="T1" s="74"/>
+      <c r="U1" s="74">
         <v>44597</v>
       </c>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70">
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74">
         <v>44603</v>
       </c>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74">
         <v>44604</v>
       </c>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70">
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74">
         <v>44610</v>
       </c>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70">
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74">
         <v>44611</v>
       </c>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
       <c r="AH1" s="66">
         <v>44617</v>
       </c>
       <c r="AI1" s="68"/>
-      <c r="AJ1" s="70">
+      <c r="AJ1" s="74">
         <v>44618</v>
       </c>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="71">
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="73">
         <v>44624</v>
       </c>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="70">
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="74">
         <v>44625</v>
       </c>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
       <c r="AS1" t="s">
         <v>1081</v>
       </c>
@@ -21813,12 +21807,12 @@
         <v>956</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AS2" s="73" t="s">
+      <c r="AS2" s="70" t="s">
         <v>958</v>
       </c>
     </row>
@@ -21927,30 +21921,30 @@
         <v>998</v>
       </c>
       <c r="AJ3" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AK3" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AL3" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AM3" s="35" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AN3" s="35" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AO3" s="35" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AP3" s="35" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AQ3" s="35" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AS3" s="74" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AS3" s="71" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -22063,19 +22057,19 @@
         <v>32</v>
       </c>
       <c r="AM4" s="35" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AN4" s="35" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AO4" s="35" t="s">
         <v>1152</v>
-      </c>
-      <c r="AN4" s="35" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AO4" s="35" t="s">
-        <v>1154</v>
       </c>
       <c r="AP4" s="52" t="s">
         <v>1109</v>
       </c>
       <c r="AQ4" s="35" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="13.5" customHeight="1">
@@ -22187,19 +22181,19 @@
         <v>16</v>
       </c>
       <c r="AM5" s="35" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AN5" s="35" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AO5" s="48" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AP5" s="61" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AQ5" s="35" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="13.5" customHeight="1">
@@ -22311,16 +22305,16 @@
         <v>25</v>
       </c>
       <c r="AM6" s="35" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AN6" s="38" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AO6" s="35" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AP6" s="61" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AQ6" s="61" t="s">
         <v>998</v>
@@ -22429,19 +22423,19 @@
         <v>1110</v>
       </c>
       <c r="AL7" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AM7" s="35" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AN7" s="38" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AO7" s="35" t="s">
         <v>1150</v>
       </c>
-      <c r="AM7" s="35" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AN7" s="38" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AO7" s="35" t="s">
-        <v>1152</v>
-      </c>
       <c r="AP7" s="61" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AQ7" s="35" t="s">
         <v>1109</v>
@@ -22541,23 +22535,23 @@
         <v>91</v>
       </c>
       <c r="AK8" s="35" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AL8" s="33"/>
       <c r="AM8" s="35" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AN8" s="35" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AO8" s="35" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AP8" s="35" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AQ8" s="35" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="13.5" customHeight="1">
@@ -22643,23 +22637,23 @@
         <v>104</v>
       </c>
       <c r="AK9" s="35" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AL9" s="33"/>
       <c r="AM9" s="35" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AN9" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AO9" s="52" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AP9" s="35" t="s">
         <v>1156</v>
       </c>
-      <c r="AN9" s="35" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AO9" s="52" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AP9" s="35" t="s">
-        <v>1158</v>
-      </c>
       <c r="AQ9" s="35" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="13.5" customHeight="1">
@@ -22731,19 +22725,19 @@
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
       <c r="AM10" s="35" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AN10" s="35" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AO10" s="61" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AP10" s="38" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AQ10" s="35" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="13.5" customHeight="1">
@@ -22801,21 +22795,21 @@
       <c r="AH11" s="33"/>
       <c r="AI11" s="33"/>
       <c r="AJ11" s="35" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AK11" s="33"/>
       <c r="AL11" s="33"/>
       <c r="AM11" s="35" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AN11" s="35" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AO11" s="35" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="AP11" s="35" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AQ11" s="35" t="s">
         <v>1110</v>
@@ -22874,19 +22868,19 @@
         <v>995</v>
       </c>
       <c r="AM12" s="35" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AN12" s="35" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AO12" s="35" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AP12" s="35" t="s">
         <v>1110</v>
       </c>
       <c r="AQ12" s="35" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="13.5" customHeight="1">
@@ -22943,13 +22937,13 @@
       <c r="AM13" s="33"/>
       <c r="AN13" s="33"/>
       <c r="AO13" s="35" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AP13" s="35" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AQ13" s="38" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="13.5" customHeight="1">
@@ -23247,7 +23241,7 @@
         <v>31</v>
       </c>
       <c r="AK19" s="67" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AL19" s="33"/>
       <c r="AM19" s="33"/>
@@ -23347,7 +23341,7 @@
       <c r="AH21" s="33"/>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="48" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AK21" s="33"/>
       <c r="AL21" s="33"/>
@@ -24418,12 +24412,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -24455,20 +24449,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="33"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -24805,13 +24800,16 @@
       <c r="D22" s="33" t="s">
         <v>175</v>
       </c>
+      <c r="F22" s="33" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="43">
         <v>44618</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C23" s="57">
         <v>130</v>
@@ -24825,7 +24823,7 @@
         <v>44618</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C24" s="57">
         <v>99.9</v>
@@ -24839,7 +24837,7 @@
         <v>44624</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C25" s="57">
         <v>129.9</v>
@@ -24853,13 +24851,16 @@
         <v>44624</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>1135</v>
+        <v>1198</v>
       </c>
       <c r="C26" s="57">
-        <v>100</v>
+        <v>141.4</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>175</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -24867,10 +24868,10 @@
         <v>44624</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C27" s="57">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>175</v>
@@ -24878,13 +24879,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="43">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1173</v>
+        <v>1134</v>
       </c>
       <c r="C28" s="57">
-        <v>130</v>
+        <v>99.9</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>175</v>
@@ -24895,13 +24896,13 @@
         <v>44625</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C29" s="57">
-        <v>99.9</v>
+        <v>130</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -24909,13 +24910,13 @@
         <v>44625</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>1101</v>
+        <v>1172</v>
       </c>
       <c r="C30" s="57">
         <v>99.9</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -24923,13 +24924,13 @@
         <v>44625</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>1178</v>
+        <v>1101</v>
       </c>
       <c r="C31" s="57">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -24937,20 +24938,48 @@
         <v>44625</v>
       </c>
       <c r="B32" s="33" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C32" s="57">
+        <v>100</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="43">
+        <v>44625</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>1110</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C33" s="57">
         <v>112.5</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D33" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>1182</v>
+      <c r="F33" s="33" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="43">
+        <v>44629</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C34" s="57">
+        <v>156.9</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F10"/>
+  <autoFilter ref="A1:F32"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="1210">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3673,6 +3673,30 @@
   </si>
   <si>
     <t>27 bebidas</t>
+  </si>
+  <si>
+    <t>35 9170-0117</t>
+  </si>
+  <si>
+    <t>15 99778-0833</t>
+  </si>
+  <si>
+    <t>15 99183-7019</t>
+  </si>
+  <si>
+    <t>dois meninos, um tem ataque epilético</t>
+  </si>
+  <si>
+    <t>15 98811-4870</t>
+  </si>
+  <si>
+    <t>a partir do início de abril</t>
+  </si>
+  <si>
+    <t>15 99752-1409</t>
+  </si>
+  <si>
+    <t>15 99611-0787</t>
   </si>
 </sst>
 </file>
@@ -3712,7 +3736,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3791,6 +3815,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -3841,7 +3871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3940,6 +3970,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7195,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7563,45 +7597,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="72" t="s">
+      <c r="N1" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="72" t="s">
+      <c r="AC1" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7725,7 +7759,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I29" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 9 meses 6 dias</v>
+        <v>12 anos, 9 meses 8 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7793,7 +7827,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 12 dias</v>
+        <v>10 anos, 3 meses 14 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7867,7 +7901,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 9 dias</v>
+        <v>122 anos, 2 meses 11 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -7923,7 +7957,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 9 dias</v>
+        <v>122 anos, 2 meses 11 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -7989,7 +8023,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 10 meses 15 dias</v>
+        <v>13 anos, 10 meses 17 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -8061,7 +8095,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 6 meses 5 dias</v>
+        <v>8 anos, 6 meses 7 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -8133,7 +8167,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 21 dias</v>
+        <v>9 anos, 2 meses 23 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -8199,7 +8233,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 25 dias</v>
+        <v>6 anos, 4 meses 27 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -8263,7 +8297,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 20 dias</v>
+        <v>5 anos, 8 meses 22 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -8337,7 +8371,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 6 dias</v>
+        <v>6 anos, 7 meses 8 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -8411,7 +8445,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 16 dias</v>
+        <v>5 anos, 4 meses 18 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -8485,7 +8519,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 10 dias</v>
+        <v>6 anos, 3 meses 12 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -8561,7 +8595,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f ca="1">DATEDIF(H15,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H15,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H15,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 5 meses 15 dias</v>
+        <v>3 anos, 5 meses 17 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -8606,7 +8640,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 1 meses 4 dias</v>
+        <v>7 anos, 1 meses 6 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8678,7 +8712,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 0 dias</v>
+        <v>5 anos, 8 meses 2 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8752,7 +8786,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 25 dias</v>
+        <v>6 anos, 8 meses 27 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8826,7 +8860,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 4 meses 9 dias</v>
+        <v>12 anos, 4 meses 11 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8890,7 +8924,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 28 dias</v>
+        <v>11 anos, 1 meses 30 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -8954,7 +8988,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 24 dias</v>
+        <v>5 anos, 5 meses 26 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -9018,7 +9052,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 29 dias</v>
+        <v>5 anos, 8 meses 0 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -9078,7 +9112,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 29 dias</v>
+        <v>5 anos, 11 meses 0 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -9142,7 +9176,7 @@
       </c>
       <c r="I24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 18 dias</v>
+        <v>4 anos, 9 meses 20 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -9196,7 +9230,7 @@
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 18 dias</v>
+        <v>5 anos, 10 meses 20 dias</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>76</v>
@@ -9250,7 +9284,7 @@
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 23 dias</v>
+        <v>6 anos, 4 meses 25 dias</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>52</v>
@@ -9304,7 +9338,7 @@
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 7 dias</v>
+        <v>9 anos, 10 meses 9 dias</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>21</v>
@@ -9358,7 +9392,7 @@
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 6 dias</v>
+        <v>5 anos, 3 meses 8 dias</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>76</v>
@@ -9410,7 +9444,7 @@
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 9 meses 22 dias</v>
+        <v>9 anos, 9 meses 24 dias</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>21</v>
@@ -9598,7 +9632,7 @@
       </c>
       <c r="I34" s="6" t="str">
         <f ca="1">DATEDIF(H34,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H34,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H34,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 2 meses 4 dias</v>
+        <v>6 anos, 2 meses 6 dias</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>76</v>
@@ -9646,7 +9680,7 @@
       </c>
       <c r="I35" s="6" t="str">
         <f ca="1">DATEDIF(H35,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H35,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H35,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 4 meses 24 dias</v>
+        <v>7 anos, 4 meses 26 dias</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>21</v>
@@ -9999,7 +10033,7 @@
       </c>
       <c r="I45" s="6" t="str">
         <f ca="1">DATEDIF(H45,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H45,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H45,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 1 meses 14 dias</v>
+        <v>6 anos, 1 meses 16 dias</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>76</v>
@@ -10086,7 +10120,7 @@
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" ref="I47:I53" ca="1" si="1">DATEDIF(H47,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H47,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H47,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 8 meses 10 dias</v>
+        <v>7 anos, 8 meses 12 dias</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>52</v>
@@ -10148,7 +10182,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 9 meses 6 dias</v>
+        <v>10 anos, 9 meses 8 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>21</v>
@@ -10210,7 +10244,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 8 meses 19 dias</v>
+        <v>8 anos, 8 meses 21 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -10268,7 +10302,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 2 meses 9 dias</v>
+        <v>122 anos, 2 meses 11 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -10336,7 +10370,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 5 meses 14 dias</v>
+        <v>10 anos, 5 meses 16 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>21</v>
@@ -10398,7 +10432,7 @@
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 8 meses 2 dias</v>
+        <v>13 anos, 8 meses 4 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>35</v>
@@ -10460,7 +10494,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 26 dias</v>
+        <v>7 anos, 10 meses 28 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>52</v>
@@ -21556,10 +21590,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS1000"/>
+  <dimension ref="A1:BA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView topLeftCell="AP1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21599,90 +21633,110 @@
     <col min="39" max="39" width="12.42578125" customWidth="1"/>
     <col min="41" max="41" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="1026" width="14.42578125" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" customWidth="1"/>
+    <col min="45" max="45" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A1" s="73">
+    <row r="1" spans="1:53" ht="13.5" customHeight="1">
+      <c r="A1" s="77">
         <v>44541</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77">
         <v>44548</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77">
         <v>44569</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77">
         <v>44576</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77">
         <v>44583</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73" t="s">
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="74">
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78">
         <v>44596</v>
       </c>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74">
+      <c r="T1" s="78"/>
+      <c r="U1" s="78">
         <v>44597</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74">
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78">
         <v>44603</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74">
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78">
         <v>44604</v>
       </c>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74">
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78">
         <v>44610</v>
       </c>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74">
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78">
         <v>44611</v>
       </c>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
       <c r="AH1" s="66">
         <v>44617</v>
       </c>
       <c r="AI1" s="68"/>
-      <c r="AJ1" s="74">
+      <c r="AJ1" s="78">
         <v>44618</v>
       </c>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="73">
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="77">
         <v>44624</v>
       </c>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="74">
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="78">
         <v>44625</v>
       </c>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AS1" t="s">
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AS1" s="77">
+        <v>44631</v>
+      </c>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="78">
+        <v>44632</v>
+      </c>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AY1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" ht="13.5" customHeight="1">
+      <c r="BA1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>956</v>
       </c>
@@ -21812,11 +21866,32 @@
       <c r="AQ2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AS2" s="70" t="s">
+      <c r="AS2" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AU2" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="AY2" s="70" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AZ2" s="70" t="s">
+        <v>958</v>
+      </c>
+      <c r="BA2" s="70" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" ht="13.5" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>959</v>
       </c>
@@ -21944,11 +22019,33 @@
       <c r="AQ3" s="35" t="s">
         <v>1158</v>
       </c>
-      <c r="AS3" s="71" t="s">
+      <c r="AS3" s="73" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AT3" s="73" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AU3" s="73" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AV3" s="73" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AW3" s="73" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AX3" s="72"/>
+      <c r="AY3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AZ3" s="71" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" ht="13.5" customHeight="1">
+      <c r="BA3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="13.5" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>968</v>
       </c>
@@ -22071,8 +22168,24 @@
       <c r="AQ4" s="35" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS4" s="73" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AT4" s="73" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AU4" s="73" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AV4" s="74" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AW4" s="73" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AX4" s="72"/>
+    </row>
+    <row r="5" spans="1:53" ht="13.5" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>975</v>
       </c>
@@ -22195,8 +22308,24 @@
       <c r="AQ5" s="35" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS5" s="73" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AT5" s="73" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AU5" s="73" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AV5" s="75" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AW5" s="73" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AX5" s="72"/>
+    </row>
+    <row r="6" spans="1:53" ht="13.5" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>984</v>
       </c>
@@ -22319,8 +22448,24 @@
       <c r="AQ6" s="61" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS6" s="73" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AT6" s="73" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AU6" s="73" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AV6" s="75" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AW6" s="75" t="s">
+        <v>998</v>
+      </c>
+      <c r="AX6" s="72"/>
+    </row>
+    <row r="7" spans="1:53" ht="13.5" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>989</v>
       </c>
@@ -22440,8 +22585,24 @@
       <c r="AQ7" s="35" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS7" s="73" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AT7" s="73" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AU7" s="73" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AV7" s="75" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AW7" s="73" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AX7" s="72"/>
+    </row>
+    <row r="8" spans="1:53" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>830</v>
       </c>
@@ -22553,8 +22714,24 @@
       <c r="AQ8" s="35" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS8" s="73" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AT8" s="73" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AU8" s="74" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AV8" s="73" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AW8" s="73" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AX8" s="72"/>
+    </row>
+    <row r="9" spans="1:53" ht="13.5" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>960</v>
       </c>
@@ -22655,8 +22832,24 @@
       <c r="AQ9" s="35" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS9" s="73" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AT9" s="73" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AU9" s="75" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AV9" s="73" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AW9" s="73" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AX9" s="72"/>
+    </row>
+    <row r="10" spans="1:53" ht="13.5" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>118</v>
       </c>
@@ -22739,8 +22932,24 @@
       <c r="AQ10" s="35" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS10" s="73" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AT10" s="73" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AU10" s="73" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AV10" s="73" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AW10" s="73" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AX10" s="72"/>
+    </row>
+    <row r="11" spans="1:53" ht="13.5" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>999</v>
       </c>
@@ -22814,8 +23023,24 @@
       <c r="AQ11" s="35" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS11" s="73" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AT11" s="73" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AU11" s="73" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AV11" s="73" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AW11" s="73" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AX11" s="72"/>
+    </row>
+    <row r="12" spans="1:53" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>986</v>
       </c>
@@ -22882,8 +23107,24 @@
       <c r="AQ12" s="35" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS12" s="73" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AT12" s="73" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AU12" s="73" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AV12" s="73" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AW12" s="73" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AX12" s="72"/>
+    </row>
+    <row r="13" spans="1:53" ht="13.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -22945,8 +23186,20 @@
       <c r="AQ13" s="38" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="73" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AV13" s="73" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AW13" s="73" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AX13" s="72"/>
+    </row>
+    <row r="14" spans="1:53" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -23006,8 +23259,18 @@
         <v>1112</v>
       </c>
       <c r="AQ14" s="59"/>
-    </row>
-    <row r="15" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="73" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AV14" s="73" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="72"/>
+    </row>
+    <row r="15" spans="1:53" ht="13.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -23061,8 +23324,16 @@
       <c r="AO15" s="45"/>
       <c r="AP15" s="45"/>
       <c r="AQ15" s="45"/>
-    </row>
-    <row r="16" spans="1:45" ht="13.5" customHeight="1">
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="73" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="72"/>
+    </row>
+    <row r="16" spans="1:53" ht="13.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -23109,8 +23380,14 @@
       <c r="AO16" s="45"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="45"/>
-    </row>
-    <row r="17" spans="1:43" ht="13.5" customHeight="1">
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="72"/>
+    </row>
+    <row r="17" spans="1:50" ht="13.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -23154,8 +23431,14 @@
       <c r="AO17" s="45"/>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45"/>
-    </row>
-    <row r="18" spans="1:43" ht="13.5" customHeight="1">
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="72"/>
+    </row>
+    <row r="18" spans="1:50" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -23200,8 +23483,18 @@
       <c r="AO18" s="45"/>
       <c r="AP18" s="45"/>
       <c r="AQ18" s="45"/>
-    </row>
-    <row r="19" spans="1:43" ht="13.5" customHeight="1">
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="73" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AW18" s="73" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AX18" s="72"/>
+    </row>
+    <row r="19" spans="1:50" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -23249,8 +23542,14 @@
       <c r="AO19" s="45"/>
       <c r="AP19" s="59"/>
       <c r="AQ19" s="45"/>
-    </row>
-    <row r="20" spans="1:43" ht="13.5" customHeight="1">
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="59"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="72"/>
+    </row>
+    <row r="20" spans="1:50" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -23300,8 +23599,14 @@
       <c r="AQ20" s="48" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" ht="13.5" customHeight="1">
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="72"/>
+    </row>
+    <row r="21" spans="1:50" ht="13.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -23350,8 +23655,14 @@
       <c r="AO21" s="45"/>
       <c r="AP21" s="45"/>
       <c r="AQ21" s="45"/>
-    </row>
-    <row r="22" spans="1:43" ht="13.5" customHeight="1">
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="72"/>
+    </row>
+    <row r="22" spans="1:50" ht="13.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -23405,17 +23716,51 @@
       <c r="AO22" s="45"/>
       <c r="AP22" s="45"/>
       <c r="AQ22" s="45"/>
-    </row>
-    <row r="23" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="24" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:43" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:43" ht="13.5" customHeight="1"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="72"/>
+    </row>
+    <row r="23" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="72"/>
+      <c r="AX23" s="72"/>
+    </row>
+    <row r="24" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AS24" s="72"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="72"/>
+      <c r="AV24" s="72"/>
+      <c r="AW24" s="72"/>
+      <c r="AX24" s="72"/>
+    </row>
+    <row r="25" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+    </row>
+    <row r="26" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+    </row>
+    <row r="27" spans="1:50" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:50" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:50" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:50" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:50" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:50" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -24385,15 +24730,7 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+  <mergeCells count="17">
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -24401,6 +24738,16 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AJ1:AL1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -24451,9 +24798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$D$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NÃO RESPONDEU'!$A$1:$M$8</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="1218">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3426,12 +3426,6 @@
     <t>enzo (S)</t>
   </si>
   <si>
-    <t>miguel (condominio encanto, filho do daniel)</t>
-  </si>
-  <si>
-    <t>(15) 99160-6387</t>
-  </si>
-  <si>
     <t>24,00 bebidas</t>
   </si>
   <si>
@@ -3513,9 +3507,6 @@
     <t>(15) 97403-1178 (jerry pai)</t>
   </si>
   <si>
-    <t>15 99160-6387 (S, Matheus)</t>
-  </si>
-  <si>
     <t>miguel</t>
   </si>
   <si>
@@ -3555,9 +3546,6 @@
     <t>15 98802-3756 (ygor)</t>
   </si>
   <si>
-    <t>15 98811-4870 (wesley)</t>
-  </si>
-  <si>
     <t>matheus</t>
   </si>
   <si>
@@ -3697,6 +3685,42 @@
   </si>
   <si>
     <t>15 99611-0787</t>
+  </si>
+  <si>
+    <t>15 98802-3756 (ygor, N)</t>
+  </si>
+  <si>
+    <t>15 98811-4870 (wesley, S)</t>
+  </si>
+  <si>
+    <t>(15) 99160-6387 (S, Matheus)</t>
+  </si>
+  <si>
+    <t>mateus</t>
+  </si>
+  <si>
+    <t>miguel (S, Daniel pai)</t>
+  </si>
+  <si>
+    <t>fransergio (joaquim)</t>
+  </si>
+  <si>
+    <t>14 bebidas</t>
+  </si>
+  <si>
+    <t>3 heineken + 2 gatorade</t>
+  </si>
+  <si>
+    <t>guaraná antarctica</t>
+  </si>
+  <si>
+    <t>1 guaraná antarctica + 1 água</t>
+  </si>
+  <si>
+    <t>2 heineken + 1 petra + 1 guaraná antarctica + 1 gatorade + 2 heineken</t>
+  </si>
+  <si>
+    <t>1 heineken + 1 gatorade</t>
   </si>
 </sst>
 </file>
@@ -3978,10 +4002,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4353,27 +4377,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="76.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="76.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="13" width="16.26953125" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="17" max="18" width="8.26953125" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="25" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7227,18 +7251,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="57"/>
-    <col min="4" max="4" width="9.140625" style="33"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="57"/>
+    <col min="4" max="4" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7252,7 +7276,7 @@
         <v>167</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7260,14 +7284,14 @@
         <v>44617</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C2" s="57">
         <f xml:space="preserve"> 7 + 7 + 6.5</f>
         <v>20.5</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7275,7 +7299,7 @@
         <v>44618</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C3" s="57">
         <f xml:space="preserve"> 7 + 2.5</f>
@@ -7287,7 +7311,7 @@
         <v>44618</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C4" s="57">
         <f>2.5 + 6.5</f>
@@ -7299,7 +7323,7 @@
         <v>44618</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C5" s="57">
         <v>2.5</v>
@@ -7310,13 +7334,13 @@
         <v>44624</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C6" s="57">
         <v>6.5</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7324,14 +7348,14 @@
         <v>44625</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C7" s="57">
         <f xml:space="preserve"> 7 + 7 + 7 + 7 + 6.5 + 5</f>
         <v>39.5</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7339,7 +7363,7 @@
         <v>44625</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C8" s="57">
         <f xml:space="preserve"> 2.5 + 2.5</f>
@@ -7351,7 +7375,7 @@
         <v>44625</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C9" s="57">
         <v>2.5</v>
@@ -7362,7 +7386,7 @@
         <v>44625</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C10" s="57">
         <v>2.5</v>
@@ -7373,7 +7397,7 @@
         <v>44625</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C11" s="57">
         <v>6.5</v>
@@ -7395,7 +7419,7 @@
         <v>44625</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C13" s="57">
         <f xml:space="preserve"> 6.5 +5</f>
@@ -7407,15 +7431,77 @@
         <v>44625</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C14" s="57">
         <f>2.5 + 5</f>
         <v>7.5</v>
       </c>
+      <c r="D14" s="33" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="43">
+        <v>44631</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C15" s="57">
+        <f xml:space="preserve"> 7 + 6.5 +7 + 7 + 6.5</f>
+        <v>34</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="43">
+        <v>44631</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C16" s="57">
+        <f>7 + 6.5</f>
+        <v>13.5</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="43">
+        <v>44631</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C17" s="57">
+        <f xml:space="preserve"> 7 + 7 + 5 +5 + 6.5 + 7 + 7</f>
+        <v>44.5</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="43">
+        <v>44631</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C18" s="57">
+        <v>5</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>1214</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D18"/>
   <sortState ref="A2:C17">
     <sortCondition ref="A1"/>
   </sortState>
@@ -7429,16 +7515,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7452,16 +7538,16 @@
         <v>167</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C2" s="33">
         <v>199.9</v>
@@ -7485,7 +7571,7 @@
         <v>175</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7493,7 +7579,7 @@
         <v>44617</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C4" s="33">
         <v>199.9</v>
@@ -7502,7 +7588,7 @@
         <v>175</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7577,23 +7663,23 @@
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -9315,23 +9401,23 @@
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="31" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>1135</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C27" s="31" t="s">
+      <c r="D27" s="31" t="s">
         <v>1137</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>1139</v>
-      </c>
       <c r="E27" s="31" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="31" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H27" s="69">
         <v>41031</v>
@@ -9369,23 +9455,23 @@
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>973</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="H28" s="30">
         <v>42707</v>
@@ -9423,21 +9509,21 @@
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="H29" s="30">
         <v>41047</v>
@@ -10039,7 +10125,7 @@
         <v>76</v>
       </c>
       <c r="K45" s="62" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -11711,14 +11797,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="1" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12901,13 +12987,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14447,18 +14533,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="51.7265625" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="17" width="9.1796875" customWidth="1"/>
+    <col min="18" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17651,18 +17737,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -21592,148 +21678,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW12" sqref="AW12"/>
+    <sheetView topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3:AS11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" customWidth="1"/>
-    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" customWidth="1"/>
-    <col min="41" max="41" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" customWidth="1"/>
-    <col min="45" max="45" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="1026" width="14.42578125" customWidth="1"/>
+    <col min="32" max="32" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.453125" customWidth="1"/>
+    <col min="34" max="34" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.453125" customWidth="1"/>
+    <col min="40" max="40" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" customWidth="1"/>
+    <col min="45" max="45" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="1026" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="13.5" customHeight="1">
-      <c r="A1" s="77">
+      <c r="A1" s="78">
         <v>44541</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78">
         <v>44548</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77">
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78">
         <v>44569</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78">
         <v>44576</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77">
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78">
         <v>44583</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78">
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="77">
         <v>44596</v>
       </c>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78">
+      <c r="T1" s="77"/>
+      <c r="U1" s="77">
         <v>44597</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78">
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77">
         <v>44603</v>
       </c>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78">
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77">
         <v>44604</v>
       </c>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78">
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77">
         <v>44610</v>
       </c>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78">
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77">
         <v>44611</v>
       </c>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
       <c r="AH1" s="66">
         <v>44617</v>
       </c>
       <c r="AI1" s="68"/>
-      <c r="AJ1" s="78">
+      <c r="AJ1" s="77">
         <v>44618</v>
       </c>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="77">
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="78">
         <v>44624</v>
       </c>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="78">
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="77">
         <v>44625</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AS1" s="77">
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AS1" s="78">
         <v>44631</v>
       </c>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="78">
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="77">
         <v>44632</v>
       </c>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
       <c r="AY1" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="AZ1" t="s">
         <v>1081</v>
       </c>
       <c r="BA1" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="13.5" customHeight="1">
@@ -21861,7 +21948,7 @@
         <v>956</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>958</v>
@@ -21876,19 +21963,19 @@
         <v>956</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>958</v>
       </c>
       <c r="AY2" s="70" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="AZ2" s="70" t="s">
         <v>958</v>
       </c>
       <c r="BA2" s="70" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="13.5" customHeight="1">
@@ -21996,53 +22083,53 @@
         <v>998</v>
       </c>
       <c r="AJ3" s="38" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AK3" s="38" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AL3" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AM3" s="35" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="AN3" s="35" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="AO3" s="35" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AP3" s="35" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AQ3" s="35" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AS3" s="73" t="s">
-        <v>1149</v>
+        <v>1155</v>
+      </c>
+      <c r="AS3" s="35" t="s">
+        <v>1162</v>
       </c>
       <c r="AT3" s="73" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="AU3" s="73" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AV3" s="73" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AW3" s="73" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="AX3" s="72"/>
       <c r="AY3" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="AZ3" s="71" t="s">
         <v>1024</v>
       </c>
       <c r="BA3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="13.5" customHeight="1">
@@ -22154,34 +22241,34 @@
         <v>32</v>
       </c>
       <c r="AM4" s="35" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="AN4" s="35" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AO4" s="35" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AP4" s="52" t="s">
         <v>1109</v>
       </c>
       <c r="AQ4" s="35" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AS4" s="73" t="s">
-        <v>1150</v>
+        <v>1171</v>
+      </c>
+      <c r="AS4" s="35" t="s">
+        <v>1147</v>
       </c>
       <c r="AT4" s="73" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AU4" s="73" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AV4" s="74" t="s">
         <v>1109</v>
       </c>
       <c r="AW4" s="73" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="AX4" s="72"/>
     </row>
@@ -22294,34 +22381,34 @@
         <v>16</v>
       </c>
       <c r="AM5" s="35" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AN5" s="35" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AO5" s="48" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AP5" s="61" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AQ5" s="35" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AS5" s="73" t="s">
-        <v>1132</v>
+        <v>1157</v>
+      </c>
+      <c r="AS5" s="35" t="s">
+        <v>1130</v>
       </c>
       <c r="AT5" s="73" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AU5" s="73" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AV5" s="75" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AW5" s="73" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AX5" s="72"/>
     </row>
@@ -22434,31 +22521,31 @@
         <v>25</v>
       </c>
       <c r="AM6" s="35" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AN6" s="38" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AO6" s="35" t="s">
         <v>1151</v>
       </c>
-      <c r="AN6" s="38" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AO6" s="35" t="s">
-        <v>1154</v>
-      </c>
       <c r="AP6" s="61" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AQ6" s="61" t="s">
         <v>998</v>
       </c>
-      <c r="AS6" s="73" t="s">
-        <v>1151</v>
+      <c r="AS6" s="35" t="s">
+        <v>1148</v>
       </c>
       <c r="AT6" s="73" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AU6" s="73" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="AV6" s="75" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AW6" s="75" t="s">
         <v>998</v>
@@ -22567,35 +22654,35 @@
       <c r="AK7" s="61" t="s">
         <v>1110</v>
       </c>
-      <c r="AL7" s="38" t="s">
-        <v>1148</v>
+      <c r="AL7" s="35" t="s">
+        <v>1209</v>
       </c>
       <c r="AM7" s="35" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AN7" s="38" t="s">
-        <v>1162</v>
+        <v>1207</v>
       </c>
       <c r="AO7" s="35" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="AP7" s="61" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="AQ7" s="35" t="s">
         <v>1109</v>
       </c>
-      <c r="AS7" s="73" t="s">
-        <v>1152</v>
+      <c r="AS7" s="35" t="s">
+        <v>1149</v>
       </c>
       <c r="AT7" s="73" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="AU7" s="73" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="AV7" s="75" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="AW7" s="73" t="s">
         <v>1109</v>
@@ -22690,44 +22777,44 @@
         <v>109</v>
       </c>
       <c r="AI8" s="38" t="s">
-        <v>1120</v>
+        <v>1208</v>
       </c>
       <c r="AJ8" s="35" t="s">
         <v>91</v>
       </c>
       <c r="AK8" s="35" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AL8" s="33"/>
       <c r="AM8" s="35" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AN8" s="35" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AO8" s="35" t="s">
         <v>1153</v>
       </c>
-      <c r="AN8" s="35" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AO8" s="35" t="s">
+      <c r="AP8" s="35" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AQ8" s="35" t="s">
         <v>1156</v>
       </c>
-      <c r="AP8" s="35" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AQ8" s="35" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AS8" s="73" t="s">
-        <v>1153</v>
+      <c r="AS8" s="35" t="s">
+        <v>1150</v>
       </c>
       <c r="AT8" s="73" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AU8" s="74" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="AV8" s="73" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="AW8" s="73" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AX8" s="72"/>
     </row>
@@ -22814,38 +22901,38 @@
         <v>104</v>
       </c>
       <c r="AK9" s="35" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AL9" s="33"/>
       <c r="AM9" s="35" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="AN9" s="35" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AO9" s="52" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AP9" s="35" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AQ9" s="35" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AS9" s="35" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AT9" s="73" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AU9" s="75" t="s">
         <v>1163</v>
       </c>
-      <c r="AO9" s="52" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AP9" s="35" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AQ9" s="35" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AS9" s="73" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AT9" s="73" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AU9" s="75" t="s">
-        <v>1167</v>
-      </c>
       <c r="AV9" s="73" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="AW9" s="73" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AX9" s="72"/>
     </row>
@@ -22909,7 +22996,7 @@
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="38" t="s">
-        <v>1119</v>
+        <v>1210</v>
       </c>
       <c r="AI10" s="33"/>
       <c r="AJ10" s="61" t="s">
@@ -22918,34 +23005,34 @@
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
       <c r="AM10" s="35" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="AN10" s="35" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AO10" s="61" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="AP10" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="AQ10" s="35" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AS10" s="73" t="s">
-        <v>1155</v>
+        <v>1159</v>
+      </c>
+      <c r="AS10" s="35" t="s">
+        <v>1153</v>
       </c>
       <c r="AT10" s="73" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AU10" s="73" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AV10" s="73" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="AW10" s="73" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="AX10" s="72"/>
     </row>
@@ -23004,36 +23091,36 @@
       <c r="AH11" s="33"/>
       <c r="AI11" s="33"/>
       <c r="AJ11" s="35" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AK11" s="33"/>
       <c r="AL11" s="33"/>
       <c r="AM11" s="35" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="AN11" s="35" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="AO11" s="35" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AP11" s="35" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="AQ11" s="35" t="s">
         <v>1110</v>
       </c>
-      <c r="AS11" s="73" t="s">
-        <v>1156</v>
+      <c r="AS11" s="35" t="s">
+        <v>1154</v>
       </c>
       <c r="AT11" s="73" t="s">
         <v>1016</v>
       </c>
       <c r="AU11" s="73" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="AV11" s="73" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="AW11" s="73" t="s">
         <v>1110</v>
@@ -23086,41 +23173,36 @@
       <c r="AH12" s="33"/>
       <c r="AI12" s="33"/>
       <c r="AJ12" s="35" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AK12" s="33"/>
       <c r="AL12" s="48" t="s">
         <v>995</v>
       </c>
       <c r="AM12" s="35" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="AN12" s="35" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AO12" s="35" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="AP12" s="35" t="s">
         <v>1110</v>
       </c>
       <c r="AQ12" s="35" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AS12" s="73" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AT12" s="73" t="s">
         <v>1161</v>
       </c>
+      <c r="AS12" s="45"/>
       <c r="AU12" s="73" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="AV12" s="73" t="s">
         <v>1110</v>
       </c>
       <c r="AW12" s="73" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AX12" s="72"/>
     </row>
@@ -23178,13 +23260,13 @@
       <c r="AM13" s="33"/>
       <c r="AN13" s="33"/>
       <c r="AO13" s="35" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="AP13" s="35" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AQ13" s="38" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="AS13" s="45"/>
       <c r="AT13" s="45"/>
@@ -23192,7 +23274,7 @@
         <v>1103</v>
       </c>
       <c r="AV13" s="73" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AW13" s="73" t="s">
         <v>1016</v>
@@ -23259,10 +23341,14 @@
         <v>1112</v>
       </c>
       <c r="AQ14" s="59"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
+      <c r="AS14" s="48" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AT14" s="73" t="s">
+        <v>1158</v>
+      </c>
       <c r="AU14" s="73" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="AV14" s="73" t="s">
         <v>1112</v>
@@ -23324,10 +23410,12 @@
       <c r="AO15" s="45"/>
       <c r="AP15" s="45"/>
       <c r="AQ15" s="45"/>
-      <c r="AS15" s="45"/>
+      <c r="AS15" s="48" t="s">
+        <v>1151</v>
+      </c>
       <c r="AT15" s="45"/>
       <c r="AU15" s="73" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="AV15" s="45"/>
       <c r="AW15" s="45"/>
@@ -23487,10 +23575,10 @@
       <c r="AT18" s="45"/>
       <c r="AU18" s="45"/>
       <c r="AV18" s="73" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="AW18" s="73" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="AX18" s="72"/>
     </row>
@@ -23534,7 +23622,7 @@
         <v>31</v>
       </c>
       <c r="AK19" s="67" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AL19" s="33"/>
       <c r="AM19" s="33"/>
@@ -23646,7 +23734,7 @@
       <c r="AH21" s="33"/>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="48" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AK21" s="33"/>
       <c r="AL21" s="33"/>
@@ -24731,6 +24819,16 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -24738,16 +24836,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AJ1:AL1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -24762,9 +24850,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -24796,21 +24884,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="33"/>
+    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25086,7 +25174,7 @@
         <v>175</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -25103,7 +25191,7 @@
         <v>175</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -25125,7 +25213,7 @@
         <v>44617</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C21" s="57">
         <v>129.9</v>
@@ -25148,7 +25236,7 @@
         <v>175</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -25156,7 +25244,7 @@
         <v>44618</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C23" s="57">
         <v>130</v>
@@ -25170,7 +25258,7 @@
         <v>44618</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C24" s="57">
         <v>99.9</v>
@@ -25184,7 +25272,7 @@
         <v>44624</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C25" s="57">
         <v>129.9</v>
@@ -25198,7 +25286,7 @@
         <v>44624</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C26" s="57">
         <v>141.4</v>
@@ -25207,7 +25295,7 @@
         <v>175</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -25215,7 +25303,7 @@
         <v>44624</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C27" s="57">
         <v>100</v>
@@ -25229,7 +25317,7 @@
         <v>44624</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C28" s="57">
         <v>99.9</v>
@@ -25243,7 +25331,7 @@
         <v>44625</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C29" s="57">
         <v>130</v>
@@ -25257,7 +25345,7 @@
         <v>44625</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C30" s="57">
         <v>99.9</v>
@@ -25285,7 +25373,7 @@
         <v>44625</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C32" s="57">
         <v>100</v>
@@ -25308,7 +25396,7 @@
         <v>247</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -25316,13 +25404,44 @@
         <v>44629</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C34" s="57">
         <v>156.9</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>1201</v>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="43">
+        <v>44631</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C36" s="57">
+        <v>143.9</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="43">
+        <v>44631</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C37" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$D$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NÃO RESPONDEU'!$A$1:$M$8</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="1221">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3711,16 +3711,25 @@
     <t>3 heineken + 2 gatorade</t>
   </si>
   <si>
-    <t>guaraná antarctica</t>
-  </si>
-  <si>
-    <t>1 guaraná antarctica + 1 água</t>
-  </si>
-  <si>
     <t>2 heineken + 1 petra + 1 guaraná antarctica + 1 gatorade + 2 heineken</t>
   </si>
   <si>
     <t>1 heineken + 1 gatorade</t>
+  </si>
+  <si>
+    <t>2,50 bebidas</t>
+  </si>
+  <si>
+    <t>1 água</t>
+  </si>
+  <si>
+    <t>josé nilton (nicolas)</t>
+  </si>
+  <si>
+    <t>11 97054-5745</t>
+  </si>
+  <si>
+    <t>15 99621-6911</t>
   </si>
 </sst>
 </file>
@@ -4377,27 +4386,27 @@
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="76.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="13" width="16.26953125" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="76.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" customWidth="1"/>
+    <col min="17" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7251,18 +7260,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57"/>
-    <col min="4" max="4" width="9.1796875" style="33"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="57"/>
+    <col min="4" max="4" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7413,6 +7422,9 @@
       <c r="C12" s="57">
         <v>2.5</v>
       </c>
+      <c r="D12" s="33" t="s">
+        <v>1217</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="43">
@@ -7428,17 +7440,17 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="43">
-        <v>44625</v>
+        <v>44631</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C14" s="57">
-        <f>2.5 + 5</f>
-        <v>7.5</v>
+        <f xml:space="preserve"> 7 + 6.5 +7 + 7 + 6.5</f>
+        <v>34</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7446,14 +7458,14 @@
         <v>44631</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>1156</v>
+        <v>1177</v>
       </c>
       <c r="C15" s="57">
-        <f xml:space="preserve"> 7 + 6.5 +7 + 7 + 6.5</f>
-        <v>34</v>
+        <f>7 + 6.5</f>
+        <v>13.5</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7461,47 +7473,18 @@
         <v>44631</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="C16" s="57">
-        <f>7 + 6.5</f>
-        <v>13.5</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="43">
-        <v>44631</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C17" s="57">
         <f xml:space="preserve"> 7 + 7 + 5 +5 + 6.5 + 7 + 7</f>
         <v>44.5</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="43">
-        <v>44631</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C18" s="57">
-        <v>5</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="D16" s="33" t="s">
         <v>1214</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D16"/>
   <sortState ref="A2:C17">
     <sortCondition ref="A1"/>
   </sortState>
@@ -7518,13 +7501,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7663,23 +7646,23 @@
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
     <col min="2" max="2" width="9" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" style="33" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="33" customWidth="1"/>
-    <col min="12" max="13" width="10.7265625" style="33" customWidth="1"/>
-    <col min="14" max="28" width="18.26953125" style="33" customWidth="1"/>
-    <col min="29" max="29" width="10.7265625" style="33" customWidth="1"/>
-    <col min="30" max="31" width="9.1796875" style="33" customWidth="1"/>
-    <col min="32" max="1028" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="33" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="33" customWidth="1"/>
+    <col min="14" max="28" width="18.28515625" style="33" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="33" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="33" customWidth="1"/>
+    <col min="32" max="1028" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -7845,7 +7828,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I29" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 9 meses 8 dias</v>
+        <v>12 anos, 9 meses 15 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7913,7 +7896,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 14 dias</v>
+        <v>10 anos, 3 meses 21 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7987,7 +7970,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 11 dias</v>
+        <v>122 anos, 2 meses 18 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -8043,7 +8026,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 11 dias</v>
+        <v>122 anos, 2 meses 18 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -8109,7 +8092,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 10 meses 17 dias</v>
+        <v>13 anos, 10 meses 24 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -8181,7 +8164,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 6 meses 7 dias</v>
+        <v>8 anos, 6 meses 14 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -8253,7 +8236,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 23 dias</v>
+        <v>9 anos, 2 meses 30 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -8319,7 +8302,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 27 dias</v>
+        <v>6 anos, 5 meses 3 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -8383,7 +8366,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 22 dias</v>
+        <v>5 anos, 8 meses 29 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -8457,7 +8440,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 8 dias</v>
+        <v>6 anos, 7 meses 15 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -8531,7 +8514,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 18 dias</v>
+        <v>5 anos, 4 meses 25 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -8605,7 +8588,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 12 dias</v>
+        <v>6 anos, 3 meses 19 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -8681,7 +8664,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f ca="1">DATEDIF(H15,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H15,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H15,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 5 meses 17 dias</v>
+        <v>3 anos, 5 meses 24 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -8726,7 +8709,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 1 meses 6 dias</v>
+        <v>7 anos, 1 meses 13 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8798,7 +8781,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 2 dias</v>
+        <v>5 anos, 8 meses 9 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8872,7 +8855,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 27 dias</v>
+        <v>6 anos, 9 meses 3 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8946,7 +8929,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 4 meses 11 dias</v>
+        <v>12 anos, 4 meses 18 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -9010,7 +8993,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 30 dias</v>
+        <v>11 anos, 2 meses 6 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -9074,7 +9057,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 26 dias</v>
+        <v>5 anos, 6 meses 2 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -9138,7 +9121,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 0 dias</v>
+        <v>5 anos, 8 meses 7 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -9198,7 +9181,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 11 meses 0 dias</v>
+        <v>5 anos, 11 meses 7 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -9262,7 +9245,7 @@
       </c>
       <c r="I24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 20 dias</v>
+        <v>4 anos, 9 meses 27 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -9316,7 +9299,7 @@
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 20 dias</v>
+        <v>5 anos, 10 meses 27 dias</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>76</v>
@@ -9370,7 +9353,7 @@
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 25 dias</v>
+        <v>6 anos, 5 meses 1 dias</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>52</v>
@@ -9424,7 +9407,7 @@
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 9 dias</v>
+        <v>9 anos, 10 meses 16 dias</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>21</v>
@@ -9478,7 +9461,7 @@
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 8 dias</v>
+        <v>5 anos, 3 meses 15 dias</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>76</v>
@@ -9530,7 +9513,7 @@
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 9 meses 24 dias</v>
+        <v>9 anos, 10 meses 0 dias</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>21</v>
@@ -9718,7 +9701,7 @@
       </c>
       <c r="I34" s="6" t="str">
         <f ca="1">DATEDIF(H34,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H34,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H34,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 2 meses 6 dias</v>
+        <v>6 anos, 2 meses 13 dias</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>76</v>
@@ -9766,7 +9749,7 @@
       </c>
       <c r="I35" s="6" t="str">
         <f ca="1">DATEDIF(H35,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H35,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H35,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 4 meses 26 dias</v>
+        <v>7 anos, 5 meses 2 dias</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>21</v>
@@ -10119,7 +10102,7 @@
       </c>
       <c r="I45" s="6" t="str">
         <f ca="1">DATEDIF(H45,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H45,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H45,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 1 meses 16 dias</v>
+        <v>6 anos, 1 meses 23 dias</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>76</v>
@@ -10206,7 +10189,7 @@
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" ref="I47:I53" ca="1" si="1">DATEDIF(H47,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H47,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H47,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 8 meses 12 dias</v>
+        <v>7 anos, 8 meses 19 dias</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>52</v>
@@ -10268,7 +10251,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 9 meses 8 dias</v>
+        <v>10 anos, 9 meses 15 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>21</v>
@@ -10330,7 +10313,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 8 meses 21 dias</v>
+        <v>8 anos, 8 meses 28 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -10388,7 +10371,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 2 meses 11 dias</v>
+        <v>122 anos, 2 meses 18 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -10456,7 +10439,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 5 meses 16 dias</v>
+        <v>10 anos, 5 meses 23 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>21</v>
@@ -10518,7 +10501,7 @@
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 8 meses 4 dias</v>
+        <v>13 anos, 8 meses 11 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>35</v>
@@ -10580,7 +10563,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 10 meses 28 dias</v>
+        <v>7 anos, 11 meses 4 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>52</v>
@@ -11797,14 +11780,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="32.26953125" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12987,13 +12970,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -14533,18 +14516,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="51.7265625" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -17737,18 +17720,18 @@
       <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="33" customWidth="1"/>
-    <col min="10" max="26" width="8.54296875" customWidth="1"/>
-    <col min="27" max="1025" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="33" customWidth="1"/>
+    <col min="10" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -21676,59 +21659,64 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA1000"/>
+  <dimension ref="A1:BG1000"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3:AS11"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ17" sqref="AZ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" style="33" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" style="33" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="33" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="33" customWidth="1"/>
     <col min="14" max="14" width="12" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="33" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="33" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" style="33" customWidth="1"/>
-    <col min="19" max="19" width="32.7265625" style="33" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="33" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="33" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="33" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" style="33" customWidth="1"/>
-    <col min="22" max="22" width="14.7265625" style="33" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="33" customWidth="1"/>
     <col min="23" max="23" width="36" style="33" customWidth="1"/>
-    <col min="24" max="24" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.453125" customWidth="1"/>
-    <col min="34" max="34" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.453125" customWidth="1"/>
-    <col min="40" max="40" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.453125" customWidth="1"/>
-    <col min="45" max="45" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="1026" width="14.453125" customWidth="1"/>
+    <col min="32" max="32" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" customWidth="1"/>
+    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" customWidth="1"/>
+    <col min="45" max="45" width="18.85546875" customWidth="1"/>
+    <col min="46" max="46" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" customWidth="1"/>
+    <col min="51" max="51" width="18.85546875" customWidth="1"/>
+    <col min="52" max="52" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="1026" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="13.5" customHeight="1">
+    <row r="1" spans="1:59" ht="13.5" customHeight="1">
       <c r="A1" s="78">
         <v>44541</v>
       </c>
@@ -21813,17 +21801,26 @@
       </c>
       <c r="AV1" s="77"/>
       <c r="AW1" s="77"/>
-      <c r="AY1" t="s">
+      <c r="AY1" s="78">
+        <v>44631</v>
+      </c>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="77">
+        <v>44632</v>
+      </c>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BE1" t="s">
         <v>1201</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
         <v>1081</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BG1" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="13.5" customHeight="1">
+    <row r="2" spans="1:59" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>956</v>
       </c>
@@ -21968,17 +21965,32 @@
       <c r="AW2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="AY2" s="70" t="s">
+      <c r="AY2" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="BB2" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="AZ2" s="70" t="s">
+      <c r="BC2" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="BA2" s="70" t="s">
+      <c r="BE2" s="70" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="3" spans="1:53" ht="13.5" customHeight="1">
+      <c r="BF2" s="70" t="s">
+        <v>958</v>
+      </c>
+      <c r="BG2" s="70" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="13.5" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>959</v>
       </c>
@@ -22122,17 +22134,32 @@
         <v>1155</v>
       </c>
       <c r="AX3" s="72"/>
-      <c r="AY3" t="s">
+      <c r="AY3" s="38" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AZ3" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BA3" s="45" t="s">
+        <v>1130</v>
+      </c>
+      <c r="BB3" s="45" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BC3" s="45" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BE3" t="s">
         <v>1200</v>
       </c>
-      <c r="AZ3" s="71" t="s">
+      <c r="BF3" s="71" t="s">
         <v>1024</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BG3" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="13.5" customHeight="1">
+    <row r="4" spans="1:59" ht="13.5" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>968</v>
       </c>
@@ -22271,8 +22298,23 @@
         <v>1171</v>
       </c>
       <c r="AX4" s="72"/>
-    </row>
-    <row r="5" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY4" s="38" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AZ4" s="48" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BA4" s="45" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BB4" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BC4" s="45" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" ht="13.5" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>975</v>
       </c>
@@ -22411,8 +22453,23 @@
         <v>1157</v>
       </c>
       <c r="AX5" s="72"/>
-    </row>
-    <row r="6" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY5" s="38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AZ5" s="38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BA5" s="45" t="s">
+        <v>1162</v>
+      </c>
+      <c r="BB5" s="59" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BC5" s="45" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" ht="13.5" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>984</v>
       </c>
@@ -22551,8 +22608,23 @@
         <v>998</v>
       </c>
       <c r="AX6" s="72"/>
-    </row>
-    <row r="7" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY6" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AZ6" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BA6" s="45" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BB6" s="59" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BC6" s="59" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" ht="13.5" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>989</v>
       </c>
@@ -22688,8 +22760,23 @@
         <v>1109</v>
       </c>
       <c r="AX7" s="72"/>
-    </row>
-    <row r="8" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY7" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AZ7" s="38" t="s">
+        <v>1159</v>
+      </c>
+      <c r="BA7" s="45" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BB7" s="59" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BC7" s="45" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" ht="13.5" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>830</v>
       </c>
@@ -22817,8 +22904,23 @@
         <v>1156</v>
       </c>
       <c r="AX8" s="72"/>
-    </row>
-    <row r="9" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY8" s="38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AZ8" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BA8" s="44" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BB8" s="45" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BC8" s="45" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" ht="13.5" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>960</v>
       </c>
@@ -22935,8 +23037,23 @@
         <v>1142</v>
       </c>
       <c r="AX9" s="72"/>
-    </row>
-    <row r="10" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY9" s="38" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AZ9" s="48" t="s">
+        <v>1160</v>
+      </c>
+      <c r="BA9" s="59" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BB9" s="45" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BC9" s="45" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" ht="13.5" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>118</v>
       </c>
@@ -23035,8 +23152,23 @@
         <v>1159</v>
       </c>
       <c r="AX10" s="72"/>
-    </row>
-    <row r="11" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY10" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AZ10" s="38" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BA10" s="45" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BB10" s="45" t="s">
+        <v>1175</v>
+      </c>
+      <c r="BC10" s="45" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" ht="13.5" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>999</v>
       </c>
@@ -23126,8 +23258,23 @@
         <v>1110</v>
       </c>
       <c r="AX11" s="72"/>
-    </row>
-    <row r="12" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY11" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AZ11" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="BA11" s="45" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BB11" s="45" t="s">
+        <v>1159</v>
+      </c>
+      <c r="BC11" s="45" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>986</v>
       </c>
@@ -23205,8 +23352,19 @@
         <v>1161</v>
       </c>
       <c r="AX12" s="72"/>
-    </row>
-    <row r="13" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="45" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BB12" s="45" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BC12" s="45" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" ht="13.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -23280,8 +23438,19 @@
         <v>1016</v>
       </c>
       <c r="AX13" s="72"/>
-    </row>
-    <row r="14" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BB13" s="45" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BC13" s="45" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -23355,8 +23524,19 @@
       </c>
       <c r="AW14" s="59"/>
       <c r="AX14" s="72"/>
-    </row>
-    <row r="15" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY14" s="48" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45" t="s">
+        <v>1199</v>
+      </c>
+      <c r="BB14" s="45" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BC14" s="59"/>
+    </row>
+    <row r="15" spans="1:59" ht="13.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -23420,8 +23600,17 @@
       <c r="AV15" s="45"/>
       <c r="AW15" s="45"/>
       <c r="AX15" s="72"/>
-    </row>
-    <row r="16" spans="1:53" ht="13.5" customHeight="1">
+      <c r="AY15" s="38" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AZ15" s="45"/>
+      <c r="BA15" s="45" t="s">
+        <v>1198</v>
+      </c>
+      <c r="BB15" s="45"/>
+      <c r="BC15" s="45"/>
+    </row>
+    <row r="16" spans="1:59" ht="13.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -23474,8 +23663,15 @@
       <c r="AV16" s="45"/>
       <c r="AW16" s="45"/>
       <c r="AX16" s="72"/>
-    </row>
-    <row r="17" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY16" s="38" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="45"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="45"/>
+    </row>
+    <row r="17" spans="1:55" ht="13.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -23525,8 +23721,17 @@
       <c r="AV17" s="45"/>
       <c r="AW17" s="45"/>
       <c r="AX17" s="72"/>
-    </row>
-    <row r="18" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY17" s="38" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AZ17" s="38" t="s">
+        <v>1220</v>
+      </c>
+      <c r="BA17" s="45"/>
+      <c r="BB17" s="45"/>
+      <c r="BC17" s="45"/>
+    </row>
+    <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -23581,8 +23786,16 @@
         <v>1205</v>
       </c>
       <c r="AX18" s="72"/>
-    </row>
-    <row r="19" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="45" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BC18" s="45" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -23636,8 +23849,13 @@
       <c r="AV19" s="59"/>
       <c r="AW19" s="45"/>
       <c r="AX19" s="72"/>
-    </row>
-    <row r="20" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="59"/>
+      <c r="BC19" s="45"/>
+    </row>
+    <row r="20" spans="1:55" ht="13.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -23693,8 +23911,15 @@
       <c r="AV20" s="45"/>
       <c r="AW20" s="45"/>
       <c r="AX20" s="72"/>
-    </row>
-    <row r="21" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="BB20" s="45"/>
+      <c r="BC20" s="45"/>
+    </row>
+    <row r="21" spans="1:55" ht="13.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -23749,8 +23974,13 @@
       <c r="AV21" s="45"/>
       <c r="AW21" s="45"/>
       <c r="AX21" s="72"/>
-    </row>
-    <row r="22" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="45"/>
+      <c r="BB21" s="45"/>
+      <c r="BC21" s="45"/>
+    </row>
+    <row r="22" spans="1:55" ht="13.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -23810,45 +24040,70 @@
       <c r="AV22" s="45"/>
       <c r="AW22" s="45"/>
       <c r="AX22" s="72"/>
-    </row>
-    <row r="23" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="45"/>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="45"/>
+    </row>
+    <row r="23" spans="1:55" ht="13.5" customHeight="1">
       <c r="AS23" s="72"/>
       <c r="AT23" s="72"/>
       <c r="AU23" s="72"/>
       <c r="AV23" s="72"/>
       <c r="AW23" s="72"/>
       <c r="AX23" s="72"/>
-    </row>
-    <row r="24" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="72"/>
+      <c r="BA23" s="72"/>
+      <c r="BB23" s="72"/>
+      <c r="BC23" s="72"/>
+    </row>
+    <row r="24" spans="1:55" ht="13.5" customHeight="1">
       <c r="AS24" s="72"/>
       <c r="AT24" s="72"/>
       <c r="AU24" s="72"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="72"/>
       <c r="AX24" s="72"/>
-    </row>
-    <row r="25" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="72"/>
+      <c r="BA24" s="72"/>
+      <c r="BB24" s="72"/>
+      <c r="BC24" s="72"/>
+    </row>
+    <row r="25" spans="1:55" ht="13.5" customHeight="1">
       <c r="AS25" s="72"/>
       <c r="AT25" s="72"/>
       <c r="AU25" s="72"/>
       <c r="AV25" s="72"/>
       <c r="AW25" s="72"/>
       <c r="AX25" s="72"/>
-    </row>
-    <row r="26" spans="1:50" ht="13.5" customHeight="1">
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="72"/>
+      <c r="BA25" s="72"/>
+      <c r="BB25" s="72"/>
+      <c r="BC25" s="72"/>
+    </row>
+    <row r="26" spans="1:55" ht="13.5" customHeight="1">
       <c r="AS26" s="72"/>
       <c r="AT26" s="72"/>
       <c r="AU26" s="72"/>
       <c r="AV26" s="72"/>
       <c r="AW26" s="72"/>
       <c r="AX26" s="72"/>
-    </row>
-    <row r="27" spans="1:50" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:50" ht="13.5" customHeight="1"/>
-    <row r="29" spans="1:50" ht="13.5" customHeight="1"/>
-    <row r="30" spans="1:50" ht="13.5" customHeight="1"/>
-    <row r="31" spans="1:50" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:50" ht="13.5" customHeight="1"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="72"/>
+      <c r="BA26" s="72"/>
+      <c r="BB26" s="72"/>
+      <c r="BC26" s="72"/>
+    </row>
+    <row r="27" spans="1:55" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:55" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:55" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:55" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:55" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:55" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -24818,7 +25073,9 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -24850,9 +25107,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -24884,21 +25141,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="33"/>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25413,35 +25670,66 @@
         <v>1197</v>
       </c>
     </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="43">
+        <v>44631</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C35" s="57">
+        <v>143.9</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>1212</v>
+      </c>
+    </row>
     <row r="36" spans="1:6">
       <c r="A36" s="43">
         <v>44631</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>1211</v>
+      <c r="B36" s="45" t="s">
+        <v>1054</v>
       </c>
       <c r="C36" s="57">
-        <v>143.9</v>
+        <v>99.9</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>1212</v>
-      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="43">
-        <v>44631</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>1054</v>
+        <v>44632</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>1078</v>
       </c>
       <c r="C37" s="57">
-        <v>99.9</v>
+        <v>102.5</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>247</v>
+        <v>175</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="43">
+        <v>44636</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C38" s="57">
+        <v>142.4</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>1176</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="1232">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3543,9 +3543,6 @@
     <t>davi (aline)</t>
   </si>
   <si>
-    <t>15 98802-3756 (ygor)</t>
-  </si>
-  <si>
     <t>matheus</t>
   </si>
   <si>
@@ -3729,7 +3726,43 @@
     <t>11 97054-5745</t>
   </si>
   <si>
-    <t>15 99621-6911</t>
+    <t>henrique (irmão do davi)</t>
+  </si>
+  <si>
+    <t>15 99621-6911 (felipe, S)</t>
+  </si>
+  <si>
+    <t>adriana (enrico)</t>
+  </si>
+  <si>
+    <t>eliane, mateus</t>
+  </si>
+  <si>
+    <t>gabriel (fábio)</t>
+  </si>
+  <si>
+    <t>gabriel + matheus</t>
+  </si>
+  <si>
+    <t>davi + joão</t>
+  </si>
+  <si>
+    <t>joão (amigo davi)</t>
+  </si>
+  <si>
+    <t>matheus (amigo gabriel)</t>
+  </si>
+  <si>
+    <t>gabriel (15 99752-1409)</t>
+  </si>
+  <si>
+    <t>mateus feliciano romano (eliane)</t>
+  </si>
+  <si>
+    <t>davi (fernanda)</t>
+  </si>
+  <si>
+    <t>enrico (adriana)</t>
   </si>
 </sst>
 </file>
@@ -3904,7 +3937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4005,17 +4038,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7260,10 +7304,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7285,7 +7329,7 @@
         <v>167</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7293,14 +7337,14 @@
         <v>44617</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C2" s="57">
         <f xml:space="preserve"> 7 + 7 + 6.5</f>
         <v>20.5</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7308,7 +7352,7 @@
         <v>44618</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C3" s="57">
         <f xml:space="preserve"> 7 + 2.5</f>
@@ -7320,7 +7364,7 @@
         <v>44618</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C4" s="57">
         <f>2.5 + 6.5</f>
@@ -7343,13 +7387,13 @@
         <v>44624</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C6" s="57">
         <v>6.5</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7357,14 +7401,14 @@
         <v>44625</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C7" s="57">
         <f xml:space="preserve"> 7 + 7 + 7 + 7 + 6.5 + 5</f>
         <v>39.5</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7384,7 +7428,7 @@
         <v>44625</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C9" s="57">
         <v>2.5</v>
@@ -7395,7 +7439,7 @@
         <v>44625</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C10" s="57">
         <v>2.5</v>
@@ -7406,7 +7450,7 @@
         <v>44625</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C11" s="57">
         <v>6.5</v>
@@ -7423,7 +7467,7 @@
         <v>2.5</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7431,7 +7475,7 @@
         <v>44625</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C13" s="57">
         <f xml:space="preserve"> 6.5 +5</f>
@@ -7450,7 +7494,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7458,14 +7502,14 @@
         <v>44631</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C15" s="57">
         <f>7 + 6.5</f>
         <v>13.5</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7473,14 +7517,141 @@
         <v>44631</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C16" s="57">
         <f xml:space="preserve"> 7 + 7 + 5 +5 + 6.5 + 7 + 7</f>
         <v>44.5</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>1214</v>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="43">
+        <v>44632</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C17" s="57">
+        <f>2.5 + 2.5 + 5 + 5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="43">
+        <v>44632</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C18" s="57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="43">
+        <v>44632</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C19" s="57">
+        <f>6.5+2.5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="43">
+        <v>44632</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C20" s="57">
+        <f>2.5+2.5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="43">
+        <v>44632</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C21" s="57">
+        <f>2.5+2.5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C22" s="57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C23" s="57">
+        <f xml:space="preserve"> 5 + 2.5</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C24" s="57">
+        <f xml:space="preserve"> 5 + 5 +2.5</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C25" s="57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C26" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C27" s="57">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -7498,16 +7669,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7523,7 +7694,7 @@
       <c r="D1" s="55" t="s">
         <v>1126</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="79" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -7538,7 +7709,7 @@
       <c r="D2" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="43">
@@ -7553,7 +7724,7 @@
       <c r="D3" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="80" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -7570,65 +7741,75 @@
       <c r="D4" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="80" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="43">
+        <v>44639</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C5" s="33">
+        <v>199.9</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="80">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="80"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
@@ -7666,45 +7847,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="76" t="s">
+      <c r="AC1" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -7828,7 +8009,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I29" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 9 meses 15 dias</v>
+        <v>12 anos, 9 meses 16 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -7896,7 +8077,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 21 dias</v>
+        <v>10 anos, 3 meses 22 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -7970,7 +8151,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 18 dias</v>
+        <v>122 anos, 2 meses 19 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -8026,7 +8207,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 18 dias</v>
+        <v>122 anos, 2 meses 19 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>35</v>
@@ -8092,7 +8273,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 10 meses 24 dias</v>
+        <v>13 anos, 10 meses 25 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>35</v>
@@ -8164,7 +8345,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 6 meses 14 dias</v>
+        <v>8 anos, 6 meses 15 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>52</v>
@@ -8236,7 +8417,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 30 dias</v>
+        <v>9 anos, 3 meses 0 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>52</v>
@@ -8302,7 +8483,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 5 meses 3 dias</v>
+        <v>6 anos, 5 meses 4 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>64</v>
@@ -8366,7 +8547,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 29 dias</v>
+        <v>5 anos, 8 meses 30 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -8440,7 +8621,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 15 dias</v>
+        <v>6 anos, 7 meses 16 dias</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>76</v>
@@ -8514,7 +8695,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 25 dias</v>
+        <v>5 anos, 4 meses 26 dias</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
@@ -8588,7 +8769,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 19 dias</v>
+        <v>6 anos, 3 meses 20 dias</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>76</v>
@@ -8664,7 +8845,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f ca="1">DATEDIF(H15,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H15,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H15,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 5 meses 24 dias</v>
+        <v>3 anos, 5 meses 25 dias</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>76</v>
@@ -8709,7 +8890,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 1 meses 13 dias</v>
+        <v>7 anos, 1 meses 14 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>76</v>
@@ -8781,7 +8962,7 @@
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 9 dias</v>
+        <v>5 anos, 8 meses 10 dias</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>76</v>
@@ -8855,7 +9036,7 @@
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 3 dias</v>
+        <v>6 anos, 9 meses 4 dias</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>76</v>
@@ -8929,7 +9110,7 @@
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 4 meses 18 dias</v>
+        <v>12 anos, 4 meses 19 dias</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>12</v>
@@ -8993,7 +9174,7 @@
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 2 meses 6 dias</v>
+        <v>11 anos, 2 meses 7 dias</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>12</v>
@@ -9057,7 +9238,7 @@
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 6 meses 2 dias</v>
+        <v>5 anos, 6 meses 3 dias</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>76</v>
@@ -9121,7 +9302,7 @@
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 7 dias</v>
+        <v>5 anos, 8 meses 8 dias</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>76</v>
@@ -9181,7 +9362,7 @@
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 11 meses 7 dias</v>
+        <v>5 anos, 11 meses 8 dias</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>76</v>
@@ -9245,7 +9426,7 @@
       </c>
       <c r="I24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 27 dias</v>
+        <v>4 anos, 9 meses 28 dias</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>76</v>
@@ -9299,7 +9480,7 @@
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 27 dias</v>
+        <v>5 anos, 10 meses 28 dias</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>76</v>
@@ -9353,7 +9534,7 @@
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 5 meses 1 dias</v>
+        <v>6 anos, 5 meses 2 dias</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>52</v>
@@ -9407,7 +9588,7 @@
       </c>
       <c r="I27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 16 dias</v>
+        <v>9 anos, 10 meses 17 dias</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>21</v>
@@ -9438,30 +9619,30 @@
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>1184</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>1185</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>1186</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>1187</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>973</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H28" s="30">
         <v>42707</v>
       </c>
       <c r="I28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 15 dias</v>
+        <v>5 anos, 3 meses 16 dias</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>76</v>
@@ -9492,28 +9673,28 @@
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>1190</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>1191</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>1192</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>1193</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H29" s="30">
         <v>41047</v>
       </c>
       <c r="I29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 0 dias</v>
+        <v>9 anos, 10 meses 1 dias</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>21</v>
@@ -9701,7 +9882,7 @@
       </c>
       <c r="I34" s="6" t="str">
         <f ca="1">DATEDIF(H34,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H34,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H34,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 2 meses 13 dias</v>
+        <v>6 anos, 2 meses 14 dias</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>76</v>
@@ -9749,7 +9930,7 @@
       </c>
       <c r="I35" s="6" t="str">
         <f ca="1">DATEDIF(H35,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H35,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H35,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 5 meses 2 dias</v>
+        <v>7 anos, 5 meses 3 dias</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>21</v>
@@ -10102,13 +10283,13 @@
       </c>
       <c r="I45" s="6" t="str">
         <f ca="1">DATEDIF(H45,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H45,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H45,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 1 meses 23 dias</v>
+        <v>6 anos, 1 meses 24 dias</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K45" s="62" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -10189,7 +10370,7 @@
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" ref="I47:I53" ca="1" si="1">DATEDIF(H47,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H47,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H47,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 8 meses 19 dias</v>
+        <v>7 anos, 8 meses 20 dias</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>52</v>
@@ -10251,7 +10432,7 @@
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 9 meses 15 dias</v>
+        <v>10 anos, 9 meses 16 dias</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>21</v>
@@ -10313,7 +10494,7 @@
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 8 meses 28 dias</v>
+        <v>8 anos, 8 meses 29 dias</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
@@ -10371,7 +10552,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>122 anos, 2 meses 18 dias</v>
+        <v>122 anos, 2 meses 19 dias</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>21</v>
@@ -10439,7 +10620,7 @@
       </c>
       <c r="I51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 5 meses 23 dias</v>
+        <v>10 anos, 5 meses 24 dias</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>21</v>
@@ -10501,7 +10682,7 @@
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 8 meses 11 dias</v>
+        <v>13 anos, 8 meses 12 dias</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>35</v>
@@ -10563,7 +10744,7 @@
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 11 meses 4 dias</v>
+        <v>7 anos, 11 meses 5 dias</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>52</v>
@@ -21661,8 +21842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ17" sqref="AZ17"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AU30" sqref="AU30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21717,36 +21898,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
-      <c r="A1" s="78">
+      <c r="A1" s="76">
         <v>44541</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76">
         <v>44548</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78">
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76">
         <v>44569</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76">
         <v>44576</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76">
         <v>44583</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
       <c r="S1" s="77">
         <v>44596</v>
       </c>
@@ -21783,41 +21964,41 @@
       </c>
       <c r="AK1" s="77"/>
       <c r="AL1" s="77"/>
-      <c r="AM1" s="78">
+      <c r="AM1" s="76">
         <v>44624</v>
       </c>
-      <c r="AN1" s="78"/>
+      <c r="AN1" s="76"/>
       <c r="AO1" s="77">
         <v>44625</v>
       </c>
       <c r="AP1" s="77"/>
       <c r="AQ1" s="77"/>
-      <c r="AS1" s="78">
+      <c r="AS1" s="76">
         <v>44631</v>
       </c>
-      <c r="AT1" s="78"/>
+      <c r="AT1" s="76"/>
       <c r="AU1" s="77">
         <v>44632</v>
       </c>
       <c r="AV1" s="77"/>
       <c r="AW1" s="77"/>
-      <c r="AY1" s="78">
-        <v>44631</v>
-      </c>
-      <c r="AZ1" s="78"/>
+      <c r="AY1" s="76">
+        <v>44638</v>
+      </c>
+      <c r="AZ1" s="76"/>
       <c r="BA1" s="77">
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="BB1" s="77"/>
       <c r="BC1" s="77"/>
       <c r="BE1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="BF1" t="s">
         <v>1081</v>
       </c>
       <c r="BG1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="13.5" customHeight="1">
@@ -21945,7 +22126,7 @@
         <v>956</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>958</v>
@@ -21960,7 +22141,7 @@
         <v>956</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>958</v>
@@ -21975,19 +22156,19 @@
         <v>956</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>958</v>
       </c>
       <c r="BE2" s="70" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="BF2" s="70" t="s">
         <v>958</v>
       </c>
       <c r="BG2" s="70" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="13.5" customHeight="1">
@@ -22118,26 +22299,27 @@
       <c r="AQ3" s="35" t="s">
         <v>1155</v>
       </c>
+      <c r="AR3" s="83"/>
       <c r="AS3" s="35" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AT3" s="73" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AT3" s="35" t="s">
         <v>1155</v>
       </c>
-      <c r="AU3" s="73" t="s">
+      <c r="AU3" s="35" t="s">
         <v>1130</v>
       </c>
-      <c r="AV3" s="73" t="s">
+      <c r="AV3" s="35" t="s">
         <v>1156</v>
       </c>
       <c r="AW3" s="73" t="s">
         <v>1155</v>
       </c>
       <c r="AX3" s="72"/>
-      <c r="AY3" s="38" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AZ3" s="38" t="s">
+      <c r="AY3" s="35" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AZ3" s="35" t="s">
         <v>1155</v>
       </c>
       <c r="BA3" s="45" t="s">
@@ -22150,13 +22332,13 @@
         <v>1155</v>
       </c>
       <c r="BE3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="BF3" s="71" t="s">
         <v>1024</v>
       </c>
       <c r="BG3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="13.5" customHeight="1">
@@ -22280,29 +22462,30 @@
         <v>1109</v>
       </c>
       <c r="AQ4" s="35" t="s">
-        <v>1171</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="AR4" s="83"/>
       <c r="AS4" s="35" t="s">
         <v>1147</v>
       </c>
-      <c r="AT4" s="73" t="s">
+      <c r="AT4" s="35" t="s">
         <v>1156</v>
       </c>
-      <c r="AU4" s="73" t="s">
+      <c r="AU4" s="35" t="s">
         <v>1149</v>
       </c>
-      <c r="AV4" s="74" t="s">
+      <c r="AV4" s="52" t="s">
         <v>1109</v>
       </c>
       <c r="AW4" s="73" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AX4" s="72"/>
-      <c r="AY4" s="38" t="s">
+      <c r="AY4" s="35" t="s">
         <v>1147</v>
       </c>
-      <c r="AZ4" s="48" t="s">
-        <v>1156</v>
+      <c r="AZ4" s="35" t="s">
+        <v>1157</v>
       </c>
       <c r="BA4" s="45" t="s">
         <v>1149</v>
@@ -22311,7 +22494,7 @@
         <v>1109</v>
       </c>
       <c r="BC4" s="45" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="13.5" customHeight="1">
@@ -22429,7 +22612,7 @@
         <v>1157</v>
       </c>
       <c r="AO5" s="48" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AP5" s="61" t="s">
         <v>1143</v>
@@ -22437,30 +22620,31 @@
       <c r="AQ5" s="35" t="s">
         <v>1157</v>
       </c>
+      <c r="AR5" s="83"/>
       <c r="AS5" s="35" t="s">
         <v>1130</v>
       </c>
-      <c r="AT5" s="73" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AU5" s="73" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AV5" s="75" t="s">
+      <c r="AT5" s="35" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AU5" s="35" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AV5" s="61" t="s">
         <v>1143</v>
       </c>
       <c r="AW5" s="73" t="s">
         <v>1157</v>
       </c>
       <c r="AX5" s="72"/>
-      <c r="AY5" s="38" t="s">
+      <c r="AY5" s="35" t="s">
         <v>1130</v>
       </c>
-      <c r="AZ5" s="38" t="s">
-        <v>1157</v>
+      <c r="AZ5" s="35" t="s">
+        <v>1160</v>
       </c>
       <c r="BA5" s="45" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="BB5" s="59" t="s">
         <v>1143</v>
@@ -22581,7 +22765,7 @@
         <v>1148</v>
       </c>
       <c r="AN6" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AO6" s="35" t="s">
         <v>1151</v>
@@ -22592,27 +22776,28 @@
       <c r="AQ6" s="61" t="s">
         <v>998</v>
       </c>
+      <c r="AR6" s="83"/>
       <c r="AS6" s="35" t="s">
         <v>1148</v>
       </c>
-      <c r="AT6" s="73" t="s">
+      <c r="AT6" s="35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AU6" s="35" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AV6" s="61" t="s">
         <v>1142</v>
       </c>
-      <c r="AU6" s="73" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AV6" s="75" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AW6" s="75" t="s">
+      <c r="AW6" s="74" t="s">
         <v>998</v>
       </c>
       <c r="AX6" s="72"/>
-      <c r="AY6" s="38" t="s">
+      <c r="AY6" s="35" t="s">
         <v>1148</v>
       </c>
-      <c r="AZ6" s="38" t="s">
-        <v>1142</v>
+      <c r="AZ6" s="35" t="s">
+        <v>1016</v>
       </c>
       <c r="BA6" s="45" t="s">
         <v>1147</v>
@@ -22727,13 +22912,13 @@
         <v>1110</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AM7" s="35" t="s">
         <v>1149</v>
       </c>
       <c r="AN7" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AO7" s="35" t="s">
         <v>1147</v>
@@ -22744,27 +22929,28 @@
       <c r="AQ7" s="35" t="s">
         <v>1109</v>
       </c>
+      <c r="AR7" s="83"/>
       <c r="AS7" s="35" t="s">
         <v>1149</v>
       </c>
-      <c r="AT7" s="73" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AU7" s="73" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AV7" s="75" t="s">
+      <c r="AT7" s="35" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AU7" s="35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AV7" s="61" t="s">
         <v>1146</v>
       </c>
       <c r="AW7" s="73" t="s">
         <v>1109</v>
       </c>
       <c r="AX7" s="72"/>
-      <c r="AY7" s="38" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AZ7" s="38" t="s">
-        <v>1159</v>
+      <c r="AY7" s="35" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AZ7" s="78" t="s">
+        <v>1220</v>
       </c>
       <c r="BA7" s="45" t="s">
         <v>1153</v>
@@ -22864,7 +23050,7 @@
         <v>109</v>
       </c>
       <c r="AI8" s="38" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AJ8" s="35" t="s">
         <v>91</v>
@@ -22883,38 +23069,37 @@
         <v>1153</v>
       </c>
       <c r="AP8" s="35" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AQ8" s="35" t="s">
         <v>1156</v>
       </c>
+      <c r="AR8" s="83"/>
       <c r="AS8" s="35" t="s">
         <v>1150</v>
       </c>
-      <c r="AT8" s="73" t="s">
-        <v>1143</v>
-      </c>
-      <c r="AU8" s="74" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AV8" s="73" t="s">
-        <v>1170</v>
+      <c r="AT8" s="35" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AU8" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AV8" s="35" t="s">
+        <v>1169</v>
       </c>
       <c r="AW8" s="73" t="s">
         <v>1156</v>
       </c>
       <c r="AX8" s="72"/>
-      <c r="AY8" s="38" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AZ8" s="38" t="s">
-        <v>1143</v>
-      </c>
+      <c r="AY8" s="35" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AZ8" s="33"/>
       <c r="BA8" s="44" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BB8" s="45" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="BC8" s="45" t="s">
         <v>1156</v>
@@ -23010,10 +23195,10 @@
         <v>1151</v>
       </c>
       <c r="AN9" s="35" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AO9" s="52" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AP9" s="35" t="s">
         <v>1153</v>
@@ -23021,30 +23206,29 @@
       <c r="AQ9" s="35" t="s">
         <v>1142</v>
       </c>
+      <c r="AR9" s="83"/>
       <c r="AS9" s="35" t="s">
         <v>1152</v>
       </c>
-      <c r="AT9" s="73" t="s">
+      <c r="AT9" s="35" t="s">
         <v>1160</v>
       </c>
-      <c r="AU9" s="75" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AV9" s="73" t="s">
+      <c r="AU9" s="35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AV9" s="35" t="s">
         <v>1153</v>
       </c>
       <c r="AW9" s="73" t="s">
         <v>1142</v>
       </c>
       <c r="AX9" s="72"/>
-      <c r="AY9" s="38" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AZ9" s="48" t="s">
-        <v>1160</v>
-      </c>
+      <c r="AY9" s="35" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AZ9" s="33"/>
       <c r="BA9" s="59" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="BB9" s="45" t="s">
         <v>1153</v>
@@ -23113,7 +23297,7 @@
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AI10" s="33"/>
       <c r="AJ10" s="61" t="s">
@@ -23128,44 +23312,43 @@
         <v>1143</v>
       </c>
       <c r="AO10" s="61" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AP10" s="38" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AQ10" s="35" t="s">
-        <v>1159</v>
-      </c>
+        <v>1158</v>
+      </c>
+      <c r="AR10" s="83"/>
       <c r="AS10" s="35" t="s">
         <v>1153</v>
       </c>
-      <c r="AT10" s="73" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AU10" s="73" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AV10" s="73" t="s">
-        <v>1175</v>
+      <c r="AT10" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AU10" s="38" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AV10" s="35" t="s">
+        <v>1158</v>
       </c>
       <c r="AW10" s="73" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AX10" s="72"/>
-      <c r="AY10" s="38" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AZ10" s="38" t="s">
-        <v>1161</v>
-      </c>
+      <c r="AY10" s="35" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AZ10" s="33"/>
       <c r="BA10" s="45" t="s">
         <v>1132</v>
       </c>
       <c r="BB10" s="45" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="BC10" s="45" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="13.5" customHeight="1">
@@ -23231,44 +23414,39 @@
         <v>1153</v>
       </c>
       <c r="AN11" s="35" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AO11" s="35" t="s">
         <v>1132</v>
       </c>
       <c r="AP11" s="35" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AQ11" s="35" t="s">
         <v>1110</v>
       </c>
+      <c r="AR11" s="83"/>
       <c r="AS11" s="35" t="s">
         <v>1154</v>
       </c>
-      <c r="AT11" s="73" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AU11" s="73" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AV11" s="73" t="s">
-        <v>1159</v>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="35" t="s">
+        <v>1110</v>
       </c>
       <c r="AW11" s="73" t="s">
         <v>1110</v>
       </c>
       <c r="AX11" s="72"/>
-      <c r="AY11" s="38" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AZ11" s="38" t="s">
-        <v>1016</v>
-      </c>
+      <c r="AY11" s="35" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AZ11" s="33"/>
       <c r="BA11" s="45" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="BB11" s="45" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="BC11" s="45" t="s">
         <v>1110</v>
@@ -23330,38 +23508,41 @@
         <v>1154</v>
       </c>
       <c r="AN12" s="35" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AO12" s="35" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AP12" s="35" t="s">
         <v>1110</v>
       </c>
       <c r="AQ12" s="35" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AS12" s="45"/>
-      <c r="AU12" s="73" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AV12" s="73" t="s">
-        <v>1110</v>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="74" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AV12" s="61" t="s">
+        <v>1226</v>
       </c>
       <c r="AW12" s="73" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AX12" s="72"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="72"/>
+      <c r="AY12" s="61" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AZ12" s="33"/>
       <c r="BA12" s="45" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="BB12" s="45" t="s">
         <v>1110</v>
       </c>
       <c r="BC12" s="45" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="13.5" customHeight="1">
@@ -23418,22 +23599,18 @@
       <c r="AM13" s="33"/>
       <c r="AN13" s="33"/>
       <c r="AO13" s="35" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AP13" s="35" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AQ13" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AS13" s="45"/>
       <c r="AT13" s="45"/>
-      <c r="AU13" s="73" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AV13" s="73" t="s">
-        <v>1161</v>
-      </c>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="59"/>
       <c r="AW13" s="73" t="s">
         <v>1016</v>
       </c>
@@ -23444,7 +23621,7 @@
         <v>1103</v>
       </c>
       <c r="BB13" s="45" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="BC13" s="45" t="s">
         <v>1016</v>
@@ -23513,23 +23690,19 @@
       <c r="AS14" s="48" t="s">
         <v>1146</v>
       </c>
-      <c r="AT14" s="73" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AU14" s="73" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV14" s="73" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AW14" s="59"/>
+      <c r="AT14" s="48" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="59" t="s">
+        <v>1227</v>
+      </c>
       <c r="AX14" s="72"/>
-      <c r="AY14" s="48" t="s">
-        <v>1146</v>
-      </c>
+      <c r="AY14" s="33"/>
       <c r="AZ14" s="45"/>
       <c r="BA14" s="45" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="BB14" s="45" t="s">
         <v>1112</v>
@@ -23594,18 +23767,18 @@
         <v>1151</v>
       </c>
       <c r="AT15" s="45"/>
-      <c r="AU15" s="73" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="59" t="s">
+        <v>1228</v>
+      </c>
       <c r="AX15" s="72"/>
-      <c r="AY15" s="38" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AZ15" s="45"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="48" t="s">
+        <v>1159</v>
+      </c>
       <c r="BA15" s="45" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="BB15" s="45"/>
       <c r="BC15" s="45"/>
@@ -23660,13 +23833,13 @@
       <c r="AS16" s="45"/>
       <c r="AT16" s="45"/>
       <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
+      <c r="AV16" s="59"/>
       <c r="AW16" s="45"/>
       <c r="AX16" s="72"/>
-      <c r="AY16" s="38" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AZ16" s="45"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="48" t="s">
+        <v>1156</v>
+      </c>
       <c r="BA16" s="45"/>
       <c r="BB16" s="45"/>
       <c r="BC16" s="45"/>
@@ -23717,16 +23890,14 @@
       <c r="AQ17" s="45"/>
       <c r="AS17" s="45"/>
       <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
+      <c r="AU17" s="48" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AV17" s="59"/>
       <c r="AW17" s="45"/>
       <c r="AX17" s="72"/>
-      <c r="AY17" s="38" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AZ17" s="38" t="s">
-        <v>1220</v>
-      </c>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
       <c r="BA17" s="45"/>
       <c r="BB17" s="45"/>
       <c r="BC17" s="45"/>
@@ -23778,21 +23949,26 @@
       <c r="AQ18" s="45"/>
       <c r="AS18" s="45"/>
       <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="73" t="s">
+      <c r="AU18" s="49" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="73" t="s">
         <v>1204</v>
       </c>
-      <c r="AW18" s="73" t="s">
-        <v>1205</v>
-      </c>
       <c r="AX18" s="72"/>
-      <c r="AY18" s="45"/>
+      <c r="AY18" s="48" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AZ18" s="38" t="s">
+        <v>1142</v>
+      </c>
       <c r="BA18" s="45"/>
       <c r="BB18" s="45" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BC18" s="45" t="s">
         <v>1204</v>
-      </c>
-      <c r="BC18" s="45" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="1:55" ht="13.5" customHeight="1">
@@ -23845,12 +24021,18 @@
       <c r="AQ19" s="45"/>
       <c r="AS19" s="45"/>
       <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
+      <c r="AU19" s="48" t="s">
+        <v>1153</v>
+      </c>
       <c r="AV19" s="59"/>
       <c r="AW19" s="45"/>
       <c r="AX19" s="72"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
+      <c r="AY19" s="48" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AZ19" s="38" t="s">
+        <v>1158</v>
+      </c>
       <c r="BA19" s="45"/>
       <c r="BB19" s="59"/>
       <c r="BC19" s="45"/>
@@ -23907,14 +24089,22 @@
       </c>
       <c r="AS20" s="45"/>
       <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
+      <c r="AU20" s="48" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AV20" s="48" t="s">
+        <v>1112</v>
+      </c>
       <c r="AW20" s="45"/>
       <c r="AX20" s="72"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
+      <c r="AY20" s="48" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AZ20" s="38" t="s">
+        <v>1143</v>
+      </c>
       <c r="BA20" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="BB20" s="45"/>
       <c r="BC20" s="45"/>
@@ -23974,7 +24164,9 @@
       <c r="AV21" s="45"/>
       <c r="AW21" s="45"/>
       <c r="AX21" s="72"/>
-      <c r="AY21" s="45"/>
+      <c r="AY21" s="48" t="s">
+        <v>1152</v>
+      </c>
       <c r="AZ21" s="45"/>
       <c r="BA21" s="45"/>
       <c r="BB21" s="45"/>
@@ -25074,12 +25266,6 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -25093,6 +25279,12 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -25141,11 +25333,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25153,7 +25345,7 @@
     <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="33"/>
   </cols>
@@ -25493,7 +25685,7 @@
         <v>175</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -25543,7 +25735,7 @@
         <v>44624</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C26" s="57">
         <v>141.4</v>
@@ -25552,7 +25744,7 @@
         <v>175</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -25588,7 +25780,7 @@
         <v>44625</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C29" s="57">
         <v>130</v>
@@ -25602,7 +25794,7 @@
         <v>44625</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C30" s="57">
         <v>99.9</v>
@@ -25630,7 +25822,7 @@
         <v>44625</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C32" s="57">
         <v>100</v>
@@ -25653,7 +25845,7 @@
         <v>247</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -25666,8 +25858,11 @@
       <c r="C34" s="57">
         <v>156.9</v>
       </c>
+      <c r="D34" s="33" t="s">
+        <v>175</v>
+      </c>
       <c r="F34" s="33" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -25675,7 +25870,7 @@
         <v>44631</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C35" s="57">
         <v>143.9</v>
@@ -25684,7 +25879,7 @@
         <v>247</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -25715,7 +25910,7 @@
         <v>175</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -25723,13 +25918,84 @@
         <v>44636</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C38" s="57">
         <v>142.4</v>
       </c>
+      <c r="D38" s="33" t="s">
+        <v>175</v>
+      </c>
       <c r="F38" s="33" t="s">
-        <v>1176</v>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C44" s="57">
+        <v>100</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" s="82">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C45" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="43">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C46" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="43">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C47" s="57">
+        <v>99.9</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="43">
+        <v>44669</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">acertaram!$A$1:$F$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">caderneta!$A$1:$D$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NÃO!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NÃO RESPONDEU'!$A$1:$M$8</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="1246">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3678,9 +3678,6 @@
     <t>a partir do início de abril</t>
   </si>
   <si>
-    <t>15 99752-1409</t>
-  </si>
-  <si>
     <t>15 99611-0787</t>
   </si>
   <si>
@@ -3744,9 +3741,6 @@
     <t>gabriel + matheus</t>
   </si>
   <si>
-    <t>davi + joão</t>
-  </si>
-  <si>
     <t>joão (amigo davi)</t>
   </si>
   <si>
@@ -3763,6 +3757,54 @@
   </si>
   <si>
     <t>enrico (adriana)</t>
+  </si>
+  <si>
+    <t>davi (cláudia) + joão</t>
+  </si>
+  <si>
+    <t>5 bebidas</t>
+  </si>
+  <si>
+    <t>299,80 (199,90 uniforme)</t>
+  </si>
+  <si>
+    <t>conrado (P)</t>
+  </si>
+  <si>
+    <t>theo (eder) (P)</t>
+  </si>
+  <si>
+    <t>theo (priscila) (P)</t>
+  </si>
+  <si>
+    <t>15 99778-0833 (P)</t>
+  </si>
+  <si>
+    <t>tommy (P)</t>
+  </si>
+  <si>
+    <t>leo (P)</t>
+  </si>
+  <si>
+    <t>eduardo (P)</t>
+  </si>
+  <si>
+    <t>gabriel (15 99752-1409) + matheus (P)</t>
+  </si>
+  <si>
+    <t>joão (amigo davi) (P)</t>
+  </si>
+  <si>
+    <t>vitor (P)</t>
+  </si>
+  <si>
+    <t>junior (P)</t>
+  </si>
+  <si>
+    <t>davi (aline) (P)</t>
+  </si>
+  <si>
+    <t>joão (amigo davi cláudia)</t>
   </si>
 </sst>
 </file>
@@ -4039,15 +4081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4060,6 +4093,15 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7306,8 +7348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C2:C27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7467,7 +7509,7 @@
         <v>2.5</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7494,7 +7536,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7509,7 +7551,7 @@
         <v>13.5</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7524,7 +7566,7 @@
         <v>44.5</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7544,7 +7586,7 @@
         <v>44632</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C18" s="57">
         <v>7</v>
@@ -7567,7 +7609,7 @@
         <v>44632</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C20" s="57">
         <f>2.5+2.5</f>
@@ -7579,7 +7621,7 @@
         <v>44632</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="C21" s="57">
         <f>2.5+2.5</f>
@@ -7591,7 +7633,7 @@
         <v>44638</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="57">
         <v>2.5</v>
@@ -7614,7 +7656,7 @@
         <v>44638</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C24" s="57">
         <f xml:space="preserve"> 5 + 5 +2.5</f>
@@ -7637,7 +7679,7 @@
         <v>44638</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C26" s="57">
         <v>5</v>
@@ -7648,14 +7690,14 @@
         <v>44638</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C27" s="57">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D27"/>
   <sortState ref="A2:C17">
     <sortCondition ref="A1"/>
   </sortState>
@@ -7678,7 +7720,7 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7694,7 +7736,7 @@
       <c r="D1" s="55" t="s">
         <v>1126</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="76" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -7709,7 +7751,7 @@
       <c r="D2" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="80"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="43">
@@ -7724,7 +7766,7 @@
       <c r="D3" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="77" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -7741,7 +7783,7 @@
       <c r="D4" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="77" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -7750,7 +7792,7 @@
         <v>44639</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C5" s="33">
         <v>199.9</v>
@@ -7758,7 +7800,7 @@
       <c r="D5" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="77">
         <v>6</v>
       </c>
     </row>
@@ -7767,49 +7809,49 @@
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="80"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="80"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="80"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="80"/>
+      <c r="E9" s="77"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="80"/>
+      <c r="E10" s="77"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="80"/>
+      <c r="E11" s="77"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="80"/>
+      <c r="E12" s="77"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
@@ -7847,45 +7889,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="75" t="s">
+      <c r="AC1" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -21842,8 +21884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG1000"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AU30" sqref="AU30"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21889,6 +21931,7 @@
     <col min="46" max="46" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="14.42578125" customWidth="1"/>
     <col min="51" max="51" width="18.85546875" customWidth="1"/>
     <col min="52" max="52" width="22.140625" bestFit="1" customWidth="1"/>
@@ -21898,99 +21941,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
-      <c r="A1" s="76">
+      <c r="A1" s="83">
         <v>44541</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83">
         <v>44548</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76">
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83">
         <v>44569</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76">
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83">
         <v>44576</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76">
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83">
         <v>44583</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="77">
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="82">
         <v>44596</v>
       </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77">
+      <c r="T1" s="82"/>
+      <c r="U1" s="82">
         <v>44597</v>
       </c>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77">
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82">
         <v>44603</v>
       </c>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77">
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82">
         <v>44604</v>
       </c>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77">
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82">
         <v>44610</v>
       </c>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82">
         <v>44611</v>
       </c>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
       <c r="AH1" s="66">
         <v>44617</v>
       </c>
       <c r="AI1" s="68"/>
-      <c r="AJ1" s="77">
+      <c r="AJ1" s="82">
         <v>44618</v>
       </c>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="76">
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="83">
         <v>44624</v>
       </c>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="77">
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="82">
         <v>44625</v>
       </c>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AS1" s="76">
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AS1" s="83">
         <v>44631</v>
       </c>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="77">
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="82">
         <v>44632</v>
       </c>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AY1" s="76">
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AY1" s="83">
         <v>44638</v>
       </c>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="77">
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="82">
         <v>44639</v>
       </c>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
       <c r="BE1" t="s">
         <v>1200</v>
       </c>
@@ -22299,7 +22342,7 @@
       <c r="AQ3" s="35" t="s">
         <v>1155</v>
       </c>
-      <c r="AR3" s="83"/>
+      <c r="AR3" s="80"/>
       <c r="AS3" s="35" t="s">
         <v>1161</v>
       </c>
@@ -22312,7 +22355,7 @@
       <c r="AV3" s="35" t="s">
         <v>1156</v>
       </c>
-      <c r="AW3" s="73" t="s">
+      <c r="AW3" s="35" t="s">
         <v>1155</v>
       </c>
       <c r="AX3" s="72"/>
@@ -22329,7 +22372,7 @@
         <v>1156</v>
       </c>
       <c r="BC3" s="45" t="s">
-        <v>1155</v>
+        <v>1242</v>
       </c>
       <c r="BE3" t="s">
         <v>1199</v>
@@ -22464,7 +22507,7 @@
       <c r="AQ4" s="35" t="s">
         <v>1170</v>
       </c>
-      <c r="AR4" s="83"/>
+      <c r="AR4" s="80"/>
       <c r="AS4" s="35" t="s">
         <v>1147</v>
       </c>
@@ -22477,7 +22520,7 @@
       <c r="AV4" s="52" t="s">
         <v>1109</v>
       </c>
-      <c r="AW4" s="73" t="s">
+      <c r="AW4" s="35" t="s">
         <v>1170</v>
       </c>
       <c r="AX4" s="72"/>
@@ -22491,10 +22534,10 @@
         <v>1149</v>
       </c>
       <c r="BB4" s="44" t="s">
-        <v>1109</v>
+        <v>1237</v>
       </c>
       <c r="BC4" s="45" t="s">
-        <v>1170</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="13.5" customHeight="1">
@@ -22620,7 +22663,7 @@
       <c r="AQ5" s="35" t="s">
         <v>1157</v>
       </c>
-      <c r="AR5" s="83"/>
+      <c r="AR5" s="80"/>
       <c r="AS5" s="35" t="s">
         <v>1130</v>
       </c>
@@ -22633,8 +22676,8 @@
       <c r="AV5" s="61" t="s">
         <v>1143</v>
       </c>
-      <c r="AW5" s="73" t="s">
-        <v>1157</v>
+      <c r="AW5" s="35" t="s">
+        <v>1109</v>
       </c>
       <c r="AX5" s="72"/>
       <c r="AY5" s="35" t="s">
@@ -22650,7 +22693,7 @@
         <v>1143</v>
       </c>
       <c r="BC5" s="45" t="s">
-        <v>1157</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="13.5" customHeight="1">
@@ -22765,7 +22808,7 @@
         <v>1148</v>
       </c>
       <c r="AN6" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AO6" s="35" t="s">
         <v>1151</v>
@@ -22776,7 +22819,7 @@
       <c r="AQ6" s="61" t="s">
         <v>998</v>
       </c>
-      <c r="AR6" s="83"/>
+      <c r="AR6" s="80"/>
       <c r="AS6" s="35" t="s">
         <v>1148</v>
       </c>
@@ -22789,8 +22832,8 @@
       <c r="AV6" s="61" t="s">
         <v>1142</v>
       </c>
-      <c r="AW6" s="74" t="s">
-        <v>998</v>
+      <c r="AW6" s="35" t="s">
+        <v>1156</v>
       </c>
       <c r="AX6" s="72"/>
       <c r="AY6" s="35" t="s">
@@ -22803,10 +22846,10 @@
         <v>1147</v>
       </c>
       <c r="BB6" s="59" t="s">
-        <v>1142</v>
-      </c>
-      <c r="BC6" s="59" t="s">
-        <v>998</v>
+        <v>1238</v>
+      </c>
+      <c r="BC6" s="45" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="13.5" customHeight="1">
@@ -22912,13 +22955,13 @@
         <v>1110</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AM7" s="35" t="s">
         <v>1149</v>
       </c>
       <c r="AN7" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AO7" s="35" t="s">
         <v>1147</v>
@@ -22929,7 +22972,7 @@
       <c r="AQ7" s="35" t="s">
         <v>1109</v>
       </c>
-      <c r="AR7" s="83"/>
+      <c r="AR7" s="80"/>
       <c r="AS7" s="35" t="s">
         <v>1149</v>
       </c>
@@ -22942,15 +22985,15 @@
       <c r="AV7" s="61" t="s">
         <v>1146</v>
       </c>
-      <c r="AW7" s="73" t="s">
-        <v>1109</v>
+      <c r="AW7" s="35" t="s">
+        <v>1142</v>
       </c>
       <c r="AX7" s="72"/>
       <c r="AY7" s="35" t="s">
         <v>1150</v>
       </c>
-      <c r="AZ7" s="78" t="s">
-        <v>1220</v>
+      <c r="AZ7" s="75" t="s">
+        <v>1219</v>
       </c>
       <c r="BA7" s="45" t="s">
         <v>1153</v>
@@ -22959,7 +23002,7 @@
         <v>1146</v>
       </c>
       <c r="BC7" s="45" t="s">
-        <v>1109</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="13.5" customHeight="1">
@@ -23050,7 +23093,7 @@
         <v>109</v>
       </c>
       <c r="AI8" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AJ8" s="35" t="s">
         <v>91</v>
@@ -23074,7 +23117,7 @@
       <c r="AQ8" s="35" t="s">
         <v>1156</v>
       </c>
-      <c r="AR8" s="83"/>
+      <c r="AR8" s="80"/>
       <c r="AS8" s="35" t="s">
         <v>1150</v>
       </c>
@@ -23087,8 +23130,8 @@
       <c r="AV8" s="35" t="s">
         <v>1169</v>
       </c>
-      <c r="AW8" s="73" t="s">
-        <v>1156</v>
+      <c r="AW8" s="35" t="s">
+        <v>1158</v>
       </c>
       <c r="AX8" s="72"/>
       <c r="AY8" s="35" t="s">
@@ -23096,13 +23139,13 @@
       </c>
       <c r="AZ8" s="33"/>
       <c r="BA8" s="44" t="s">
-        <v>1164</v>
+        <v>1235</v>
       </c>
       <c r="BB8" s="45" t="s">
         <v>1169</v>
       </c>
       <c r="BC8" s="45" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="13.5" customHeight="1">
@@ -23206,7 +23249,7 @@
       <c r="AQ9" s="35" t="s">
         <v>1142</v>
       </c>
-      <c r="AR9" s="83"/>
+      <c r="AR9" s="80"/>
       <c r="AS9" s="35" t="s">
         <v>1152</v>
       </c>
@@ -23219,8 +23262,8 @@
       <c r="AV9" s="35" t="s">
         <v>1153</v>
       </c>
-      <c r="AW9" s="73" t="s">
-        <v>1142</v>
+      <c r="AW9" s="35" t="s">
+        <v>1110</v>
       </c>
       <c r="AX9" s="72"/>
       <c r="AY9" s="35" t="s">
@@ -23228,13 +23271,13 @@
       </c>
       <c r="AZ9" s="33"/>
       <c r="BA9" s="59" t="s">
-        <v>1162</v>
+        <v>1234</v>
       </c>
       <c r="BB9" s="45" t="s">
         <v>1153</v>
       </c>
       <c r="BC9" s="45" t="s">
-        <v>1142</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="13.5" customHeight="1">
@@ -23297,7 +23340,7 @@
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="38" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AI10" s="33"/>
       <c r="AJ10" s="61" t="s">
@@ -23320,7 +23363,7 @@
       <c r="AQ10" s="35" t="s">
         <v>1158</v>
       </c>
-      <c r="AR10" s="83"/>
+      <c r="AR10" s="80"/>
       <c r="AS10" s="35" t="s">
         <v>1153</v>
       </c>
@@ -23333,8 +23376,8 @@
       <c r="AV10" s="35" t="s">
         <v>1158</v>
       </c>
-      <c r="AW10" s="73" t="s">
-        <v>1158</v>
+      <c r="AW10" s="35" t="s">
+        <v>1160</v>
       </c>
       <c r="AX10" s="72"/>
       <c r="AY10" s="35" t="s">
@@ -23345,10 +23388,10 @@
         <v>1132</v>
       </c>
       <c r="BB10" s="45" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="BC10" s="45" t="s">
-        <v>1158</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="13.5" customHeight="1">
@@ -23425,7 +23468,7 @@
       <c r="AQ11" s="35" t="s">
         <v>1110</v>
       </c>
-      <c r="AR11" s="83"/>
+      <c r="AR11" s="80"/>
       <c r="AS11" s="35" t="s">
         <v>1154</v>
       </c>
@@ -23434,22 +23477,22 @@
       <c r="AV11" s="35" t="s">
         <v>1110</v>
       </c>
-      <c r="AW11" s="73" t="s">
-        <v>1110</v>
+      <c r="AW11" s="35" t="s">
+        <v>1016</v>
       </c>
       <c r="AX11" s="72"/>
       <c r="AY11" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AZ11" s="33"/>
       <c r="BA11" s="45" t="s">
         <v>1163</v>
       </c>
       <c r="BB11" s="45" t="s">
-        <v>1158</v>
+        <v>1110</v>
       </c>
       <c r="BC11" s="45" t="s">
-        <v>1110</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="13.5" customHeight="1">
@@ -23525,24 +23568,24 @@
         <v>1162</v>
       </c>
       <c r="AV12" s="61" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AW12" s="73" t="s">
-        <v>1160</v>
+        <v>1224</v>
+      </c>
+      <c r="AW12" s="75" t="s">
+        <v>1225</v>
       </c>
       <c r="AX12" s="72"/>
       <c r="AY12" s="61" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AZ12" s="33"/>
       <c r="BA12" s="45" t="s">
         <v>1165</v>
       </c>
       <c r="BB12" s="45" t="s">
-        <v>1110</v>
+        <v>1160</v>
       </c>
       <c r="BC12" s="45" t="s">
-        <v>1160</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="13.5" customHeight="1">
@@ -23611,21 +23654,19 @@
       <c r="AT13" s="45"/>
       <c r="AU13" s="33"/>
       <c r="AV13" s="59"/>
-      <c r="AW13" s="73" t="s">
-        <v>1016</v>
+      <c r="AW13" s="75" t="s">
+        <v>1226</v>
       </c>
       <c r="AX13" s="72"/>
       <c r="AY13" s="45"/>
       <c r="AZ13" s="45"/>
       <c r="BA13" s="45" t="s">
-        <v>1103</v>
+        <v>1233</v>
       </c>
       <c r="BB13" s="45" t="s">
-        <v>1160</v>
-      </c>
-      <c r="BC13" s="45" t="s">
-        <v>1016</v>
-      </c>
+        <v>1239</v>
+      </c>
+      <c r="BC13" s="33"/>
     </row>
     <row r="14" spans="1:59" ht="13.5" customHeight="1">
       <c r="A14" s="8"/>
@@ -23695,17 +23736,17 @@
       </c>
       <c r="AU14" s="33"/>
       <c r="AV14" s="59"/>
-      <c r="AW14" s="59" t="s">
-        <v>1227</v>
+      <c r="AW14" s="35" t="s">
+        <v>1171</v>
       </c>
       <c r="AX14" s="72"/>
       <c r="AY14" s="33"/>
       <c r="AZ14" s="45"/>
       <c r="BA14" s="45" t="s">
-        <v>1198</v>
+        <v>1236</v>
       </c>
       <c r="BB14" s="45" t="s">
-        <v>1112</v>
+        <v>1240</v>
       </c>
       <c r="BC14" s="59"/>
     </row>
@@ -23769,18 +23810,18 @@
       <c r="AT15" s="45"/>
       <c r="AU15" s="33"/>
       <c r="AV15" s="59"/>
-      <c r="AW15" s="59" t="s">
-        <v>1228</v>
+      <c r="AW15" s="35" t="s">
+        <v>1245</v>
       </c>
       <c r="AX15" s="72"/>
       <c r="AY15" s="33"/>
       <c r="AZ15" s="48" t="s">
         <v>1159</v>
       </c>
-      <c r="BA15" s="45" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BB15" s="45"/>
+      <c r="BA15" s="45"/>
+      <c r="BB15" s="45" t="s">
+        <v>1241</v>
+      </c>
       <c r="BC15" s="45"/>
     </row>
     <row r="16" spans="1:59" ht="13.5" customHeight="1">
@@ -23834,7 +23875,9 @@
       <c r="AT16" s="45"/>
       <c r="AU16" s="45"/>
       <c r="AV16" s="59"/>
-      <c r="AW16" s="45"/>
+      <c r="AW16" s="35" t="s">
+        <v>1169</v>
+      </c>
       <c r="AX16" s="72"/>
       <c r="AY16" s="33"/>
       <c r="AZ16" s="48" t="s">
@@ -23894,13 +23937,17 @@
         <v>1197</v>
       </c>
       <c r="AV17" s="59"/>
-      <c r="AW17" s="45"/>
+      <c r="AW17" s="45" t="s">
+        <v>180</v>
+      </c>
       <c r="AX17" s="72"/>
       <c r="AY17" s="33"/>
       <c r="AZ17" s="33"/>
       <c r="BA17" s="45"/>
       <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
+      <c r="BC17" s="67" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="18" spans="1:55" ht="13.5" customHeight="1">
       <c r="A18" s="8"/>
@@ -23953,9 +24000,7 @@
         <v>1164</v>
       </c>
       <c r="AV18" s="59"/>
-      <c r="AW18" s="73" t="s">
-        <v>1204</v>
-      </c>
+      <c r="AW18" s="45"/>
       <c r="AX18" s="72"/>
       <c r="AY18" s="48" t="s">
         <v>1197</v>
@@ -23964,12 +24009,8 @@
         <v>1142</v>
       </c>
       <c r="BA18" s="45"/>
-      <c r="BB18" s="45" t="s">
-        <v>1203</v>
-      </c>
-      <c r="BC18" s="45" t="s">
-        <v>1204</v>
-      </c>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="45"/>
     </row>
     <row r="19" spans="1:55" ht="13.5" customHeight="1">
       <c r="A19" s="8"/>
@@ -24095,7 +24136,9 @@
       <c r="AV20" s="48" t="s">
         <v>1112</v>
       </c>
-      <c r="AW20" s="45"/>
+      <c r="AW20" s="48" t="s">
+        <v>1157</v>
+      </c>
       <c r="AX20" s="72"/>
       <c r="AY20" s="48" t="s">
         <v>1146</v>
@@ -24162,7 +24205,9 @@
       <c r="AT21" s="45"/>
       <c r="AU21" s="45"/>
       <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
+      <c r="AW21" s="67" t="s">
+        <v>998</v>
+      </c>
       <c r="AX21" s="72"/>
       <c r="AY21" s="48" t="s">
         <v>1152</v>
@@ -24230,7 +24275,9 @@
       <c r="AT22" s="45"/>
       <c r="AU22" s="45"/>
       <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
+      <c r="AW22" s="73" t="s">
+        <v>1203</v>
+      </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="45"/>
       <c r="AZ22" s="45"/>
@@ -25266,6 +25313,12 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -25279,12 +25332,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -25333,11 +25380,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25870,7 +25917,7 @@
         <v>44631</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C35" s="57">
         <v>143.9</v>
@@ -25879,7 +25926,7 @@
         <v>247</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -25910,7 +25957,7 @@
         <v>175</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -25918,7 +25965,7 @@
         <v>44636</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C38" s="57">
         <v>142.4</v>
@@ -25930,72 +25977,78 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="43">
+    <row r="39" spans="1:6">
+      <c r="A39" s="43">
         <v>44638</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B39" s="45" t="s">
         <v>1052</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C39" s="57">
         <v>100</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="D39" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="82">
+      <c r="E39" s="79">
         <v>44662</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="43">
+    <row r="40" spans="1:6">
+      <c r="A40" s="43">
         <v>44638</v>
       </c>
-      <c r="B45" s="58" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C45" s="57">
+      <c r="B40" s="58" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C40" s="57">
         <v>99.9</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="D40" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E40" s="43">
         <v>44669</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="43">
+    <row r="41" spans="1:6">
+      <c r="A41" s="43">
         <v>44638</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B41" s="58" t="s">
         <v>1098</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C41" s="57">
+        <v>104.9</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="43">
+        <v>44669</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="43">
+        <v>44638</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C42" s="57">
         <v>99.9</v>
       </c>
-      <c r="D46" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="43">
+      <c r="D42" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="43">
         <v>44669</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="43">
-        <v>44638</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C47" s="57">
-        <v>99.9</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="E47" s="43">
-        <v>44669</v>
+      <c r="F42" s="58" t="s">
+        <v>1232</v>
       </c>
     </row>
   </sheetData>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="1288">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3887,21 +3887,9 @@
     <t>João Otávio Alves Zanella Fernandes</t>
   </si>
   <si>
-    <t>Gabriel (amigo Davi)</t>
-  </si>
-  <si>
-    <t>Juan (amigo Davi)</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
     <t>Ana Laura</t>
   </si>
   <si>
-    <t>pedi</t>
-  </si>
-  <si>
     <t>Mateus Ferreira da Silva</t>
   </si>
   <si>
@@ -3918,6 +3906,33 @@
   </si>
   <si>
     <t>Davi Marcos dos Santos Poli</t>
+  </si>
+  <si>
+    <t>Arthur Fernando Portero Sampaio</t>
+  </si>
+  <si>
+    <t>Felipe Otávio Sampaio de Souza</t>
+  </si>
+  <si>
+    <t>Ruan Samuel de Oliveira</t>
+  </si>
+  <si>
+    <t>Eide Cristina Favoreto</t>
+  </si>
+  <si>
+    <t>claldineia (gabriel sub11)</t>
+  </si>
+  <si>
+    <t>Gabriel da Silva Ferreira</t>
+  </si>
+  <si>
+    <t>(15) 99676-3375</t>
+  </si>
+  <si>
+    <t>(11) 98924-3906</t>
+  </si>
+  <si>
+    <t>Gabriel Diniz</t>
   </si>
 </sst>
 </file>
@@ -7447,11 +7462,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8413,6 +8428,34 @@
         <v>100</v>
       </c>
       <c r="D62" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="43">
+        <v>44652</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C63" s="57">
+        <v>100</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="43">
+        <v>44652</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C64" s="57">
+        <v>100</v>
+      </c>
+      <c r="D64" s="33" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8976,8 +9019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9311,7 +9354,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G3:G44"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G3:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9321,7 +9364,7 @@
     <col min="3" max="3" width="14.140625" style="33" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.140625" style="33" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="33" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" style="33" customWidth="1"/>
@@ -9396,10 +9439,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -9466,100 +9509,115 @@
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="31" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>1276</v>
-      </c>
-      <c r="I3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="6" t="str">
+        <f ca="1">DATEDIF(I3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I3,TODAY(),"MD")&amp;" dias"</f>
+        <v>3 anos, 6 meses 7 dias</v>
+      </c>
+      <c r="I3" s="6">
+        <v>43368</v>
+      </c>
       <c r="J3" s="31" t="s">
         <v>64</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="8"/>
+      <c r="M3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="6">
-        <v>43368</v>
-      </c>
-      <c r="I4" s="6" t="str">
-        <f t="shared" ref="I4:I21" ca="1" si="0">DATEDIF(H4,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H4,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H4,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 6 meses 5 dias</v>
+      <c r="G4" s="33" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f ca="1">DATEDIF(I4,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I4,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I4,TODAY(),"MD")&amp;" dias"</f>
+        <v>4 anos, 7 meses 23 dias</v>
+      </c>
+      <c r="I4" s="69">
+        <v>42956</v>
       </c>
       <c r="J4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="N4" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="G5" s="33" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H5" s="69">
-        <v>42956</v>
-      </c>
-      <c r="I5" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 7 meses 21 dias</v>
+      <c r="A5" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f ca="1">DATEDIF(I5,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I5,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I5,TODAY(),"MD")&amp;" dias"</f>
+        <v>4 anos, 8 meses 7 dias</v>
+      </c>
+      <c r="I5" s="30">
+        <v>42941</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="15"/>
       <c r="O5" s="8"/>
@@ -9581,39 +9639,32 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="8" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>1238</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>1239</v>
+        <v>145</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1240</v>
+        <v>144</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H6" s="30">
-        <v>42941</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 8 meses 5 dias</v>
+        <v>144</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f ca="1">DATEDIF(I6,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I6,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I6,TODAY(),"MD")&amp;" dias"</f>
+        <v>4 anos, 9 meses 16 dias</v>
+      </c>
+      <c r="I6" s="6">
+        <v>42902</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="15"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -9633,33 +9684,40 @@
       <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="6">
-        <v>42902</v>
-      </c>
-      <c r="I7" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 14 dias</v>
+      <c r="A7" s="62" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f ca="1">DATEDIF(I7,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I7,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I7,TODAY(),"MD")&amp;" dias"</f>
+        <v>4 anos, 10 meses 10 dias</v>
+      </c>
+      <c r="I7" s="30">
+        <v>42877</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>64</v>
       </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="15"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -9679,33 +9737,31 @@
       <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="62" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>1089</v>
+      <c r="A8" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1181</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H8" s="30">
-        <v>42877</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 10 meses 8 dias</v>
+        <v>972</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f ca="1">DATEDIF(I8,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I8,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I8,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 3 meses 29 dias</v>
+      </c>
+      <c r="I8" s="30">
+        <v>42707</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>64</v>
@@ -9733,30 +9789,32 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="8" t="s">
-        <v>1178</v>
+        <v>199</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1179</v>
+        <v>200</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1180</v>
+        <v>201</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>972</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>202</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H9" s="30">
-        <v>42707</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 27 dias</v>
+        <v>90</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f ca="1">DATEDIF(I9,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I9,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I9,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 5 meses 8 dias</v>
+      </c>
+      <c r="I9" s="6">
+        <v>42667</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>64</v>
@@ -9766,15 +9824,33 @@
       <c r="M9" s="8"/>
       <c r="N9" s="15"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="8"/>
+      <c r="P9" s="6">
+        <v>44499</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="S9" s="6">
+        <v>44534</v>
+      </c>
+      <c r="T9" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="6">
+        <v>44576</v>
+      </c>
+      <c r="W9" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -9784,68 +9860,58 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="8" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="6">
-        <v>42667</v>
-      </c>
-      <c r="I10" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 6 dias</v>
+        <v>245</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f ca="1">DATEDIF(I10,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I10,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I10,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 6 meses 16 dias</v>
+      </c>
+      <c r="I10" s="6">
+        <v>42629</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="6">
-        <v>44499</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="K10" s="6">
+        <v>44576</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
+        <v>44583</v>
+      </c>
+      <c r="N10" s="15">
         <v>99.9</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="S10" s="6">
-        <v>44534</v>
-      </c>
-      <c r="T10" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="6">
-        <v>44576</v>
-      </c>
-      <c r="W10" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="O10" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -9855,48 +9921,48 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H11" s="6">
-        <v>42629</v>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 6 meses 14 dias</v>
+        <v>253</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f ca="1">DATEDIF(I11,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I11,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I11,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 8 meses 21 dias</v>
+      </c>
+      <c r="I11" s="6">
+        <v>42562</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>64</v>
       </c>
       <c r="K11" s="6">
-        <v>44576</v>
+        <v>44583</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="6">
-        <v>44583</v>
+      <c r="M11" s="17">
+        <v>44596</v>
       </c>
       <c r="N11" s="15">
         <v>99.9</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="15"/>
@@ -9916,55 +9982,63 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="8" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>252</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" s="6">
-        <v>42562</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 19 dias</v>
+        <v>108</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f ca="1">DATEDIF(I12,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I12,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I12,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 8 meses 23 dias</v>
+      </c>
+      <c r="I12" s="6">
+        <v>42560</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="6">
-        <v>44583</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="17">
-        <v>44596</v>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="6">
+        <v>44534</v>
       </c>
       <c r="N12" s="15">
         <v>99.9</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="6">
+        <v>44576</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>100</v>
+      </c>
+      <c r="R12" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="8"/>
+      <c r="S12" s="43">
+        <v>44603</v>
+      </c>
+      <c r="T12" s="15">
+        <v>129.9</v>
+      </c>
+      <c r="U12" s="33" t="s">
+        <v>174</v>
+      </c>
       <c r="V12" s="8"/>
       <c r="W12" s="15"/>
       <c r="X12" s="8"/>
@@ -9977,30 +10051,28 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="8" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>223</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="6">
-        <v>42560</v>
-      </c>
-      <c r="I13" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 21 dias</v>
+        <v>79</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f ca="1">DATEDIF(I13,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I13,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I13,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 9 meses 12 dias</v>
+      </c>
+      <c r="I13" s="6">
+        <v>42541</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>64</v>
@@ -10008,35 +10080,37 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="6">
-        <v>44534</v>
+        <v>44485</v>
       </c>
       <c r="N13" s="15">
         <v>99.9</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="8"/>
+      <c r="P13" s="6">
+        <v>44513</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="6">
+        <v>44541</v>
+      </c>
+      <c r="T13" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P13" s="6">
+      <c r="U13" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" s="6">
         <v>44576</v>
       </c>
-      <c r="Q13" s="15">
-        <v>100</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="S13" s="43">
-        <v>44603</v>
-      </c>
-      <c r="T13" s="15">
-        <v>129.9</v>
-      </c>
-      <c r="U13" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="V13" s="8"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="8"/>
+      <c r="W13" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -10045,67 +10119,49 @@
       <c r="AD13" s="8"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>81</v>
+      <c r="A14" s="62" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>987</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="6">
-        <v>42541</v>
-      </c>
-      <c r="I14" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 10 dias</v>
+      <c r="G14" s="62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f ca="1">DATEDIF(I14,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I14,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I14,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 11 meses 10 dias</v>
+      </c>
+      <c r="I14" s="30">
+        <v>42482</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>64</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="6">
-        <v>44485</v>
-      </c>
-      <c r="N14" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="6">
-        <v>44513</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="6">
-        <v>44541</v>
-      </c>
-      <c r="T14" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="6">
-        <v>44576</v>
-      </c>
-      <c r="W14" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -10114,40 +10170,46 @@
       <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="62" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>987</v>
+      <c r="A15" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="31" t="s">
+        <v>318</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="62" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H15" s="30">
-        <v>42482</v>
-      </c>
-      <c r="I15" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 11 meses 8 dias</v>
+      <c r="G15" s="31" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f ca="1">DATEDIF(I15,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I15,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I15,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 11 meses 21 dias</v>
+      </c>
+      <c r="I15" s="30">
+        <v>42471</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="8"/>
+      <c r="K15" s="6">
+        <v>44596</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="30">
+        <v>44603</v>
+      </c>
+      <c r="N15" s="15">
+        <v>100</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>180</v>
+      </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="8"/>
@@ -10165,61 +10227,19 @@
       <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="31" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H16" s="30">
-        <v>42471</v>
-      </c>
-      <c r="I16" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 11 meses 19 dias</v>
+      <c r="G16" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f ca="1">DATEDIF(I16,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I16,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I16,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 3 meses 6 dias</v>
+      </c>
+      <c r="I16" s="43">
+        <v>42364</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="6">
-        <v>44596</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="30">
-        <v>44603</v>
-      </c>
-      <c r="N16" s="15">
-        <v>100</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="8"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="8" t="s">
@@ -10243,12 +10263,12 @@
       <c r="G17" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="6" t="str">
+        <f ca="1">DATEDIF(I17,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I17,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I17,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 4 meses 2 dias</v>
+      </c>
+      <c r="I17" s="6">
         <v>42338</v>
-      </c>
-      <c r="I17" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 0 dias</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>64</v>
@@ -10297,31 +10317,21 @@
       <c r="AD17" s="8"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="6">
-        <v>42219</v>
-      </c>
-      <c r="I18" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 27 dias</v>
+      <c r="G18" s="31" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f ca="1">DATEDIF(I18,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I18,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I18,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 6 meses 7 dias</v>
+      </c>
+      <c r="I18" s="69">
+        <v>42272</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>64</v>
@@ -10334,140 +10344,150 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="6">
-        <v>44527</v>
-      </c>
-      <c r="T18" s="15">
-        <v>100</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="V18" s="6">
-        <v>44569</v>
-      </c>
-      <c r="W18" s="15">
-        <v>100</v>
-      </c>
-      <c r="X18" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y18" s="30">
-        <v>44603</v>
-      </c>
-      <c r="Z18" s="8">
-        <v>100</v>
-      </c>
-      <c r="AA18" s="31" t="s">
-        <v>174</v>
-      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="8" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>227</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="6">
-        <v>42170</v>
-      </c>
-      <c r="I19" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 15 dias</v>
+        <v>84</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f ca="1">DATEDIF(I19,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I19,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I19,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 7 meses 29 dias</v>
+      </c>
+      <c r="I19" s="6">
+        <v>42219</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>64</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="6">
-        <v>44541</v>
-      </c>
-      <c r="N19" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="O19" s="6" t="s">
+      <c r="M19" s="8"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="6">
+        <v>44527</v>
+      </c>
+      <c r="T19" s="15">
+        <v>100</v>
+      </c>
+      <c r="U19" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="P19" s="6">
+      <c r="V19" s="6">
         <v>44569</v>
       </c>
-      <c r="Q19" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="R19" s="8" t="s">
+      <c r="W19" s="15">
+        <v>100</v>
+      </c>
+      <c r="X19" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="S19" s="30">
-        <v>44597</v>
-      </c>
-      <c r="T19" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="U19" s="8" t="s">
+      <c r="Y19" s="30">
+        <v>44603</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>100</v>
+      </c>
+      <c r="AA19" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="8"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="31" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H20" s="69">
-        <v>42107</v>
-      </c>
-      <c r="I20" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 11 meses 17 dias</v>
+      <c r="A20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f ca="1">DATEDIF(I20,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I20,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I20,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 9 meses 17 dias</v>
+      </c>
+      <c r="I20" s="6">
+        <v>42170</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>64</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
+      <c r="M20" s="6">
+        <v>44541</v>
+      </c>
+      <c r="N20" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P20" s="6">
+        <v>44569</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="S20" s="30">
+        <v>44597</v>
+      </c>
+      <c r="T20" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="V20" s="6"/>
       <c r="W20" s="15"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -10478,64 +10498,36 @@
       <c r="AD20" s="8"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>105</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" s="6">
-        <v>42040</v>
-      </c>
-      <c r="I21" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 1 meses 25 dias</v>
+      <c r="G21" s="31" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f ca="1">DATEDIF(I21,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I21,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I21,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 11 meses 19 dias</v>
+      </c>
+      <c r="I21" s="69">
+        <v>42107</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>64</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="6">
-        <v>44499</v>
-      </c>
-      <c r="N21" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P21" s="6">
-        <v>44541</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>100</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="S21" s="30">
-        <v>44583</v>
-      </c>
-      <c r="T21" s="15">
-        <v>100</v>
-      </c>
-      <c r="U21" s="31" t="s">
-        <v>174</v>
-      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="15"/>
       <c r="X21" s="8"/>
@@ -10547,33 +10539,64 @@
       <c r="AD21" s="8"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="31" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>1276</v>
-      </c>
-      <c r="I22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="6" t="str">
+        <f ca="1">DATEDIF(I22,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I22,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I22,TODAY(),"MD")&amp;" dias"</f>
+        <v>7 anos, 1 meses 27 dias</v>
+      </c>
+      <c r="I22" s="6">
+        <v>42040</v>
+      </c>
       <c r="J22" s="31" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="8"/>
+      <c r="M22" s="6">
+        <v>44499</v>
+      </c>
+      <c r="N22" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" s="6">
+        <v>44541</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>100</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="S22" s="30">
+        <v>44583</v>
+      </c>
+      <c r="T22" s="15">
+        <v>100</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>174</v>
+      </c>
       <c r="V22" s="8"/>
       <c r="W22" s="15"/>
       <c r="X22" s="8"/>
@@ -10592,12 +10615,12 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="31" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H23" s="31" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="I23" s="8"/>
       <c r="J23" s="31" t="s">
         <v>21</v>
       </c>
@@ -10632,10 +10655,10 @@
       <c r="G24" s="31" t="s">
         <v>960</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="I24" s="8"/>
       <c r="J24" s="31" t="s">
         <v>21</v>
       </c>
@@ -10661,19 +10684,32 @@
       <c r="AD24" s="8"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="31" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>1006</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="31" t="s">
-        <v>1272</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="8"/>
+        <v>1103</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f ca="1">DATEDIF(I25,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I25,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I25,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 5 meses 15 dias</v>
+      </c>
+      <c r="I25" s="30">
+        <v>42294</v>
+      </c>
       <c r="J25" s="31" t="s">
         <v>21</v>
       </c>
@@ -10699,43 +10735,55 @@
       <c r="AD25" s="8"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A26" s="31" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>1006</v>
+      <c r="A26" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="31" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H26" s="30">
-        <v>42294</v>
-      </c>
-      <c r="I26" s="8" t="str">
-        <f t="shared" ref="I26:I37" ca="1" si="1">DATEDIF(H26,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H26,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H26,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 5 meses 13 dias</v>
+      <c r="G26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f ca="1">DATEDIF(I26,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I26,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I26,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 5 meses 17 dias</v>
+      </c>
+      <c r="I26" s="6">
+        <v>42292</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="8"/>
+      <c r="M26" s="6">
+        <v>44520</v>
+      </c>
+      <c r="N26" s="15">
+        <v>100</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="6">
+        <v>44569</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>100</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="S26" s="8"/>
       <c r="T26" s="15"/>
       <c r="U26" s="8"/>
@@ -10750,205 +10798,183 @@
       <c r="AD26" s="8"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="6">
-        <v>42292</v>
-      </c>
-      <c r="I27" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>6 anos, 5 meses 15 dias</v>
+      <c r="G27" s="33" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H27" s="6" t="str">
+        <f ca="1">DATEDIF(I27,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I27,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I27,TODAY(),"MD")&amp;" dias"</f>
+        <v>7 anos, 7 meses 5 dias</v>
+      </c>
+      <c r="I27" s="69">
+        <v>41878</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="6">
-        <v>44520</v>
-      </c>
-      <c r="N27" s="15">
-        <v>100</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="P27" s="6">
-        <v>44569</v>
-      </c>
-      <c r="Q27" s="15">
-        <v>100</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="S27" s="8"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="8"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1">
-      <c r="G28" s="33" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H28" s="69">
-        <v>41878</v>
-      </c>
-      <c r="I28" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7 anos, 7 meses 3 dias</v>
+      <c r="A28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="6" t="str">
+        <f ca="1">DATEDIF(I28,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I28,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I28,TODAY(),"MD")&amp;" dias"</f>
+        <v>8 anos, 6 meses 28 dias</v>
+      </c>
+      <c r="I28" s="6">
+        <v>41521</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>21</v>
       </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="6">
+        <v>44506</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="6">
+        <v>44534</v>
+      </c>
+      <c r="T28" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="V28" s="6">
+        <v>44569</v>
+      </c>
+      <c r="W28" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="X28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y28" s="30">
+        <v>44597</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="AA28" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="8"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>185</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
         <v>179</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="6">
-        <v>41521</v>
-      </c>
-      <c r="I29" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8 anos, 6 meses 26 dias</v>
+        <v>61</v>
+      </c>
+      <c r="H29" s="6" t="str">
+        <f ca="1">DATEDIF(I29,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I29,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I29,TODAY(),"MD")&amp;" dias"</f>
+        <v>9 anos, 3 meses 13 dias</v>
+      </c>
+      <c r="I29" s="6">
+        <v>41262</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>21</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="6">
-        <v>44506</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="M29" s="6">
+        <v>44540</v>
+      </c>
+      <c r="N29" s="15">
+        <v>100</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="8"/>
       <c r="S29" s="6">
-        <v>44534</v>
+        <v>44569</v>
       </c>
       <c r="T29" s="15">
         <v>99.9</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="V29" s="6">
-        <v>44569</v>
-      </c>
-      <c r="W29" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="X29" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y29" s="30">
-        <v>44597</v>
-      </c>
-      <c r="Z29" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="AA29" s="31" t="s">
-        <v>220</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="V29" s="8"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="16"/>
       <c r="AD29" s="8"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="6">
-        <v>41262</v>
-      </c>
-      <c r="I30" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9 anos, 3 meses 11 dias</v>
+      <c r="G30" s="31" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H30" s="6" t="str">
+        <f ca="1">DATEDIF(I30,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I30,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I30,TODAY(),"MD")&amp;" dias"</f>
+        <v>9 anos, 6 meses 15 dias</v>
+      </c>
+      <c r="I30" s="69">
+        <v>41169</v>
       </c>
       <c r="J30" s="31" t="s">
         <v>21</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="6">
-        <v>44540</v>
-      </c>
-      <c r="N30" s="15">
-        <v>100</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>174</v>
-      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="6">
-        <v>44569</v>
-      </c>
-      <c r="T30" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="U30" s="8" t="s">
-        <v>174</v>
-      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="15"/>
       <c r="X30" s="8"/>
@@ -10966,15 +10992,15 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="31" t="s">
         <v>1269</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="8" t="str">
+        <f ca="1">DATEDIF(I31,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I31,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I31,TODAY(),"MD")&amp;" dias"</f>
+        <v>9 anos, 8 meses 28 dias</v>
+      </c>
+      <c r="I31" s="30">
         <v>41094</v>
-      </c>
-      <c r="I31" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9 anos, 8 meses 26 dias</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>21</v>
@@ -11002,14 +11028,14 @@
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1">
       <c r="G32" s="33" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H32" s="43">
+        <v>1274</v>
+      </c>
+      <c r="H32" s="6" t="str">
+        <f ca="1">DATEDIF(I32,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I32,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I32,TODAY(),"MD")&amp;" dias"</f>
+        <v>9 anos, 10 meses 10 dias</v>
+      </c>
+      <c r="I32" s="43">
         <v>41051</v>
-      </c>
-      <c r="I32" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9 anos, 10 meses 8 dias</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>21</v>
@@ -11039,12 +11065,12 @@
       <c r="G33" s="8" t="s">
         <v>1182</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="8" t="str">
+        <f ca="1">DATEDIF(I33,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I33,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I33,TODAY(),"MD")&amp;" dias"</f>
+        <v>9 anos, 10 meses 14 dias</v>
+      </c>
+      <c r="I33" s="30">
         <v>41047</v>
-      </c>
-      <c r="I33" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9 anos, 10 meses 12 dias</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>21</v>
@@ -11090,12 +11116,12 @@
       <c r="G34" s="31" t="s">
         <v>1135</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="8" t="str">
+        <f ca="1">DATEDIF(I34,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I34,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I34,TODAY(),"MD")&amp;" dias"</f>
+        <v>9 anos, 11 meses 0 dias</v>
+      </c>
+      <c r="I34" s="69">
         <v>41031</v>
-      </c>
-      <c r="I34" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9 anos, 10 meses 28 dias</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>21</v>
@@ -11131,12 +11157,12 @@
       <c r="G35" s="31" t="s">
         <v>1271</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="8" t="str">
+        <f ca="1">DATEDIF(I35,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I35,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I35,TODAY(),"MD")&amp;" dias"</f>
+        <v>10 anos, 0 meses 29 dias</v>
+      </c>
+      <c r="I35" s="30">
         <v>40971</v>
-      </c>
-      <c r="I35" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 0 meses 27 dias</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>21</v>
@@ -11184,12 +11210,12 @@
       <c r="G36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="6" t="str">
+        <f ca="1">DATEDIF(I36,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I36,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I36,TODAY(),"MD")&amp;" dias"</f>
+        <v>10 anos, 4 meses 4 dias</v>
+      </c>
+      <c r="I36" s="6">
         <v>40875</v>
-      </c>
-      <c r="I36" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 4 meses 2 dias</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>21</v>
@@ -11246,50 +11272,36 @@
       <c r="AD36" s="8"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="41" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H37" s="69">
-        <v>40757</v>
-      </c>
-      <c r="I37" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10 anos, 7 meses 28 dias</v>
+      <c r="G37" s="31" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f ca="1">DATEDIF(I37,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I37,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I37,TODAY(),"MD")&amp;" dias"</f>
+        <v>10 anos, 8 meses 24 dias</v>
+      </c>
+      <c r="I37" s="69">
+        <v>40732</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="6">
-        <v>44492</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>174</v>
-      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="8"/>
-      <c r="S37" s="6">
-        <v>44540</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="U37" s="8" t="s">
-        <v>174</v>
-      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="15"/>
       <c r="X37" s="8"/>
@@ -11301,27 +11313,50 @@
       <c r="AD37" s="8"/>
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1">
-      <c r="G38" s="33" t="s">
-        <v>665</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>1276</v>
-      </c>
-      <c r="I38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="41" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f ca="1">DATEDIF(I38,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I38,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I38,TODAY(),"MD")&amp;" dias"</f>
+        <v>10 anos, 8 meses 0 dias</v>
+      </c>
+      <c r="I38" s="69">
+        <v>40757</v>
+      </c>
       <c r="J38" s="31" t="s">
         <v>35</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="8"/>
+      <c r="M38" s="6">
+        <v>44492</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="8"/>
+      <c r="S38" s="6">
+        <v>44540</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="V38" s="8"/>
       <c r="W38" s="15"/>
       <c r="X38" s="8"/>
@@ -11354,12 +11389,12 @@
       <c r="G39" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="6" t="str">
+        <f ca="1">DATEDIF(I39,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I39,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I39,TODAY(),"MD")&amp;" dias"</f>
+        <v>11 anos, 2 meses 20 dias</v>
+      </c>
+      <c r="I39" s="6">
         <v>40555</v>
-      </c>
-      <c r="I39" s="6" t="str">
-        <f t="shared" ref="I39:I44" ca="1" si="2">DATEDIF(H39,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H39,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H39,TODAY(),"MD")&amp;" dias"</f>
-        <v>11 anos, 2 meses 18 dias</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>35</v>
@@ -11394,21 +11429,23 @@
       <c r="AD39" s="8"/>
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="31" t="s">
+        <v>1282</v>
+      </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="31" t="s">
-        <v>1277</v>
-      </c>
-      <c r="H40" s="30">
+        <v>1273</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f ca="1">DATEDIF(I40,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I40,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I40,TODAY(),"MD")&amp;" dias"</f>
+        <v>11 anos, 2 meses 22 dias</v>
+      </c>
+      <c r="I40" s="30">
         <v>40553</v>
-      </c>
-      <c r="I40" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11 anos, 2 meses 20 dias</v>
       </c>
       <c r="J40" s="31" t="s">
         <v>35</v>
@@ -11456,12 +11493,12 @@
       <c r="G41" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="6" t="str">
+        <f ca="1">DATEDIF(I41,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I41,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I41,TODAY(),"MD")&amp;" dias"</f>
+        <v>12 anos, 5 meses 1 dias</v>
+      </c>
+      <c r="I41" s="6">
         <v>40117</v>
-      </c>
-      <c r="I41" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>12 anos, 4 meses 30 dias</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>35</v>
@@ -11517,12 +11554,12 @@
       <c r="G42" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="6" t="str">
+        <f ca="1">DATEDIF(I42,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I42,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I42,TODAY(),"MD")&amp;" dias"</f>
+        <v>12 anos, 9 meses 29 dias</v>
+      </c>
+      <c r="I42" s="6">
         <v>39967</v>
-      </c>
-      <c r="I42" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>12 anos, 9 meses 27 dias</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>35</v>
@@ -11580,12 +11617,12 @@
       <c r="G43" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="6" t="str">
+        <f ca="1">DATEDIF(I43,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I43,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I43,TODAY(),"MD")&amp;" dias"</f>
+        <v>13 anos, 11 meses 7 dias</v>
+      </c>
+      <c r="I43" s="6">
         <v>39563</v>
-      </c>
-      <c r="I43" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13 anos, 11 meses 5 dias</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>35</v>
@@ -11641,12 +11678,12 @@
       <c r="G44" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="6" t="str">
+        <f ca="1">DATEDIF(I44,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I44,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I44,TODAY(),"MD")&amp;" dias"</f>
+        <v>14 anos, 2 meses 15 dias</v>
+      </c>
+      <c r="I44" s="30">
         <v>39464</v>
-      </c>
-      <c r="I44" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>14 anos, 2 meses 13 dias</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>35</v>
@@ -11684,9 +11721,69 @@
       <c r="AC44" s="16"/>
       <c r="AD44" s="8"/>
     </row>
-    <row r="45" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:30" ht="15.75" customHeight="1">
+      <c r="G45" s="33" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f ca="1">DATEDIF(I45,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I45,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I45,TODAY(),"MD")&amp;" dias"</f>
+        <v>14 anos, 8 meses 20 dias</v>
+      </c>
+      <c r="I45" s="69">
+        <v>39275</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="8"/>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" customHeight="1">
+      <c r="E46" s="33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F46" s="43"/>
+      <c r="G46" s="33" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f ca="1">DATEDIF(I46,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I46,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I46,TODAY(),"MD")&amp;" dias"</f>
+        <v>9 anos, 10 meses 25 dias</v>
+      </c>
+      <c r="I46" s="43">
+        <v>41036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15.75" customHeight="1">
+      <c r="E47" s="33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" s="43">
+        <v>41829</v>
+      </c>
+    </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1"/>
     <row r="49" spans="1:30" ht="15.75" customHeight="1"/>
     <row r="50" spans="1:30" ht="15.75" customHeight="1"/>
@@ -12756,7 +12853,7 @@
     <row r="990" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A2:U44"/>
-  <sortState ref="A3:AD989">
+  <sortState ref="A3:AD990">
     <sortCondition ref="J2"/>
   </sortState>
   <mergeCells count="4">
@@ -12945,7 +13042,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I12" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 2 meses 4 dias</v>
+        <v>6 anos, 2 meses 6 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>76</v>
@@ -13015,7 +13112,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 9 meses 0 dias</v>
+        <v>7 anos, 9 meses 2 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>52</v>
@@ -13077,7 +13174,7 @@
       </c>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 9 meses 27 dias</v>
+        <v>10 anos, 9 meses 29 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -13139,7 +13236,7 @@
       </c>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 9 meses 9 dias</v>
+        <v>8 anos, 9 meses 11 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>52</v>
@@ -13197,7 +13294,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 2 meses 30 dias</v>
+        <v>122 anos, 3 meses 2 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>21</v>
@@ -13265,7 +13362,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 6 meses 4 dias</v>
+        <v>10 anos, 6 meses 6 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>21</v>
@@ -13327,7 +13424,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 8 meses 23 dias</v>
+        <v>13 anos, 8 meses 25 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>35</v>
@@ -13389,7 +13486,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 11 meses 16 dias</v>
+        <v>7 anos, 11 meses 18 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>52</v>
@@ -13451,7 +13548,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 25 dias</v>
+        <v>6 anos, 2 meses 27 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -13499,7 +13596,7 @@
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 5 meses 14 dias</v>
+        <v>7 anos, 5 meses 16 dias</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>21</v>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">acertaram!$A$1:$F$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ATIVOS!$A$2:$Z$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">caderneta!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ATIVOS!$A$2:$Z$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">caderneta!$A$1:$E$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CONTATEI!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NÃO!$A$1:$M$1</definedName>
@@ -48,7 +48,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="R42" authorId="0">
+    <comment ref="R41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="1411">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3258,9 +3258,6 @@
     <t>(15) 98181-0134</t>
   </si>
   <si>
-    <t>Lorenzo Camargo de Mello</t>
-  </si>
-  <si>
     <t>marcelo, pedro</t>
   </si>
   <si>
@@ -3951,9 +3948,6 @@
     <t>Aluno, Sub07, Thais, Theo</t>
   </si>
   <si>
-    <t>Aluno, Sub07, Daniel, Miguel</t>
-  </si>
-  <si>
     <t>Aluno, Sub07, Jerry, Eduardo</t>
   </si>
   <si>
@@ -4026,9 +4020,6 @@
     <t>Aluno, Sub15, Eide, Mateus</t>
   </si>
   <si>
-    <t>Parou, Sub07, Viviane, Gabriel</t>
-  </si>
-  <si>
     <t>lista de transmissão</t>
   </si>
   <si>
@@ -4116,9 +4107,6 @@
     <t>pedro (diogo)</t>
   </si>
   <si>
-    <t>miguel (daniel)</t>
-  </si>
-  <si>
     <t>eduardo (jerry)</t>
   </si>
   <si>
@@ -4300,6 +4288,21 @@
   </si>
   <si>
     <t>1 água + 1 tiger</t>
+  </si>
+  <si>
+    <t>8 anos, 0 meses 15 dias</t>
+  </si>
+  <si>
+    <t>1 cerveja + 2 gatorade + 1 litrão</t>
+  </si>
+  <si>
+    <t>davi (novo sub05)</t>
+  </si>
+  <si>
+    <t>2 águas + 2 skol</t>
+  </si>
+  <si>
+    <t>22,50 (em haver mês passado)</t>
   </si>
 </sst>
 </file>
@@ -4313,7 +4316,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4341,6 +4344,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4480,7 +4490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4614,6 +4624,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6541,7 +6552,7 @@
         <v>138</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G30" s="6">
         <v>40812</v>
@@ -10843,14 +10854,14 @@
         <v>334</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G136" s="42"/>
       <c r="H136" s="6">
         <v>44653</v>
       </c>
       <c r="I136" s="33" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="13.5" customHeight="1"/>
@@ -11744,16 +11755,16 @@
         <v>165</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C2" s="33">
         <v>199.9</v>
@@ -11762,7 +11773,7 @@
         <v>173</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11770,7 +11781,7 @@
         <v>44617</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C3" s="33">
         <v>199.9</v>
@@ -11779,7 +11790,7 @@
         <v>173</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11787,7 +11798,7 @@
         <v>44617</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C4" s="33">
         <v>199.9</v>
@@ -11796,7 +11807,7 @@
         <v>173</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11804,7 +11815,7 @@
         <v>44638</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C5" s="33">
         <v>199.9</v>
@@ -11821,7 +11832,7 @@
         <v>44646</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C6" s="33">
         <v>199.9</v>
@@ -11830,7 +11841,7 @@
         <v>185</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11838,7 +11849,7 @@
         <v>44656</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C7" s="33">
         <v>199.9</v>
@@ -11855,7 +11866,7 @@
         <v>44657</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C8" s="33">
         <v>200</v>
@@ -11872,13 +11883,13 @@
         <v>44671</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C9" s="33">
         <v>100</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E9" s="76">
         <v>12</v>
@@ -11889,13 +11900,13 @@
         <v>44671</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C10" s="33">
         <v>73.33</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E10" s="76">
         <v>14</v>
@@ -11906,13 +11917,13 @@
         <v>44671</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C11" s="33">
         <v>100</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E11" s="76">
         <v>14</v>
@@ -11923,13 +11934,13 @@
         <v>44673</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C12" s="33">
         <v>200</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E12" s="76">
         <v>16</v>
@@ -12010,13 +12021,13 @@
         <v>44657</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C23" s="33">
         <v>100</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E23" s="76">
         <v>14</v>
@@ -12027,7 +12038,7 @@
         <v>44660</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C24" s="33">
         <v>146.66999999999999</v>
@@ -12042,13 +12053,13 @@
         <v>44659</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C25" s="33">
         <v>200</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="E25" s="76">
         <v>12</v>
@@ -12059,13 +12070,13 @@
         <v>44660</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C26" s="33">
         <v>100</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E26" s="76">
         <v>16</v>
@@ -12076,13 +12087,13 @@
         <v>44660</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C27" s="33">
         <v>200</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E27" s="76">
         <v>12</v>
@@ -12093,7 +12104,7 @@
         <v>44660</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C28" s="33">
         <v>200</v>
@@ -12108,7 +12119,7 @@
         <v>44660</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C29" s="33">
         <v>200</v>
@@ -12123,7 +12134,7 @@
         <v>44659</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C30" s="33">
         <v>200</v>
@@ -12197,258 +12208,258 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B9" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B12" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B13" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B15" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B17" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B18" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B19" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B20" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B22" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B23" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B24" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B26" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B27" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B28" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B30" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B31" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B32" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -12456,7 +12467,7 @@
         <v>994</v>
       </c>
       <c r="B33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -12464,47 +12475,47 @@
         <v>1012</v>
       </c>
       <c r="B34" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B35" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B37" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B39" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -12535,7 +12546,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -12685,11 +12696,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ987"/>
+  <dimension ref="A1:AJ984"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12716,49 +12727,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="81"/>
       <c r="H1" s="81"/>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
-      <c r="AG1" s="89" t="s">
+      <c r="AG1" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
@@ -12780,10 +12791,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -12798,13 +12809,13 @@
         <v>6</v>
       </c>
       <c r="M2" s="85" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="O2" s="87" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>162</v>
@@ -12885,17 +12896,17 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>134</v>
       </c>
       <c r="J3" s="6" t="str">
-        <f t="shared" ref="J3:J46" ca="1" si="0">DATEDIF(L3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L3,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 7 meses 4 dias</v>
+        <f t="shared" ref="J3:J45" ca="1" si="0">DATEDIF(L3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L3,TODAY(),"MD")&amp;" dias"</f>
+        <v>3 anos, 7 meses 10 dias</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>64</v>
@@ -12942,17 +12953,17 @@
         <v>207</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 8 meses 20 dias</v>
+        <v>4 anos, 8 meses 26 dias</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>64</v>
@@ -12987,35 +12998,35 @@
     </row>
     <row r="5" spans="1:35" hidden="1">
       <c r="A5" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>1225</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>1226</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>1227</v>
-      </c>
       <c r="G5" s="31" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 4 dias</v>
+        <v>4 anos, 9 meses 10 dias</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>64</v>
@@ -13063,17 +13074,17 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="31" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>143</v>
       </c>
       <c r="J6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 10 meses 13 dias</v>
+        <v>4 anos, 10 meses 19 dias</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>64</v>
@@ -13110,35 +13121,35 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="61" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>1079</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="C7" s="61" t="s">
         <v>1080</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="D7" s="61" t="s">
         <v>1081</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>1082</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>1008</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 11 meses 7 dias</v>
+        <v>4 anos, 11 meses 13 dias</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>64</v>
@@ -13176,33 +13187,33 @@
     </row>
     <row r="8" spans="1:35" hidden="1">
       <c r="A8" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>1170</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>1171</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>1172</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>1173</v>
       </c>
       <c r="E8" s="61" t="s">
         <v>969</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="31" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 4 meses 26 dias</v>
+        <v>5 anos, 5 meses 1 dias</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>64</v>
@@ -13256,17 +13267,17 @@
         <v>202</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>90</v>
       </c>
       <c r="J9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 6 meses 5 dias</v>
+        <v>5 anos, 6 meses 11 dias</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>64</v>
@@ -13338,17 +13349,17 @@
         <v>243</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>244</v>
       </c>
       <c r="J10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 13 dias</v>
+        <v>5 anos, 7 meses 19 dias</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>64</v>
@@ -13412,17 +13423,17 @@
         <v>251</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>252</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 18 dias</v>
+        <v>5 anos, 9 meses 24 dias</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>64</v>
@@ -13484,17 +13495,17 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 20 dias</v>
+        <v>5 anos, 9 meses 26 dias</v>
       </c>
       <c r="K12" s="31" t="s">
         <v>64</v>
@@ -13562,17 +13573,17 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="31" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="J13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 9 dias</v>
+        <v>5 anos, 10 meses 15 dias</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>64</v>
@@ -13630,33 +13641,33 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="61" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B14" s="61" t="s">
         <v>1084</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="C14" s="62" t="s">
         <v>1085</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="D14" s="61" t="s">
         <v>1086</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>1087</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>984</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="31" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 7 dias</v>
+        <v>6 anos, 0 meses 13 dias</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>64</v>
@@ -13706,17 +13717,17 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="31" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>1042</v>
       </c>
       <c r="J15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 18 dias</v>
+        <v>6 anos, 0 meses 24 dias</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>64</v>
@@ -13758,176 +13769,221 @@
       <c r="AH15" s="16"/>
       <c r="AI15" s="8"/>
     </row>
-    <row r="16" spans="1:35" hidden="1">
-      <c r="E16" s="33" t="s">
-        <v>1272</v>
+    <row r="16" spans="1:35">
+      <c r="A16" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>1279</v>
+        <v>1370</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="J16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 3 dias</v>
+        <v>6 anos, 5 meses 5 dias</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="42">
-        <v>42364</v>
-      </c>
-      <c r="M16" s="84">
-        <v>26</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="78" t="s">
-        <v>18</v>
-      </c>
+      <c r="L16" s="6">
+        <v>42338</v>
+      </c>
+      <c r="M16" s="83">
+        <v>11</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="6">
+        <v>44507</v>
+      </c>
+      <c r="V16" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="W16" s="8"/>
+      <c r="X16" s="6">
+        <v>44534</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="Z16" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>44582</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD16" s="30">
+        <v>44603</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>129.9</v>
+      </c>
+      <c r="AF16" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="8"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>97</v>
+      <c r="A17" s="31" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>1003</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>207</v>
+        <v>1377</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" s="6" t="str">
+        <v>1292</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 29 dias</v>
+        <v>6 anos, 6 meses 18 dias</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="6">
-        <v>42338</v>
+      <c r="L17" s="30">
+        <v>42294</v>
       </c>
       <c r="M17" s="83">
-        <v>11</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="15"/>
       <c r="T17" s="8"/>
-      <c r="U17" s="6">
-        <v>44507</v>
-      </c>
-      <c r="V17" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="15"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="6">
-        <v>44534</v>
-      </c>
-      <c r="Y17" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="Z17" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA17" s="6">
-        <v>44582</v>
-      </c>
-      <c r="AB17" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD17" s="30">
-        <v>44603</v>
-      </c>
-      <c r="AE17" s="8">
-        <v>129.9</v>
-      </c>
-      <c r="AF17" s="31" t="s">
-        <v>245</v>
-      </c>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="16"/>
       <c r="AI17" s="8"/>
     </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="31" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>1381</v>
-      </c>
+    <row r="18" spans="1:35" hidden="1">
+      <c r="A18" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="31" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1294</v>
+        <v>73</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J18" s="8" t="str">
+        <v>191</v>
+      </c>
+      <c r="J18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 12 dias</v>
+        <v>6 anos, 6 meses 20 dias</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="30">
-        <v>42294</v>
+      <c r="L18" s="6">
+        <v>42292</v>
       </c>
       <c r="M18" s="83">
-        <v>19</v>
-      </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="88" t="s">
         <v>18</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="8"/>
+      <c r="R18" s="6">
+        <v>44520</v>
+      </c>
+      <c r="S18" s="15">
+        <v>100</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U18" s="6">
+        <v>44569</v>
+      </c>
+      <c r="V18" s="15">
+        <v>100</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="8"/>
@@ -13941,69 +13997,47 @@
       <c r="AH18" s="16"/>
       <c r="AI18" s="8"/>
     </row>
-    <row r="19" spans="1:35" hidden="1">
-      <c r="A19" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>189</v>
-      </c>
+    <row r="19" spans="1:35" ht="15.75" hidden="1" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>190</v>
+        <v>1272</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="31" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>73</v>
+        <v>1293</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>191</v>
+        <v>1259</v>
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 14 dias</v>
+        <v>6 anos, 7 meses 10 dias</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="6">
-        <v>42292</v>
-      </c>
-      <c r="M19" s="83">
-        <v>12</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="88" t="s">
-        <v>18</v>
-      </c>
+      <c r="L19" s="68">
+        <v>42272</v>
+      </c>
+      <c r="M19" s="86">
+        <v>44621</v>
+      </c>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="6">
-        <v>44520</v>
-      </c>
-      <c r="S19" s="15">
-        <v>100</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="U19" s="6">
-        <v>44569</v>
-      </c>
-      <c r="V19" s="15">
-        <v>100</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="8"/>
@@ -14018,38 +14052,46 @@
       <c r="AI19" s="8"/>
     </row>
     <row r="20" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="E20" s="8" t="s">
-        <v>1273</v>
+        <v>86</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>1260</v>
+        <v>84</v>
       </c>
       <c r="J20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 4 dias</v>
+        <v>6 anos, 9 meses 1 dias</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="68">
-        <v>42272</v>
-      </c>
-      <c r="M20" s="86">
-        <v>44621</v>
-      </c>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
+      <c r="L20" s="6">
+        <v>42219</v>
+      </c>
+      <c r="M20" s="83">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
@@ -14058,172 +14100,164 @@
       <c r="U20" s="8"/>
       <c r="V20" s="15"/>
       <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
+      <c r="X20" s="6">
+        <v>44527</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>44569</v>
+      </c>
+      <c r="AB20" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD20" s="30">
+        <v>44603</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>100</v>
+      </c>
+      <c r="AF20" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="AG20" s="8"/>
       <c r="AH20" s="16"/>
       <c r="AI20" s="8"/>
     </row>
     <row r="21" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>226</v>
+      </c>
       <c r="G21" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="J21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 26 dias</v>
+        <v>6 anos, 10 meses 20 dias</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>64</v>
       </c>
       <c r="L21" s="6">
-        <v>42219</v>
+        <v>42170</v>
       </c>
       <c r="M21" s="83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="6">
-        <v>44527</v>
+      <c r="R21" s="6">
+        <v>44541</v>
+      </c>
+      <c r="S21" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U21" s="6">
+        <v>44569</v>
+      </c>
+      <c r="V21" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="X21" s="30">
+        <v>44597</v>
       </c>
       <c r="Y21" s="15">
-        <v>100</v>
-      </c>
-      <c r="Z21" s="15" t="s">
+        <v>99.9</v>
+      </c>
+      <c r="Z21" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AA21" s="6">
-        <v>44569</v>
-      </c>
-      <c r="AB21" s="15">
-        <v>100</v>
-      </c>
-      <c r="AC21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD21" s="30">
-        <v>44603</v>
-      </c>
-      <c r="AE21" s="8">
-        <v>100</v>
-      </c>
-      <c r="AF21" s="31" t="s">
-        <v>173</v>
-      </c>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="16"/>
       <c r="AI21" s="8"/>
     </row>
-    <row r="22" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>226</v>
-      </c>
+    <row r="22" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="31" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="6" t="str">
+        <v>1256</v>
+      </c>
+      <c r="J22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 10 meses 14 dias</v>
+        <v>7 anos, 0 meses 22 dias</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="6">
-        <v>42170</v>
-      </c>
-      <c r="M22" s="83">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="L22" s="68">
+        <v>42107</v>
+      </c>
+      <c r="M22" s="86">
+        <v>44617</v>
+      </c>
+      <c r="N22" s="68"/>
+      <c r="O22" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="6">
-        <v>44541</v>
-      </c>
-      <c r="S22" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="T22" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="U22" s="6">
-        <v>44569</v>
-      </c>
-      <c r="V22" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="W22" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="X22" s="30">
-        <v>44597</v>
-      </c>
-      <c r="Y22" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="Z22" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA22" s="6"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
@@ -14234,49 +14268,77 @@
       <c r="AI22" s="8"/>
     </row>
     <row r="23" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="31" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>1257</v>
-      </c>
-      <c r="J23" s="8" t="str">
+        <v>218</v>
+      </c>
+      <c r="J23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 16 dias</v>
+        <v>7 anos, 2 meses 30 dias</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="68">
-        <v>42107</v>
-      </c>
-      <c r="M23" s="86">
-        <v>44617</v>
-      </c>
-      <c r="N23" s="68"/>
-      <c r="O23" s="62" t="s">
+      <c r="L23" s="6">
+        <v>42040</v>
+      </c>
+      <c r="M23" s="83">
+        <v>29</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="88" t="s">
         <v>18</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="8"/>
+      <c r="R23" s="6">
+        <v>44499</v>
+      </c>
+      <c r="S23" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="U23" s="6">
+        <v>44541</v>
+      </c>
+      <c r="V23" s="15">
+        <v>100</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="X23" s="30">
+        <v>44583</v>
+      </c>
+      <c r="Y23" s="15">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="AA23" s="8"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="8"/>
@@ -14288,300 +14350,272 @@
       <c r="AI23" s="8"/>
     </row>
     <row r="24" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>105</v>
+        <v>1273</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="31" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>218</v>
+        <v>1277</v>
       </c>
       <c r="J24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 2 meses 24 dias</v>
+        <v>7 anos, 3 meses 20 dias</v>
       </c>
       <c r="K24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="6">
-        <v>42040</v>
-      </c>
-      <c r="M24" s="83">
-        <v>29</v>
-      </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="6">
-        <v>44499</v>
-      </c>
-      <c r="S24" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="U24" s="6">
-        <v>44541</v>
-      </c>
-      <c r="V24" s="15">
-        <v>100</v>
-      </c>
-      <c r="W24" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="X24" s="30">
-        <v>44583</v>
-      </c>
-      <c r="Y24" s="15">
-        <v>100</v>
-      </c>
-      <c r="Z24" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="8"/>
+      <c r="L24" s="30">
+        <v>42019</v>
+      </c>
+      <c r="M24" s="49">
+        <v>44660</v>
+      </c>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:35" ht="15.75" hidden="1" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="E25" s="8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F25" s="8"/>
+        <v>63</v>
+      </c>
       <c r="G25" s="31" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>1278</v>
+        <v>1369</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>1257</v>
       </c>
       <c r="J25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 3 meses 14 dias</v>
+        <v>7 anos, 8 meses 8 dias</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="30">
-        <v>42019</v>
-      </c>
-      <c r="M25" s="49">
-        <v>44660</v>
-      </c>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-    </row>
-    <row r="26" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="L25" s="68">
+        <v>41878</v>
+      </c>
+      <c r="M25" s="84">
+        <v>30</v>
+      </c>
+      <c r="N25" s="68"/>
+      <c r="O25" s="62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A26" s="31" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="D26" s="8" t="s">
         <v>178</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H26" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="42" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="I26" s="33" t="s">
-        <v>1258</v>
+      <c r="I26" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="J26" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 8 meses 2 dias</v>
+        <v>8 anos, 8 meses 0 dias</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="68">
-        <v>41878</v>
-      </c>
-      <c r="M26" s="84">
-        <v>30</v>
-      </c>
-      <c r="N26" s="68"/>
-      <c r="O26" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>184</v>
-      </c>
+      <c r="L26" s="6">
+        <v>41521</v>
+      </c>
+      <c r="M26" s="83">
+        <v>4</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="6">
+        <v>44506</v>
+      </c>
+      <c r="V26" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="W26" s="8"/>
+      <c r="X26" s="6">
+        <v>44534</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>44569</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="AC26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD26" s="30">
+        <v>44597</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="AF26" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="8"/>
+    </row>
+    <row r="27" spans="1:35" ht="15.75" hidden="1" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
         <v>178</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="42" t="s">
-        <v>1378</v>
+      <c r="G27" s="31" t="s">
+        <v>1369</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J27" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 7 meses 25 dias</v>
+        <v>9 anos, 4 meses 16 dias</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="6">
-        <v>41521</v>
+        <v>41262</v>
       </c>
       <c r="M27" s="83">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="6">
-        <v>44506</v>
-      </c>
-      <c r="V27" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="R27" s="6">
+        <v>44540</v>
+      </c>
+      <c r="S27" s="15">
+        <v>100</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U27" s="8"/>
+      <c r="V27" s="15"/>
       <c r="W27" s="8"/>
       <c r="X27" s="6">
-        <v>44534</v>
+        <v>44569</v>
       </c>
       <c r="Y27" s="15">
         <v>99.9</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA27" s="6">
-        <v>44569</v>
-      </c>
-      <c r="AB27" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="AC27" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD27" s="30">
-        <v>44597</v>
-      </c>
-      <c r="AE27" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="AF27" s="31" t="s">
-        <v>219</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="16"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>60</v>
-      </c>
+    <row r="28" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="31" t="s">
-        <v>1373</v>
+      <c r="G28" s="42" t="s">
+        <v>1374</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>61</v>
+        <v>1302</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>1261</v>
       </c>
       <c r="J28" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 4 meses 10 dias</v>
+        <v>9 anos, 7 meses 18 dias</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="6">
-        <v>41262</v>
-      </c>
-      <c r="M28" s="83">
-        <v>30</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="L28" s="68">
+        <v>41169</v>
+      </c>
+      <c r="M28" s="49">
+        <v>44646</v>
+      </c>
+      <c r="N28" s="68"/>
+      <c r="O28" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="6">
-        <v>44540</v>
-      </c>
-      <c r="S28" s="15">
-        <v>100</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="15"/>
       <c r="W28" s="8"/>
-      <c r="X28" s="6">
-        <v>44569</v>
-      </c>
-      <c r="Y28" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="Z28" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="8"/>
@@ -14600,28 +14634,28 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="42" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>1262</v>
-      </c>
-      <c r="J29" s="6" t="str">
+        <v>1249</v>
+      </c>
+      <c r="J29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 7 meses 12 dias</v>
+        <v>9 anos, 10 meses 0 dias</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="68">
-        <v>41169</v>
+      <c r="L29" s="30">
+        <v>41094</v>
       </c>
       <c r="M29" s="49">
         <v>44646</v>
       </c>
-      <c r="N29" s="68"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="62" t="s">
         <v>18</v>
       </c>
@@ -14647,52 +14681,30 @@
       <c r="AI29" s="8"/>
     </row>
     <row r="30" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
       <c r="G30" s="42" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>1250</v>
-      </c>
-      <c r="J30" s="8" t="str">
+        <v>1374</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J30" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 9 meses 25 dias</v>
+        <v>9 anos, 11 meses 13 dias</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="30">
-        <v>41094</v>
-      </c>
-      <c r="M30" s="49">
-        <v>44646</v>
-      </c>
-      <c r="N30" s="30"/>
-      <c r="O30" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="8"/>
+      <c r="L30" s="42">
+        <v>41051</v>
+      </c>
+      <c r="M30" s="84">
+        <v>11</v>
+      </c>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
@@ -14701,30 +14713,58 @@
       <c r="AI30" s="8"/>
     </row>
     <row r="31" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="42" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J31" s="6" t="str">
+        <v>1374</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 7 dias</v>
+        <v>9 anos, 11 meses 17 dias</v>
       </c>
       <c r="K31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="42">
-        <v>41051</v>
-      </c>
-      <c r="M31" s="84">
-        <v>11</v>
-      </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
+      <c r="L31" s="30">
+        <v>41047</v>
+      </c>
+      <c r="M31" s="83">
+        <v>5</v>
+      </c>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="8"/>
       <c r="AF31" s="8"/>
@@ -14733,138 +14773,132 @@
       <c r="AI31" s="8"/>
     </row>
     <row r="32" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="E32" s="33" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F32" s="42"/>
       <c r="G32" s="42" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J32" s="8" t="str">
+        <v>1370</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J32" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 11 dias</v>
+        <v>9 anos, 11 meses 28 dias</v>
       </c>
       <c r="K32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="30">
-        <v>41047</v>
-      </c>
-      <c r="M32" s="83">
-        <v>5</v>
-      </c>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="8"/>
+      <c r="L32" s="42">
+        <v>41036</v>
+      </c>
+      <c r="M32" s="86">
+        <v>44657</v>
+      </c>
+      <c r="N32" s="42"/>
+      <c r="O32" s="78" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:36" ht="15.75" customHeight="1">
-      <c r="E33" s="33" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="A33" s="31" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="42" t="s">
         <v>1374</v>
       </c>
-      <c r="H33" s="42" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>1268</v>
-      </c>
-      <c r="J33" s="6" t="str">
+      <c r="H33" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 22 dias</v>
+        <v>10 anos, 0 meses 2 dias</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="42">
-        <v>41036</v>
-      </c>
-      <c r="M33" s="86">
-        <v>44657</v>
-      </c>
-      <c r="N33" s="42"/>
-      <c r="O33" s="78" t="s">
-        <v>18</v>
-      </c>
+      <c r="L33" s="68">
+        <v>41031</v>
+      </c>
+      <c r="M33" s="84">
+        <v>1</v>
+      </c>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="8"/>
     </row>
     <row r="34" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A34" s="31" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>1129</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="42" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>1127</v>
+        <v>1251</v>
       </c>
       <c r="J34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 27 dias</v>
+        <v>10 anos, 2 meses 1 dias</v>
       </c>
       <c r="K34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="68">
-        <v>41031</v>
-      </c>
-      <c r="M34" s="84">
-        <v>1</v>
-      </c>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
+      <c r="L34" s="30">
+        <v>40971</v>
+      </c>
+      <c r="M34" s="83">
+        <v>5</v>
+      </c>
+      <c r="N34" s="30"/>
+      <c r="O34" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -14886,39 +14920,47 @@
       <c r="AH34" s="16"/>
       <c r="AI34" s="8"/>
     </row>
-    <row r="35" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+    <row r="35" spans="1:36" ht="15.75" hidden="1" customHeight="1">
+      <c r="A35" s="33" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>1275</v>
+      </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="42" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>1309</v>
+      <c r="G35" s="31" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>1361</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J35" s="8" t="str">
+        <v>1360</v>
+      </c>
+      <c r="J35" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 1 meses 26 dias</v>
+        <v>10 anos, 3 meses 5 dias</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="30">
-        <v>40971</v>
-      </c>
-      <c r="M35" s="83">
-        <v>5</v>
-      </c>
-      <c r="N35" s="30"/>
-      <c r="O35" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="L35" s="68">
+        <v>40938</v>
+      </c>
+      <c r="M35" s="84">
+        <v>16</v>
+      </c>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
@@ -14940,187 +14982,181 @@
       <c r="AH35" s="16"/>
       <c r="AI35" s="8"/>
     </row>
-    <row r="36" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A36" s="33" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="31" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>1365</v>
+    <row r="36" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>1308</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>1364</v>
+        <v>24</v>
       </c>
       <c r="J36" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 29 dias</v>
+        <v>10 anos, 5 meses 7 dias</v>
       </c>
       <c r="K36" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="68">
-        <v>40938</v>
-      </c>
-      <c r="M36" s="84">
-        <v>16</v>
-      </c>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
+      <c r="L36" s="6">
+        <v>40875</v>
+      </c>
+      <c r="M36" s="83">
+        <v>10</v>
+      </c>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="15"/>
+      <c r="R36" s="6">
+        <v>44479</v>
+      </c>
+      <c r="S36" s="15">
+        <v>119.9</v>
+      </c>
       <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="15"/>
+      <c r="U36" s="6">
+        <v>44506</v>
+      </c>
+      <c r="V36" s="15">
+        <v>120</v>
+      </c>
       <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="16"/>
+      <c r="X36" s="6">
+        <v>44540</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>129</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>44569</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>110</v>
+      </c>
+      <c r="AC36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>44602</v>
+      </c>
+      <c r="AE36" s="15">
+        <v>129.9</v>
+      </c>
+      <c r="AF36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>44479</v>
+      </c>
+      <c r="AH36" s="16">
+        <v>200</v>
+      </c>
       <c r="AI36" s="8"/>
     </row>
     <row r="37" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="42" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>24</v>
+        <v>1264</v>
       </c>
       <c r="J37" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 5 meses 1 dias</v>
+        <v>10 anos, 9 meses 27 dias</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="6">
-        <v>40875</v>
-      </c>
-      <c r="M37" s="83">
-        <v>10</v>
-      </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+      <c r="L37" s="68">
+        <v>40732</v>
+      </c>
+      <c r="N37" s="68"/>
+      <c r="O37" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
-      <c r="R37" s="6">
-        <v>44479</v>
-      </c>
-      <c r="S37" s="15">
-        <v>119.9</v>
-      </c>
+      <c r="R37" s="8"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="8"/>
-      <c r="U37" s="6">
-        <v>44506</v>
-      </c>
-      <c r="V37" s="15">
-        <v>120</v>
-      </c>
+      <c r="U37" s="8"/>
+      <c r="V37" s="15"/>
       <c r="W37" s="8"/>
-      <c r="X37" s="6">
-        <v>44540</v>
-      </c>
-      <c r="Y37" s="15">
-        <v>129</v>
-      </c>
-      <c r="Z37" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA37" s="6">
-        <v>44569</v>
-      </c>
-      <c r="AB37" s="15">
-        <v>110</v>
-      </c>
-      <c r="AC37" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD37" s="6">
-        <v>44602</v>
-      </c>
-      <c r="AE37" s="15">
-        <v>129.9</v>
-      </c>
-      <c r="AF37" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG37" s="6">
-        <v>44479</v>
-      </c>
-      <c r="AH37" s="16">
-        <v>200</v>
-      </c>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="16"/>
       <c r="AI37" s="8"/>
     </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A38" s="8"/>
+    <row r="38" spans="1:36" ht="15.75" hidden="1" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="42" t="s">
-        <v>1378</v>
+      <c r="G38" s="31" t="s">
+        <v>1369</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>1265</v>
+        <v>1314</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>1258</v>
       </c>
       <c r="J38" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 9 meses 21 dias</v>
+        <v>10 anos, 9 meses 2 dias</v>
       </c>
       <c r="K38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="68">
+        <v>40757</v>
+      </c>
+      <c r="M38" s="84">
         <v>21</v>
-      </c>
-      <c r="L38" s="68">
-        <v>40732</v>
       </c>
       <c r="N38" s="68"/>
       <c r="O38" s="62" t="s">
@@ -15128,15 +15164,27 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="8"/>
+      <c r="R38" s="6">
+        <v>44492</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="U38" s="8"/>
       <c r="V38" s="15"/>
       <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="8"/>
+      <c r="X38" s="6">
+        <v>44540</v>
+      </c>
+      <c r="Y38" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="AA38" s="8"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="8"/>
@@ -15149,46 +15197,56 @@
     </row>
     <row r="39" spans="1:36" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+        <v>232</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="G39" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>1259</v>
+        <v>237</v>
       </c>
       <c r="J39" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 8 meses 27 dias</v>
-      </c>
-      <c r="K39" s="31" t="s">
+        <v>11 anos, 3 meses 23 dias</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="68">
-        <v>40757</v>
-      </c>
-      <c r="M39" s="84">
-        <v>21</v>
-      </c>
-      <c r="N39" s="68"/>
-      <c r="O39" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="L39" s="6">
+        <v>40555</v>
+      </c>
+      <c r="M39" s="83">
+        <v>15</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6">
+        <v>44569</v>
+      </c>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6">
-        <v>44492</v>
-      </c>
-      <c r="S39" s="15" t="s">
-        <v>178</v>
+        <v>44576</v>
+      </c>
+      <c r="S39" s="15">
+        <v>99.9</v>
       </c>
       <c r="T39" s="8" t="s">
         <v>173</v>
@@ -15196,15 +15254,9 @@
       <c r="U39" s="8"/>
       <c r="V39" s="15"/>
       <c r="W39" s="8"/>
-      <c r="X39" s="6">
-        <v>44540</v>
-      </c>
-      <c r="Y39" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z39" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="8"/>
@@ -15216,61 +15268,43 @@
       <c r="AI39" s="8"/>
     </row>
     <row r="40" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>236</v>
-      </c>
+      <c r="A40" s="31" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>1315</v>
       </c>
-      <c r="I40" s="43" t="s">
-        <v>237</v>
+      <c r="I40" s="31" t="s">
+        <v>1253</v>
       </c>
       <c r="J40" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 3 meses 17 dias</v>
-      </c>
-      <c r="K40" s="8" t="s">
+        <v>11 anos, 3 meses 25 dias</v>
+      </c>
+      <c r="K40" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="6">
-        <v>40555</v>
-      </c>
-      <c r="M40" s="83">
-        <v>15</v>
-      </c>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6">
-        <v>44569</v>
-      </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6">
-        <v>44576</v>
-      </c>
-      <c r="S40" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="L40" s="30">
+        <v>40553</v>
+      </c>
+      <c r="M40" s="49">
+        <v>44618</v>
+      </c>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="15"/>
       <c r="W40" s="8"/>
@@ -15288,43 +15322,61 @@
       <c r="AI40" s="8"/>
     </row>
     <row r="41" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A41" s="31" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="A41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="G41" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>1254</v>
+        <v>1312</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>231</v>
       </c>
       <c r="J41" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 3 meses 19 dias</v>
-      </c>
-      <c r="K41" s="31" t="s">
+        <v>12 anos, 6 meses 4 dias</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="30">
-        <v>40553</v>
-      </c>
-      <c r="M41" s="49">
-        <v>44618</v>
-      </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="8"/>
+      <c r="L41" s="6">
+        <v>40117</v>
+      </c>
+      <c r="M41" s="83">
+        <v>15</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6">
+        <v>44569</v>
+      </c>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6">
+        <v>44569</v>
+      </c>
+      <c r="S41" s="15">
+        <v>100</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="U41" s="8"/>
       <c r="V41" s="15"/>
       <c r="W41" s="8"/>
@@ -15343,69 +15395,75 @@
     </row>
     <row r="42" spans="1:36" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="J42" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 5 meses 28 dias</v>
+        <v>12 anos, 11 meses 1 dias</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L42" s="6">
-        <v>40117</v>
+        <v>39967</v>
       </c>
       <c r="M42" s="83">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6">
-        <v>44569</v>
-      </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6">
-        <v>44569</v>
-      </c>
-      <c r="S42" s="15">
-        <v>100</v>
-      </c>
-      <c r="T42" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="O42" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="8"/>
       <c r="U42" s="8"/>
       <c r="V42" s="15"/>
       <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="8"/>
+      <c r="X42" s="6">
+        <v>44536</v>
+      </c>
+      <c r="Y42" s="15">
+        <v>100</v>
+      </c>
+      <c r="Z42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>44573</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC42" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
@@ -15415,59 +15473,67 @@
     </row>
     <row r="43" spans="1:36" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>171</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="31" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="J43" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 10 meses 26 dias</v>
+        <v>14 anos, 0 meses 10 dias</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L43" s="6">
-        <v>39967</v>
+        <v>39563</v>
       </c>
       <c r="M43" s="83">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N43" s="6"/>
-      <c r="O43" s="88" t="s">
-        <v>18</v>
-      </c>
+      <c r="O43" s="6"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="8"/>
+      <c r="R43" s="6">
+        <v>44516</v>
+      </c>
+      <c r="S43" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="U43" s="6">
+        <v>44546</v>
+      </c>
+      <c r="V43" s="15">
+        <v>100</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="X43" s="6">
-        <v>44536</v>
+        <v>44578</v>
       </c>
       <c r="Y43" s="15">
         <v>100</v>
@@ -15475,15 +15541,9 @@
       <c r="Z43" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AA43" s="6">
-        <v>44573</v>
-      </c>
-      <c r="AB43" s="15">
-        <v>100</v>
-      </c>
-      <c r="AC43" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
       <c r="AF43" s="8"/>
@@ -15492,75 +15552,65 @@
       <c r="AI43" s="8"/>
     </row>
     <row r="44" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>182</v>
-      </c>
+      <c r="A44" s="31" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="31" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1312</v>
+        <v>39</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J44" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 0 meses 4 dias</v>
+        <v>14 anos, 3 meses 18 dias</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L44" s="6">
-        <v>39563</v>
+      <c r="L44" s="30">
+        <v>39464</v>
       </c>
       <c r="M44" s="83">
-        <v>16</v>
-      </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="N44" s="30"/>
+      <c r="O44" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="6">
-        <v>44516</v>
+        <v>44541</v>
       </c>
       <c r="S44" s="15">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U44" s="6">
-        <v>44546</v>
+        <v>44576</v>
       </c>
       <c r="V44" s="15">
         <v>100</v>
       </c>
       <c r="W44" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="X44" s="6">
-        <v>44578</v>
-      </c>
-      <c r="Y44" s="15">
-        <v>100</v>
-      </c>
-      <c r="Z44" s="8" t="s">
-        <v>173</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="8"/>
@@ -15572,62 +15622,43 @@
       <c r="AI44" s="8"/>
     </row>
     <row r="45" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A45" s="31" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="8"/>
+      <c r="E45" s="33" t="s">
+        <v>1272</v>
+      </c>
       <c r="G45" s="31" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>38</v>
+        <v>1369</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>1260</v>
       </c>
       <c r="J45" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 3 meses 12 dias</v>
-      </c>
-      <c r="K45" s="8" t="s">
+        <v>14 anos, 9 meses 23 dias</v>
+      </c>
+      <c r="K45" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="30">
-        <v>39464</v>
-      </c>
-      <c r="M45" s="83">
-        <v>12</v>
-      </c>
-      <c r="N45" s="30"/>
+      <c r="L45" s="68">
+        <v>39275</v>
+      </c>
+      <c r="M45" s="86">
+        <v>44621</v>
+      </c>
+      <c r="N45" s="68"/>
       <c r="O45" s="62" t="s">
         <v>18</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
-      <c r="R45" s="6">
-        <v>44541</v>
-      </c>
-      <c r="S45" s="15">
-        <v>100</v>
-      </c>
-      <c r="T45" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="U45" s="6">
-        <v>44576</v>
-      </c>
-      <c r="V45" s="15">
-        <v>100</v>
-      </c>
-      <c r="W45" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="R45" s="8"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="15"/>
       <c r="Z45" s="8"/>
@@ -15641,58 +15672,10 @@
       <c r="AH45" s="16"/>
       <c r="AI45" s="8"/>
     </row>
-    <row r="46" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="E46" s="33" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J46" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 9 meses 17 dias</v>
-      </c>
-      <c r="K46" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L46" s="68">
-        <v>39275</v>
-      </c>
-      <c r="M46" s="86">
-        <v>44621</v>
-      </c>
-      <c r="N46" s="68"/>
-      <c r="O46" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="8"/>
-      <c r="AH46" s="16"/>
-      <c r="AI46" s="8"/>
-    </row>
-    <row r="47" spans="1:36" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:36" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AJ47" s="33"/>
+    </row>
     <row r="48" spans="1:36" ht="15.75" customHeight="1">
       <c r="AJ48" s="33"/>
     </row>
@@ -15700,59 +15683,78 @@
       <c r="AJ49" s="33"/>
     </row>
     <row r="50" spans="1:36" ht="15.75" customHeight="1">
-      <c r="AJ50" s="33"/>
+      <c r="F50" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="AJ50" s="8"/>
     </row>
     <row r="51" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A51" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="6" t="str">
-        <f ca="1">DATEDIF(AJ51,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(AJ51,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(AJ51,TODAY(),"MD")&amp;" dias"</f>
-        <v>8 anos, 0 meses 15 dias</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ51" s="42">
-        <v>41743</v>
-      </c>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="8"/>
     </row>
     <row r="52" spans="1:36" ht="15.75" customHeight="1">
-      <c r="F52" s="8" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="33" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I52" s="31" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="AJ52" s="8"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="8"/>
     </row>
     <row r="53" spans="1:36" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
@@ -15780,84 +15782,9 @@
       <c r="AH53" s="16"/>
       <c r="AI53" s="8"/>
     </row>
-    <row r="54" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="8"/>
-      <c r="AH54" s="16"/>
-      <c r="AI54" s="8"/>
-    </row>
-    <row r="55" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="16"/>
-      <c r="AI55" s="8"/>
-    </row>
-    <row r="56" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
-      <c r="AG56" s="8"/>
-      <c r="AH56" s="16"/>
-      <c r="AI56" s="8"/>
-    </row>
+    <row r="54" spans="1:36" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:36" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:36" ht="15.75" customHeight="1"/>
     <row r="57" spans="1:36" ht="15.75" customHeight="1"/>
     <row r="58" spans="1:36" ht="15.75" customHeight="1"/>
     <row r="59" spans="1:36" ht="15.75" customHeight="1"/>
@@ -16786,11 +16713,8 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:Z46">
+  <autoFilter ref="A2:Z45">
     <filterColumn colId="6">
       <filters>
         <filter val="Quarta"/>
@@ -16821,11 +16745,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C64:C129"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C64:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16849,10 +16773,10 @@
         <v>165</v>
       </c>
       <c r="D1" s="54" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1" s="54" t="s">
         <v>1068</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>1069</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>163</v>
@@ -16863,7 +16787,7 @@
         <v>44492</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C2" s="56">
         <v>99.9</v>
@@ -16877,7 +16801,7 @@
         <v>44540</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C3" s="56">
         <v>99.9</v>
@@ -16891,7 +16815,7 @@
         <v>44541</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C4" s="56">
         <v>100</v>
@@ -16905,7 +16829,7 @@
         <v>44576</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C5" s="56">
         <v>100</v>
@@ -16919,7 +16843,7 @@
         <v>44596</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C6" s="56">
         <v>99.9</v>
@@ -16928,7 +16852,7 @@
         <v>173</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -17004,7 +16928,7 @@
         <v>173</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -17012,7 +16936,7 @@
         <v>44603</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C12" s="56">
         <v>110</v>
@@ -17043,7 +16967,7 @@
         <v>44604</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C14" s="56">
         <v>100</v>
@@ -17057,7 +16981,7 @@
         <v>44604</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C15" s="56">
         <v>99.9</v>
@@ -17071,7 +16995,7 @@
         <v>44606</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C16" s="56">
         <v>99.9</v>
@@ -17085,7 +17009,7 @@
         <v>44610</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C17" s="56">
         <v>109.9</v>
@@ -17094,7 +17018,7 @@
         <v>194</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -17102,7 +17026,7 @@
         <v>44610</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C18" s="56">
         <v>99.9</v>
@@ -17116,7 +17040,7 @@
         <v>44611</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C19" s="56">
         <v>129.9</v>
@@ -17130,7 +17054,7 @@
         <v>44611</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C20" s="56">
         <v>102.4</v>
@@ -17144,7 +17068,7 @@
         <v>44611</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C21" s="56">
         <v>100</v>
@@ -17158,7 +17082,7 @@
         <v>44611</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C22" s="56">
         <v>100</v>
@@ -17167,7 +17091,7 @@
         <v>179</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -17175,7 +17099,7 @@
         <v>44611</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C23" s="56">
         <v>100</v>
@@ -17189,7 +17113,7 @@
         <v>44613</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C24" s="56">
         <v>131</v>
@@ -17198,7 +17122,7 @@
         <v>173</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -17206,7 +17130,7 @@
         <v>44613</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C25" s="56">
         <v>123.9</v>
@@ -17215,7 +17139,7 @@
         <v>173</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -17237,7 +17161,7 @@
         <v>44617</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C27" s="56">
         <v>129.9</v>
@@ -17251,7 +17175,7 @@
         <v>44617</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C28" s="56">
         <v>130</v>
@@ -17260,7 +17184,7 @@
         <v>173</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -17268,7 +17192,7 @@
         <v>44618</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C29" s="56">
         <v>130</v>
@@ -17282,7 +17206,7 @@
         <v>44618</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C30" s="56">
         <v>99.9</v>
@@ -17296,7 +17220,7 @@
         <v>44624</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C31" s="56">
         <v>129.9</v>
@@ -17310,7 +17234,7 @@
         <v>44624</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C32" s="56">
         <v>141.4</v>
@@ -17319,7 +17243,7 @@
         <v>173</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -17327,7 +17251,7 @@
         <v>44624</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C33" s="56">
         <v>100</v>
@@ -17341,7 +17265,7 @@
         <v>44624</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C34" s="56">
         <v>99.9</v>
@@ -17355,7 +17279,7 @@
         <v>44625</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C35" s="56">
         <v>130</v>
@@ -17369,7 +17293,7 @@
         <v>44625</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C36" s="56">
         <v>99.9</v>
@@ -17383,7 +17307,7 @@
         <v>44625</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C37" s="56">
         <v>99.9</v>
@@ -17397,7 +17321,7 @@
         <v>44625</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C38" s="56">
         <v>100</v>
@@ -17411,7 +17335,7 @@
         <v>44625</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C39" s="56">
         <v>112.5</v>
@@ -17420,7 +17344,7 @@
         <v>245</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -17428,7 +17352,7 @@
         <v>44629</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C40" s="56">
         <v>156.9</v>
@@ -17437,7 +17361,7 @@
         <v>173</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -17445,7 +17369,7 @@
         <v>44631</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C41" s="56">
         <v>143.9</v>
@@ -17454,7 +17378,7 @@
         <v>245</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -17476,7 +17400,7 @@
         <v>44632</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C43" s="56">
         <v>102.5</v>
@@ -17485,7 +17409,7 @@
         <v>173</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -17493,7 +17417,7 @@
         <v>44636</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C44" s="56">
         <v>142.4</v>
@@ -17502,7 +17426,7 @@
         <v>173</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -17527,7 +17451,7 @@
         <v>44638</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C46" s="56">
         <v>99.9</v>
@@ -17544,7 +17468,7 @@
         <v>44638</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C47" s="56">
         <v>104.9</v>
@@ -17556,7 +17480,7 @@
         <v>44669</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -17564,7 +17488,7 @@
         <v>44638</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C48" s="56">
         <v>99.9</v>
@@ -17576,7 +17500,7 @@
         <v>44669</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -17584,7 +17508,7 @@
         <v>44639</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C49" s="56">
         <v>100</v>
@@ -17593,7 +17517,7 @@
         <v>179</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -17601,7 +17525,7 @@
         <v>44639</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C50" s="56">
         <v>129.9</v>
@@ -17615,7 +17539,7 @@
         <v>44639</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C51" s="56">
         <v>99.9</v>
@@ -17629,7 +17553,7 @@
         <v>44639</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C52" s="56">
         <v>110</v>
@@ -17638,7 +17562,7 @@
         <v>173</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -17646,7 +17570,7 @@
         <v>44639</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C53" s="56">
         <v>140</v>
@@ -17655,7 +17579,7 @@
         <v>173</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -17663,7 +17587,7 @@
         <v>44641</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C54" s="56">
         <v>240.9</v>
@@ -17672,7 +17596,7 @@
         <v>173</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -17680,7 +17604,7 @@
         <v>44641</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C55" s="56">
         <v>129.9</v>
@@ -17694,7 +17618,7 @@
         <v>44643</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C56" s="56">
         <v>129.9</v>
@@ -17708,7 +17632,7 @@
         <v>44645</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C57" s="56">
         <v>129.9</v>
@@ -17717,7 +17641,7 @@
         <v>185</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -17725,7 +17649,7 @@
         <v>44645</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C58" s="56">
         <v>130</v>
@@ -17734,7 +17658,7 @@
         <v>173</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -17742,7 +17666,7 @@
         <v>44646</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C59" s="56">
         <v>100</v>
@@ -17770,7 +17694,7 @@
         <v>44648</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C61" s="56">
         <v>99.9</v>
@@ -17779,7 +17703,7 @@
         <v>173</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -17787,7 +17711,7 @@
         <v>44650</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C62" s="56">
         <v>129.9</v>
@@ -17801,7 +17725,7 @@
         <v>44650</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C63" s="56">
         <v>100</v>
@@ -17815,7 +17739,7 @@
         <v>44652</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C64" s="56">
         <v>100</v>
@@ -17829,7 +17753,7 @@
         <v>44652</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C65" s="56">
         <v>100</v>
@@ -17843,7 +17767,7 @@
         <v>44653</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C66" s="56">
         <v>99</v>
@@ -17857,7 +17781,7 @@
         <v>44653</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C67" s="56">
         <v>129.9</v>
@@ -17871,7 +17795,7 @@
         <v>44655</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C68" s="56">
         <v>100</v>
@@ -17885,7 +17809,7 @@
         <v>44656</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C69" s="56">
         <v>130</v>
@@ -17899,13 +17823,13 @@
         <v>44656</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C70" s="56">
         <v>0</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -17913,7 +17837,7 @@
         <v>44657</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C71" s="56">
         <v>99.9</v>
@@ -17927,7 +17851,7 @@
         <v>44657</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C72" s="56">
         <v>130</v>
@@ -17941,7 +17865,7 @@
         <v>44657</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C73" s="56">
         <v>130</v>
@@ -17955,7 +17879,7 @@
         <v>44659</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C74" s="56">
         <v>129.9</v>
@@ -17969,16 +17893,16 @@
         <v>44659</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C75" s="56">
         <v>130</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -17986,7 +17910,7 @@
         <v>44660</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C76" s="56">
         <v>195</v>
@@ -18000,7 +17924,7 @@
         <v>44660</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C77" s="56">
         <v>99.9</v>
@@ -18014,7 +17938,7 @@
         <v>44660</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C78" s="56">
         <v>132.4</v>
@@ -18023,7 +17947,7 @@
         <v>173</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -18031,7 +17955,7 @@
         <v>44662</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C79" s="56">
         <v>149.9</v>
@@ -18040,7 +17964,7 @@
         <v>173</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -18048,7 +17972,7 @@
         <v>44663</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C80" s="56">
         <v>129.9</v>
@@ -18057,7 +17981,7 @@
         <v>173</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -18065,7 +17989,7 @@
         <v>44664</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C81" s="56">
         <f>130 + 65 + 30 + 65</f>
@@ -18075,7 +17999,7 @@
         <v>245</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -18083,7 +18007,7 @@
         <v>44664</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C82" s="56">
         <v>129.9</v>
@@ -18092,7 +18016,7 @@
         <v>245</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -18100,7 +18024,7 @@
         <v>44666</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C83" s="56">
         <v>129.9</v>
@@ -18109,7 +18033,7 @@
         <v>245</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -18117,7 +18041,7 @@
         <v>44667</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C84" s="56">
         <v>129.9</v>
@@ -18131,7 +18055,7 @@
         <v>44667</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="C85" s="56">
         <v>129.9</v>
@@ -18145,7 +18069,7 @@
         <v>44669</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C86" s="56">
         <v>129.9</v>
@@ -18154,7 +18078,7 @@
         <v>173</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -18162,7 +18086,7 @@
         <v>44671</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C87" s="56">
         <v>129.9</v>
@@ -18171,7 +18095,7 @@
         <v>173</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -18193,7 +18117,7 @@
         <v>44673</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C89" s="56">
         <v>129.9</v>
@@ -18202,7 +18126,7 @@
         <v>173</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -18210,7 +18134,7 @@
         <v>44673</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C90" s="56">
         <v>129.9</v>
@@ -18219,7 +18143,7 @@
         <v>173</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -18227,7 +18151,7 @@
         <v>44673</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C91" s="56">
         <v>100</v>
@@ -18241,7 +18165,7 @@
         <v>44673</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C92" s="56">
         <v>102.4</v>
@@ -18250,7 +18174,7 @@
         <v>245</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -18258,7 +18182,7 @@
         <v>44673</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C93" s="56">
         <v>130</v>
@@ -18272,7 +18196,7 @@
         <v>44674</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C94" s="56">
         <v>129.9</v>
@@ -18286,7 +18210,7 @@
         <v>44674</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C95" s="56">
         <v>100</v>
@@ -18300,7 +18224,7 @@
         <v>44674</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C96" s="56">
         <v>129.9</v>
@@ -18314,7 +18238,7 @@
         <v>44677</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C97" s="56">
         <v>129.9</v>
@@ -18323,7 +18247,7 @@
         <v>173</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -18331,7 +18255,7 @@
         <v>44677</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C98" s="56">
         <v>129.9</v>
@@ -18345,7 +18269,7 @@
         <v>44679</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C99" s="56">
         <v>129.9</v>
@@ -18354,7 +18278,7 @@
         <v>185</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -18362,7 +18286,7 @@
         <v>44679</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C100" s="56">
         <v>129.9</v>
@@ -18376,7 +18300,7 @@
         <v>44679</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C101" s="56">
         <v>130</v>
@@ -18385,69 +18309,87 @@
         <v>173</v>
       </c>
     </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="42">
+        <v>44680</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C102" s="56">
+        <v>99.9</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="42">
+        <v>44680</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C103" s="56">
+        <v>130</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="42">
+        <v>44683</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C104" s="56">
+        <v>152.5</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="B105" s="89"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="82">
+        <v>44680</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C114" s="56">
+        <v>100</v>
+      </c>
+    </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="82">
-        <v>44670</v>
-      </c>
       <c r="B115" s="33" t="s">
-        <v>1237</v>
+        <v>1330</v>
       </c>
       <c r="C115" s="56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="82">
-        <v>44680</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C119" s="56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="82">
-        <v>44681</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="82">
-        <v>44680</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C126" s="56">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="B127" s="33" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C127" s="56">
+    <row r="117" spans="1:3">
+      <c r="B117" s="33" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C117" s="56">
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="B128" s="33" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C128" s="56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="33" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C129" s="56">
-        <v>130</v>
+    <row r="118" spans="1:3">
+      <c r="B118" s="33" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C118" s="56">
+        <v>129.9</v>
       </c>
     </row>
   </sheetData>
@@ -18462,11 +18404,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18489,10 +18431,10 @@
         <v>165</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18500,7 +18442,7 @@
         <v>44625</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C2" s="56">
         <f xml:space="preserve"> 6.5 + 5</f>
@@ -18512,7 +18454,7 @@
         <v>44632</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C3" s="56">
         <f>2.5+2.5</f>
@@ -18524,7 +18466,7 @@
         <v>44638</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C4" s="56">
         <v>5</v>
@@ -18535,13 +18477,13 @@
         <v>44652</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C5" s="56">
         <v>2.5</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -18549,13 +18491,13 @@
         <v>44653</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C6" s="56">
         <v>6.5</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -18563,7 +18505,7 @@
         <v>44657</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C7" s="56">
         <v>5</v>
@@ -18574,13 +18516,13 @@
         <v>44660</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C8" s="56">
         <v>0.5</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -18588,26 +18530,29 @@
         <v>44660</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C9" s="56">
         <f xml:space="preserve"> 5 + 6.5 + 6.5 + 13</f>
         <v>31</v>
       </c>
+      <c r="D9" s="33" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="42">
         <v>44664</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C10" s="56">
         <f>5 + 5</f>
         <v>10</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -18615,13 +18560,13 @@
         <v>44664</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C11" s="56">
         <v>2.5</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -18629,14 +18574,14 @@
         <v>44664</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C12" s="56">
         <f>5+5+5+5+2.5</f>
         <v>22.5</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -18644,14 +18589,14 @@
         <v>44664</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C13" s="56">
         <f>2.5+5</f>
         <v>7.5</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>93</v>
@@ -18662,13 +18607,13 @@
         <v>44664</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C14" s="56">
         <v>6.5</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -18676,13 +18621,13 @@
         <v>44667</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C15" s="56">
         <v>6.5</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -18690,14 +18635,14 @@
         <v>44667</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C16" s="56">
         <f>7+2.5</f>
         <v>9.5</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -18705,7 +18650,7 @@
         <v>44671</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C17" s="56">
         <v>5</v>
@@ -18716,13 +18661,13 @@
         <v>44671</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C18" s="56">
         <v>2.5</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -18730,14 +18675,14 @@
         <v>44671</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C19" s="56">
         <f>5+2.5</f>
         <v>7.5</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E19" s="76" t="s">
         <v>93</v>
@@ -18748,14 +18693,14 @@
         <v>44671</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C20" s="56">
         <f xml:space="preserve"> 5 + 5 + 5 + 5 + 5 + 2.5</f>
         <v>27.5</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -18763,14 +18708,14 @@
         <v>44673</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C21" s="56">
         <f>6.5</f>
         <v>6.5</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -18778,14 +18723,14 @@
         <v>44673</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C22" s="56">
         <f>2.5 + 7</f>
         <v>9.5</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -18793,14 +18738,14 @@
         <v>44673</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C23" s="56">
         <f>2.5+7+7</f>
         <v>16.5</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -18808,13 +18753,13 @@
         <v>44674</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C24" s="56">
         <v>6.5</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -18822,14 +18767,14 @@
         <v>44674</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C25" s="56">
         <f>2.5 + 6.5</f>
         <v>9</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -18837,14 +18782,14 @@
         <v>44674</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C26" s="56">
         <f>2.5</f>
         <v>2.5</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -18852,14 +18797,14 @@
         <v>44674</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C27" s="56">
         <f>2.5 + 5 + 5 + 5</f>
         <v>17.5</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E27" s="76" t="s">
         <v>93</v>
@@ -18870,14 +18815,14 @@
         <v>44674</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C28" s="56">
         <f>2.5</f>
         <v>2.5</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -18885,14 +18830,14 @@
         <v>44674</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C29" s="56">
         <f>2.5 + 6.5</f>
         <v>9</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -18900,14 +18845,14 @@
         <v>44674</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C30" s="56">
         <f>2.5 + 6.5</f>
         <v>9</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -18915,13 +18860,13 @@
         <v>44678</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C31" s="56">
         <v>5</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -18929,16 +18874,16 @@
         <v>44678</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C32" s="56">
         <v>5</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -18946,14 +18891,14 @@
         <v>44678</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C33" s="56">
         <f>7+7+7+7+7</f>
         <v>35</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -18961,14 +18906,14 @@
         <v>44678</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C34" s="56">
         <f>2.5 + 5</f>
         <v>7.5</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="E34" s="76" t="s">
         <v>93</v>
@@ -18979,13 +18924,13 @@
         <v>44678</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C35" s="56">
         <v>2.5</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -18993,17 +18938,94 @@
         <v>44678</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C36" s="56">
         <v>6.5</v>
       </c>
       <c r="D36" s="76" t="s">
-        <v>1168</v>
-      </c>
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="42">
+        <v>44680</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C37" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="42">
+        <v>44680</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C38" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="42">
+        <v>44680</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C39" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="42">
+        <v>44680</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C40" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C41" s="56">
+        <f>2.5+2.5+5+5</f>
+        <v>15</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E41" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E36">
+  <autoFilter ref="A1:E41">
     <filterColumn colId="1"/>
   </autoFilter>
   <sortState ref="A2:E53">
@@ -19076,107 +19098,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
-      <c r="A1" s="91">
+      <c r="A1" s="92">
         <v>44541</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92">
         <v>44548</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92">
         <v>44569</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91">
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92">
         <v>44576</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91">
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92">
         <v>44583</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91" t="s">
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92" t="s">
         <v>951</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="90">
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="91">
         <v>44596</v>
       </c>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90">
+      <c r="T1" s="91"/>
+      <c r="U1" s="91">
         <v>44597</v>
       </c>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90">
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91">
         <v>44603</v>
       </c>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90">
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91">
         <v>44604</v>
       </c>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90">
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91">
         <v>44610</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90">
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91">
         <v>44611</v>
       </c>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
       <c r="AH1" s="65">
         <v>44617</v>
       </c>
       <c r="AI1" s="67"/>
-      <c r="AJ1" s="90">
+      <c r="AJ1" s="91">
         <v>44618</v>
       </c>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="91">
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="92">
         <v>44624</v>
       </c>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="90">
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="91">
         <v>44625</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AS1" s="91">
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AS1" s="92">
         <v>44631</v>
       </c>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="90">
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="91">
         <v>44632</v>
       </c>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AY1" s="91">
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AY1" s="92">
         <v>44638</v>
       </c>
-      <c r="AZ1" s="91"/>
-      <c r="BA1" s="90">
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="91">
         <v>44639</v>
       </c>
-      <c r="BB1" s="90"/>
-      <c r="BC1" s="90"/>
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
       <c r="BE1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="BF1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="BG1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="13.5" customHeight="1">
@@ -19304,7 +19326,7 @@
         <v>952</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>954</v>
@@ -19319,7 +19341,7 @@
         <v>952</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>954</v>
@@ -19334,19 +19356,19 @@
         <v>952</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>954</v>
       </c>
       <c r="BE2" s="69" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="BF2" s="69" t="s">
         <v>954</v>
       </c>
       <c r="BG2" s="69" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="13.5" customHeight="1">
@@ -19433,7 +19455,7 @@
         <v>39</v>
       </c>
       <c r="AC3" s="60" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AD3" s="60" t="s">
         <v>994</v>
@@ -19454,69 +19476,69 @@
         <v>994</v>
       </c>
       <c r="AJ3" s="38" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AK3" s="38" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AL3" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AM3" s="35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AN3" s="35" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AO3" s="35" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AP3" s="35" t="s">
         <v>1146</v>
       </c>
-      <c r="AO3" s="35" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AP3" s="35" t="s">
-        <v>1147</v>
-      </c>
       <c r="AQ3" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AR3" s="79"/>
       <c r="AS3" s="35" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AT3" s="35" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AU3" s="35" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AV3" s="35" t="s">
         <v>1146</v>
       </c>
-      <c r="AU3" s="35" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AV3" s="35" t="s">
-        <v>1147</v>
-      </c>
       <c r="AW3" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AX3" s="71"/>
       <c r="AY3" s="35" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AZ3" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="BA3" s="35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="BB3" s="51" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="BC3" s="35" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="BE3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BF3" s="70" t="s">
         <v>1020</v>
       </c>
       <c r="BG3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="13.5" customHeight="1">
@@ -19598,7 +19620,7 @@
         <v>991</v>
       </c>
       <c r="AC4" s="60" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AD4" s="35" t="s">
         <v>32</v>
@@ -19628,51 +19650,51 @@
         <v>32</v>
       </c>
       <c r="AM4" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AN4" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AO4" s="35" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AP4" s="51" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AQ4" s="35" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AR4" s="79"/>
       <c r="AS4" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AT4" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AU4" s="35" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AV4" s="51" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AW4" s="35" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AX4" s="71"/>
       <c r="AY4" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AZ4" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="BA4" s="35" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="BB4" s="60" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="BC4" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="13.5" customHeight="1">
@@ -19754,7 +19776,7 @@
         <v>1055</v>
       </c>
       <c r="AC5" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AD5" s="60" t="s">
         <v>1038</v>
@@ -19763,7 +19785,7 @@
         <v>109</v>
       </c>
       <c r="AF5" s="60" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AG5" s="35" t="s">
         <v>32</v>
@@ -19778,57 +19800,57 @@
         <v>986</v>
       </c>
       <c r="AK5" s="60" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AL5" s="35" t="s">
         <v>16</v>
       </c>
       <c r="AM5" s="35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AN5" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AO5" s="47" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AP5" s="60" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AQ5" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AR5" s="79"/>
       <c r="AS5" s="35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AT5" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AU5" s="35" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AV5" s="60" t="s">
         <v>1133</v>
       </c>
-      <c r="AU5" s="35" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AV5" s="60" t="s">
-        <v>1134</v>
-      </c>
       <c r="AW5" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AX5" s="71"/>
       <c r="AY5" s="35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AZ5" s="35" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BA5" s="35" t="s">
         <v>1151</v>
       </c>
-      <c r="BA5" s="35" t="s">
-        <v>1152</v>
-      </c>
       <c r="BB5" s="60" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="BC5" s="35" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="13.5" customHeight="1">
@@ -19940,51 +19962,51 @@
         <v>25</v>
       </c>
       <c r="AM6" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AN6" s="38" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AO6" s="35" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AP6" s="60" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AQ6" s="60" t="s">
         <v>994</v>
       </c>
       <c r="AR6" s="79"/>
       <c r="AS6" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AT6" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AU6" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AV6" s="60" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AW6" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AX6" s="71"/>
       <c r="AY6" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AZ6" s="35" t="s">
         <v>1012</v>
       </c>
       <c r="BA6" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="BB6" s="60" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="BC6" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="13.5" customHeight="1">
@@ -20087,54 +20109,54 @@
         <v>85</v>
       </c>
       <c r="AK7" s="60" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AM7" s="35" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AN7" s="38" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AO7" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AP7" s="60" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AQ7" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AR7" s="79"/>
       <c r="AS7" s="35" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AT7" s="35" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AU7" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AV7" s="60" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AW7" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AX7" s="71"/>
       <c r="AY7" s="35" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AZ7" s="74" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="BA7" s="60" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="BB7" s="35" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="BC7" s="35" t="s">
         <v>1038</v>
@@ -20206,7 +20228,7 @@
         <v>1057</v>
       </c>
       <c r="AA8" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AB8" s="35" t="s">
         <v>16</v>
@@ -20219,7 +20241,7 @@
         <v>91</v>
       </c>
       <c r="AF8" s="60" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AG8" s="63" t="s">
         <v>25</v>
@@ -20228,56 +20250,56 @@
         <v>109</v>
       </c>
       <c r="AI8" s="74" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AJ8" s="35" t="s">
         <v>91</v>
       </c>
       <c r="AK8" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AL8" s="33"/>
       <c r="AM8" s="35" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AN8" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AO8" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AP8" s="35" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AQ8" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AR8" s="79"/>
       <c r="AS8" s="35" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AT8" s="35" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AU8" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AV8" s="35" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AW8" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AX8" s="71"/>
       <c r="AY8" s="35" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AZ8" s="33"/>
       <c r="BA8" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="BB8" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="BC8" s="33"/>
     </row>
@@ -20345,7 +20367,7 @@
         <v>1054</v>
       </c>
       <c r="AB9" s="38" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AC9" s="60" t="s">
         <v>317</v>
@@ -20357,57 +20379,57 @@
       <c r="AF9" s="33"/>
       <c r="AG9" s="33"/>
       <c r="AH9" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AI9" s="33"/>
       <c r="AJ9" s="36" t="s">
         <v>104</v>
       </c>
       <c r="AK9" s="35" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AL9" s="33"/>
       <c r="AM9" s="35" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AN9" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AO9" s="51" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AP9" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AQ9" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AR9" s="79"/>
       <c r="AS9" s="35" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AT9" s="35" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AU9" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AV9" s="35" t="s">
         <v>1143</v>
       </c>
-      <c r="AT9" s="35" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AU9" s="35" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AV9" s="35" t="s">
-        <v>1144</v>
-      </c>
       <c r="AW9" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AX9" s="71"/>
       <c r="AY9" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AZ9" s="33"/>
       <c r="BA9" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="BB9" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="BC9" s="33"/>
     </row>
@@ -20466,60 +20488,60 @@
       <c r="AC10" s="33"/>
       <c r="AD10" s="33"/>
       <c r="AE10" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="38" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AI10" s="33"/>
       <c r="AJ10" s="60" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
       <c r="AM10" s="35" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AN10" s="35" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AO10" s="60" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AP10" s="38" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AQ10" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AR10" s="79"/>
       <c r="AS10" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AT10" s="35" t="s">
         <v>1012</v>
       </c>
       <c r="AU10" s="38" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AV10" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AW10" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AX10" s="71"/>
       <c r="AY10" s="35" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AZ10" s="33"/>
       <c r="BA10" s="35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="BB10" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="BC10" s="33"/>
     </row>
@@ -20565,60 +20587,60 @@
       <c r="Y11" s="44"/>
       <c r="Z11" s="44"/>
       <c r="AA11" s="51" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AB11" s="44"/>
       <c r="AC11" s="33"/>
       <c r="AD11" s="33"/>
       <c r="AE11" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="33"/>
       <c r="AH11" s="33"/>
       <c r="AI11" s="33"/>
       <c r="AJ11" s="35" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AK11" s="33"/>
       <c r="AL11" s="33"/>
       <c r="AM11" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AN11" s="35" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AO11" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AP11" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AQ11" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AR11" s="79"/>
       <c r="AS11" s="35" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AT11" s="33"/>
       <c r="AU11" s="33"/>
       <c r="AV11" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AW11" s="35" t="s">
         <v>1012</v>
       </c>
       <c r="AX11" s="71"/>
       <c r="AY11" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AZ11" s="33"/>
       <c r="BA11" s="35" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="BB11" s="35" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="BC11" s="33"/>
     </row>
@@ -20661,53 +20683,53 @@
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
       <c r="AE12" s="60" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="33"/>
       <c r="AH12" s="33"/>
       <c r="AI12" s="33"/>
       <c r="AJ12" s="35" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AK12" s="33"/>
       <c r="AL12" s="47" t="s">
         <v>991</v>
       </c>
       <c r="AM12" s="35" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AN12" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AO12" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AP12" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AQ12" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AS12" s="44"/>
       <c r="AT12" s="33"/>
       <c r="AU12" s="73" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AV12" s="60" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AW12" s="74" t="s">
         <v>1207</v>
-      </c>
-      <c r="AW12" s="74" t="s">
-        <v>1208</v>
       </c>
       <c r="AX12" s="71"/>
       <c r="AY12" s="60" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AZ12" s="33"/>
       <c r="BA12" s="33"/>
       <c r="BB12" s="35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="BC12" s="33"/>
     </row>
@@ -20756,7 +20778,7 @@
         <v>991</v>
       </c>
       <c r="AJ13" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AK13" s="33"/>
       <c r="AL13" s="47" t="s">
@@ -20765,30 +20787,30 @@
       <c r="AM13" s="33"/>
       <c r="AN13" s="33"/>
       <c r="AO13" s="35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AP13" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AQ13" s="38" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AS13" s="44"/>
       <c r="AT13" s="44"/>
       <c r="AU13" s="33"/>
       <c r="AV13" s="58"/>
       <c r="AW13" s="74" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AX13" s="71"/>
       <c r="AY13" s="44"/>
       <c r="AZ13" s="44"/>
       <c r="BA13" s="33"/>
       <c r="BB13" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="BC13" s="44" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="13.5" customHeight="1">
@@ -20848,29 +20870,29 @@
       <c r="AN14" s="33"/>
       <c r="AO14" s="44"/>
       <c r="AP14" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AQ14" s="58"/>
       <c r="AS14" s="47" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AT14" s="47" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AU14" s="33"/>
       <c r="AV14" s="58"/>
       <c r="AW14" s="35" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AX14" s="71"/>
       <c r="AY14" s="33"/>
       <c r="AZ14" s="44"/>
       <c r="BA14" s="33"/>
       <c r="BB14" s="35" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="BC14" s="44" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="13.5" customHeight="1">
@@ -20928,27 +20950,27 @@
       <c r="AP15" s="44"/>
       <c r="AQ15" s="44"/>
       <c r="AS15" s="47" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AT15" s="44"/>
       <c r="AU15" s="33"/>
       <c r="AV15" s="58"/>
       <c r="AW15" s="35" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AX15" s="71"/>
       <c r="AY15" s="33"/>
       <c r="AZ15" s="47" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="BA15" s="47" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="BB15" s="35" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="BC15" s="44" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="13.5" customHeight="1">
@@ -21003,15 +21025,15 @@
       <c r="AU16" s="44"/>
       <c r="AV16" s="58"/>
       <c r="AW16" s="35" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AX16" s="71"/>
       <c r="AY16" s="33"/>
       <c r="AZ16" s="47" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="BA16" s="47" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="BB16" s="44"/>
       <c r="BC16" s="44"/>
@@ -21063,7 +21085,7 @@
       <c r="AS17" s="44"/>
       <c r="AT17" s="44"/>
       <c r="AU17" s="47" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AV17" s="58"/>
       <c r="AW17" s="44" t="s">
@@ -21073,7 +21095,7 @@
       <c r="AY17" s="33"/>
       <c r="AZ17" s="33"/>
       <c r="BA17" s="48" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="BB17" s="33"/>
       <c r="BC17" s="66" t="s">
@@ -21128,23 +21150,23 @@
       <c r="AS18" s="44"/>
       <c r="AT18" s="44"/>
       <c r="AU18" s="48" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AV18" s="58"/>
       <c r="AW18" s="44"/>
       <c r="AX18" s="71"/>
       <c r="AY18" s="47" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AZ18" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="BA18" s="44"/>
       <c r="BB18" s="47" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="BC18" s="47" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="19" spans="1:55" ht="13.5" customHeight="1">
@@ -21187,7 +21209,7 @@
         <v>31</v>
       </c>
       <c r="AK19" s="66" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AL19" s="33"/>
       <c r="AM19" s="33"/>
@@ -21198,16 +21220,16 @@
       <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
       <c r="AU19" s="47" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AV19" s="58"/>
       <c r="AW19" s="44"/>
       <c r="AX19" s="71"/>
       <c r="AY19" s="47" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AZ19" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="BA19" s="44"/>
       <c r="BB19" s="44"/>
@@ -21257,7 +21279,7 @@
       <c r="AM20" s="33"/>
       <c r="AN20" s="33"/>
       <c r="AO20" s="47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AP20" s="44"/>
       <c r="AQ20" s="47" t="s">
@@ -21266,20 +21288,20 @@
       <c r="AS20" s="44"/>
       <c r="AT20" s="44"/>
       <c r="AU20" s="47" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AV20" s="47" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AW20" s="47" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AX20" s="71"/>
       <c r="AY20" s="47" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AZ20" s="38" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="BA20" s="44"/>
       <c r="BB20" s="44"/>
@@ -21325,7 +21347,7 @@
       <c r="AH21" s="33"/>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="47" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AK21" s="33"/>
       <c r="AL21" s="33"/>
@@ -21343,7 +21365,7 @@
       </c>
       <c r="AX21" s="71"/>
       <c r="AY21" s="47" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AZ21" s="44"/>
       <c r="BA21" s="44"/>
@@ -21395,7 +21417,7 @@
       <c r="AH22" s="33"/>
       <c r="AI22" s="33"/>
       <c r="AJ22" s="47" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AK22" s="33"/>
       <c r="AL22" s="33"/>
@@ -21409,7 +21431,7 @@
       <c r="AU22" s="44"/>
       <c r="AV22" s="44"/>
       <c r="AW22" s="72" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AX22" s="71"/>
       <c r="AY22" s="44"/>
@@ -22473,814 +22495,811 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H3:H12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="33"/>
-      <c r="B1" s="89" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="89" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
       <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="89" t="s">
+      <c r="AC1" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="33"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>165</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="Q2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AD2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="33" t="s">
-        <v>1318</v>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="6">
+      <c r="H3" s="6">
         <v>42395</v>
       </c>
-      <c r="J3" s="6" t="str">
-        <f t="shared" ref="J3:J12" ca="1" si="0">DATEDIF(I3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I3,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 3 meses 3 dias</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="6" t="str">
+        <f t="shared" ref="I3:I11" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 3 meses 9 dias</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="61" t="s">
-        <v>1175</v>
-      </c>
+      <c r="K3" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="6">
+      <c r="O3" s="15"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="6">
         <v>44492</v>
       </c>
-      <c r="S3" s="15">
+      <c r="R3" s="15">
         <v>99.9</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="6">
+      <c r="S3" s="8"/>
+      <c r="T3" s="6">
         <v>44527</v>
       </c>
-      <c r="V3" s="15">
+      <c r="U3" s="15">
         <v>100</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="X3" s="6">
+      <c r="W3" s="6">
         <v>44567</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="X3" s="15">
         <v>100</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>173</v>
       </c>
+      <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="8"/>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="33"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="8"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="6">
+      <c r="H4" s="6">
         <v>41820</v>
       </c>
-      <c r="J4" s="6" t="str">
+      <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 9 meses 29 dias</v>
+        <v>7 anos, 10 meses 5 dias</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="P4" s="15">
+      <c r="O4" s="15">
         <v>65</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="15"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="8"/>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="33"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="B5" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="6">
+        <v>40697</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 11 meses 1 dias</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="6">
-        <v>40697</v>
-      </c>
-      <c r="J5" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 10 meses 26 dias</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="P5" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="15"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="8"/>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="33"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="8"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="6">
+      <c r="H6" s="6">
         <v>41446</v>
       </c>
-      <c r="J6" s="6" t="str">
+      <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 10 meses 8 dias</v>
+        <v>8 anos, 10 meses 14 dias</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="P6" s="15">
+      <c r="O6" s="15">
         <v>129.9</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="15"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="8"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="33"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="B7" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6" t="str">
+      <c r="H7" s="8"/>
+      <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 3 meses 29 dias</v>
+        <v>122 anos, 4 meses 4 dias</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="6">
+      <c r="N7" s="6">
         <v>44485</v>
       </c>
-      <c r="P7" s="15">
+      <c r="O7" s="15">
         <v>100</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="6">
+      <c r="Q7" s="6">
         <v>44537</v>
       </c>
-      <c r="S7" s="15">
+      <c r="R7" s="15">
         <v>100</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="15"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="8"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="33"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="B8" s="8" t="s">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="6">
+      <c r="H8" s="6">
         <v>40812</v>
       </c>
-      <c r="J8" s="6" t="str">
+      <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 7 meses 3 dias</v>
+        <v>10 anos, 7 meses 9 dias</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="6">
+      <c r="N8" s="6">
         <v>44520</v>
       </c>
-      <c r="P8" s="15">
+      <c r="O8" s="15">
         <v>100</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="15"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="8"/>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="33"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="8"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="B9" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="6">
+      <c r="H9" s="6">
         <v>39636</v>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 9 meses 22 dias</v>
+        <v>13 anos, 9 meses 28 dias</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="6">
+      <c r="L9" s="6">
         <v>44520</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
         <v>44541</v>
       </c>
-      <c r="P9" s="15">
+      <c r="O9" s="15">
         <v>100</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="15"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="8"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="33"/>
-      <c r="B10" s="8" t="s">
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="8"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="D10" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>292</v>
+        <v>69</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="6">
+      <c r="H10" s="6">
         <v>41743</v>
       </c>
-      <c r="J10" s="6" t="str">
+      <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 0 meses 15 dias</v>
+        <v>8 anos, 0 meses 21 dias</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="6">
+      <c r="N10" s="6">
         <v>44548</v>
       </c>
-      <c r="P10" s="15">
+      <c r="O10" s="15">
         <v>100</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="P10" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="15"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="8"/>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="33"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="8"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="B11" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H11" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I11" s="6">
+      <c r="H11" s="6">
         <v>42374</v>
       </c>
-      <c r="J11" s="6" t="str">
+      <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 24 dias</v>
+        <v>6 anos, 3 meses 30 dias</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M11" s="6">
+      <c r="L11" s="6">
         <v>44583</v>
       </c>
+      <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="8"/>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="33"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="8"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="F12" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="44" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I12" s="53">
-        <v>41928</v>
-      </c>
-      <c r="J12" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 6 meses 13 dias</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="M12" s="6">
-        <v>44604</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="31" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="8"/>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="33"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="8"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="E13" s="33" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="33" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H13" s="42">
+        <v>42364</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" ref="I13" ca="1" si="1">DATEDIF(H13,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H13,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H13,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 4 meses 9 dias</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="8"/>
       <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="8"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="8"/>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -23312,12 +23331,11 @@
       <c r="AC14" s="33"/>
       <c r="AD14" s="33"/>
       <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-    </row>
-    <row r="15" spans="1:32">
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -23346,9 +23364,8 @@
       <c r="AC15" s="33"/>
       <c r="AD15" s="33"/>
       <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-    </row>
-    <row r="16" spans="1:32">
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -23380,9 +23397,8 @@
       <c r="AC16" s="33"/>
       <c r="AD16" s="33"/>
       <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-    </row>
-    <row r="17" spans="1:32">
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -23414,9 +23430,8 @@
       <c r="AC17" s="33"/>
       <c r="AD17" s="33"/>
       <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-    </row>
-    <row r="18" spans="1:32">
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -23448,9 +23463,8 @@
       <c r="AC18" s="33"/>
       <c r="AD18" s="33"/>
       <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-    </row>
-    <row r="19" spans="1:32">
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -23482,9 +23496,8 @@
       <c r="AC19" s="33"/>
       <c r="AD19" s="33"/>
       <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-    </row>
-    <row r="20" spans="1:32">
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -23516,48 +23529,13 @@
       <c r="AC20" s="33"/>
       <c r="AD20" s="33"/>
       <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-    </row>
-    <row r="21" spans="1:32">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">acertaram!$A$1:$F$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">APAGADOS!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ATIVOS!$A$2:$Z$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">caderneta!$A$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">caderneta!$A$1:$E$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CONTATEI!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NÃO!$A$1:$M$1</definedName>
@@ -48,7 +48,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="R41" authorId="0">
+    <comment ref="R38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1424">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3594,9 +3594,6 @@
     <t>Davi Ricardo Alves Piva</t>
   </si>
   <si>
-    <t>PAUSADO</t>
-  </si>
-  <si>
     <t>Cláudia Aparecida Alves</t>
   </si>
   <si>
@@ -3936,9 +3933,6 @@
     <t>Aluno, Sub07, Gustavo, César</t>
   </si>
   <si>
-    <t>Aluno, Sub07, Diogo, Pedro</t>
-  </si>
-  <si>
     <t>Aluno, Sub07, Eliane, Joaquim</t>
   </si>
   <si>
@@ -3963,9 +3957,6 @@
     <t>Aluno, Sub07, Jonas, Enzo Gabriel</t>
   </si>
   <si>
-    <t>Aluno, Sub07, Juliane, Gabriel</t>
-  </si>
-  <si>
     <t>Aluno, Sub07, ?, Yago</t>
   </si>
   <si>
@@ -4230,9 +4221,6 @@
     <t>33,10 bebidas</t>
   </si>
   <si>
-    <t>Aluno, Sub11, Tiago, Gabriel Diniz</t>
-  </si>
-  <si>
     <t>7,00 bebidas</t>
   </si>
   <si>
@@ -4302,7 +4290,58 @@
     <t>2 águas + 2 skol</t>
   </si>
   <si>
-    <t>22,50 (em haver mês passado)</t>
+    <t>100 uniforme</t>
+  </si>
+  <si>
+    <t>gustavo (sergio)</t>
+  </si>
+  <si>
+    <t>matteo / nicolas (marina)</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>bryan</t>
+  </si>
+  <si>
+    <t>(15) 99160-6387</t>
+  </si>
+  <si>
+    <t>1 cerveja + 1 gatorade</t>
+  </si>
+  <si>
+    <t>22,50 (acertou em haver mês passado)</t>
+  </si>
+  <si>
+    <t>2 gatorade + 1 cerveja</t>
+  </si>
+  <si>
+    <t>2 águas</t>
+  </si>
+  <si>
+    <t>2 gatorade</t>
+  </si>
+  <si>
+    <t>1 água + 2 amstel</t>
+  </si>
+  <si>
+    <t>1 cerveja + 1 água</t>
+  </si>
+  <si>
+    <t>2,5 + 2,5 + 2,5</t>
+  </si>
+  <si>
+    <t>1 água + 1 água + 1 água</t>
+  </si>
+  <si>
+    <t>1 água (ruan, cláudia disse para marcar para ela) + 2 águas (davi)</t>
+  </si>
+  <si>
+    <t>paulo</t>
   </si>
 </sst>
 </file>
@@ -4316,7 +4355,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4344,13 +4383,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4490,7 +4522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4609,7 +4641,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4624,15 +4655,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4998,10 +5031,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6552,7 +6585,7 @@
         <v>138</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G30" s="6">
         <v>40812</v>
@@ -10854,14 +10887,14 @@
         <v>334</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G136" s="42"/>
       <c r="H136" s="6">
         <v>44653</v>
       </c>
       <c r="I136" s="33" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="13.5" customHeight="1"/>
@@ -11731,8 +11764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11773,7 +11806,7 @@
         <v>173</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11815,7 +11848,7 @@
         <v>44638</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C5" s="33">
         <v>199.9</v>
@@ -11849,7 +11882,7 @@
         <v>44656</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C7" s="33">
         <v>199.9</v>
@@ -11866,7 +11899,7 @@
         <v>44657</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C8" s="33">
         <v>200</v>
@@ -11883,13 +11916,13 @@
         <v>44671</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C9" s="33">
         <v>100</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E9" s="76">
         <v>12</v>
@@ -11900,13 +11933,13 @@
         <v>44671</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C10" s="33">
         <v>73.33</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E10" s="76">
         <v>14</v>
@@ -11917,13 +11950,13 @@
         <v>44671</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C11" s="33">
         <v>100</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E11" s="76">
         <v>14</v>
@@ -11934,45 +11967,81 @@
         <v>44673</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C12" s="33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E12" s="76">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="76"/>
+      <c r="A13" s="42">
+        <v>44686</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C13" s="33">
+        <v>100</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C14" s="33">
+        <v>100</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>1362</v>
+      </c>
       <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="76"/>
+      <c r="A15" s="42">
+        <v>44685</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C15" s="33">
+        <v>200</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="76">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="76"/>
+      <c r="A16" s="42">
+        <v>44687</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C16" s="33">
+        <v>100</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E16" s="76">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="33"/>
@@ -12010,24 +12079,34 @@
       <c r="E21" s="76"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="76"/>
+      <c r="A22" s="42">
+        <v>44671</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C22" s="33">
+        <v>100</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E22" s="76">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="42">
         <v>44657</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C23" s="33">
         <v>100</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E23" s="76">
         <v>14</v>
@@ -12059,7 +12138,7 @@
         <v>200</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="E25" s="76">
         <v>12</v>
@@ -12070,13 +12149,13 @@
         <v>44660</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C26" s="33">
         <v>100</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E26" s="76">
         <v>16</v>
@@ -12087,13 +12166,13 @@
         <v>44660</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C27" s="33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E27" s="76">
         <v>12</v>
@@ -12119,29 +12198,33 @@
         <v>44660</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C29" s="33">
-        <v>200</v>
-      </c>
-      <c r="D29" s="33"/>
+        <v>100</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>1362</v>
+      </c>
       <c r="E29" s="76" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="42">
-        <v>44659</v>
+        <v>44687</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>1332</v>
+        <v>1411</v>
       </c>
       <c r="C30" s="33">
-        <v>200</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>100</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>173</v>
+      </c>
       <c r="E30" s="76">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -12211,7 +12294,7 @@
         <v>1121</v>
       </c>
       <c r="B1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12219,7 +12302,7 @@
         <v>1153</v>
       </c>
       <c r="B2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -12227,7 +12310,7 @@
         <v>1094</v>
       </c>
       <c r="B3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -12235,7 +12318,7 @@
         <v>1143</v>
       </c>
       <c r="B4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12243,7 +12326,7 @@
         <v>1138</v>
       </c>
       <c r="B5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -12251,7 +12334,7 @@
         <v>1137</v>
       </c>
       <c r="B6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -12259,7 +12342,7 @@
         <v>1141</v>
       </c>
       <c r="B7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -12267,7 +12350,7 @@
         <v>1122</v>
       </c>
       <c r="B8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -12275,23 +12358,23 @@
         <v>1139</v>
       </c>
       <c r="B9" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B10" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B11" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -12299,7 +12382,7 @@
         <v>1151</v>
       </c>
       <c r="B12" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -12307,15 +12390,15 @@
         <v>1155</v>
       </c>
       <c r="B13" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -12323,7 +12406,7 @@
         <v>1140</v>
       </c>
       <c r="B15" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -12331,7 +12414,7 @@
         <v>1152</v>
       </c>
       <c r="B16" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -12339,7 +12422,7 @@
         <v>1154</v>
       </c>
       <c r="B17" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -12347,7 +12430,7 @@
         <v>1144</v>
       </c>
       <c r="B18" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -12355,7 +12438,7 @@
         <v>1143</v>
       </c>
       <c r="B19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -12363,7 +12446,7 @@
         <v>1103</v>
       </c>
       <c r="B20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -12371,7 +12454,7 @@
         <v>1159</v>
       </c>
       <c r="B21" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -12379,47 +12462,47 @@
         <v>1146</v>
       </c>
       <c r="B22" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B23" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B24" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B25" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B26" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B27" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -12427,15 +12510,15 @@
         <v>1133</v>
       </c>
       <c r="B28" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12443,7 +12526,7 @@
         <v>1136</v>
       </c>
       <c r="B30" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -12451,7 +12534,7 @@
         <v>1101</v>
       </c>
       <c r="B31" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -12459,7 +12542,7 @@
         <v>1100</v>
       </c>
       <c r="B32" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -12467,7 +12550,7 @@
         <v>994</v>
       </c>
       <c r="B33" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -12475,7 +12558,7 @@
         <v>1012</v>
       </c>
       <c r="B34" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -12483,7 +12566,7 @@
         <v>1147</v>
       </c>
       <c r="B35" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -12491,7 +12574,7 @@
         <v>1160</v>
       </c>
       <c r="B36" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -12499,7 +12582,7 @@
         <v>1148</v>
       </c>
       <c r="B37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -12507,7 +12590,7 @@
         <v>1150</v>
       </c>
       <c r="B38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -12515,7 +12598,7 @@
         <v>1145</v>
       </c>
       <c r="B39" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
@@ -12546,7 +12629,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -12695,12 +12778,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ984"/>
+  <dimension ref="A1:AJ980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12714,10 +12796,10 @@
     <col min="7" max="7" width="11" style="33" customWidth="1"/>
     <col min="8" max="8" width="45.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="33" customWidth="1"/>
     <col min="11" max="11" width="22.5703125" style="33" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="84" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="83" customWidth="1"/>
     <col min="14" max="15" width="13.5703125" style="33" customWidth="1"/>
     <col min="16" max="17" width="10.7109375" style="33" customWidth="1"/>
     <col min="18" max="32" width="18.28515625" style="33" customWidth="1"/>
@@ -12727,49 +12809,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
       <c r="G1" s="81"/>
       <c r="H1" s="81"/>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
-      <c r="AG1" s="90" t="s">
+      <c r="AG1" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
@@ -12791,10 +12873,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -12808,14 +12890,14 @@
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="85" t="s">
-        <v>1382</v>
+      <c r="M2" s="84" t="s">
+        <v>1379</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="O2" s="87" t="s">
-        <v>1383</v>
+        <v>1378</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>1380</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>162</v>
@@ -12878,7 +12960,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:35" hidden="1">
+    <row r="3" spans="1:35">
       <c r="A3" s="8" t="s">
         <v>260</v>
       </c>
@@ -12896,17 +12978,17 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="31" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>134</v>
       </c>
       <c r="J3" s="6" t="str">
-        <f t="shared" ref="J3:J45" ca="1" si="0">DATEDIF(L3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L3,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 7 meses 10 dias</v>
+        <f t="shared" ref="J3:J42" ca="1" si="0">DATEDIF(L3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L3,TODAY(),"MD")&amp;" dias"</f>
+        <v>3 anos, 7 meses 17 dias</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>64</v>
@@ -12914,11 +12996,11 @@
       <c r="L3" s="6">
         <v>43368</v>
       </c>
-      <c r="M3" s="83">
+      <c r="M3" s="82">
         <v>18</v>
       </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="87" t="s">
         <v>18</v>
       </c>
       <c r="P3" s="8"/>
@@ -12953,17 +13035,17 @@
         <v>207</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="J4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 8 meses 26 dias</v>
+        <v>4 anos, 9 meses 2 dias</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>64</v>
@@ -12971,7 +13053,7 @@
       <c r="L4" s="68">
         <v>42956</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="83">
         <v>11</v>
       </c>
       <c r="N4" s="68"/>
@@ -12996,37 +13078,37 @@
       <c r="AH4" s="16"/>
       <c r="AI4" s="8"/>
     </row>
-    <row r="5" spans="1:35" hidden="1">
+    <row r="5" spans="1:35">
       <c r="A5" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>1225</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>1226</v>
-      </c>
       <c r="G5" s="31" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 10 dias</v>
+        <v>4 anos, 9 meses 17 dias</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>64</v>
@@ -13034,7 +13116,7 @@
       <c r="L5" s="30">
         <v>42941</v>
       </c>
-      <c r="M5" s="83">
+      <c r="M5" s="82">
         <v>19</v>
       </c>
       <c r="N5" s="30"/>
@@ -13062,7 +13144,7 @@
       <c r="AH5" s="16"/>
       <c r="AI5" s="8"/>
     </row>
-    <row r="6" spans="1:35" hidden="1">
+    <row r="6" spans="1:35">
       <c r="A6" s="8" t="s">
         <v>307</v>
       </c>
@@ -13074,17 +13156,17 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="31" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>143</v>
       </c>
       <c r="J6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 10 meses 19 dias</v>
+        <v>4 anos, 10 meses 26 dias</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>64</v>
@@ -13092,11 +13174,11 @@
       <c r="L6" s="6">
         <v>42902</v>
       </c>
-      <c r="M6" s="83">
+      <c r="M6" s="82">
         <v>18</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="Q6" s="8"/>
@@ -13139,17 +13221,17 @@
         <v>1077</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I7" s="61" t="s">
         <v>1076</v>
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 11 meses 13 dias</v>
+        <v>4 anos, 11 meses 20 dias</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>64</v>
@@ -13157,7 +13239,7 @@
       <c r="L7" s="30">
         <v>42877</v>
       </c>
-      <c r="M7" s="83">
+      <c r="M7" s="82">
         <v>18</v>
       </c>
       <c r="N7" s="30"/>
@@ -13185,7 +13267,7 @@
       <c r="AH7" s="16"/>
       <c r="AI7" s="8"/>
     </row>
-    <row r="8" spans="1:35" hidden="1">
+    <row r="8" spans="1:35">
       <c r="A8" s="8" t="s">
         <v>1169</v>
       </c>
@@ -13203,17 +13285,17 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="31" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>1168</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 1 dias</v>
+        <v>5 anos, 5 meses 8 dias</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>64</v>
@@ -13221,7 +13303,7 @@
       <c r="L8" s="30">
         <v>42707</v>
       </c>
-      <c r="M8" s="83">
+      <c r="M8" s="82">
         <v>5</v>
       </c>
       <c r="N8" s="30"/>
@@ -13267,17 +13349,17 @@
         <v>202</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>90</v>
       </c>
       <c r="J9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 6 meses 11 dias</v>
+        <v>5 anos, 6 meses 18 dias</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>64</v>
@@ -13285,11 +13367,11 @@
       <c r="L9" s="6">
         <v>42667</v>
       </c>
-      <c r="M9" s="83">
+      <c r="M9" s="82">
         <v>12</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="88"/>
+      <c r="O9" s="87"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -13329,7 +13411,7 @@
       <c r="AH9" s="16"/>
       <c r="AI9" s="8"/>
     </row>
-    <row r="10" spans="1:35" hidden="1">
+    <row r="10" spans="1:35">
       <c r="A10" s="8" t="s">
         <v>238</v>
       </c>
@@ -13349,17 +13431,17 @@
         <v>243</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>244</v>
       </c>
       <c r="J10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 19 dias</v>
+        <v>5 anos, 7 meses 26 dias</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>64</v>
@@ -13367,11 +13449,11 @@
       <c r="L10" s="6">
         <v>42629</v>
       </c>
-      <c r="M10" s="83">
+      <c r="M10" s="82">
         <v>26</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="88" t="s">
+      <c r="O10" s="87" t="s">
         <v>18</v>
       </c>
       <c r="P10" s="6">
@@ -13403,70 +13485,76 @@
       <c r="AH10" s="16"/>
       <c r="AI10" s="8"/>
     </row>
-    <row r="11" spans="1:35" hidden="1">
+    <row r="11" spans="1:35">
       <c r="A11" s="8" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>251</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="31" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1288</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J11" s="8" t="str">
+        <v>1287</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 24 dias</v>
+        <v>5 anos, 10 meses 2 dias</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>64</v>
       </c>
       <c r="L11" s="6">
-        <v>42562</v>
-      </c>
-      <c r="M11" s="83">
-        <v>4</v>
+        <v>42560</v>
+      </c>
+      <c r="M11" s="82">
+        <v>11</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="6">
-        <v>44583</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="17">
-        <v>44596</v>
+      <c r="O11" s="6"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="6">
+        <v>44534</v>
       </c>
       <c r="S11" s="15">
         <v>99.9</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="U11" s="6">
+        <v>44576</v>
+      </c>
+      <c r="V11" s="15">
+        <v>100</v>
+      </c>
+      <c r="W11" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="8"/>
+      <c r="X11" s="42">
+        <v>44603</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>129.9</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>173</v>
+      </c>
       <c r="AA11" s="8"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="8"/>
@@ -13477,79 +13565,81 @@
       <c r="AH11" s="16"/>
       <c r="AI11" s="8"/>
     </row>
-    <row r="12" spans="1:35" hidden="1">
+    <row r="12" spans="1:35">
       <c r="A12" s="8" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>222</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="31" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="J12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 26 dias</v>
+        <v>5 anos, 10 meses 22 dias</v>
       </c>
       <c r="K12" s="31" t="s">
         <v>64</v>
       </c>
       <c r="L12" s="6">
-        <v>42560</v>
-      </c>
-      <c r="M12" s="83">
-        <v>11</v>
+        <v>42541</v>
+      </c>
+      <c r="M12" s="82">
+        <v>15</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="O12" s="87" t="s">
+        <v>18</v>
+      </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="6">
-        <v>44534</v>
+        <v>44485</v>
       </c>
       <c r="S12" s="15">
         <v>99.9</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="8"/>
+      <c r="U12" s="6">
+        <v>44513</v>
+      </c>
+      <c r="V12" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="W12" s="8"/>
+      <c r="X12" s="6">
+        <v>44541</v>
+      </c>
+      <c r="Y12" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="U12" s="6">
+      <c r="Z12" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA12" s="6">
         <v>44576</v>
       </c>
-      <c r="V12" s="15">
-        <v>100</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="X12" s="42">
-        <v>44603</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>129.9</v>
-      </c>
-      <c r="Z12" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="8"/>
+      <c r="AB12" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
@@ -13558,80 +13648,60 @@
       <c r="AI12" s="8"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>81</v>
+      <c r="A13" s="61" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>984</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="31" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="6" t="str">
+        <v>1288</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 15 dias</v>
+        <v>6 anos, 0 meses 20 dias</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="6">
-        <v>42541</v>
-      </c>
-      <c r="M13" s="83">
-        <v>15</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="88" t="s">
+      <c r="L13" s="30">
+        <v>42482</v>
+      </c>
+      <c r="M13" s="82">
         <v>18</v>
       </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="6">
-        <v>44485</v>
-      </c>
-      <c r="S13" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="6">
-        <v>44513</v>
-      </c>
-      <c r="V13" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="15"/>
       <c r="W13" s="8"/>
-      <c r="X13" s="6">
-        <v>44541</v>
-      </c>
-      <c r="Y13" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z13" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>44576</v>
-      </c>
-      <c r="AB13" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>194</v>
-      </c>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
@@ -13640,51 +13710,57 @@
       <c r="AI13" s="8"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="61" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>984</v>
+      <c r="A14" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="31" t="s">
+        <v>317</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="31" t="s">
         <v>1370</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J14" s="8" t="str">
+        <v>1289</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 13 dias</v>
+        <v>6 anos, 1 meses 0 dias</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>64</v>
       </c>
       <c r="L14" s="30">
-        <v>42482</v>
-      </c>
-      <c r="M14" s="83">
-        <v>18</v>
+        <v>42471</v>
+      </c>
+      <c r="M14" s="82">
+        <v>11</v>
       </c>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="8"/>
+      <c r="P14" s="6">
+        <v>44596</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="30">
+        <v>44603</v>
+      </c>
+      <c r="S14" s="15">
+        <v>100</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>179</v>
+      </c>
       <c r="U14" s="8"/>
       <c r="V14" s="15"/>
       <c r="W14" s="8"/>
@@ -13702,212 +13778,220 @@
       <c r="AI14" s="8"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="31" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="G15" s="31" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>1042</v>
+        <v>1279</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="J15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 24 dias</v>
+        <v>6 anos, 5 meses 12 dias</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="30">
-        <v>42471</v>
-      </c>
-      <c r="M15" s="83">
+      <c r="L15" s="6">
+        <v>42338</v>
+      </c>
+      <c r="M15" s="82">
         <v>11</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="6">
-        <v>44596</v>
-      </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="30">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="6">
+        <v>44507</v>
+      </c>
+      <c r="V15" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="W15" s="8"/>
+      <c r="X15" s="6">
+        <v>44534</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>44582</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD15" s="30">
         <v>44603</v>
       </c>
-      <c r="S15" s="15">
-        <v>100</v>
-      </c>
-      <c r="T15" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
+      <c r="AE15" s="8">
+        <v>129.9</v>
+      </c>
+      <c r="AF15" s="31" t="s">
+        <v>245</v>
+      </c>
       <c r="AG15" s="8"/>
       <c r="AH15" s="16"/>
       <c r="AI15" s="8"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>97</v>
+      <c r="A16" s="31" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>1003</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>207</v>
+        <v>1374</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J16" s="6" t="str">
+        <v>1290</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 5 meses 5 dias</v>
+        <v>6 anos, 6 meses 25 dias</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="6">
-        <v>42338</v>
-      </c>
-      <c r="M16" s="83">
-        <v>11</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="L16" s="30">
+        <v>42294</v>
+      </c>
+      <c r="M16" s="82">
+        <v>19</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="O16" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="15"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="6">
-        <v>44507</v>
-      </c>
-      <c r="V16" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="15"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="6">
-        <v>44534</v>
-      </c>
-      <c r="Y16" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="Z16" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>44582</v>
-      </c>
-      <c r="AB16" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD16" s="30">
-        <v>44603</v>
-      </c>
-      <c r="AE16" s="8">
-        <v>129.9</v>
-      </c>
-      <c r="AF16" s="31" t="s">
-        <v>245</v>
-      </c>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="8"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="31" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>1377</v>
-      </c>
+      <c r="A17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="31" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1292</v>
+        <v>73</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="J17" s="8" t="str">
+        <v>191</v>
+      </c>
+      <c r="J17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 18 dias</v>
+        <v>6 anos, 6 meses 27 dias</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="30">
-        <v>42294</v>
-      </c>
-      <c r="M17" s="83">
-        <v>19</v>
-      </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="62" t="s">
+      <c r="L17" s="6">
+        <v>42292</v>
+      </c>
+      <c r="M17" s="82">
+        <v>12</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="87" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="8"/>
+      <c r="R17" s="6">
+        <v>44520</v>
+      </c>
+      <c r="S17" s="15">
+        <v>100</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U17" s="6">
+        <v>44569</v>
+      </c>
+      <c r="V17" s="15">
+        <v>100</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="X17" s="8"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="8"/>
@@ -13921,69 +14005,47 @@
       <c r="AH17" s="16"/>
       <c r="AI17" s="8"/>
     </row>
-    <row r="18" spans="1:35" hidden="1">
-      <c r="A18" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>189</v>
-      </c>
+    <row r="18" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>190</v>
+        <v>1271</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="31" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>73</v>
+        <v>1291</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>191</v>
+        <v>1258</v>
       </c>
       <c r="J18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 20 dias</v>
+        <v>6 anos, 7 meses 17 dias</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="6">
-        <v>42292</v>
-      </c>
-      <c r="M18" s="83">
-        <v>12</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="88" t="s">
-        <v>18</v>
-      </c>
+      <c r="L18" s="68">
+        <v>42272</v>
+      </c>
+      <c r="M18" s="85">
+        <v>44621</v>
+      </c>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="6">
-        <v>44520</v>
-      </c>
-      <c r="S18" s="15">
-        <v>100</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="U18" s="6">
-        <v>44569</v>
-      </c>
-      <c r="V18" s="15">
-        <v>100</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="8"/>
@@ -13997,39 +14059,47 @@
       <c r="AH18" s="16"/>
       <c r="AI18" s="8"/>
     </row>
-    <row r="19" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+    <row r="19" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="E19" s="8" t="s">
-        <v>1272</v>
+        <v>86</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="31" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>1259</v>
+        <v>84</v>
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 10 dias</v>
+        <v>6 anos, 9 meses 8 dias</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="68">
-        <v>42272</v>
-      </c>
-      <c r="M19" s="86">
-        <v>44621</v>
-      </c>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
+      <c r="L19" s="6">
+        <v>42219</v>
+      </c>
+      <c r="M19" s="82">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -14038,172 +14108,164 @@
       <c r="U19" s="8"/>
       <c r="V19" s="15"/>
       <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
+      <c r="X19" s="6">
+        <v>44527</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>100</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>44569</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD19" s="30">
+        <v>44603</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>100</v>
+      </c>
+      <c r="AF19" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="AG19" s="8"/>
       <c r="AH19" s="16"/>
       <c r="AI19" s="8"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:35" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>226</v>
+      </c>
       <c r="G20" s="31" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="J20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 1 dias</v>
+        <v>6 anos, 10 meses 27 dias</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>64</v>
       </c>
       <c r="L20" s="6">
-        <v>42219</v>
-      </c>
-      <c r="M20" s="83">
-        <v>5</v>
+        <v>42170</v>
+      </c>
+      <c r="M20" s="82">
+        <v>1</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="6">
-        <v>44527</v>
+      <c r="R20" s="6">
+        <v>44541</v>
+      </c>
+      <c r="S20" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U20" s="6">
+        <v>44569</v>
+      </c>
+      <c r="V20" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" s="30">
+        <v>44597</v>
       </c>
       <c r="Y20" s="15">
-        <v>100</v>
-      </c>
-      <c r="Z20" s="15" t="s">
+        <v>99.9</v>
+      </c>
+      <c r="Z20" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AA20" s="6">
-        <v>44569</v>
-      </c>
-      <c r="AB20" s="15">
-        <v>100</v>
-      </c>
-      <c r="AC20" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD20" s="30">
-        <v>44603</v>
-      </c>
-      <c r="AE20" s="8">
-        <v>100</v>
-      </c>
-      <c r="AF20" s="31" t="s">
-        <v>173</v>
-      </c>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="16"/>
       <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>226</v>
-      </c>
+    <row r="21" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="31" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="6" t="str">
+        <v>1255</v>
+      </c>
+      <c r="J21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 10 meses 20 dias</v>
+        <v>7 anos, 0 meses 29 dias</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="6">
-        <v>42170</v>
-      </c>
-      <c r="M21" s="83">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="L21" s="68">
+        <v>42107</v>
+      </c>
+      <c r="M21" s="85">
+        <v>44617</v>
+      </c>
+      <c r="N21" s="68"/>
+      <c r="O21" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="6">
-        <v>44541</v>
-      </c>
-      <c r="S21" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="T21" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="U21" s="6">
-        <v>44569</v>
-      </c>
-      <c r="V21" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="X21" s="30">
-        <v>44597</v>
-      </c>
-      <c r="Y21" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="Z21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA21" s="6"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
@@ -14214,172 +14276,159 @@
       <c r="AI21" s="8"/>
     </row>
     <row r="22" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>1272</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="31" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J22" s="8" t="str">
+        <v>1276</v>
+      </c>
+      <c r="J22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 22 dias</v>
+        <v>7 anos, 3 meses 27 dias</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="68">
-        <v>42107</v>
-      </c>
-      <c r="M22" s="86">
-        <v>44617</v>
-      </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="8"/>
-    </row>
-    <row r="23" spans="1:35" ht="15.75" hidden="1" customHeight="1">
+      <c r="L22" s="30">
+        <v>42019</v>
+      </c>
+      <c r="M22" s="49">
+        <v>44660</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:35" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>216</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="8"/>
+        <v>63</v>
+      </c>
       <c r="G23" s="31" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>218</v>
+        <v>1366</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>1256</v>
       </c>
       <c r="J23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 2 meses 30 dias</v>
+        <v>7 anos, 8 meses 15 dias</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="6">
-        <v>42040</v>
+        <v>21</v>
+      </c>
+      <c r="L23" s="68">
+        <v>41878</v>
       </c>
       <c r="M23" s="83">
-        <v>29</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="68"/>
+      <c r="O23" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="6">
-        <v>44499</v>
-      </c>
-      <c r="S23" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="U23" s="6">
-        <v>44541</v>
-      </c>
-      <c r="V23" s="15">
-        <v>100</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="X23" s="30">
-        <v>44583</v>
-      </c>
-      <c r="Y23" s="15">
-        <v>100</v>
-      </c>
-      <c r="Z23" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="8"/>
-    </row>
-    <row r="24" spans="1:35" ht="15.75" hidden="1" customHeight="1">
+    </row>
+    <row r="24" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A24" s="31" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="E24" s="8" t="s">
-        <v>1273</v>
+        <v>57</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="42" t="s">
         <v>1371</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="I24" s="31" t="s">
-        <v>1277</v>
+      <c r="I24" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="J24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 3 meses 20 dias</v>
+        <v>8 anos, 8 meses 7 dias</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="30">
-        <v>42019</v>
-      </c>
-      <c r="M24" s="49">
-        <v>44660</v>
-      </c>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="1:35" ht="15.75" hidden="1" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6">
+        <v>41521</v>
+      </c>
+      <c r="M24" s="82">
+        <v>4</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="6">
+        <v>44506</v>
+      </c>
+      <c r="V24" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="W24" s="8"/>
+      <c r="X24" s="6">
+        <v>44534</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>44569</v>
+      </c>
+      <c r="AB24" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="AC24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD24" s="30">
+        <v>44597</v>
+      </c>
+      <c r="AE24" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="AF24" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="8"/>
+    </row>
+    <row r="25" spans="1:35" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>60</v>
       </c>
@@ -14391,177 +14440,162 @@
       <c r="E25" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="31" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>1257</v>
+        <v>1366</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="J25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 8 meses 8 dias</v>
+        <v>9 anos, 4 meses 23 dias</v>
       </c>
       <c r="K25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="68">
-        <v>41878</v>
-      </c>
-      <c r="M25" s="84">
+      <c r="L25" s="6">
+        <v>41262</v>
+      </c>
+      <c r="M25" s="82">
         <v>30</v>
       </c>
-      <c r="N25" s="68"/>
-      <c r="O25" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="6">
+        <v>44540</v>
+      </c>
+      <c r="S25" s="15">
+        <v>100</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U25" s="8"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="6">
+        <v>44569</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="8"/>
     </row>
     <row r="26" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A26" s="31" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="42" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>55</v>
+        <v>1299</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>1260</v>
       </c>
       <c r="J26" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 8 meses 0 dias</v>
+        <v>9 anos, 7 meses 25 dias</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="6">
-        <v>41521</v>
-      </c>
-      <c r="M26" s="83">
-        <v>4</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="L26" s="68">
+        <v>41169</v>
+      </c>
+      <c r="M26" s="49">
+        <v>44646</v>
+      </c>
+      <c r="N26" s="68"/>
+      <c r="O26" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="15"/>
       <c r="T26" s="8"/>
-      <c r="U26" s="6">
-        <v>44506</v>
-      </c>
-      <c r="V26" s="15">
-        <v>99.9</v>
-      </c>
+      <c r="U26" s="8"/>
+      <c r="V26" s="15"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="6">
-        <v>44534</v>
-      </c>
-      <c r="Y26" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="Z26" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>44569</v>
-      </c>
-      <c r="AB26" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="AC26" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD26" s="30">
-        <v>44597</v>
-      </c>
-      <c r="AE26" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="AF26" s="31" t="s">
-        <v>219</v>
-      </c>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="16"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" hidden="1" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>60</v>
-      </c>
+    <row r="27" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="31" t="s">
-        <v>1369</v>
+      <c r="G27" s="42" t="s">
+        <v>1371</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="6" t="str">
+        <v>1300</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 4 meses 16 dias</v>
+        <v>9 anos, 10 meses 7 dias</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="6">
-        <v>41262</v>
-      </c>
-      <c r="M27" s="83">
-        <v>30</v>
-      </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="L27" s="30">
+        <v>41094</v>
+      </c>
+      <c r="M27" s="49">
+        <v>44646</v>
+      </c>
+      <c r="N27" s="30"/>
+      <c r="O27" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="6">
-        <v>44540</v>
-      </c>
-      <c r="S27" s="15">
-        <v>100</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="R27" s="8"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="15"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="6">
-        <v>44569</v>
-      </c>
-      <c r="Y27" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="Z27" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="8"/>
@@ -14573,52 +14607,30 @@
       <c r="AI27" s="8"/>
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
       <c r="G28" s="42" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>1261</v>
+        <v>1371</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>1253</v>
       </c>
       <c r="J28" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 7 meses 18 dias</v>
+        <v>9 anos, 11 meses 20 dias</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="68">
-        <v>41169</v>
-      </c>
-      <c r="M28" s="49">
-        <v>44646</v>
-      </c>
-      <c r="N28" s="68"/>
-      <c r="O28" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="8"/>
+      <c r="L28" s="42">
+        <v>41051</v>
+      </c>
+      <c r="M28" s="83">
+        <v>11</v>
+      </c>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
@@ -14627,38 +14639,44 @@
       <c r="AI28" s="8"/>
     </row>
     <row r="29" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1177</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="42" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1303</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>1249</v>
+        <v>1302</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>1173</v>
       </c>
       <c r="J29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 0 dias</v>
+        <v>9 anos, 11 meses 24 dias</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="30">
-        <v>41094</v>
-      </c>
-      <c r="M29" s="49">
-        <v>44646</v>
+        <v>41047</v>
+      </c>
+      <c r="M29" s="82">
+        <v>5</v>
       </c>
       <c r="N29" s="30"/>
-      <c r="O29" s="62" t="s">
-        <v>18</v>
-      </c>
+      <c r="O29" s="30"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
@@ -14681,30 +14699,60 @@
       <c r="AI29" s="8"/>
     </row>
     <row r="30" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A30" s="31" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="42" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J30" s="6" t="str">
+        <v>1371</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 13 dias</v>
+        <v>10 anos, 0 meses 9 dias</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="42">
-        <v>41051</v>
-      </c>
-      <c r="M30" s="84">
-        <v>11</v>
-      </c>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
+      <c r="L30" s="68">
+        <v>41031</v>
+      </c>
+      <c r="M30" s="83">
+        <v>1</v>
+      </c>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
@@ -14713,44 +14761,38 @@
       <c r="AI30" s="8"/>
     </row>
     <row r="31" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>1178</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="42" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>1173</v>
+        <v>1304</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>1250</v>
       </c>
       <c r="J31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 17 dias</v>
+        <v>10 anos, 2 meses 8 dias</v>
       </c>
       <c r="K31" s="31" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="30">
-        <v>41047</v>
-      </c>
-      <c r="M31" s="83">
+        <v>40971</v>
+      </c>
+      <c r="M31" s="82">
         <v>5</v>
       </c>
       <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
+      <c r="O31" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -14773,97 +14815,159 @@
       <c r="AI31" s="8"/>
     </row>
     <row r="32" spans="1:35" ht="15.75" customHeight="1">
-      <c r="E32" s="33" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42" t="s">
-        <v>1370</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>1267</v>
+      <c r="A32" s="33" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="31" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>1357</v>
       </c>
       <c r="J32" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 28 dias</v>
+        <v>10 anos, 3 meses 12 dias</v>
       </c>
       <c r="K32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="42">
-        <v>41036</v>
-      </c>
-      <c r="M32" s="86">
-        <v>44657</v>
-      </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="78" t="s">
-        <v>18</v>
-      </c>
+      <c r="L32" s="68">
+        <v>40938</v>
+      </c>
+      <c r="M32" s="83">
+        <v>16</v>
+      </c>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="8"/>
     </row>
     <row r="33" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A33" s="31" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="G33" s="42" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>1126</v>
-      </c>
-      <c r="J33" s="8" t="str">
+        <v>24</v>
+      </c>
+      <c r="J33" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 0 meses 2 dias</v>
+        <v>10 anos, 5 meses 14 dias</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="68">
-        <v>41031</v>
-      </c>
-      <c r="M33" s="84">
-        <v>1</v>
-      </c>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
+      <c r="L33" s="6">
+        <v>40875</v>
+      </c>
+      <c r="M33" s="82">
+        <v>10</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="15"/>
+      <c r="R33" s="6">
+        <v>44479</v>
+      </c>
+      <c r="S33" s="15">
+        <v>119.9</v>
+      </c>
       <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="15"/>
+      <c r="U33" s="6">
+        <v>44506</v>
+      </c>
+      <c r="V33" s="15">
+        <v>120</v>
+      </c>
       <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="16"/>
+      <c r="X33" s="6">
+        <v>44540</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>129</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>44569</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>110</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>44602</v>
+      </c>
+      <c r="AE33" s="15">
+        <v>129.9</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>44479</v>
+      </c>
+      <c r="AH33" s="16">
+        <v>200</v>
+      </c>
       <c r="AI33" s="8"/>
     </row>
     <row r="34" spans="1:36" ht="15.75" customHeight="1">
@@ -14874,28 +14978,25 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="42" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J34" s="8" t="str">
+        <v>1263</v>
+      </c>
+      <c r="J34" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 1 dias</v>
+        <v>10 anos, 10 meses 3 dias</v>
       </c>
       <c r="K34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="30">
-        <v>40971</v>
-      </c>
-      <c r="M34" s="83">
-        <v>5</v>
-      </c>
-      <c r="N34" s="30"/>
+      <c r="L34" s="68">
+        <v>40732</v>
+      </c>
+      <c r="N34" s="68"/>
       <c r="O34" s="62" t="s">
         <v>18</v>
       </c>
@@ -14920,58 +15021,66 @@
       <c r="AH34" s="16"/>
       <c r="AI34" s="8"/>
     </row>
-    <row r="35" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A35" s="33" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>1359</v>
-      </c>
+    <row r="35" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="31" t="s">
-        <v>1275</v>
+        <v>33</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="31" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>1361</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>1360</v>
+        <v>1366</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>1257</v>
       </c>
       <c r="J35" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 5 dias</v>
+        <v>10 anos, 9 meses 9 dias</v>
       </c>
       <c r="K35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="68">
+        <v>40757</v>
+      </c>
+      <c r="M35" s="83">
         <v>21</v>
       </c>
-      <c r="L35" s="68">
-        <v>40938</v>
-      </c>
-      <c r="M35" s="84">
-        <v>16</v>
-      </c>
       <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
+      <c r="O35" s="62" t="s">
+        <v>18</v>
+      </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="8"/>
+      <c r="R35" s="6">
+        <v>44492</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="U35" s="8"/>
       <c r="V35" s="15"/>
       <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="8"/>
+      <c r="X35" s="6">
+        <v>44540</v>
+      </c>
+      <c r="Y35" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="AA35" s="8"/>
       <c r="AB35" s="15"/>
       <c r="AC35" s="8"/>
@@ -14984,128 +15093,111 @@
     </row>
     <row r="36" spans="1:36" ht="15.75" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>1375</v>
+        <v>236</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>1366</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>24</v>
+        <v>1310</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>237</v>
       </c>
       <c r="J36" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 5 meses 7 dias</v>
-      </c>
-      <c r="K36" s="31" t="s">
-        <v>21</v>
+        <v>11 anos, 3 meses 30 dias</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="L36" s="6">
-        <v>40875</v>
-      </c>
-      <c r="M36" s="83">
-        <v>10</v>
+        <v>40555</v>
+      </c>
+      <c r="M36" s="82">
+        <v>15</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="P36" s="6">
+        <v>44569</v>
+      </c>
+      <c r="Q36" s="6"/>
       <c r="R36" s="6">
-        <v>44479</v>
+        <v>44576</v>
       </c>
       <c r="S36" s="15">
-        <v>119.9</v>
-      </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="6">
-        <v>44506</v>
-      </c>
-      <c r="V36" s="15">
-        <v>120</v>
-      </c>
+        <v>99.9</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U36" s="8"/>
+      <c r="V36" s="15"/>
       <c r="W36" s="8"/>
-      <c r="X36" s="6">
-        <v>44540</v>
-      </c>
-      <c r="Y36" s="15">
-        <v>129</v>
-      </c>
-      <c r="Z36" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA36" s="6">
-        <v>44569</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>110</v>
-      </c>
-      <c r="AC36" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD36" s="6">
-        <v>44602</v>
-      </c>
-      <c r="AE36" s="15">
-        <v>129.9</v>
-      </c>
-      <c r="AF36" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG36" s="6">
-        <v>44479</v>
-      </c>
-      <c r="AH36" s="16">
-        <v>200</v>
-      </c>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="16"/>
       <c r="AI36" s="8"/>
     </row>
     <row r="37" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="31" t="s">
+        <v>1261</v>
+      </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>1412</v>
+      </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="42" t="s">
-        <v>1374</v>
+      <c r="G37" s="31" t="s">
+        <v>1366</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="J37" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 9 meses 27 dias</v>
+        <v>11 anos, 4 meses 1 dias</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="68">
-        <v>40732</v>
-      </c>
-      <c r="N37" s="68"/>
-      <c r="O37" s="62" t="s">
-        <v>18</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L37" s="30">
+        <v>40553</v>
+      </c>
+      <c r="M37" s="49">
+        <v>44618</v>
+      </c>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -15127,48 +15219,58 @@
       <c r="AH37" s="16"/>
       <c r="AI37" s="8"/>
     </row>
-    <row r="38" spans="1:36" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="G38" s="31" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>1258</v>
+        <v>231</v>
       </c>
       <c r="J38" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 9 meses 2 dias</v>
-      </c>
-      <c r="K38" s="31" t="s">
+        <v>12 anos, 6 meses 11 dias</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="68">
-        <v>40757</v>
-      </c>
-      <c r="M38" s="84">
-        <v>21</v>
-      </c>
-      <c r="N38" s="68"/>
-      <c r="O38" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="L38" s="6">
+        <v>40117</v>
+      </c>
+      <c r="M38" s="82">
+        <v>15</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6">
+        <v>44569</v>
+      </c>
+      <c r="Q38" s="6"/>
       <c r="R38" s="6">
-        <v>44492</v>
-      </c>
-      <c r="S38" s="15" t="s">
-        <v>178</v>
+        <v>44569</v>
+      </c>
+      <c r="S38" s="15">
+        <v>100</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>173</v>
@@ -15176,15 +15278,9 @@
       <c r="U38" s="8"/>
       <c r="V38" s="15"/>
       <c r="W38" s="8"/>
-      <c r="X38" s="6">
-        <v>44540</v>
-      </c>
-      <c r="Y38" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z38" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="8"/>
@@ -15195,71 +15291,77 @@
       <c r="AH38" s="16"/>
       <c r="AI38" s="8"/>
     </row>
-    <row r="39" spans="1:36" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="J39" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 3 meses 23 dias</v>
+        <v>12 anos, 11 meses 8 dias</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L39" s="6">
-        <v>40555</v>
-      </c>
-      <c r="M39" s="83">
-        <v>15</v>
+        <v>39967</v>
+      </c>
+      <c r="M39" s="82">
+        <v>19</v>
       </c>
       <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6">
-        <v>44569</v>
-      </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6">
-        <v>44576</v>
-      </c>
-      <c r="S39" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="O39" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="15"/>
       <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="8"/>
+      <c r="X39" s="6">
+        <v>44536</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>100</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>44573</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>100</v>
+      </c>
+      <c r="AC39" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
       <c r="AF39" s="8"/>
@@ -15267,50 +15369,76 @@
       <c r="AH39" s="16"/>
       <c r="AI39" s="8"/>
     </row>
-    <row r="40" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A40" s="31" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+    <row r="40" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="31" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>1253</v>
+        <v>1307</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="J40" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 3 meses 25 dias</v>
-      </c>
-      <c r="K40" s="31" t="s">
+        <v>14 anos, 0 meses 17 dias</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="30">
-        <v>40553</v>
-      </c>
-      <c r="M40" s="49">
-        <v>44618</v>
-      </c>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
+      <c r="L40" s="6">
+        <v>39563</v>
+      </c>
+      <c r="M40" s="82">
+        <v>16</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="8"/>
+      <c r="R40" s="6">
+        <v>44516</v>
+      </c>
+      <c r="S40" s="15">
+        <v>99.9</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="U40" s="6">
+        <v>44546</v>
+      </c>
+      <c r="V40" s="15">
+        <v>100</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="X40" s="6">
+        <v>44578</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>100</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="8"/>
@@ -15321,65 +15449,63 @@
       <c r="AH40" s="16"/>
       <c r="AI40" s="8"/>
     </row>
-    <row r="41" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>229</v>
-      </c>
+    <row r="41" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A41" s="31" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="31" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1312</v>
+        <v>39</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="J41" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 6 meses 4 dias</v>
+        <v>14 anos, 3 meses 25 dias</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="6">
-        <v>40117</v>
-      </c>
-      <c r="M41" s="83">
-        <v>15</v>
-      </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6">
-        <v>44569</v>
-      </c>
-      <c r="Q41" s="6"/>
+      <c r="L41" s="30">
+        <v>39464</v>
+      </c>
+      <c r="M41" s="82">
+        <v>12</v>
+      </c>
+      <c r="N41" s="30"/>
+      <c r="O41" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
       <c r="R41" s="6">
-        <v>44569</v>
+        <v>44541</v>
       </c>
       <c r="S41" s="15">
         <v>100</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="U41" s="8"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="8"/>
+        <v>179</v>
+      </c>
+      <c r="U41" s="6">
+        <v>44576</v>
+      </c>
+      <c r="V41" s="15">
+        <v>100</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="X41" s="8"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="8"/>
@@ -15393,49 +15519,34 @@
       <c r="AH41" s="16"/>
       <c r="AI41" s="8"/>
     </row>
-    <row r="42" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>171</v>
+    <row r="42" spans="1:36" ht="15.75" customHeight="1">
+      <c r="E42" s="33" t="s">
+        <v>1271</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I42" s="43" t="s">
-        <v>172</v>
+        <v>1366</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>1259</v>
       </c>
       <c r="J42" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 11 meses 1 dias</v>
-      </c>
-      <c r="K42" s="8" t="s">
+        <v>14 anos, 9 meses 30 dias</v>
+      </c>
+      <c r="K42" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L42" s="6">
-        <v>39967</v>
-      </c>
-      <c r="M42" s="83">
-        <v>19</v>
-      </c>
-      <c r="N42" s="6"/>
-      <c r="O42" s="88" t="s">
+      <c r="L42" s="68">
+        <v>39275</v>
+      </c>
+      <c r="M42" s="85">
+        <v>44621</v>
+      </c>
+      <c r="N42" s="68"/>
+      <c r="O42" s="62" t="s">
         <v>18</v>
       </c>
       <c r="P42" s="8"/>
@@ -15446,24 +15557,12 @@
       <c r="U42" s="8"/>
       <c r="V42" s="15"/>
       <c r="W42" s="8"/>
-      <c r="X42" s="6">
-        <v>44536</v>
-      </c>
-      <c r="Y42" s="15">
-        <v>100</v>
-      </c>
-      <c r="Z42" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA42" s="6">
-        <v>44573</v>
-      </c>
-      <c r="AB42" s="15">
-        <v>100</v>
-      </c>
-      <c r="AC42" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
@@ -15471,328 +15570,125 @@
       <c r="AH42" s="16"/>
       <c r="AI42" s="8"/>
     </row>
-    <row r="43" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="31" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>1310</v>
-      </c>
-      <c r="I43" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="J43" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 0 meses 10 dias</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" s="6">
-        <v>39563</v>
-      </c>
-      <c r="M43" s="83">
-        <v>16</v>
-      </c>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="6">
-        <v>44516</v>
-      </c>
-      <c r="S43" s="15">
-        <v>99.9</v>
-      </c>
-      <c r="T43" s="8" t="s">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1">
+      <c r="G43" s="33" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" ht="15.75" customHeight="1">
+      <c r="G44" s="33" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ44" s="33"/>
+    </row>
+    <row r="45" spans="1:36" ht="15.75" customHeight="1">
+      <c r="G45" s="33" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AJ45" s="33"/>
+    </row>
+    <row r="46" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AJ46" s="33"/>
+    </row>
+    <row r="47" spans="1:36" ht="15.75" customHeight="1">
+      <c r="G47" s="8"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="AJ47" s="8"/>
+    </row>
+    <row r="48" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="8"/>
+    </row>
+    <row r="49" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="8"/>
+    </row>
+    <row r="50" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="52" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:35" ht="15.75" customHeight="1">
+      <c r="F53" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="6">
-        <v>44546</v>
-      </c>
-      <c r="V43" s="15">
-        <v>100</v>
-      </c>
-      <c r="W43" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="X43" s="6">
-        <v>44578</v>
-      </c>
-      <c r="Y43" s="15">
-        <v>100</v>
-      </c>
-      <c r="Z43" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="16"/>
-      <c r="AI43" s="8"/>
-    </row>
-    <row r="44" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="31" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="31" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 3 meses 18 dias</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" s="30">
-        <v>39464</v>
-      </c>
-      <c r="M44" s="83">
-        <v>12</v>
-      </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="6">
-        <v>44541</v>
-      </c>
-      <c r="S44" s="15">
-        <v>100</v>
-      </c>
-      <c r="T44" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="U44" s="6">
-        <v>44576</v>
-      </c>
-      <c r="V44" s="15">
-        <v>100</v>
-      </c>
-      <c r="W44" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="16"/>
-      <c r="AI44" s="8"/>
-    </row>
-    <row r="45" spans="1:36" ht="15.75" hidden="1" customHeight="1">
-      <c r="E45" s="33" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H45" s="33" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>1260</v>
-      </c>
-      <c r="J45" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 9 meses 23 dias</v>
-      </c>
-      <c r="K45" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" s="68">
-        <v>39275</v>
-      </c>
-      <c r="M45" s="86">
-        <v>44621</v>
-      </c>
-      <c r="N45" s="68"/>
-      <c r="O45" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="16"/>
-      <c r="AI45" s="8"/>
-    </row>
-    <row r="46" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:36" ht="15.75" customHeight="1">
-      <c r="AJ47" s="33"/>
-    </row>
-    <row r="48" spans="1:36" ht="15.75" customHeight="1">
-      <c r="AJ48" s="33"/>
-    </row>
-    <row r="49" spans="1:36" ht="15.75" customHeight="1">
-      <c r="AJ49" s="33"/>
-    </row>
-    <row r="50" spans="1:36" ht="15.75" customHeight="1">
-      <c r="F50" s="8" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="33" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="AJ50" s="8"/>
-    </row>
-    <row r="51" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="16"/>
-      <c r="AI51" s="8"/>
-    </row>
-    <row r="52" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="15"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="8"/>
-    </row>
-    <row r="53" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="16"/>
-      <c r="AI53" s="8"/>
-    </row>
-    <row r="54" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:36" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="54" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:35" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:35" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -16709,20 +16605,9 @@
     <row r="978" ht="15.75" customHeight="1"/>
     <row r="979" ht="15.75" customHeight="1"/>
     <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A2:Z45">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Quarta"/>
-        <filter val="Quarta/Sábado"/>
-        <filter val="Quarta/Sexta"/>
-        <filter val="Quarta/Sexta/Sábado"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="6"/>
     <filterColumn colId="7"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -16745,11 +16630,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C64:C103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31:C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16815,7 +16700,7 @@
         <v>44541</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C4" s="56">
         <v>100</v>
@@ -16829,7 +16714,7 @@
         <v>44576</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C5" s="56">
         <v>100</v>
@@ -16843,7 +16728,7 @@
         <v>44596</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C6" s="56">
         <v>99.9</v>
@@ -16852,7 +16737,7 @@
         <v>173</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -17099,7 +16984,7 @@
         <v>44611</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C23" s="56">
         <v>100</v>
@@ -17184,7 +17069,7 @@
         <v>173</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -17234,7 +17119,7 @@
         <v>44624</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C32" s="56">
         <v>141.4</v>
@@ -17243,7 +17128,7 @@
         <v>173</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -17251,7 +17136,7 @@
         <v>44624</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C33" s="56">
         <v>100</v>
@@ -17361,7 +17246,7 @@
         <v>173</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -17369,7 +17254,7 @@
         <v>44631</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C41" s="56">
         <v>143.9</v>
@@ -17378,7 +17263,7 @@
         <v>245</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -17409,7 +17294,7 @@
         <v>173</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -17417,7 +17302,7 @@
         <v>44636</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C44" s="56">
         <v>142.4</v>
@@ -17451,7 +17336,7 @@
         <v>44638</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C46" s="56">
         <v>99.9</v>
@@ -17480,7 +17365,7 @@
         <v>44669</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -17500,7 +17385,7 @@
         <v>44669</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -17508,7 +17393,7 @@
         <v>44639</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C49" s="56">
         <v>100</v>
@@ -17517,7 +17402,7 @@
         <v>179</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -17525,7 +17410,7 @@
         <v>44639</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C50" s="56">
         <v>129.9</v>
@@ -17539,7 +17424,7 @@
         <v>44639</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C51" s="56">
         <v>99.9</v>
@@ -17562,7 +17447,7 @@
         <v>173</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -17570,7 +17455,7 @@
         <v>44639</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C53" s="56">
         <v>140</v>
@@ -17579,7 +17464,7 @@
         <v>173</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -17587,7 +17472,7 @@
         <v>44641</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C54" s="56">
         <v>240.9</v>
@@ -17596,7 +17481,7 @@
         <v>173</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -17641,7 +17526,7 @@
         <v>185</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -17658,7 +17543,7 @@
         <v>173</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -17666,7 +17551,7 @@
         <v>44646</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C59" s="56">
         <v>100</v>
@@ -17694,7 +17579,7 @@
         <v>44648</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C61" s="56">
         <v>99.9</v>
@@ -17703,7 +17588,7 @@
         <v>173</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -17725,7 +17610,7 @@
         <v>44650</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C63" s="56">
         <v>100</v>
@@ -17739,7 +17624,7 @@
         <v>44652</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C64" s="56">
         <v>100</v>
@@ -17753,7 +17638,7 @@
         <v>44652</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C65" s="56">
         <v>100</v>
@@ -17767,7 +17652,7 @@
         <v>44653</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C66" s="56">
         <v>99</v>
@@ -17781,7 +17666,7 @@
         <v>44653</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C67" s="56">
         <v>129.9</v>
@@ -17809,7 +17694,7 @@
         <v>44656</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C69" s="56">
         <v>130</v>
@@ -17829,7 +17714,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -17865,7 +17750,7 @@
         <v>44657</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C73" s="56">
         <v>130</v>
@@ -17879,7 +17764,7 @@
         <v>44659</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C74" s="56">
         <v>129.9</v>
@@ -17899,7 +17784,7 @@
         <v>130</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>1164</v>
@@ -17910,7 +17795,7 @@
         <v>44660</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C76" s="56">
         <v>195</v>
@@ -17924,7 +17809,7 @@
         <v>44660</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C77" s="56">
         <v>99.9</v>
@@ -17947,7 +17832,7 @@
         <v>173</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -17964,7 +17849,7 @@
         <v>173</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -17981,7 +17866,7 @@
         <v>173</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -17989,7 +17874,7 @@
         <v>44664</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C81" s="56">
         <f>130 + 65 + 30 + 65</f>
@@ -17999,7 +17884,7 @@
         <v>245</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -18016,7 +17901,7 @@
         <v>245</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -18024,7 +17909,7 @@
         <v>44666</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C83" s="56">
         <v>129.9</v>
@@ -18033,7 +17918,7 @@
         <v>245</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -18055,7 +17940,7 @@
         <v>44667</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C85" s="56">
         <v>129.9</v>
@@ -18069,7 +17954,7 @@
         <v>44669</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C86" s="56">
         <v>129.9</v>
@@ -18078,7 +17963,7 @@
         <v>173</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -18095,7 +17980,7 @@
         <v>173</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -18117,7 +18002,7 @@
         <v>44673</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C89" s="56">
         <v>129.9</v>
@@ -18126,7 +18011,7 @@
         <v>173</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -18143,7 +18028,7 @@
         <v>173</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -18151,7 +18036,7 @@
         <v>44673</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C91" s="56">
         <v>100</v>
@@ -18165,7 +18050,7 @@
         <v>44673</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C92" s="56">
         <v>102.4</v>
@@ -18174,7 +18059,7 @@
         <v>245</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -18182,7 +18067,7 @@
         <v>44673</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C93" s="56">
         <v>130</v>
@@ -18210,7 +18095,7 @@
         <v>44674</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C95" s="56">
         <v>100</v>
@@ -18247,7 +18132,7 @@
         <v>173</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -18269,7 +18154,7 @@
         <v>44679</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C99" s="56">
         <v>129.9</v>
@@ -18278,7 +18163,7 @@
         <v>185</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -18286,7 +18171,7 @@
         <v>44679</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C100" s="56">
         <v>129.9</v>
@@ -18300,7 +18185,7 @@
         <v>44679</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C101" s="56">
         <v>130</v>
@@ -18314,7 +18199,7 @@
         <v>44680</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C102" s="56">
         <v>99.9</v>
@@ -18328,7 +18213,7 @@
         <v>44680</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C103" s="56">
         <v>130</v>
@@ -18342,7 +18227,7 @@
         <v>44683</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C104" s="56">
         <v>152.5</v>
@@ -18351,44 +18236,154 @@
         <v>173</v>
       </c>
       <c r="F104" s="33" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="B105" s="89"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="82">
-        <v>44680</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C114" s="56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="B115" s="33" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C115" s="56">
+      <c r="A105" s="42">
+        <v>44685</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C105" s="56">
+        <v>152.5</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="42">
+        <v>44686</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C106" s="56">
+        <v>129.9</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="42">
+        <v>44686</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C107" s="56">
         <v>130</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D107" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="42">
+        <v>44687</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C108" s="56">
+        <v>129.9</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="42">
+        <v>44687</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C109" s="56">
+        <v>180</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="42">
+        <v>44688</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C110" s="56">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="42">
+        <v>44688</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C111" s="56">
+        <v>130</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="42">
+        <v>44690</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C112" s="56">
+        <v>195</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="42">
+        <v>44690</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C113" s="56">
+        <v>150</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="B116" s="33" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C116" s="56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="B117" s="33" t="s">
-        <v>1349</v>
+        <v>1404</v>
       </c>
       <c r="C117" s="56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="B118" s="33" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C118" s="56">
         <v>129.9</v>
       </c>
     </row>
@@ -18404,11 +18399,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18434,64 +18430,67 @@
         <v>1166</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="42">
         <v>44625</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C2" s="56">
         <f xml:space="preserve"> 6.5 + 5</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" s="33" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="42">
         <v>44632</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C3" s="56">
         <f>2.5+2.5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="42">
         <v>44638</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C4" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="42">
         <v>44652</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C5" s="56">
         <v>2.5</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="42">
         <v>44653</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C6" s="56">
         <v>6.5</v>
@@ -18500,18 +18499,18 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="42">
         <v>44657</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C7" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="42">
         <v>44660</v>
       </c>
@@ -18522,25 +18521,25 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="42">
         <v>44660</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C9" s="56">
         <f xml:space="preserve"> 5 + 6.5 + 6.5 + 13</f>
         <v>31</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="42">
         <v>44664</v>
       </c>
@@ -18552,10 +18551,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="42">
         <v>44664</v>
       </c>
@@ -18566,10 +18565,10 @@
         <v>2.5</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="42">
         <v>44664</v>
       </c>
@@ -18581,7 +18580,7 @@
         <v>22.5</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -18596,13 +18595,13 @@
         <v>7.5</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="42">
         <v>44664</v>
       </c>
@@ -18612,11 +18611,14 @@
       <c r="C14" s="56">
         <v>6.5</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="59" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="42">
         <v>44667</v>
       </c>
@@ -18626,11 +18628,14 @@
       <c r="C15" s="56">
         <v>6.5</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="59" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="42">
         <v>44667</v>
       </c>
@@ -18642,10 +18647,10 @@
         <v>9.5</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="42">
         <v>44671</v>
       </c>
@@ -18656,7 +18661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="42">
         <v>44671</v>
       </c>
@@ -18666,8 +18671,11 @@
       <c r="C18" s="56">
         <v>2.5</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>1198</v>
+      <c r="D18" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -18682,13 +18690,13 @@
         <v>7.5</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="E19" s="76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="42">
         <v>44671</v>
       </c>
@@ -18700,10 +18708,10 @@
         <v>27.5</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="42">
         <v>44673</v>
       </c>
@@ -18714,11 +18722,14 @@
         <f>6.5</f>
         <v>6.5</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="59" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="42">
         <v>44673</v>
       </c>
@@ -18730,10 +18741,10 @@
         <v>9.5</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="42">
         <v>44673</v>
       </c>
@@ -18745,10 +18756,10 @@
         <v>16.5</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="42">
         <v>44674</v>
       </c>
@@ -18758,11 +18769,14 @@
       <c r="C24" s="56">
         <v>6.5</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="59" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" s="42">
         <v>44674</v>
       </c>
@@ -18774,10 +18788,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="42">
         <v>44674</v>
       </c>
@@ -18789,7 +18803,7 @@
         <v>2.5</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -18804,28 +18818,28 @@
         <v>17.5</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="E27" s="76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" s="42">
         <v>44674</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C28" s="56">
         <f>2.5</f>
         <v>2.5</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="42">
         <v>44674</v>
       </c>
@@ -18837,10 +18851,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="42">
         <v>44674</v>
       </c>
@@ -18852,10 +18866,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="42">
         <v>44678</v>
       </c>
@@ -18866,27 +18880,27 @@
         <v>5</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="42">
         <v>44678</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C32" s="56">
         <v>5</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" s="42">
         <v>44678</v>
       </c>
@@ -18898,7 +18912,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -18913,27 +18927,27 @@
         <v>7.5</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E34" s="76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="42">
         <v>44678</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C35" s="56">
         <v>2.5</v>
       </c>
       <c r="D35" s="76" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="42">
         <v>44678</v>
       </c>
@@ -18943,25 +18957,28 @@
       <c r="C36" s="56">
         <v>6.5</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="59" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="42">
         <v>44680</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C37" s="56">
         <v>2.5</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="42">
         <v>44680</v>
       </c>
@@ -18972,10 +18989,10 @@
         <v>2.5</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="42">
         <v>44680</v>
       </c>
@@ -18986,10 +19003,10 @@
         <v>2.5</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="42">
         <v>44680</v>
       </c>
@@ -19000,33 +19017,214 @@
         <v>2.5</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="42">
         <v>44681</v>
       </c>
       <c r="B41" s="33" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C41" s="56">
+        <f>6.5+6.5+5</f>
+        <v>18</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B42" s="33" t="s">
         <v>1101</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C42" s="56">
         <f>2.5+2.5+5+5</f>
         <v>15</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E41" s="76" t="s">
+      <c r="D42" s="33" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E42" s="76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="42"/>
+    <row r="43" spans="1:5" hidden="1">
+      <c r="A43" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C43" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E43" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1">
+      <c r="A44" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C44" s="56">
+        <v>5</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1">
+      <c r="A45" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C45" s="56">
+        <f>2.5+6.5</f>
+        <v>9</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1">
+      <c r="A46" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C46" s="56">
+        <f>6.5+6.5</f>
+        <v>13</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1">
+      <c r="A47" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C47" s="56">
+        <f>2.5 + 2.5</f>
+        <v>5</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1">
+      <c r="A48" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C48" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1">
+      <c r="A49" s="42">
+        <v>44681</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C49" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1">
+      <c r="A50" s="42">
+        <v>44685</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C50" s="56">
+        <f>2.5+5+5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
+      <c r="A51" s="42">
+        <v>44685</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E51" s="76" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1">
+      <c r="A52" s="42">
+        <v>44687</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C52" s="56">
+        <v>10</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1">
+      <c r="A53" s="42">
+        <v>44687</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C53" s="56">
+        <f>5+2.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>1419</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E41">
-    <filterColumn colId="1"/>
+  <autoFilter ref="A1:E53">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="pedro (marcelo)"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState ref="A2:E53">
     <sortCondition ref="A1"/>
@@ -19040,8 +19238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19098,36 +19296,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
-      <c r="A1" s="92">
+      <c r="A1" s="90">
         <v>44541</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90">
         <v>44548</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90">
         <v>44569</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90">
         <v>44576</v>
       </c>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92">
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90">
         <v>44583</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92" t="s">
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90" t="s">
         <v>951</v>
       </c>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
       <c r="S1" s="91">
         <v>44596</v>
       </c>
@@ -19164,41 +19362,41 @@
       </c>
       <c r="AK1" s="91"/>
       <c r="AL1" s="91"/>
-      <c r="AM1" s="92">
+      <c r="AM1" s="90">
         <v>44624</v>
       </c>
-      <c r="AN1" s="92"/>
+      <c r="AN1" s="90"/>
       <c r="AO1" s="91">
         <v>44625</v>
       </c>
       <c r="AP1" s="91"/>
       <c r="AQ1" s="91"/>
-      <c r="AS1" s="92">
+      <c r="AS1" s="90">
         <v>44631</v>
       </c>
-      <c r="AT1" s="92"/>
+      <c r="AT1" s="90"/>
       <c r="AU1" s="91">
         <v>44632</v>
       </c>
       <c r="AV1" s="91"/>
       <c r="AW1" s="91"/>
-      <c r="AY1" s="92">
+      <c r="AY1" s="90">
         <v>44638</v>
       </c>
-      <c r="AZ1" s="92"/>
+      <c r="AZ1" s="90"/>
       <c r="BA1" s="91">
         <v>44639</v>
       </c>
       <c r="BB1" s="91"/>
       <c r="BC1" s="91"/>
       <c r="BE1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BF1" t="s">
         <v>1072</v>
       </c>
       <c r="BG1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="13.5" customHeight="1">
@@ -19529,16 +19727,16 @@
         <v>1100</v>
       </c>
       <c r="BC3" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="BE3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="BF3" s="70" t="s">
         <v>1020</v>
       </c>
       <c r="BG3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="13.5" customHeight="1">
@@ -19694,7 +19892,7 @@
         <v>1133</v>
       </c>
       <c r="BC4" s="35" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="13.5" customHeight="1">
@@ -19847,10 +20045,10 @@
         <v>1151</v>
       </c>
       <c r="BB5" s="60" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="BC5" s="35" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="13.5" customHeight="1">
@@ -19965,7 +20163,7 @@
         <v>1138</v>
       </c>
       <c r="AN6" s="38" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AO6" s="35" t="s">
         <v>1141</v>
@@ -20112,13 +20310,13 @@
         <v>1101</v>
       </c>
       <c r="AL7" s="35" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AM7" s="35" t="s">
         <v>1139</v>
       </c>
       <c r="AN7" s="38" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AO7" s="35" t="s">
         <v>1137</v>
@@ -20150,7 +20348,7 @@
         <v>1140</v>
       </c>
       <c r="AZ7" s="74" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="BA7" s="60" t="s">
         <v>1152</v>
@@ -20250,7 +20448,7 @@
         <v>109</v>
       </c>
       <c r="AI8" s="74" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AJ8" s="35" t="s">
         <v>91</v>
@@ -20493,7 +20691,7 @@
       <c r="AF10" s="33"/>
       <c r="AG10" s="33"/>
       <c r="AH10" s="38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AI10" s="33"/>
       <c r="AJ10" s="60" t="s">
@@ -20524,7 +20722,7 @@
         <v>1012</v>
       </c>
       <c r="AU10" s="38" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AV10" s="35" t="s">
         <v>1148</v>
@@ -20633,14 +20831,14 @@
       </c>
       <c r="AX11" s="71"/>
       <c r="AY11" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AZ11" s="33"/>
       <c r="BA11" s="35" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="BB11" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="BC11" s="33"/>
     </row>
@@ -20717,19 +20915,19 @@
         <v>1152</v>
       </c>
       <c r="AV12" s="60" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AW12" s="74" t="s">
         <v>1206</v>
-      </c>
-      <c r="AW12" s="74" t="s">
-        <v>1207</v>
       </c>
       <c r="AX12" s="71"/>
       <c r="AY12" s="60" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AZ12" s="33"/>
       <c r="BA12" s="33"/>
       <c r="BB12" s="35" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="BC12" s="33"/>
     </row>
@@ -20800,14 +20998,14 @@
       <c r="AU13" s="33"/>
       <c r="AV13" s="58"/>
       <c r="AW13" s="74" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AX13" s="71"/>
       <c r="AY13" s="44"/>
       <c r="AZ13" s="44"/>
       <c r="BA13" s="33"/>
       <c r="BB13" s="35" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="BC13" s="44" t="s">
         <v>1132</v>
@@ -20889,7 +21087,7 @@
       <c r="AZ14" s="44"/>
       <c r="BA14" s="33"/>
       <c r="BB14" s="35" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="BC14" s="44" t="s">
         <v>1101</v>
@@ -20956,7 +21154,7 @@
       <c r="AU15" s="33"/>
       <c r="AV15" s="58"/>
       <c r="AW15" s="35" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AX15" s="71"/>
       <c r="AY15" s="33"/>
@@ -20964,10 +21162,10 @@
         <v>1149</v>
       </c>
       <c r="BA15" s="47" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="BB15" s="35" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="BC15" s="44" t="s">
         <v>1100</v>
@@ -21085,7 +21283,7 @@
       <c r="AS17" s="44"/>
       <c r="AT17" s="44"/>
       <c r="AU17" s="47" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AV17" s="58"/>
       <c r="AW17" s="44" t="s">
@@ -21095,7 +21293,7 @@
       <c r="AY17" s="33"/>
       <c r="AZ17" s="33"/>
       <c r="BA17" s="48" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="BB17" s="33"/>
       <c r="BC17" s="66" t="s">
@@ -21156,7 +21354,7 @@
       <c r="AW18" s="44"/>
       <c r="AX18" s="71"/>
       <c r="AY18" s="47" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AZ18" s="38" t="s">
         <v>1132</v>
@@ -21431,7 +21629,7 @@
       <c r="AU22" s="44"/>
       <c r="AV22" s="44"/>
       <c r="AW22" s="72" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AX22" s="71"/>
       <c r="AY22" s="44"/>
@@ -22468,12 +22666,6 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -22487,6 +22679,12 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -22498,7 +22696,7 @@
   <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22506,48 +22704,49 @@
     <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="90" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="90" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
@@ -22669,13 +22868,13 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I11" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 3 meses 9 dias</v>
+        <v>6 anos, 3 meses 16 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="61" t="s">
-        <v>1174</v>
+      <c r="K3" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -22739,7 +22938,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 10 meses 5 dias</v>
+        <v>7 anos, 10 meses 12 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>52</v>
@@ -22801,7 +23000,7 @@
       </c>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 11 meses 1 dias</v>
+        <v>10 anos, 11 meses 8 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -22863,7 +23062,7 @@
       </c>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 10 meses 14 dias</v>
+        <v>8 anos, 10 meses 21 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>52</v>
@@ -22921,7 +23120,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 4 meses 4 dias</v>
+        <v>122 anos, 4 meses 11 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>21</v>
@@ -22989,7 +23188,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 7 meses 9 dias</v>
+        <v>10 anos, 7 meses 16 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>21</v>
@@ -23051,7 +23250,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 9 meses 28 dias</v>
+        <v>13 anos, 10 meses 4 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>35</v>
@@ -23113,7 +23312,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 0 meses 21 dias</v>
+        <v>8 anos, 0 meses 28 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>52</v>
@@ -23175,7 +23374,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 30 dias</v>
+        <v>6 anos, 4 meses 6 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -23224,7 +23423,7 @@
       </c>
       <c r="H12" s="53"/>
       <c r="I12" s="31" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>64</v>
@@ -23259,18 +23458,18 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="33" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="33" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H13" s="42">
         <v>42364</v>
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ref="I13" ca="1" si="1">DATEDIF(H13,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H13,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H13,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 4 meses 9 dias</v>
+        <v>6 anos, 4 meses 16 dias</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>64</v>
@@ -23300,17 +23499,40 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="A14" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="6">
+        <v>42562</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f t="shared" ref="I14:I16" ca="1" si="2">DATEDIF(H14,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H14,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H14,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 10 meses 0 dias</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
@@ -23333,18 +23555,39 @@
       <c r="AE14" s="33"/>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
+      <c r="A15" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="6">
+        <v>42040</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>7 anos, 3 meses 6 dias</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="6"/>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
@@ -23370,14 +23613,29 @@
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>1264</v>
+      </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="G16" s="33" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H16" s="42">
+        <v>41036</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>10 anos, 0 meses 4 dias</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="85">
+        <v>44652</v>
+      </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
@@ -23410,7 +23668,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
@@ -24738,7 +24996,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="1426">
   <si>
     <t>atualizado em</t>
   </si>
@@ -4342,6 +4342,12 @@
   </si>
   <si>
     <t>paulo</t>
+  </si>
+  <si>
+    <t>Aluno, Sub07/15, Marina, Matteo/Nicolas</t>
+  </si>
+  <si>
+    <t>(15) 98112-4145</t>
   </si>
 </sst>
 </file>
@@ -4662,10 +4668,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12778,11 +12784,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ980"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12988,7 +12995,7 @@
       </c>
       <c r="J3" s="6" t="str">
         <f t="shared" ref="J3:J42" ca="1" si="0">DATEDIF(L3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L3,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 7 meses 17 dias</v>
+        <v>3 anos, 7 meses 19 dias</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>64</v>
@@ -13045,7 +13052,7 @@
       </c>
       <c r="J4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 2 dias</v>
+        <v>4 anos, 9 meses 4 dias</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>64</v>
@@ -13078,7 +13085,7 @@
       <c r="AH4" s="16"/>
       <c r="AI4" s="8"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" hidden="1">
       <c r="A5" s="8" t="s">
         <v>1220</v>
       </c>
@@ -13108,7 +13115,7 @@
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 9 meses 17 dias</v>
+        <v>4 anos, 9 meses 19 dias</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>64</v>
@@ -13166,7 +13173,7 @@
       </c>
       <c r="J6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 10 meses 26 dias</v>
+        <v>4 anos, 10 meses 28 dias</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>64</v>
@@ -13231,7 +13238,7 @@
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 11 meses 20 dias</v>
+        <v>4 anos, 11 meses 22 dias</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>64</v>
@@ -13267,7 +13274,7 @@
       <c r="AH7" s="16"/>
       <c r="AI7" s="8"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" hidden="1">
       <c r="A8" s="8" t="s">
         <v>1169</v>
       </c>
@@ -13295,7 +13302,7 @@
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 5 meses 8 dias</v>
+        <v>5 anos, 5 meses 10 dias</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>64</v>
@@ -13329,7 +13336,7 @@
       <c r="AH8" s="16"/>
       <c r="AI8" s="8"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" hidden="1">
       <c r="A9" s="8" t="s">
         <v>198</v>
       </c>
@@ -13359,7 +13366,7 @@
       </c>
       <c r="J9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 6 meses 18 dias</v>
+        <v>5 anos, 6 meses 20 dias</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>64</v>
@@ -13441,7 +13448,7 @@
       </c>
       <c r="J10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 26 dias</v>
+        <v>5 anos, 7 meses 28 dias</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>64</v>
@@ -13513,7 +13520,7 @@
       </c>
       <c r="J11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 2 dias</v>
+        <v>5 anos, 10 meses 4 dias</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>64</v>
@@ -13565,7 +13572,7 @@
       <c r="AH11" s="16"/>
       <c r="AI11" s="8"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" hidden="1">
       <c r="A12" s="8" t="s">
         <v>78</v>
       </c>
@@ -13591,7 +13598,7 @@
       </c>
       <c r="J12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 10 meses 22 dias</v>
+        <v>5 anos, 10 meses 24 dias</v>
       </c>
       <c r="K12" s="31" t="s">
         <v>64</v>
@@ -13675,7 +13682,7 @@
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 20 dias</v>
+        <v>6 anos, 0 meses 22 dias</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>64</v>
@@ -13709,7 +13716,7 @@
       <c r="AH13" s="16"/>
       <c r="AI13" s="8"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" hidden="1">
       <c r="A14" s="31" t="s">
         <v>1050</v>
       </c>
@@ -13735,7 +13742,7 @@
       </c>
       <c r="J14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 0 dias</v>
+        <v>6 anos, 1 meses 2 dias</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>64</v>
@@ -13807,7 +13814,7 @@
       </c>
       <c r="J15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 5 meses 12 dias</v>
+        <v>6 anos, 5 meses 14 dias</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>64</v>
@@ -13893,7 +13900,7 @@
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 25 dias</v>
+        <v>6 anos, 6 meses 27 dias</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>64</v>
@@ -13929,7 +13936,7 @@
       <c r="AH16" s="16"/>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" hidden="1">
       <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
@@ -13957,7 +13964,7 @@
       </c>
       <c r="J17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 27 dias</v>
+        <v>6 anos, 6 meses 29 dias</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>64</v>
@@ -14025,7 +14032,7 @@
       </c>
       <c r="J18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 17 dias</v>
+        <v>6 anos, 7 meses 19 dias</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>64</v>
@@ -14087,7 +14094,7 @@
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 8 dias</v>
+        <v>6 anos, 9 meses 10 dias</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>64</v>
@@ -14169,7 +14176,7 @@
       </c>
       <c r="J20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 10 meses 27 dias</v>
+        <v>6 anos, 10 meses 29 dias</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>64</v>
@@ -14221,7 +14228,7 @@
       <c r="AH20" s="16"/>
       <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="1:35" ht="15.75" customHeight="1">
+    <row r="21" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -14239,7 +14246,7 @@
       </c>
       <c r="J21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 29 dias</v>
+        <v>7 anos, 1 meses 0 dias</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>64</v>
@@ -14275,7 +14282,7 @@
       <c r="AH21" s="16"/>
       <c r="AI21" s="8"/>
     </row>
-    <row r="22" spans="1:35" ht="15.75" customHeight="1">
+    <row r="22" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="E22" s="8" t="s">
         <v>1272</v>
       </c>
@@ -14291,7 +14298,7 @@
       </c>
       <c r="J22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 3 meses 27 dias</v>
+        <v>7 anos, 3 meses 29 dias</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>64</v>
@@ -14328,7 +14335,7 @@
       </c>
       <c r="J23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 8 meses 15 dias</v>
+        <v>7 anos, 8 meses 17 dias</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>21</v>
@@ -14344,7 +14351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15.75" customHeight="1">
+    <row r="24" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>1297</v>
       </c>
@@ -14372,7 +14379,7 @@
       </c>
       <c r="J24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 8 meses 7 dias</v>
+        <v>8 anos, 8 meses 9 dias</v>
       </c>
       <c r="K24" s="31" t="s">
         <v>21</v>
@@ -14452,7 +14459,7 @@
       </c>
       <c r="J25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 4 meses 23 dias</v>
+        <v>9 anos, 4 meses 25 dias</v>
       </c>
       <c r="K25" s="31" t="s">
         <v>21</v>
@@ -14498,7 +14505,7 @@
       <c r="AH25" s="16"/>
       <c r="AI25" s="8"/>
     </row>
-    <row r="26" spans="1:35" ht="15.75" customHeight="1">
+    <row r="26" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -14516,7 +14523,7 @@
       </c>
       <c r="J26" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 7 meses 25 dias</v>
+        <v>9 anos, 7 meses 27 dias</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>21</v>
@@ -14552,7 +14559,7 @@
       <c r="AH26" s="16"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1">
+    <row r="27" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -14570,7 +14577,7 @@
       </c>
       <c r="J27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 7 dias</v>
+        <v>9 anos, 10 meses 9 dias</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>21</v>
@@ -14606,7 +14613,7 @@
       <c r="AH27" s="16"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" customHeight="1">
+    <row r="28" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="G28" s="42" t="s">
         <v>1371</v>
       </c>
@@ -14618,7 +14625,7 @@
       </c>
       <c r="J28" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 20 dias</v>
+        <v>9 anos, 11 meses 22 dias</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>21</v>
@@ -14638,7 +14645,7 @@
       <c r="AH28" s="16"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="1:35" ht="15.75" customHeight="1">
+    <row r="29" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>1174</v>
       </c>
@@ -14664,7 +14671,7 @@
       </c>
       <c r="J29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 24 dias</v>
+        <v>9 anos, 11 meses 26 dias</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>21</v>
@@ -14698,7 +14705,7 @@
       <c r="AH29" s="16"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="1:35" ht="15.75" customHeight="1">
+    <row r="30" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>1123</v>
       </c>
@@ -14726,7 +14733,7 @@
       </c>
       <c r="J30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 0 meses 9 dias</v>
+        <v>10 anos, 0 meses 11 dias</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>21</v>
@@ -14760,7 +14767,7 @@
       <c r="AH30" s="16"/>
       <c r="AI30" s="8"/>
     </row>
-    <row r="31" spans="1:35" ht="15.75" customHeight="1">
+    <row r="31" spans="1:35" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -14778,7 +14785,7 @@
       </c>
       <c r="J31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 8 dias</v>
+        <v>10 anos, 2 meses 10 dias</v>
       </c>
       <c r="K31" s="31" t="s">
         <v>21</v>
@@ -14842,7 +14849,7 @@
       </c>
       <c r="J32" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 12 dias</v>
+        <v>10 anos, 3 meses 14 dias</v>
       </c>
       <c r="K32" s="31" t="s">
         <v>21</v>
@@ -14906,7 +14913,7 @@
       </c>
       <c r="J33" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 5 meses 14 dias</v>
+        <v>10 anos, 5 meses 16 dias</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>21</v>
@@ -14970,7 +14977,7 @@
       </c>
       <c r="AI33" s="8"/>
     </row>
-    <row r="34" spans="1:36" ht="15.75" customHeight="1">
+    <row r="34" spans="1:36" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -14988,7 +14995,7 @@
       </c>
       <c r="J34" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 10 meses 3 dias</v>
+        <v>10 anos, 10 meses 5 dias</v>
       </c>
       <c r="K34" s="31" t="s">
         <v>21</v>
@@ -15043,7 +15050,7 @@
       </c>
       <c r="J35" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 9 meses 9 dias</v>
+        <v>10 anos, 9 meses 11 dias</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>35</v>
@@ -15121,7 +15128,7 @@
       </c>
       <c r="J36" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 3 meses 30 dias</v>
+        <v>11 anos, 4 meses 1 dias</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>35</v>
@@ -15185,7 +15192,7 @@
       </c>
       <c r="J37" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 4 meses 1 dias</v>
+        <v>11 anos, 4 meses 3 dias</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>35</v>
@@ -15249,7 +15256,7 @@
       </c>
       <c r="J38" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 6 meses 11 dias</v>
+        <v>12 anos, 6 meses 13 dias</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>35</v>
@@ -15321,7 +15328,7 @@
       </c>
       <c r="J39" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 11 meses 8 dias</v>
+        <v>12 anos, 11 meses 10 dias</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>35</v>
@@ -15397,7 +15404,7 @@
       </c>
       <c r="J40" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 0 meses 17 dias</v>
+        <v>14 anos, 0 meses 19 dias</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>35</v>
@@ -15449,7 +15456,7 @@
       <c r="AH40" s="16"/>
       <c r="AI40" s="8"/>
     </row>
-    <row r="41" spans="1:36" ht="15.75" customHeight="1">
+    <row r="41" spans="1:36" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="31" t="s">
         <v>1249</v>
       </c>
@@ -15471,7 +15478,7 @@
       </c>
       <c r="J41" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 3 meses 25 dias</v>
+        <v>14 anos, 3 meses 27 dias</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>35</v>
@@ -15534,7 +15541,7 @@
       </c>
       <c r="J42" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 9 meses 30 dias</v>
+        <v>14 anos, 10 meses 1 dias</v>
       </c>
       <c r="K42" s="31" t="s">
         <v>35</v>
@@ -15571,16 +15578,28 @@
       <c r="AI42" s="8"/>
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1">
+      <c r="E43" s="33" t="s">
+        <v>1425</v>
+      </c>
       <c r="G43" s="33" t="s">
         <v>1367</v>
       </c>
+      <c r="H43" s="33" t="s">
+        <v>1424</v>
+      </c>
       <c r="I43" s="33" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="44" spans="1:36" ht="15.75" customHeight="1">
+      <c r="E44" s="33" t="s">
+        <v>1425</v>
+      </c>
       <c r="G44" s="33" t="s">
         <v>1366</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>1424</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>576</v>
@@ -16607,7 +16626,14 @@
     <row r="980" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A2:Z45">
-    <filterColumn colId="6"/>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Quarta/Sexta"/>
+        <filter val="Quarta/Sexta/Sábado"/>
+        <filter val="Sexta"/>
+        <filter val="Sexta/Sábado"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -16632,8 +16658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C31" sqref="C31:C113"/>
     </sheetView>
   </sheetViews>
@@ -19296,99 +19322,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
-      <c r="A1" s="90">
+      <c r="A1" s="91">
         <v>44541</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91">
         <v>44548</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91">
         <v>44569</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90">
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91">
         <v>44576</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90">
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91">
         <v>44583</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91" t="s">
         <v>951</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="90">
         <v>44596</v>
       </c>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91">
+      <c r="T1" s="90"/>
+      <c r="U1" s="90">
         <v>44597</v>
       </c>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91">
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90">
         <v>44603</v>
       </c>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91">
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90">
         <v>44604</v>
       </c>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91">
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90">
         <v>44610</v>
       </c>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91">
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90">
         <v>44611</v>
       </c>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
       <c r="AH1" s="65">
         <v>44617</v>
       </c>
       <c r="AI1" s="67"/>
-      <c r="AJ1" s="91">
+      <c r="AJ1" s="90">
         <v>44618</v>
       </c>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="90">
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="91">
         <v>44624</v>
       </c>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="91">
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="90">
         <v>44625</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AS1" s="90">
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AS1" s="91">
         <v>44631</v>
       </c>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="91">
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="90">
         <v>44632</v>
       </c>
-      <c r="AV1" s="91"/>
-      <c r="AW1" s="91"/>
-      <c r="AY1" s="90">
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AY1" s="91">
         <v>44638</v>
       </c>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="91">
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="90">
         <v>44639</v>
       </c>
-      <c r="BB1" s="91"/>
-      <c r="BC1" s="91"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
       <c r="BE1" t="s">
         <v>1185</v>
       </c>
@@ -22666,6 +22692,12 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -22679,12 +22711,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -22868,7 +22894,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I11" ca="1" si="0">DATEDIF(H3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H3,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 3 meses 16 dias</v>
+        <v>6 anos, 3 meses 18 dias</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>76</v>
@@ -22938,7 +22964,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 10 meses 12 dias</v>
+        <v>7 anos, 10 meses 14 dias</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>52</v>
@@ -23000,7 +23026,7 @@
       </c>
       <c r="I5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 11 meses 8 dias</v>
+        <v>10 anos, 11 meses 10 dias</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>21</v>
@@ -23062,7 +23088,7 @@
       </c>
       <c r="I6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 10 meses 21 dias</v>
+        <v>8 anos, 10 meses 23 dias</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>52</v>
@@ -23120,7 +23146,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 4 meses 11 dias</v>
+        <v>122 anos, 4 meses 13 dias</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>21</v>
@@ -23188,7 +23214,7 @@
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 7 meses 16 dias</v>
+        <v>10 anos, 7 meses 18 dias</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>21</v>
@@ -23250,7 +23276,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 10 meses 4 dias</v>
+        <v>13 anos, 10 meses 6 dias</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>35</v>
@@ -23312,7 +23338,7 @@
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 0 meses 28 dias</v>
+        <v>8 anos, 0 meses 30 dias</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>52</v>
@@ -23374,7 +23400,7 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 6 dias</v>
+        <v>6 anos, 4 meses 8 dias</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>76</v>
@@ -23469,7 +23495,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" ref="I13" ca="1" si="1">DATEDIF(H13,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H13,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H13,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 4 meses 16 dias</v>
+        <v>6 anos, 4 meses 18 dias</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>64</v>
@@ -23525,7 +23551,7 @@
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" ref="I14:I16" ca="1" si="2">DATEDIF(H14,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(H14,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(H14,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 10 meses 0 dias</v>
+        <v>5 anos, 10 meses 2 dias</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>64</v>
@@ -23579,7 +23605,7 @@
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7 anos, 3 meses 6 dias</v>
+        <v>7 anos, 3 meses 8 dias</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>64</v>
@@ -23625,7 +23651,7 @@
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10 anos, 0 meses 4 dias</v>
+        <v>10 anos, 0 meses 6 dias</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>21</v>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="uniformes" sheetId="11" r:id="rId11"/>
     <sheet name="alunos ativos" sheetId="12" r:id="rId12"/>
     <sheet name="CONTATEI" sheetId="14" r:id="rId13"/>
+    <sheet name="campeonato" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">acertaram!$A$1:$F$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">APAGADOS!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ATIVOS!$A$2:$N$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">caderneta!$A$1:$E$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">caderneta!$A$1:$E$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">CONTATEI!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NÃO!$A$1:$M$1</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="1450">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3981,9 +3982,6 @@
     <t>vai pagar no dia 20/04 e 05/05</t>
   </si>
   <si>
-    <t>vai pagar no dia 20/04 e 10/05, e 20/05 e 10/06</t>
-  </si>
-  <si>
     <t>joão</t>
   </si>
   <si>
@@ -4149,42 +4147,18 @@
     <t>7,00 bebidas</t>
   </si>
   <si>
-    <t>1 skol</t>
-  </si>
-  <si>
-    <t>1 tiger</t>
-  </si>
-  <si>
-    <t>5 heineken</t>
-  </si>
-  <si>
     <t>enzo (jonas)</t>
   </si>
   <si>
-    <t>1 água + 1 gatorade</t>
-  </si>
-  <si>
     <t>gabriel (claldineia)</t>
   </si>
   <si>
-    <t>1 água + 1 heineken</t>
-  </si>
-  <si>
-    <t>5 amstel + 1 água</t>
-  </si>
-  <si>
-    <t>2 cervejas</t>
-  </si>
-  <si>
     <t>gabriel + matheus (claldineia)</t>
   </si>
   <si>
     <t>mateus (eide)</t>
   </si>
   <si>
-    <t>4 amstel + 1 água</t>
-  </si>
-  <si>
     <t>acertou 30 (em haver mensalidade passada do davi), 65 (em haver mensalidade passada henrique)</t>
   </si>
   <si>
@@ -4209,18 +4183,9 @@
     <t>22,50 (acertou em haver mês passado)</t>
   </si>
   <si>
-    <t>2 gatorade + 1 cerveja</t>
-  </si>
-  <si>
     <t>2 águas</t>
   </si>
   <si>
-    <t>2 gatorade</t>
-  </si>
-  <si>
-    <t>1 água + 2 amstel</t>
-  </si>
-  <si>
     <t>1 cerveja + 1 água</t>
   </si>
   <si>
@@ -4257,27 +4222,15 @@
     <t>2 cervejas e 1 água</t>
   </si>
   <si>
-    <t>ele pagou no cartão no dia, mas vou cobrar de juros da camiseta</t>
-  </si>
-  <si>
-    <t>2 cervejas + 1 gatorade</t>
-  </si>
-  <si>
     <t>matteo (marina)</t>
   </si>
   <si>
     <t>4 cervejas</t>
   </si>
   <si>
-    <t>2 cervejas + 1 água</t>
-  </si>
-  <si>
     <t>89,50 bebidas</t>
   </si>
   <si>
-    <t>1 cerveja 350ml (R$5,00) + 2 gatorade (R$13,00) + 1 litrão (R$13,00)</t>
-  </si>
-  <si>
     <t>Aluno, Sub11, ?, Bryan</t>
   </si>
   <si>
@@ -4293,12 +4246,6 @@
     <t>2 águas + 1 cerveja</t>
   </si>
   <si>
-    <t>1 água + 3 cervejas</t>
-  </si>
-  <si>
-    <t>veio de quarta (x)</t>
-  </si>
-  <si>
     <t>Matteo Escames Marini Wilfer</t>
   </si>
   <si>
@@ -4339,6 +4286,114 @@
   </si>
   <si>
     <t>João</t>
+  </si>
+  <si>
+    <t>19 bebidas</t>
+  </si>
+  <si>
+    <t>63,5 bebidas</t>
+  </si>
+  <si>
+    <t>cesar (gustavo)</t>
+  </si>
+  <si>
+    <t>joão gabriel (sub05)</t>
+  </si>
+  <si>
+    <t>Miguel Pechtoll Ramos</t>
+  </si>
+  <si>
+    <t>Aluno, Sub07, Paulo, Miguel</t>
+  </si>
+  <si>
+    <t>Paulo Henrique Ramos da Silva</t>
+  </si>
+  <si>
+    <t>308.851.238-24</t>
+  </si>
+  <si>
+    <t>Plínio Miguel, 153 - apto. 02, Jardim Piratininga</t>
+  </si>
+  <si>
+    <t>ramosphrs@gmail.com</t>
+  </si>
+  <si>
+    <t>(14) 99744-2006</t>
+  </si>
+  <si>
+    <t>2/3 pix</t>
+  </si>
+  <si>
+    <t>1/2 dinheiro</t>
+  </si>
+  <si>
+    <t>123 bebidas + 74 uniforme</t>
+  </si>
+  <si>
+    <t>miguel (paulo, sub07)</t>
+  </si>
+  <si>
+    <t>gabriel braga</t>
+  </si>
+  <si>
+    <t>yan (anderson)</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>CAMISA</t>
+  </si>
+  <si>
+    <t>NÚMERO</t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>DADOS PESSOAIS</t>
+  </si>
+  <si>
+    <t>1 água + 1 cerveja</t>
+  </si>
+  <si>
+    <t>acho que pagou</t>
+  </si>
+  <si>
+    <t>1 heineken + 1 amendoim</t>
+  </si>
+  <si>
+    <t>1 água + 2 cervejas</t>
+  </si>
+  <si>
+    <t>3 cervejas + 1 água</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>3 cervejas + 1 salgadinho</t>
+  </si>
+  <si>
+    <t>2 cervejas + 1 salgadinho</t>
+  </si>
+  <si>
+    <t>marquei gabriel (flávio)</t>
+  </si>
+  <si>
+    <t>2/2 cartão de débito</t>
+  </si>
+  <si>
+    <t>arthur/felipe (kaithye)</t>
+  </si>
+  <si>
+    <t>yago (elizabete)</t>
   </si>
 </sst>
 </file>
@@ -4347,8 +4402,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -4517,7 +4572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4543,12 +4598,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4589,8 +4644,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4644,14 +4699,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10880,7 +10944,7 @@
         <v>44653</v>
       </c>
       <c r="I136" s="29" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="13.5" customHeight="1"/>
@@ -11748,10 +11812,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C2:C34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11792,7 +11856,7 @@
         <v>170</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11885,7 +11949,7 @@
         <v>44657</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C8" s="29">
         <v>200</v>
@@ -11902,13 +11966,13 @@
         <v>44671</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C9" s="29">
         <v>100</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E9" s="72">
         <v>12</v>
@@ -11919,13 +11983,13 @@
         <v>44671</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C10" s="29">
         <v>73.33</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E10" s="72">
         <v>14</v>
@@ -11936,13 +12000,13 @@
         <v>44671</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C11" s="29">
         <v>100</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E11" s="72">
         <v>14</v>
@@ -11953,13 +12017,13 @@
         <v>44673</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C12" s="29">
         <v>100</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E12" s="72">
         <v>16</v>
@@ -11970,13 +12034,13 @@
         <v>44686</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C13" s="29">
         <v>100</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E13" s="72" t="s">
         <v>175</v>
@@ -11985,13 +12049,13 @@
     <row r="14" spans="1:5">
       <c r="A14" s="29"/>
       <c r="B14" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C14" s="29">
         <v>100</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E14" s="72"/>
     </row>
@@ -12000,7 +12064,7 @@
         <v>44685</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C15" s="29">
         <v>200</v>
@@ -12023,7 +12087,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="E16" s="72">
         <v>14</v>
@@ -12034,13 +12098,13 @@
         <v>44687</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="C17" s="29">
         <v>100</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E17" s="72">
         <v>12</v>
@@ -12051,13 +12115,13 @@
         <v>44694</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="C18" s="29">
         <v>100</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="E18" s="72"/>
     </row>
@@ -12066,13 +12130,13 @@
         <v>44694</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C19" s="29">
         <v>100</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="E19" s="72"/>
     </row>
@@ -12081,13 +12145,13 @@
         <v>44695</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C20" s="29">
         <v>100</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="E20" s="72">
         <v>12</v>
@@ -12104,7 +12168,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="E21" s="72" t="s">
         <v>175</v>
@@ -12115,36 +12179,62 @@
         <v>44701</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>1412</v>
+        <v>1396</v>
       </c>
       <c r="C22" s="29">
         <v>100</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>1348</v>
+        <v>1426</v>
       </c>
       <c r="E22" s="72"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="38">
+        <v>44713</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C23" s="29">
+        <v>100</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>1447</v>
+      </c>
       <c r="E23" s="72"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="38">
+        <v>44713</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C24" s="29">
+        <v>73.33</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>1425</v>
+      </c>
       <c r="E24" s="72"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="72"/>
+      <c r="A25" s="38">
+        <v>44722</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C25" s="29">
+        <v>100</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E25" s="72">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="29"/>
@@ -12182,36 +12272,19 @@
         <v>1097</v>
       </c>
       <c r="C30" s="29">
-        <v>146.66999999999999</v>
+        <v>73.33</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="72">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="38">
-        <v>44659</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C31" s="29">
-        <v>100</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E31" s="72">
-        <v>12</v>
-      </c>
-    </row>
     <row r="32" spans="1:5">
       <c r="A32" s="38">
         <v>44660</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C32" s="29">
         <v>100</v>
@@ -12235,23 +12308,6 @@
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="72" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="38">
-        <v>44660</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C34" s="29">
-        <v>100</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E34" s="72" t="s">
         <v>175</v>
       </c>
     </row>
@@ -12762,6 +12818,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="82" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="88" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="50" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="29" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="84">
+        <v>639720195</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
@@ -12782,22 +13050,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -12858,8 +13126,8 @@
         <v>210</v>
       </c>
       <c r="H3" s="6" t="str">
-        <f ca="1">DATEDIF(I3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I3,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 4 meses 0 dias</v>
+        <f t="shared" ref="H3:H21" ca="1" si="0">DATEDIF(I3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I3,TODAY(),"MD")&amp;" dias"</f>
+        <v>6 anos, 4 meses 14 dias</v>
       </c>
       <c r="I3" s="6">
         <v>42395</v>
@@ -12893,8 +13161,8 @@
         <v>266</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f ca="1">DATEDIF(I4,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I4,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I4,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 10 meses 27 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7 anos, 11 meses 10 dias</v>
       </c>
       <c r="I4" s="6">
         <v>41820</v>
@@ -12930,8 +13198,8 @@
         <v>119</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f ca="1">DATEDIF(I5,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I5,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I5,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 11 meses 23 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11 anos, 0 meses 7 dias</v>
       </c>
       <c r="I5" s="6">
         <v>40697</v>
@@ -12967,8 +13235,8 @@
         <v>129</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f ca="1">DATEDIF(I6,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I6,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I6,TODAY(),"MD")&amp;" dias"</f>
-        <v>8 anos, 11 meses 5 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8 anos, 11 meses 19 dias</v>
       </c>
       <c r="I6" s="6">
         <v>41446</v>
@@ -13002,8 +13270,8 @@
         <v>278</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f ca="1">DATEDIF(I7,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I7,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I7,TODAY(),"MD")&amp;" dias"</f>
-        <v>122 anos, 4 meses 26 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>122 anos, 5 meses 10 dias</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -13037,8 +13305,8 @@
         <v>139</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f ca="1">DATEDIF(I8,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I8,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I8,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 8 meses 0 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 8 meses 14 dias</v>
       </c>
       <c r="I8" s="6">
         <v>40812</v>
@@ -13074,8 +13342,8 @@
         <v>49</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f ca="1">DATEDIF(I9,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I9,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I9,TODAY(),"MD")&amp;" dias"</f>
-        <v>13 anos, 10 meses 19 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13 anos, 11 meses 3 dias</v>
       </c>
       <c r="I9" s="6">
         <v>39636</v>
@@ -13111,8 +13379,8 @@
         <v>67</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f ca="1">DATEDIF(I10,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I10,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I10,TODAY(),"MD")&amp;" dias"</f>
-        <v>8 anos, 1 meses 12 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8 anos, 1 meses 26 dias</v>
       </c>
       <c r="I10" s="6">
         <v>41743</v>
@@ -13138,8 +13406,8 @@
         <v>1273</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f ca="1">DATEDIF(I11,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I11,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I11,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 5 meses 0 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 5 meses 14 dias</v>
       </c>
       <c r="I11" s="38">
         <v>42364</v>
@@ -13175,8 +13443,8 @@
         <v>249</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f ca="1">DATEDIF(I12,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I12,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I12,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 10 meses 15 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5 anos, 10 meses 29 dias</v>
       </c>
       <c r="I12" s="6">
         <v>42562</v>
@@ -13209,8 +13477,8 @@
         <v>215</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f ca="1">DATEDIF(I13,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I13,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I13,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 3 meses 21 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7 anos, 4 meses 5 dias</v>
       </c>
       <c r="I13" s="6">
         <v>42040</v>
@@ -13231,8 +13499,8 @@
         <v>1262</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f ca="1">DATEDIF(I14,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I14,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I14,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 0 meses 19 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 1 meses 3 dias</v>
       </c>
       <c r="I14" s="38">
         <v>41036</v>
@@ -13249,26 +13517,26 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="29" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>1341</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="29" t="s">
         <v>1342</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="D15" s="29" t="s">
         <v>1343</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>1344</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>1270</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f ca="1">DATEDIF(I15,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I15,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I15,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 3 meses 27 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 4 meses 10 dias</v>
       </c>
       <c r="I15" s="64">
         <v>40938</v>
@@ -13295,8 +13563,8 @@
         <v>143</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f ca="1">DATEDIF(I16,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I16,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I16,TODAY(),"MD")&amp;" dias"</f>
-        <v>4 anos, 11 meses 10 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4 anos, 11 meses 24 dias</v>
       </c>
       <c r="I16" s="6">
         <v>42902</v>
@@ -13331,8 +13599,8 @@
         <v>1073</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f ca="1">DATEDIF(I17,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I17,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I17,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 0 meses 4 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5 anos, 0 meses 18 dias</v>
       </c>
       <c r="I17" s="26">
         <v>42877</v>
@@ -13364,8 +13632,8 @@
         <v>108</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f ca="1">DATEDIF(I18,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I18,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I18,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 10 meses 17 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5 anos, 11 meses 1 dias</v>
       </c>
       <c r="I18" s="6">
         <v>42560</v>
@@ -13397,8 +13665,8 @@
         <v>1079</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f ca="1">DATEDIF(I19,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I19,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I19,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 1 meses 4 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 1 meses 18 dias</v>
       </c>
       <c r="I19" s="26">
         <v>42482</v>
@@ -13428,8 +13696,8 @@
         <v>1039</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f ca="1">DATEDIF(I20,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I20,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I20,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 1 meses 15 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 1 meses 29 dias</v>
       </c>
       <c r="I20" s="26">
         <v>42471</v>
@@ -13464,8 +13732,8 @@
         <v>256</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f ca="1">DATEDIF(I21,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I21,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I21,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 4 meses 21 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 5 meses 5 dias</v>
       </c>
       <c r="I21" s="6">
         <v>42374</v>
@@ -13507,9 +13775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I3:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13532,24 +13800,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -13589,10 +13857,10 @@
         <v>6</v>
       </c>
       <c r="M2" s="80" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13613,7 +13881,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>1274</v>
@@ -13622,8 +13890,8 @@
         <v>134</v>
       </c>
       <c r="J3" s="6" t="str">
-        <f ca="1">DATEDIF(L3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L3,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 8 meses 1 dias</v>
+        <f t="shared" ref="J3:J30" ca="1" si="0">DATEDIF(L3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L3,TODAY(),"MD")&amp;" dias"</f>
+        <v>3 anos, 8 meses 15 dias</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>64</v>
@@ -13656,7 +13924,7 @@
         <v>204</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>1275</v>
@@ -13665,8 +13933,8 @@
         <v>1250</v>
       </c>
       <c r="J4" s="6" t="str">
-        <f ca="1">DATEDIF(L4,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L4,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L4,TODAY(),"MD")&amp;" dias"</f>
-        <v>4 anos, 9 meses 17 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4 anos, 10 meses 1 dias</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>64</v>
@@ -13699,7 +13967,7 @@
         <v>1222</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>1276</v>
@@ -13708,8 +13976,8 @@
         <v>1216</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f ca="1">DATEDIF(L5,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L5,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L5,TODAY(),"MD")&amp;" dias"</f>
-        <v>4 anos, 10 meses 1 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4 anos, 10 meses 15 dias</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>64</v>
@@ -13740,7 +14008,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>1277</v>
@@ -13749,8 +14017,8 @@
         <v>1165</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f ca="1">DATEDIF(L6,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L6,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L6,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 5 meses 23 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5 anos, 6 meses 7 dias</v>
       </c>
       <c r="K6" s="27" t="s">
         <v>64</v>
@@ -13783,7 +14051,7 @@
         <v>199</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>1278</v>
@@ -13792,8 +14060,8 @@
         <v>90</v>
       </c>
       <c r="J7" s="6" t="str">
-        <f ca="1">DATEDIF(L7,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L7,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L7,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 7 meses 2 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5 anos, 7 meses 16 dias</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>64</v>
@@ -13826,7 +14094,7 @@
         <v>240</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>1280</v>
@@ -13835,8 +14103,8 @@
         <v>241</v>
       </c>
       <c r="J8" s="6" t="str">
-        <f ca="1">DATEDIF(L8,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L8,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L8,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 8 meses 10 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5 anos, 8 meses 24 dias</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>64</v>
@@ -13865,7 +14133,7 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="27" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>1279</v>
@@ -13874,8 +14142,8 @@
         <v>79</v>
       </c>
       <c r="J9" s="6" t="str">
-        <f ca="1">DATEDIF(L9,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L9,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L9,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 11 meses 6 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5 anos, 11 meses 20 dias</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>64</v>
@@ -13890,38 +14158,41 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="29" t="s">
-        <v>1422</v>
+        <v>1404</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>1423</v>
+        <v>1405</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>1425</v>
+        <v>1407</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>1424</v>
+        <v>1406</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>1427</v>
+        <v>1409</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>1426</v>
+        <v>1408</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>1421</v>
+        <v>1403</v>
       </c>
       <c r="J10" s="6" t="str">
-        <f ca="1">DATEDIF(L10,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L10,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L10,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 11 meses 19 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 0 meses 3 dias</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>64</v>
       </c>
       <c r="L10" s="38">
         <v>42528</v>
+      </c>
+      <c r="M10" s="81">
+        <v>44706</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13944,7 +14215,7 @@
         <v>204</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>1275</v>
@@ -13953,8 +14224,8 @@
         <v>205</v>
       </c>
       <c r="J11" s="6" t="str">
-        <f ca="1">DATEDIF(L11,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L11,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L11,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 5 meses 27 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 6 meses 10 dias</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>64</v>
@@ -13984,10 +14255,10 @@
         <v>1000</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>1281</v>
@@ -13996,8 +14267,8 @@
         <v>1092</v>
       </c>
       <c r="J12" s="8" t="str">
-        <f ca="1">DATEDIF(L12,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L12,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L12,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 7 meses 9 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 7 meses 23 dias</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>64</v>
@@ -14028,7 +14299,7 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>73</v>
@@ -14037,8 +14308,8 @@
         <v>188</v>
       </c>
       <c r="J13" s="6" t="str">
-        <f ca="1">DATEDIF(L13,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L13,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L13,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 7 meses 11 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 7 meses 25 dias</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>64</v>
@@ -14061,7 +14332,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>1282</v>
@@ -14070,8 +14341,8 @@
         <v>1254</v>
       </c>
       <c r="J14" s="6" t="str">
-        <f ca="1">DATEDIF(L14,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L14,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L14,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 8 meses 1 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 8 meses 15 dias</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>64</v>
@@ -14102,7 +14373,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>1283</v>
@@ -14111,8 +14382,8 @@
         <v>84</v>
       </c>
       <c r="J15" s="6" t="str">
-        <f ca="1">DATEDIF(L15,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L15,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L15,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 9 meses 23 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 10 meses 7 dias</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>64</v>
@@ -14145,7 +14416,7 @@
         <v>223</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>1284</v>
@@ -14154,8 +14425,8 @@
         <v>113</v>
       </c>
       <c r="J16" s="6" t="str">
-        <f ca="1">DATEDIF(L16,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L16,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L16,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 11 meses 11 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6 anos, 11 meses 25 dias</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>64</v>
@@ -14176,7 +14447,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="27" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>1285</v>
@@ -14185,8 +14456,8 @@
         <v>1251</v>
       </c>
       <c r="J17" s="8" t="str">
-        <f ca="1">DATEDIF(L17,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L17,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L17,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 1 meses 13 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7 anos, 1 meses 27 dias</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>64</v>
@@ -14201,20 +14472,20 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="E18" s="29" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>1418</v>
+        <v>1400</v>
       </c>
       <c r="J18" s="6" t="str">
-        <f ca="1">DATEDIF(L18,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L18,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L18,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 2 meses 13 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7 anos, 2 meses 27 dias</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>64</v>
@@ -14229,17 +14500,17 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1430</v>
+        <v>1412</v>
       </c>
       <c r="I19" s="27" t="s">
         <v>1272</v>
       </c>
       <c r="J19" s="6" t="str">
-        <f ca="1">DATEDIF(L19,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L19,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L19,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 4 meses 11 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7 anos, 4 meses 25 dias</v>
       </c>
       <c r="K19" s="27" t="s">
         <v>64</v>
@@ -14265,7 +14536,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H20" s="29" t="s">
         <v>1286</v>
@@ -14274,8 +14545,8 @@
         <v>1252</v>
       </c>
       <c r="J20" s="6" t="str">
-        <f ca="1">DATEDIF(L20,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L20,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L20,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 8 meses 30 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7 anos, 9 meses 13 dias</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>21</v>
@@ -14306,7 +14577,7 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>1288</v>
@@ -14315,8 +14586,8 @@
         <v>55</v>
       </c>
       <c r="J21" s="6" t="str">
-        <f ca="1">DATEDIF(L21,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L21,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L21,TODAY(),"MD")&amp;" dias"</f>
-        <v>8 anos, 8 meses 22 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8 anos, 9 meses 6 dias</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>21</v>
@@ -14343,7 +14614,7 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>1286</v>
@@ -14352,8 +14623,8 @@
         <v>61</v>
       </c>
       <c r="J22" s="6" t="str">
-        <f ca="1">DATEDIF(L22,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L22,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L22,TODAY(),"MD")&amp;" dias"</f>
-        <v>9 anos, 5 meses 7 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9 anos, 5 meses 21 dias</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>21</v>
@@ -14374,7 +14645,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>1289</v>
@@ -14383,8 +14654,8 @@
         <v>1256</v>
       </c>
       <c r="J23" s="6" t="str">
-        <f ca="1">DATEDIF(L23,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L23,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L23,TODAY(),"MD")&amp;" dias"</f>
-        <v>9 anos, 8 meses 9 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9 anos, 8 meses 23 dias</v>
       </c>
       <c r="K23" s="27" t="s">
         <v>21</v>
@@ -14405,7 +14676,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>1290</v>
@@ -14414,8 +14685,8 @@
         <v>1245</v>
       </c>
       <c r="J24" s="8" t="str">
-        <f ca="1">DATEDIF(L24,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L24,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L24,TODAY(),"MD")&amp;" dias"</f>
-        <v>9 anos, 10 meses 22 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9 anos, 11 meses 6 dias</v>
       </c>
       <c r="K24" s="27" t="s">
         <v>21</v>
@@ -14430,7 +14701,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="G25" s="38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H25" s="29" t="s">
         <v>1291</v>
@@ -14439,8 +14710,8 @@
         <v>1249</v>
       </c>
       <c r="J25" s="6" t="str">
-        <f ca="1">DATEDIF(L25,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L25,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L25,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 0 meses 4 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 0 meses 18 dias</v>
       </c>
       <c r="K25" s="27" t="s">
         <v>21</v>
@@ -14469,7 +14740,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>1292</v>
@@ -14478,8 +14749,8 @@
         <v>1170</v>
       </c>
       <c r="J26" s="8" t="str">
-        <f ca="1">DATEDIF(L26,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L26,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L26,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 0 meses 8 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 0 meses 22 dias</v>
       </c>
       <c r="K26" s="27" t="s">
         <v>21</v>
@@ -14510,7 +14781,7 @@
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>1293</v>
@@ -14519,8 +14790,8 @@
         <v>1123</v>
       </c>
       <c r="J27" s="8" t="str">
-        <f ca="1">DATEDIF(L27,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L27,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L27,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 0 meses 24 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 1 meses 8 dias</v>
       </c>
       <c r="K27" s="27" t="s">
         <v>21</v>
@@ -14535,17 +14806,17 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="G28" s="29" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="J28" s="6" t="str">
-        <f ca="1">DATEDIF(L28,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L28,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L28,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 2 meses 19 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 3 meses 3 dias</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>21</v>
@@ -14574,7 +14845,7 @@
         <v>174</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>1295</v>
@@ -14583,8 +14854,8 @@
         <v>24</v>
       </c>
       <c r="J29" s="6" t="str">
-        <f ca="1">DATEDIF(L29,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L29,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L29,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 5 meses 29 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 6 meses 12 dias</v>
       </c>
       <c r="K29" s="27" t="s">
         <v>21</v>
@@ -14605,7 +14876,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>1296</v>
@@ -14614,8 +14885,8 @@
         <v>1259</v>
       </c>
       <c r="J30" s="6" t="str">
-        <f ca="1">DATEDIF(L30,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L30,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L30,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 10 meses 18 dias</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10 anos, 11 meses 2 dias</v>
       </c>
       <c r="K30" s="27" t="s">
         <v>21</v>
@@ -14627,13 +14898,13 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="G31" s="38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>1294</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>1431</v>
+        <v>1413</v>
       </c>
       <c r="N31" s="64"/>
     </row>
@@ -14649,7 +14920,7 @@
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>1301</v>
@@ -14658,8 +14929,8 @@
         <v>1253</v>
       </c>
       <c r="J32" s="6" t="str">
-        <f ca="1">DATEDIF(L32,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L32,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L32,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 9 meses 24 dias</v>
+        <f t="shared" ref="J32:J42" ca="1" si="1">DATEDIF(L32,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L32,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L32,TODAY(),"MD")&amp;" dias"</f>
+        <v>10 anos, 10 meses 8 dias</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>35</v>
@@ -14692,7 +14963,7 @@
         <v>233</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>1300</v>
@@ -14701,8 +14972,8 @@
         <v>234</v>
       </c>
       <c r="J33" s="6" t="str">
-        <f ca="1">DATEDIF(L33,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L33,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L33,TODAY(),"MD")&amp;" dias"</f>
-        <v>11 anos, 4 meses 14 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11 anos, 4 meses 28 dias</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>35</v>
@@ -14723,11 +14994,11 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>1302</v>
@@ -14736,8 +15007,8 @@
         <v>1248</v>
       </c>
       <c r="J34" s="6" t="str">
-        <f ca="1">DATEDIF(L34,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L34,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L34,TODAY(),"MD")&amp;" dias"</f>
-        <v>11 anos, 4 meses 16 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11 anos, 5 meses 0 dias</v>
       </c>
       <c r="K34" s="27" t="s">
         <v>35</v>
@@ -14770,7 +15041,7 @@
         <v>227</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>1299</v>
@@ -14779,8 +15050,8 @@
         <v>228</v>
       </c>
       <c r="J35" s="6" t="str">
-        <f ca="1">DATEDIF(L35,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L35,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L35,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 6 meses 26 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12 anos, 7 meses 9 dias</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>35</v>
@@ -14813,7 +15084,7 @@
         <v>168</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>1298</v>
@@ -14822,8 +15093,8 @@
         <v>169</v>
       </c>
       <c r="J36" s="6" t="str">
-        <f ca="1">DATEDIF(L36,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L36,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L36,TODAY(),"MD")&amp;" dias"</f>
-        <v>12 anos, 11 meses 23 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13 anos, 0 meses 7 dias</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>35</v>
@@ -14837,20 +15108,20 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="E37" s="29" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="J37" s="6" t="str">
-        <f ca="1">DATEDIF(L37,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L37,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L37,TODAY(),"MD")&amp;" dias"</f>
-        <v>13 anos, 11 meses 3 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13 anos, 11 meses 17 dias</v>
       </c>
       <c r="K37" s="27" t="s">
         <v>35</v>
@@ -14878,7 +15149,7 @@
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>1297</v>
@@ -14887,8 +15158,8 @@
         <v>43</v>
       </c>
       <c r="J38" s="6" t="str">
-        <f ca="1">DATEDIF(L38,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L38,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L38,TODAY(),"MD")&amp;" dias"</f>
-        <v>14 anos, 1 meses 1 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14 anos, 1 meses 15 dias</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>35</v>
@@ -14913,7 +15184,7 @@
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>39</v>
@@ -14922,8 +15193,8 @@
         <v>38</v>
       </c>
       <c r="J39" s="6" t="str">
-        <f ca="1">DATEDIF(L39,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L39,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L39,TODAY(),"MD")&amp;" dias"</f>
-        <v>14 anos, 4 meses 9 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14 anos, 4 meses 23 dias</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>35</v>
@@ -14941,7 +15212,7 @@
         <v>1267</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H40" s="29" t="s">
         <v>1282</v>
@@ -14950,8 +15221,8 @@
         <v>1255</v>
       </c>
       <c r="J40" s="6" t="str">
-        <f ca="1">DATEDIF(L40,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(L40,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(L40,TODAY(),"MD")&amp;" dias"</f>
-        <v>14 anos, 10 meses 14 dias</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14 anos, 10 meses 28 dias</v>
       </c>
       <c r="K40" s="27" t="s">
         <v>35</v>
@@ -14972,20 +15243,70 @@
         <v>742</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>1429</v>
+        <v>1411</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>1428</v>
+        <v>1410</v>
+      </c>
+      <c r="J41" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>122 anos, 5 meses 10 dias</v>
       </c>
       <c r="K41" s="29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="81">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A42" s="29" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J42" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>7 anos, 3 meses 17 dias</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="38">
+        <v>42058</v>
+      </c>
+      <c r="M42" s="81">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
+      <c r="I43" s="29" t="s">
+        <v>573</v>
+      </c>
+    </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="L45" s="27"/>
@@ -15932,11 +16253,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16030,7 +16351,7 @@
         <v>44596</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C6" s="52">
         <v>99.9</v>
@@ -16039,7 +16360,7 @@
         <v>170</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16438,7 +16759,7 @@
         <v>44624</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C33" s="52">
         <v>100</v>
@@ -16726,7 +17047,7 @@
         <v>44639</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C51" s="52">
         <v>99.9</v>
@@ -16940,7 +17261,7 @@
         <v>44652</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C65" s="52">
         <v>100</v>
@@ -17016,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -17097,7 +17418,7 @@
         <v>44660</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C76" s="52">
         <v>195</v>
@@ -17111,7 +17432,7 @@
         <v>44660</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C77" s="52">
         <v>99.9</v>
@@ -17151,7 +17472,7 @@
         <v>170</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -17168,7 +17489,7 @@
         <v>170</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -17176,7 +17497,7 @@
         <v>44664</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C81" s="52">
         <f>130 + 65 + 30 + 65</f>
@@ -17186,7 +17507,7 @@
         <v>242</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -17203,7 +17524,7 @@
         <v>242</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -17220,7 +17541,7 @@
         <v>242</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -17242,7 +17563,7 @@
         <v>44667</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C85" s="52">
         <v>129.9</v>
@@ -17256,7 +17577,7 @@
         <v>44669</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C86" s="52">
         <v>129.9</v>
@@ -17265,7 +17586,7 @@
         <v>170</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -17282,7 +17603,7 @@
         <v>170</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -17313,7 +17634,7 @@
         <v>170</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -17330,7 +17651,7 @@
         <v>170</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -17338,7 +17659,7 @@
         <v>44673</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C91" s="52">
         <v>100</v>
@@ -17352,7 +17673,7 @@
         <v>44673</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C92" s="52">
         <v>102.4</v>
@@ -17369,7 +17690,7 @@
         <v>44673</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C93" s="52">
         <v>130</v>
@@ -17397,7 +17718,7 @@
         <v>44674</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C95" s="52">
         <v>100</v>
@@ -17456,7 +17777,7 @@
         <v>44679</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C99" s="52">
         <v>129.9</v>
@@ -17465,7 +17786,7 @@
         <v>182</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -17473,7 +17794,7 @@
         <v>44679</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C100" s="52">
         <v>129.9</v>
@@ -17487,7 +17808,7 @@
         <v>44679</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C101" s="52">
         <v>130</v>
@@ -17515,7 +17836,7 @@
         <v>44680</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C103" s="52">
         <v>130</v>
@@ -17538,7 +17859,7 @@
         <v>170</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -17546,7 +17867,7 @@
         <v>44685</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C105" s="52">
         <v>152.5</v>
@@ -17555,7 +17876,7 @@
         <v>170</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -17572,7 +17893,7 @@
         <v>170</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -17580,7 +17901,7 @@
         <v>44686</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="C107" s="52">
         <v>130</v>
@@ -17608,7 +17929,7 @@
         <v>44687</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="C109" s="52">
         <v>180</v>
@@ -17622,7 +17943,7 @@
         <v>44688</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C110" s="52">
         <v>99.9</v>
@@ -17633,7 +17954,7 @@
         <v>44688</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C111" s="52">
         <v>130</v>
@@ -17647,7 +17968,7 @@
         <v>44690</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C112" s="52">
         <v>195</v>
@@ -17661,7 +17982,7 @@
         <v>44690</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="C113" s="52">
         <v>150</v>
@@ -17670,7 +17991,7 @@
         <v>170</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -17678,7 +17999,7 @@
         <v>44694</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C114" s="52">
         <v>195</v>
@@ -17692,7 +18013,7 @@
         <v>44694</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="C115" s="52">
         <v>129.9</v>
@@ -17709,7 +18030,7 @@
         <v>44695</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C116" s="52">
         <v>99.9</v>
@@ -17737,7 +18058,7 @@
         <v>44700</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C118" s="52">
         <v>129.9</v>
@@ -17763,7 +18084,7 @@
         <v>170</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -17780,7 +18101,7 @@
         <v>242</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>1413</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -17797,14 +18118,14 @@
         <v>170</v>
       </c>
       <c r="F121" s="29" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="38">
         <v>44701</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="40" t="s">
         <v>1098</v>
       </c>
       <c r="C122" s="52">
@@ -17818,8 +18139,8 @@
       <c r="A123" s="38">
         <v>44706</v>
       </c>
-      <c r="B123" s="29" t="s">
-        <v>1420</v>
+      <c r="B123" s="40" t="s">
+        <v>1402</v>
       </c>
       <c r="C123" s="52">
         <v>100</v>
@@ -17828,47 +18149,277 @@
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="124" spans="1:6">
+      <c r="A124" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C124" s="52">
+        <v>130</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B125" s="40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C125" s="52">
+        <v>139.9</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C126" s="52">
+        <v>148.9</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C127" s="52">
+        <v>129.9</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C128" s="52">
+        <v>129.9</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="38">
+        <v>44709</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C129" s="52">
+        <v>129.9</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="38">
+        <v>44709</v>
+      </c>
+      <c r="B130" s="40" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C130" s="52">
+        <v>130</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="38">
+        <v>44711</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C131" s="52">
+        <v>99.9</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="38">
+        <v>44712</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C132" s="52">
+        <v>129.9</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="38">
+        <v>44713</v>
+      </c>
       <c r="B133" s="29" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
+        <v>1097</v>
+      </c>
+      <c r="C133" s="52">
+        <v>130</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="38">
+        <v>44713</v>
+      </c>
       <c r="B134" s="29" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
+        <v>1428</v>
+      </c>
+      <c r="C134" s="52">
+        <v>100</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="38">
+        <v>44713</v>
+      </c>
       <c r="B135" s="29" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
+        <v>1429</v>
+      </c>
+      <c r="C135" s="52">
+        <v>100</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="38">
+        <v>44714</v>
+      </c>
       <c r="B136" s="29" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
+        <v>1430</v>
+      </c>
+      <c r="C136" s="52">
+        <v>100</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="38">
+        <v>44718</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C137" s="52">
+        <v>130</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="38">
+        <v>44718</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C138" s="52">
+        <v>129.9</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="38">
+        <v>44718</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C139" s="52">
+        <v>130</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="38">
+        <v>44718</v>
+      </c>
       <c r="B140" s="29" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
+        <v>1448</v>
+      </c>
+      <c r="C140" s="52">
+        <v>195</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="38">
+        <v>44721</v>
+      </c>
       <c r="B141" s="29" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="29" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="29" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
+        <v>1449</v>
+      </c>
+      <c r="C141" s="52">
+        <v>99</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="B144" s="29" t="s">
         <v>1294</v>
       </c>
@@ -17881,16 +18432,6 @@
     <row r="146" spans="2:2">
       <c r="B146" s="29" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="29" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="8" t="s">
-        <v>1286</v>
       </c>
     </row>
   </sheetData>
@@ -17905,11 +18446,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:XFD49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17917,7 +18458,7 @@
     <col min="1" max="1" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="52"/>
-    <col min="4" max="4" width="9.140625" style="29"/>
+    <col min="4" max="4" width="9.140625" style="55"/>
     <col min="5" max="5" width="9.140625" style="72"/>
   </cols>
   <sheetData>
@@ -17931,11 +18472,11 @@
       <c r="C1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="89" t="s">
         <v>1163</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17943,14 +18484,14 @@
         <v>44632</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="C2" s="52">
         <f>2.5+2.5</f>
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>1389</v>
+      <c r="D2" s="55" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -17974,7 +18515,7 @@
       <c r="C4" s="52">
         <v>6.5</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="55" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -17999,743 +18540,610 @@
       <c r="C6" s="52">
         <v>0.5</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>1314</v>
+      <c r="D6" s="55" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="38">
-        <v>44660</v>
+        <v>44664</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>1315</v>
+        <v>1158</v>
       </c>
       <c r="C7" s="52">
-        <f xml:space="preserve"> 5 + 6.5 + 6.5 + 13</f>
-        <v>31</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>93</v>
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="38">
-        <v>44664</v>
+        <v>44674</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>1158</v>
+        <v>1368</v>
       </c>
       <c r="C8" s="52">
+        <f>2.5</f>
         <v>2.5</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="55" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="38">
-        <v>44664</v>
+        <v>44678</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>1322</v>
+        <v>1367</v>
       </c>
       <c r="C9" s="52">
-        <f>5+5+5+5+2.5</f>
-        <v>22.5</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>93</v>
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="38">
-        <v>44671</v>
+        <v>44681</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>1135</v>
+        <v>1158</v>
       </c>
       <c r="C10" s="52">
         <v>5</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>93</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="38">
-        <v>44671</v>
+        <v>44681</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="C11" s="52">
-        <f xml:space="preserve"> 5 + 5 + 5 + 5 + 5 + 2.5</f>
-        <v>27.5</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>93</v>
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="38">
-        <v>44673</v>
+        <v>44685</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C12" s="52">
-        <f>2.5 + 7</f>
-        <v>9.5</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>1374</v>
+        <v>1158</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>1382</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>93</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="38">
-        <v>44674</v>
+        <v>44694</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>1322</v>
+        <v>1392</v>
       </c>
       <c r="C13" s="52">
-        <f>2.5 + 6.5</f>
-        <v>9</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>93</v>
+        <f>5+5+5+5</f>
+        <v>20</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="38">
-        <v>44674</v>
+        <v>44695</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>1373</v>
+        <v>1390</v>
       </c>
       <c r="C14" s="52">
+        <f>2.5+2.5</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="38">
+        <v>44695</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C15" s="52">
+        <f>5+5+2.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="38">
+        <v>44695</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C16" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="38">
+        <v>44698</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C17" s="52">
+        <f>2.5+5</f>
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="38">
+        <v>44701</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C18" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="38">
+        <v>44702</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C19" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="38">
+        <v>44702</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C20" s="52">
+        <f>2.5+2.5+5</f>
+        <v>10</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="38">
+        <v>44706</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C21" s="52">
+        <f>2.5+5</f>
+        <v>7.5</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="38">
+        <v>44706</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C22" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C23" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C24" s="52">
+        <f>2.5+7</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C25" s="52">
+        <f>2.5+7</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C26" s="52">
+        <f>7+7+7</f>
+        <v>21</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C27" s="52">
+        <f>7+13</f>
+        <v>20</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C28" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="38">
+        <v>44708</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C29" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="38">
+        <v>44709</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C30" s="52">
+        <v>5</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="38">
+        <v>44709</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C31" s="52">
+        <f>7+7+5+2.5+4+3+5+2.5+7+7+5+7</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="38">
+        <v>44709</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C32" s="52">
+        <f>3+3+3 +2.5+2.5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5 16384:16384">
+      <c r="A33" s="38">
+        <v>44713</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C33" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5 16384:16384">
+      <c r="A34" s="38">
+        <v>44713</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C34" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5 16384:16384">
+      <c r="A35" s="38">
+        <v>44713</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C35" s="52">
+        <f>5+5+5+4</f>
+        <v>19</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5 16384:16384">
+      <c r="A36" s="38">
+        <v>44715</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C36" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5 16384:16384">
+      <c r="A37" s="38">
+        <v>44715</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C37" s="52">
+        <f>5+3+5</f>
+        <v>13</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5 16384:16384">
+      <c r="A38" s="38">
+        <v>44715</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C38" s="52">
+        <v>5</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5 16384:16384">
+      <c r="A39" s="38">
+        <v>44716</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C39" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5 16384:16384">
+      <c r="A40" s="38">
+        <v>44716</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C40" s="52">
+        <f>5+2.5+5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5 16384:16384">
+      <c r="A41" s="38">
+        <v>44716</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C41" s="52">
+        <f>2.5+2.5+5+5+5+3</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5 16384:16384">
+      <c r="A42" s="38">
+        <v>44716</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C42" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5 16384:16384">
+      <c r="A43" s="38">
+        <v>44716</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C43" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5 16384:16384">
+      <c r="A44" s="38">
+        <v>44720</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C44" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5 16384:16384">
+      <c r="A45" s="38">
+        <v>44720</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C45" s="52">
+        <f>5+5+5+2.5</f>
+        <v>17.5</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5 16384:16384">
+      <c r="A46" s="38">
+        <v>44720</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C46" s="52">
         <f>2.5</f>
         <v>2.5</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D46" s="55" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="38">
-        <v>44674</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C15" s="52">
-        <f>2.5 + 6.5</f>
-        <v>9</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E15" s="72" t="s">
+      <c r="E46" s="72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="38">
-        <v>44678</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C16" s="52">
-        <v>5</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="38">
-        <v>44678</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C17" s="52">
-        <v>5</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="38">
-        <v>44678</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C18" s="52">
-        <f>7+7+7+7+7</f>
-        <v>35</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="38">
-        <v>44678</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C19" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="38">
-        <v>44680</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C20" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="38">
-        <v>44680</v>
-      </c>
-      <c r="B21" s="29" t="s">
+    <row r="47" spans="1:5 16384:16384">
+      <c r="A47" s="38">
+        <v>44720</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>1144</v>
       </c>
-      <c r="C21" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="38">
-        <v>44681</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C22" s="52">
-        <f>6.5+6.5+5</f>
-        <v>18</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="38">
-        <v>44681</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C23" s="52">
-        <v>5</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="38">
-        <v>44681</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C24" s="52">
-        <f>2.5+6.5</f>
-        <v>9</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="38">
-        <v>44681</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C25" s="52">
-        <f>6.5+6.5</f>
-        <v>13</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="38">
-        <v>44681</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C26" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="38">
-        <v>44681</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C27" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="38">
-        <v>44685</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C28" s="52">
-        <f>2.5+5+5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="38">
-        <v>44685</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="38">
-        <v>44687</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C30" s="52">
-        <v>10</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="38">
-        <v>44687</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C31" s="52">
+      <c r="C47" s="52">
         <f>5+2.5</f>
         <v>7.5</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E31" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="38">
-        <v>44694</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C32" s="52">
-        <f>5+5+6.5</f>
-        <v>16.5</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E32" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="38">
-        <v>44694</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C33" s="52">
-        <f>5+5+5+5</f>
-        <v>20</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="38">
-        <v>44694</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C34" s="52">
-        <f>5+5+2.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E34" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="38">
-        <v>44694</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C35" s="52">
-        <f>5+5+2.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="38">
-        <v>44695</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C36" s="52">
-        <v>5</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="38">
-        <v>44695</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C37" s="52">
-        <f>2.5+2.5</f>
-        <v>5</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="38">
-        <v>44695</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C38" s="52">
-        <f>5+5+2.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="38">
-        <v>44695</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C39" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="38">
-        <v>44695</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C40" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E40" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="38">
-        <v>44695</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C41" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E41" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="38">
-        <v>44695</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C42" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E42" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="38">
-        <v>44698</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C43" s="52">
-        <f>2.5+5</f>
-        <v>7.5</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="38">
-        <v>44698</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C44" s="52">
-        <v>5</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E44" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="38">
-        <v>44701</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C45" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="38">
-        <v>44701</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C46" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="38">
-        <v>44702</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C47" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="38">
-        <v>44702</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C48" s="52">
-        <f>2.5+2.5+5</f>
-        <v>10</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="38">
-        <v>44702</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C49" s="52">
-        <f>2.5+5+5+5</f>
-        <v>17.5</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E49" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="38">
-        <v>44702</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C50" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E50" s="72" t="s">
-        <v>93</v>
+      <c r="D47" s="55" t="s">
+        <v>1380</v>
+      </c>
+      <c r="XFD47" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5 16384:16384">
+      <c r="XFD48" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="49" spans="16384:16384">
+      <c r="XFD49" t="s">
+        <v>1443</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E50">
+  <autoFilter ref="A1:E47">
     <filterColumn colId="1"/>
   </autoFilter>
   <sortState ref="A2:E47">
@@ -18808,99 +19216,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
-      <c r="A1" s="84">
+      <c r="A1" s="86">
         <v>44541</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86">
         <v>44548</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84">
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86">
         <v>44569</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84">
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86">
         <v>44576</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84">
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86">
         <v>44583</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84" t="s">
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86" t="s">
         <v>948</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="83">
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="87">
         <v>44596</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83">
+      <c r="T1" s="87"/>
+      <c r="U1" s="87">
         <v>44597</v>
       </c>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83">
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87">
         <v>44603</v>
       </c>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83">
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87">
         <v>44604</v>
       </c>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83">
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87">
         <v>44610</v>
       </c>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83">
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87">
         <v>44611</v>
       </c>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
       <c r="AH1" s="61">
         <v>44617</v>
       </c>
       <c r="AI1" s="63"/>
-      <c r="AJ1" s="83">
+      <c r="AJ1" s="87">
         <v>44618</v>
       </c>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="84">
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="86">
         <v>44624</v>
       </c>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="83">
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="87">
         <v>44625</v>
       </c>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AS1" s="84">
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AS1" s="86">
         <v>44631</v>
       </c>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="83">
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="87">
         <v>44632</v>
       </c>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AY1" s="84">
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AY1" s="86">
         <v>44638</v>
       </c>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="83">
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="87">
         <v>44639</v>
       </c>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
       <c r="BE1" t="s">
         <v>1182</v>
       </c>
@@ -22178,12 +22586,6 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -22197,6 +22599,12 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">acertaram!$A$1:$F$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ATIVOS!$A$2:$O$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">caderneta!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ATIVOS!$A$2:$Q$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">caderneta!$A$1:$E$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CONTATEI!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NÃO!$A$1:$M$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="1571">
   <si>
     <t>atualizado em</t>
   </si>
@@ -3525,9 +3525,6 @@
     <t>descrição</t>
   </si>
   <si>
-    <t>1 gatorade</t>
-  </si>
-  <si>
     <t>Leonardo Munafó Tostes Gonçalves</t>
   </si>
   <si>
@@ -4050,9 +4047,6 @@
     <t>23 bebidas</t>
   </si>
   <si>
-    <t>leo (aparecido)</t>
-  </si>
-  <si>
     <t>1/2 pix</t>
   </si>
   <si>
@@ -4134,9 +4128,6 @@
     <t>2 águas</t>
   </si>
   <si>
-    <t>1 cerveja + 1 água</t>
-  </si>
-  <si>
     <t>paulo</t>
   </si>
   <si>
@@ -4152,9 +4143,6 @@
     <t>1/2 cartão de débito</t>
   </si>
   <si>
-    <t>1 cerveja</t>
-  </si>
-  <si>
     <t>arthur</t>
   </si>
   <si>
@@ -4278,15 +4266,9 @@
     <t>DADOS PESSOAIS</t>
   </si>
   <si>
-    <t>[</t>
-  </si>
-  <si>
     <t>2 cervejas + 1 salgadinho</t>
   </si>
   <si>
-    <t>marquei gabriel (flávio)</t>
-  </si>
-  <si>
     <t>2/2 cartão de débito</t>
   </si>
   <si>
@@ -4404,18 +4386,9 @@
     <t>F018573-9</t>
   </si>
   <si>
-    <t>1 torcida</t>
-  </si>
-  <si>
-    <t>1 salgadinho</t>
-  </si>
-  <si>
     <t>davi/henrique (fernanda)</t>
   </si>
   <si>
-    <t>pagou</t>
-  </si>
-  <si>
     <t>Aluno, Sub11, Isa, João</t>
   </si>
   <si>
@@ -4446,184 +4419,343 @@
     <t>62.936.938-0</t>
   </si>
   <si>
-    <t>1 amendoim + 1 água</t>
-  </si>
-  <si>
     <t>9,5 bebidas</t>
   </si>
   <si>
     <t>Aluno, Sub11, Walter, Henry</t>
   </si>
   <si>
+    <t>3 cervejas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Alves Pereira </t>
+  </si>
+  <si>
+    <t>(15) 99752-1409</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>número camisa</t>
+  </si>
+  <si>
+    <t>gabriel ferreira</t>
+  </si>
+  <si>
+    <t>davi marcos</t>
+  </si>
+  <si>
+    <t>pedro gg</t>
+  </si>
+  <si>
+    <t>gabriel meireles</t>
+  </si>
+  <si>
+    <t>henrique</t>
+  </si>
+  <si>
+    <t>miguel gomes</t>
+  </si>
+  <si>
+    <t>cesar</t>
+  </si>
+  <si>
+    <t>4 salgadinho, 25 campeonato</t>
+  </si>
+  <si>
+    <t>ian (sub15)</t>
+  </si>
+  <si>
+    <t>Henry Miguel Régis Lima</t>
+  </si>
+  <si>
+    <t>Walter Lima</t>
+  </si>
+  <si>
+    <t>519.605.678-53</t>
+  </si>
+  <si>
+    <t>Avenida Joaquim Silva, 273</t>
+  </si>
+  <si>
+    <t>l.walter419@gmail.com</t>
+  </si>
+  <si>
+    <t>(12) 98107-2564</t>
+  </si>
+  <si>
+    <t>matteo (sub07)</t>
+  </si>
+  <si>
+    <t>45 (junho) + 2,5 bebidas</t>
+  </si>
+  <si>
+    <t>5,0 bebidas</t>
+  </si>
+  <si>
+    <t>14,90 bebidas</t>
+  </si>
+  <si>
+    <t>73,33 (3/3 uniforme) + 59 bebidas</t>
+  </si>
+  <si>
+    <t>200 uniforme</t>
+  </si>
+  <si>
+    <t>joaquim (sub05)</t>
+  </si>
+  <si>
+    <t>josé arthur</t>
+  </si>
+  <si>
+    <t>1 água + 3 cervejas</t>
+  </si>
+  <si>
+    <t>arthur (reginaldo)</t>
+  </si>
+  <si>
+    <t>4 cervejas</t>
+  </si>
+  <si>
+    <t>2 cervejas + 1 pipoca doce</t>
+  </si>
+  <si>
+    <t>1 água + 1 heineken</t>
+  </si>
+  <si>
+    <t>Joaquim Massanori dos Reis Nogata</t>
+  </si>
+  <si>
+    <t>Anderson Rogério Nogata</t>
+  </si>
+  <si>
+    <t>302.194.398-50</t>
+  </si>
+  <si>
+    <t>Rua José Sarti, 1190, Brigadeiro Tobias</t>
+  </si>
+  <si>
+    <t>anderson.nogata@hotmail.com</t>
+  </si>
+  <si>
+    <t>Aluno, Sub07, Anderson, Joaquim</t>
+  </si>
+  <si>
+    <t>henry</t>
+  </si>
+  <si>
+    <t>gabriel menor</t>
+  </si>
+  <si>
+    <t>josé henrique (sub15)</t>
+  </si>
+  <si>
+    <t>cauã (sub15)</t>
+  </si>
+  <si>
+    <t>cauã</t>
+  </si>
+  <si>
+    <t>pablo</t>
+  </si>
+  <si>
+    <t>2 (disponível)</t>
+  </si>
+  <si>
+    <t>nicolas (stepanie)</t>
+  </si>
+  <si>
+    <t>2 gatorade</t>
+  </si>
+  <si>
+    <t>nicolas (josé)</t>
+  </si>
+  <si>
+    <t>pablo (dirceu)</t>
+  </si>
+  <si>
+    <t>1 guaraná antarctica + 1 água</t>
+  </si>
+  <si>
+    <t>tiago (tommy)</t>
+  </si>
+  <si>
+    <t>crédito 5,00</t>
+  </si>
+  <si>
+    <t>crédito 7,5</t>
+  </si>
+  <si>
+    <t>82,50 bebidas</t>
+  </si>
+  <si>
+    <t>25,50 bebidas</t>
+  </si>
+  <si>
+    <t>200 (uniforme) + 7,5 bebidas</t>
+  </si>
+  <si>
+    <t>Cauã Maranhão de Proença</t>
+  </si>
+  <si>
+    <t>Willian Alaminos de Proença</t>
+  </si>
+  <si>
+    <t>347.311.208-96</t>
+  </si>
+  <si>
+    <t>José Lamberti, 554 - Santo André</t>
+  </si>
+  <si>
+    <t>willianalaminosdeproenca@gmail.com</t>
+  </si>
+  <si>
+    <t>João Henrique Claro Miranda</t>
+  </si>
+  <si>
+    <t>Cristiane Maria Claro</t>
+  </si>
+  <si>
+    <t>310.977.678-25</t>
+  </si>
+  <si>
+    <t>Avenida Carlos Spangero, 717</t>
+  </si>
+  <si>
+    <t>crisclaro@gmail.com</t>
+  </si>
+  <si>
+    <t>(15) 99795-6217</t>
+  </si>
+  <si>
+    <t>Lucas Matheus Ferreira</t>
+  </si>
+  <si>
+    <t>Adriana Cristiana Ferreira</t>
+  </si>
+  <si>
+    <t>160.098.718-40</t>
+  </si>
+  <si>
+    <t>Rua Elza Salvestro Bonilha, 70 - Jardim Matilde (Além Ponte)</t>
+  </si>
+  <si>
+    <t>(15) 99824-4174</t>
+  </si>
+  <si>
+    <t>15 bebidas</t>
+  </si>
+  <si>
+    <t>30 bebidas</t>
+  </si>
+  <si>
+    <t>34 bebidas</t>
+  </si>
+  <si>
+    <t>15 diferença aulas</t>
+  </si>
+  <si>
+    <t>Matheus Sartori Alves</t>
+  </si>
+  <si>
+    <t>Rodrigo Silveira Alves</t>
+  </si>
+  <si>
+    <t>411.266.818-06</t>
+  </si>
+  <si>
+    <t>Rua Jorge Barcelli, 12 - Vila Rica</t>
+  </si>
+  <si>
+    <t>rodrigosilveira859@gmail.com</t>
+  </si>
+  <si>
+    <t>(15) 99833-9426</t>
+  </si>
+  <si>
+    <t>Parou, Sub07, Fabio, Theo</t>
+  </si>
+  <si>
+    <t>Parou, Sub07, Gustavo, César</t>
+  </si>
+  <si>
+    <t>Parou, Sub07, João Paulo, João Gabriel</t>
+  </si>
+  <si>
+    <t>Aluno, Sub07, Rodrigo, Matheus</t>
+  </si>
+  <si>
+    <t>pagante</t>
+  </si>
+  <si>
+    <t>pagou campeonato</t>
+  </si>
+  <si>
+    <t>leo (rogério)</t>
+  </si>
+  <si>
+    <t>ruan (gislene)</t>
+  </si>
+  <si>
     <t>leo (agnes)</t>
   </si>
   <si>
-    <t>acho que foi só 1 cerveja, confirmar</t>
-  </si>
-  <si>
-    <t>3 cervejas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Alves Pereira </t>
-  </si>
-  <si>
-    <t>(15) 99752-1409</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>número camisa</t>
-  </si>
-  <si>
-    <t>gabriel ferreira</t>
-  </si>
-  <si>
-    <t>davi marcos</t>
-  </si>
-  <si>
-    <t>pedro gg</t>
-  </si>
-  <si>
-    <t>gabriel meireles</t>
-  </si>
-  <si>
-    <t>henrique</t>
-  </si>
-  <si>
-    <t>miguel gomes</t>
-  </si>
-  <si>
-    <t>cesar</t>
-  </si>
-  <si>
-    <t>4 salgadinho, 25 campeonato</t>
-  </si>
-  <si>
-    <t>ian (sub15)</t>
-  </si>
-  <si>
-    <t>1 guaraná antarctica</t>
-  </si>
-  <si>
-    <t>pipoca doce</t>
-  </si>
-  <si>
-    <t>2 cervejas</t>
-  </si>
-  <si>
-    <t>Henry Miguel Régis Lima</t>
-  </si>
-  <si>
-    <t>Walter Lima</t>
-  </si>
-  <si>
-    <t>519.605.678-53</t>
-  </si>
-  <si>
-    <t>Avenida Joaquim Silva, 273</t>
-  </si>
-  <si>
-    <t>l.walter419@gmail.com</t>
-  </si>
-  <si>
-    <t>(12) 98107-2564</t>
-  </si>
-  <si>
-    <t>matteo (sub07)</t>
-  </si>
-  <si>
-    <t>45 (junho) + 2,5 bebidas</t>
-  </si>
-  <si>
-    <t>5,0 bebidas</t>
-  </si>
-  <si>
-    <t>14,90 bebidas</t>
-  </si>
-  <si>
-    <t>73,33 (3/3 uniforme) + 59 bebidas</t>
-  </si>
-  <si>
-    <t>200 uniforme</t>
-  </si>
-  <si>
-    <t>joaquim (sub05)</t>
-  </si>
-  <si>
-    <t>josé arthur</t>
-  </si>
-  <si>
-    <t>1 água + 3 cervejas</t>
-  </si>
-  <si>
-    <t>arthur (reginaldo)</t>
-  </si>
-  <si>
-    <t>4 cervejas</t>
-  </si>
-  <si>
-    <t>1 água + 1 cerveja</t>
-  </si>
-  <si>
-    <t>2 cervejas + 1 pipoca doce</t>
-  </si>
-  <si>
-    <t>1 água + 1 heineken</t>
-  </si>
-  <si>
-    <t>Joaquim Massanori dos Reis Nogata</t>
-  </si>
-  <si>
-    <t>Anderson Rogério Nogata</t>
-  </si>
-  <si>
-    <t>302.194.398-50</t>
-  </si>
-  <si>
-    <t>Rua José Sarti, 1190, Brigadeiro Tobias</t>
-  </si>
-  <si>
-    <t>anderson.nogata@hotmail.com</t>
-  </si>
-  <si>
-    <t>Aluno, Sub07, Anderson, Joaquim</t>
-  </si>
-  <si>
-    <t>henry</t>
-  </si>
-  <si>
-    <t>2 salgadinhos bacon</t>
-  </si>
-  <si>
-    <t>gabriel menor</t>
-  </si>
-  <si>
-    <t>josé henrique (sub15)</t>
-  </si>
-  <si>
-    <t>cauã (sub15)</t>
-  </si>
-  <si>
-    <t>lucas</t>
-  </si>
-  <si>
-    <t>cauã</t>
-  </si>
-  <si>
-    <t>joão henrique</t>
-  </si>
-  <si>
-    <t>pablo</t>
-  </si>
-  <si>
-    <t>2 (disponível)</t>
+    <t>salgadinho fofura</t>
+  </si>
+  <si>
+    <t>não lembro o que foi</t>
+  </si>
+  <si>
+    <t>pedro (novo sub07)</t>
+  </si>
+  <si>
+    <t>lucas (sub15)</t>
+  </si>
+  <si>
+    <t>gustavo (sérgio)</t>
+  </si>
+  <si>
+    <t>matheus (novo sub07)</t>
+  </si>
+  <si>
+    <t>torcida + água</t>
+  </si>
+  <si>
+    <t>não sei se pegou a última cerveja</t>
+  </si>
+  <si>
+    <t>cartão de crédito (3x)</t>
+  </si>
+  <si>
+    <t>cartão de crédito (1x)</t>
+  </si>
+  <si>
+    <t>3 cervejas (R$15,00) + 2 cervejas (R$12,00)</t>
+  </si>
+  <si>
+    <t>48 bebidas</t>
+  </si>
+  <si>
+    <t>joão sub 11</t>
+  </si>
+  <si>
+    <t>2 cervejas + 1 água</t>
+  </si>
+  <si>
+    <t>3 cervejas + 1 água</t>
+  </si>
+  <si>
+    <t>1 cerveja (R$6,00) + 1 água</t>
+  </si>
+  <si>
+    <t>4 cervejas + 1 água</t>
   </si>
 </sst>
 </file>
@@ -4635,7 +4767,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4663,6 +4795,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4802,7 +4941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4943,6 +5082,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6887,7 +7030,7 @@
         <v>138</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G30" s="6">
         <v>40812</v>
@@ -11189,14 +11332,14 @@
         <v>331</v>
       </c>
       <c r="F136" s="29" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G136" s="38"/>
       <c r="H136" s="6">
         <v>44653</v>
       </c>
       <c r="I136" s="29" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="137" spans="2:9" ht="13.5" customHeight="1"/>
@@ -12064,11 +12207,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12091,7 +12233,7 @@
         <v>154</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>2</v>
@@ -12100,7 +12242,7 @@
         <v>1110</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>162</v>
@@ -12109,7 +12251,7 @@
         <v>1064</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="I1" s="50" t="s">
         <v>162</v>
@@ -12118,7 +12260,7 @@
         <v>1064</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="L1" s="50" t="s">
         <v>162</v>
@@ -12129,16 +12271,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="29" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="B2" s="29">
         <v>9</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E2" s="29">
         <v>199.9</v>
@@ -12154,15 +12296,15 @@
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="29" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="B3" s="29">
         <v>11</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>1109</v>
@@ -12183,15 +12325,15 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="B4" s="29">
         <v>20</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D4" s="71" t="s">
         <v>1109</v>
@@ -12212,13 +12354,13 @@
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="53" t="s">
         <v>1131</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D5" s="71">
         <v>6</v>
@@ -12239,7 +12381,7 @@
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>1138</v>
       </c>
@@ -12247,7 +12389,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D6" s="71" t="s">
         <v>1109</v>
@@ -12276,7 +12418,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D7" s="71">
         <v>14</v>
@@ -12299,11 +12441,11 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D8" s="71">
         <v>14</v>
@@ -12332,7 +12474,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D9" s="71">
         <v>12</v>
@@ -12344,7 +12486,7 @@
         <v>44671</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H9" s="29">
         <v>100</v>
@@ -12365,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D10" s="71">
         <v>14</v>
@@ -12377,7 +12519,7 @@
         <v>44671</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="H10" s="29">
         <v>73.33</v>
@@ -12386,7 +12528,7 @@
         <v>44713</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -12394,13 +12536,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B11" s="29">
         <v>10</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D11" s="71">
         <v>14</v>
@@ -12412,7 +12554,7 @@
         <v>44671</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H11" s="29">
         <v>100</v>
@@ -12427,13 +12569,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B12" s="29">
         <v>5</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D12" s="71">
         <v>16</v>
@@ -12445,7 +12587,7 @@
         <v>44673</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H12" s="53">
         <v>100</v>
@@ -12458,13 +12600,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B13" s="29">
         <v>13</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D13" s="71">
         <v>12</v>
@@ -12476,7 +12618,7 @@
         <v>44686</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H13" s="29">
         <v>100</v>
@@ -12485,7 +12627,7 @@
         <v>44713</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -12493,13 +12635,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B14" s="29">
         <v>4</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D14" s="71">
         <v>12</v>
@@ -12509,7 +12651,7 @@
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H14" s="29">
         <v>100</v>
@@ -12524,11 +12666,11 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D15" s="71">
         <v>14</v>
@@ -12551,13 +12693,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B16" s="29">
         <v>11</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D16" s="71">
         <v>12</v>
@@ -12569,7 +12711,7 @@
         <v>44687</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H16" s="29">
         <v>100</v>
@@ -12590,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D17" s="71">
         <v>12</v>
@@ -12602,7 +12744,7 @@
         <v>44698</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="H17" s="53">
         <v>100</v>
@@ -12621,7 +12763,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D18" s="71">
         <v>12</v>
@@ -12633,7 +12775,7 @@
         <v>44701</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="H18" s="29">
         <v>100</v>
@@ -12642,21 +12784,21 @@
         <v>44722</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" s="29" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="B19" s="29">
         <v>12</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D19" s="71">
         <v>8</v>
@@ -12675,15 +12817,15 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" s="29" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B20" s="29">
         <v>8</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D20" s="71">
         <v>10</v>
@@ -12702,15 +12844,15 @@
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" hidden="1">
-      <c r="A21" s="43" t="s">
-        <v>1370</v>
+    <row r="21" spans="1:13">
+      <c r="A21" s="40" t="s">
+        <v>1366</v>
       </c>
       <c r="B21" s="29">
         <v>1</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D21" s="71">
         <v>12</v>
@@ -12725,15 +12867,15 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13">
       <c r="A22" s="29" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="B22" s="29">
         <v>15</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D22" s="71">
         <v>10</v>
@@ -12748,15 +12890,15 @@
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23" s="29" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B23" s="29">
         <v>10</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D23" s="71">
         <v>10</v>
@@ -12771,7 +12913,7 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13">
       <c r="A24" s="29" t="s">
         <v>1089</v>
       </c>
@@ -12779,7 +12921,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D24" s="71">
         <v>10</v>
@@ -12794,7 +12936,7 @@
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13">
       <c r="A25" s="29" t="s">
         <v>1132</v>
       </c>
@@ -12802,7 +12944,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D25" s="71">
         <v>10</v>
@@ -12817,7 +12959,7 @@
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13">
       <c r="A26" s="29" t="s">
         <v>1099</v>
       </c>
@@ -12825,7 +12967,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D26" s="71">
         <v>10</v>
@@ -12840,7 +12982,7 @@
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13">
       <c r="A27" s="29" t="s">
         <v>1145</v>
       </c>
@@ -12848,7 +12990,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D27" s="71">
         <v>8</v>
@@ -12863,15 +13005,15 @@
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28" s="29" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1526</v>
+        <v>1507</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D28" s="71">
         <v>8</v>
@@ -12890,7 +13032,7 @@
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" s="29" t="s">
         <v>1114</v>
       </c>
@@ -12898,7 +13040,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D29" s="71">
         <v>10</v>
@@ -12913,13 +13055,13 @@
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="29" t="s">
         <v>1144</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D30" s="71">
         <v>6</v>
@@ -12936,15 +13078,15 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="29" t="s">
-        <v>1525</v>
+        <v>1506</v>
       </c>
       <c r="B31" s="29">
         <v>12</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D31" s="29">
+        <v>1227</v>
+      </c>
+      <c r="D31" s="71">
         <v>12</v>
       </c>
       <c r="E31" s="29">
@@ -12961,15 +13103,15 @@
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" s="29" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D32" s="29">
+        <v>1228</v>
+      </c>
+      <c r="D32" s="71">
         <v>10</v>
       </c>
       <c r="E32" s="29"/>
@@ -12982,20 +13124,22 @@
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13">
       <c r="A33" s="29" t="s">
-        <v>1517</v>
+        <v>1501</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D33" s="29">
+        <v>1228</v>
+      </c>
+      <c r="D33" s="71">
         <v>10</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="G33" s="53" t="s">
+        <v>1563</v>
+      </c>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -13004,13 +13148,21 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="29"/>
+      <c r="A34" s="53" t="s">
+        <v>1090</v>
+      </c>
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="71"/>
+      <c r="C34" s="29" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D34" s="71">
+        <v>6</v>
+      </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="G34" s="53" t="s">
+        <v>1562</v>
+      </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
@@ -13111,11 +13263,7 @@
   </sheetData>
   <autoFilter ref="A1:M33">
     <filterColumn colId="1"/>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="sub11"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -13145,7 +13293,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -13307,40 +13455,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="92" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
+      <c r="A1" s="94" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="50" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B2" s="50" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>1405</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="83">
@@ -13524,22 +13672,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -13601,7 +13749,7 @@
       </c>
       <c r="H3" s="6" t="str">
         <f t="shared" ref="H3:H24" ca="1" si="0">DATEDIF(I3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I3,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 5 meses 27 dias</v>
+        <v>6 anos, 6 meses 17 dias</v>
       </c>
       <c r="I3" s="6">
         <v>42395</v>
@@ -13636,7 +13784,7 @@
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 0 meses 23 dias</v>
+        <v>8 anos, 1 meses 13 dias</v>
       </c>
       <c r="I4" s="6">
         <v>41820</v>
@@ -13673,7 +13821,7 @@
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 19 dias</v>
+        <v>11 anos, 2 meses 9 dias</v>
       </c>
       <c r="I5" s="6">
         <v>40697</v>
@@ -13710,7 +13858,7 @@
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 1 meses 1 dias</v>
+        <v>9 anos, 1 meses 22 dias</v>
       </c>
       <c r="I6" s="6">
         <v>41446</v>
@@ -13745,7 +13893,7 @@
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 6 meses 22 dias</v>
+        <v>122 anos, 7 meses 12 dias</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -13780,7 +13928,7 @@
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 9 meses 27 dias</v>
+        <v>10 anos, 10 meses 17 dias</v>
       </c>
       <c r="I8" s="6">
         <v>40812</v>
@@ -13817,7 +13965,7 @@
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 0 meses 15 dias</v>
+        <v>14 anos, 1 meses 5 dias</v>
       </c>
       <c r="I9" s="6">
         <v>39636</v>
@@ -13854,7 +14002,7 @@
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 3 meses 8 dias</v>
+        <v>8 anos, 3 meses 29 dias</v>
       </c>
       <c r="I10" s="6">
         <v>41743</v>
@@ -13873,15 +14021,15 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="29" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="29" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 27 dias</v>
+        <v>6 anos, 7 meses 17 dias</v>
       </c>
       <c r="I11" s="38">
         <v>42364</v>
@@ -13918,7 +14066,7 @@
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 11 dias</v>
+        <v>6 anos, 1 meses 1 dias</v>
       </c>
       <c r="I12" s="6">
         <v>42562</v>
@@ -13952,7 +14100,7 @@
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 5 meses 17 dias</v>
+        <v>7 anos, 6 meses 7 dias</v>
       </c>
       <c r="I13" s="6">
         <v>42040</v>
@@ -13967,14 +14115,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="E14" s="29" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 15 dias</v>
+        <v>10 anos, 3 meses 5 dias</v>
       </c>
       <c r="I14" s="38">
         <v>41036</v>
@@ -13991,26 +14139,26 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="29" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>1329</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="29" t="s">
         <v>1330</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="D15" s="29" t="s">
         <v>1331</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="E15" s="29" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>1332</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>1333</v>
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 5 meses 23 dias</v>
+        <v>10 anos, 6 meses 13 dias</v>
       </c>
       <c r="I15" s="64">
         <v>40938</v>
@@ -14038,7 +14186,7 @@
       </c>
       <c r="H16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 1 meses 6 dias</v>
+        <v>5 anos, 1 meses 27 dias</v>
       </c>
       <c r="I16" s="6">
         <v>42902</v>
@@ -14074,7 +14222,7 @@
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 2 meses 0 dias</v>
+        <v>5 anos, 2 meses 21 dias</v>
       </c>
       <c r="I17" s="26">
         <v>42877</v>
@@ -14107,7 +14255,7 @@
       </c>
       <c r="H18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 0 meses 13 dias</v>
+        <v>6 anos, 1 meses 3 dias</v>
       </c>
       <c r="I18" s="6">
         <v>42560</v>
@@ -14140,7 +14288,7 @@
       </c>
       <c r="H19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 0 dias</v>
+        <v>6 anos, 3 meses 21 dias</v>
       </c>
       <c r="I19" s="26">
         <v>42482</v>
@@ -14171,7 +14319,7 @@
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 11 dias</v>
+        <v>6 anos, 4 meses 1 dias</v>
       </c>
       <c r="I20" s="26">
         <v>42471</v>
@@ -14207,7 +14355,7 @@
       </c>
       <c r="H21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 6 meses 17 dias</v>
+        <v>6 anos, 7 meses 7 dias</v>
       </c>
       <c r="I21" s="6">
         <v>42374</v>
@@ -14224,10 +14372,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="E22" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>21</v>
@@ -14238,26 +14386,26 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>1163</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>1164</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>1165</v>
       </c>
       <c r="E23" s="57" t="s">
         <v>966</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 7 meses 19 dias</v>
+        <v>5 anos, 8 meses 9 dias</v>
       </c>
       <c r="I23" s="87">
         <v>42707</v>
@@ -14271,14 +14419,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="E24" s="29" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 0 meses 14 dias</v>
+        <v>11 anos, 1 meses 4 dias</v>
       </c>
       <c r="I24" s="86">
         <v>40732</v>
@@ -14301,11 +14449,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P955"/>
+  <dimension ref="A1:Q953"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="A50:F58"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14325,31 +14473,35 @@
     <col min="13" max="13" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" style="78" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" style="71" customWidth="1"/>
-    <col min="16" max="1011" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="29" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="71" customWidth="1"/>
+    <col min="18" max="1011" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="76"/>
       <c r="H1" s="76"/>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -14369,16 +14521,16 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1297</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>6</v>
@@ -14390,16 +14542,19 @@
         <v>2</v>
       </c>
       <c r="N2" s="79" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>1426</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>1420</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>257</v>
       </c>
@@ -14417,10 +14572,10 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="27" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>134</v>
@@ -14430,8 +14585,8 @@
         <v>43368</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f t="shared" ref="L3:L41" ca="1" si="0">DATEDIF(K3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K3,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 9 meses 28 dias</v>
+        <f t="shared" ref="L3:L39" ca="1" si="0">DATEDIF(K3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K3,TODAY(),"MD")&amp;" dias"</f>
+        <v>3 anos, 10 meses 18 dias</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>64</v>
@@ -14440,8 +14595,11 @@
         <v>18</v>
       </c>
       <c r="O3" s="17"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>200</v>
       </c>
@@ -14461,20 +14619,20 @@
         <v>204</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="K4" s="86">
         <v>42956</v>
       </c>
       <c r="L4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4 anos, 11 meses 13 dias</v>
+        <v>5 anos, 0 meses 3 dias</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>64</v>
@@ -14483,8 +14641,11 @@
         <v>11</v>
       </c>
       <c r="O4" s="80"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
         <v>195</v>
       </c>
@@ -14504,10 +14665,10 @@
         <v>199</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>90</v>
@@ -14518,7 +14679,7 @@
       </c>
       <c r="L5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 29 dias</v>
+        <v>5 anos, 9 meses 19 dias</v>
       </c>
       <c r="M5" s="27" t="s">
         <v>64</v>
@@ -14527,8 +14688,11 @@
         <v>12</v>
       </c>
       <c r="O5" s="17"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
         <v>78</v>
       </c>
@@ -14544,23 +14708,23 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="27" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="K6" s="18">
         <v>42541</v>
       </c>
       <c r="L6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 2 dias</v>
+        <v>6 anos, 1 meses 23 dias</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>64</v>
@@ -14571,669 +14735,720 @@
       <c r="O6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="29" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>1384</v>
+    <row r="7" spans="1:17">
+      <c r="A7" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>1378</v>
-      </c>
-      <c r="K7" s="86">
-        <v>42528</v>
+        <v>1339</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K7" s="18">
+        <v>42338</v>
       </c>
       <c r="L7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 15 dias</v>
-      </c>
-      <c r="M7" s="29" t="s">
+        <v>6 anos, 8 meses 13 dias</v>
+      </c>
+      <c r="M7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="80">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>97</v>
+      <c r="N7" s="77">
+        <v>11</v>
+      </c>
+      <c r="O7" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>204</v>
+        <v>1345</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>205</v>
+        <v>1273</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>1091</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>1466</v>
-      </c>
-      <c r="K8" s="18">
-        <v>42338</v>
+        <v>1422</v>
+      </c>
+      <c r="K8" s="87">
+        <v>42294</v>
       </c>
       <c r="L8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 23 dias</v>
+        <v>6 anos, 9 meses 26 dias</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>64</v>
       </c>
       <c r="N8" s="77">
-        <v>11</v>
-      </c>
-      <c r="O8" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="27" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>1347</v>
-      </c>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="27" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1274</v>
+        <v>73</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>1091</v>
+        <v>188</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>1428</v>
-      </c>
-      <c r="K9" s="87">
-        <v>42294</v>
+        <v>1423</v>
+      </c>
+      <c r="K9" s="18">
+        <v>42292</v>
       </c>
       <c r="L9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 5 dias</v>
+        <v>6 anos, 9 meses 28 dias</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>64</v>
       </c>
       <c r="N9" s="77">
-        <v>19</v>
-      </c>
-      <c r="O9" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>186</v>
-      </c>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>187</v>
+        <v>1260</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="27" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>73</v>
+        <v>1274</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>188</v>
+        <v>1247</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>1429</v>
-      </c>
-      <c r="K10" s="18">
-        <v>42292</v>
+        <v>1424</v>
+      </c>
+      <c r="K10" s="86">
+        <v>42272</v>
       </c>
       <c r="L10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 7 dias</v>
+        <v>6 anos, 10 meses 18 dias</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="77">
-        <v>12</v>
-      </c>
-      <c r="O10" s="85" t="s">
+      <c r="N10" s="80">
+        <v>44621</v>
+      </c>
+      <c r="O10" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="E11" s="8" t="s">
-        <v>1261</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="27" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>1275</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>1248</v>
+        <v>84</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>1430</v>
-      </c>
-      <c r="K11" s="86">
-        <v>42272</v>
+        <v>1438</v>
+      </c>
+      <c r="K11" s="18">
+        <v>42219</v>
       </c>
       <c r="L11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 28 dias</v>
+        <v>7 anos, 0 meses 9 dias</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="80">
-        <v>44621</v>
-      </c>
-      <c r="O11" s="80" t="s">
+      <c r="N11" s="77">
+        <v>5</v>
+      </c>
+      <c r="O11" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="G12" s="27" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>1276</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>1444</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="J12" s="27"/>
       <c r="K12" s="18">
-        <v>42219</v>
+        <v>42170</v>
       </c>
       <c r="L12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 11 meses 19 dias</v>
+        <v>7 anos, 1 meses 28 dias</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>64</v>
       </c>
       <c r="N12" s="77">
-        <v>5</v>
-      </c>
-      <c r="O12" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="Q12" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>223</v>
-      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="27" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>1277</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="18">
-        <v>42170</v>
+        <v>1244</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K13" s="86">
+        <v>42107</v>
       </c>
       <c r="L13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 1 meses 7 dias</v>
+        <v>7 anos, 3 meses 30 dias</v>
       </c>
       <c r="M13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="77">
-        <v>1</v>
-      </c>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="27" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>1443</v>
+      <c r="N13" s="80">
+        <v>44617</v>
+      </c>
+      <c r="O13" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+      <c r="E14" s="29" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>1371</v>
       </c>
       <c r="K14" s="86">
-        <v>42107</v>
+        <v>42076</v>
       </c>
       <c r="L14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 3 meses 9 dias</v>
-      </c>
-      <c r="M14" s="27" t="s">
+        <v>7 anos, 4 meses 30 dias</v>
+      </c>
+      <c r="M14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="80">
-        <v>44617</v>
-      </c>
-      <c r="O14" s="80" t="s">
+      <c r="Q14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A15" s="29" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>1392</v>
+      </c>
       <c r="E15" s="29" t="s">
-        <v>1366</v>
+        <v>1393</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>1341</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>1365</v>
+        <v>1388</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="K15" s="86">
-        <v>42076</v>
+        <v>42058</v>
       </c>
       <c r="L15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 9 dias</v>
-      </c>
-      <c r="M15" s="29" t="s">
+        <v>7 anos, 5 meses 20 dias</v>
+      </c>
+      <c r="M15" s="27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A16" s="29" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K16" s="86">
-        <v>42058</v>
+      <c r="N15" s="80">
+        <v>44713</v>
+      </c>
+      <c r="Q15" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="E16" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="27" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K16" s="87">
+        <v>42019</v>
       </c>
       <c r="L16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 30 dias</v>
+        <v>7 anos, 6 meses 28 dias</v>
       </c>
       <c r="M16" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="80">
-        <v>44713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+      <c r="N16" s="45">
+        <v>44660</v>
+      </c>
+      <c r="O16" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="E17" s="8" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>63</v>
+      </c>
       <c r="G17" s="27" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>1385</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>1442</v>
-      </c>
-      <c r="K17" s="87">
-        <v>42019</v>
+        <v>1338</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K17" s="86">
+        <v>41878</v>
       </c>
       <c r="L17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 6 meses 7 dias</v>
+        <v>7 anos, 11 meses 16 dias</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="45">
-        <v>44660</v>
-      </c>
-      <c r="O17" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>1340</v>
+        <v>21</v>
+      </c>
+      <c r="N17" s="78">
+        <v>30</v>
+      </c>
+      <c r="O17" s="80"/>
+      <c r="Q17" s="80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A18" s="29" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>1343</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>1279</v>
+        <v>1459</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>1246</v>
+        <v>1476</v>
       </c>
       <c r="K18" s="86">
-        <v>41878</v>
+        <v>41613</v>
       </c>
       <c r="L18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 10 meses 26 dias</v>
+        <v>8 anos, 8 meses 7 dias</v>
       </c>
       <c r="M18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="78">
-        <v>30</v>
-      </c>
-      <c r="O18" s="80"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A19" s="29" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>1496</v>
-      </c>
+      <c r="Q18" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A19" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="38" t="s">
-        <v>1345</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>1469</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>1491</v>
-      </c>
-      <c r="K19" s="86">
-        <v>41613</v>
+        <v>1342</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="18">
+        <v>41521</v>
       </c>
       <c r="L19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 7 meses 17 dias</v>
+        <v>8 anos, 11 meses 8 dias</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="N19" s="77">
+        <v>4</v>
+      </c>
+      <c r="O19" s="17"/>
+      <c r="Q19" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>175</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="38" t="s">
-        <v>1344</v>
+      <c r="G20" s="27" t="s">
+        <v>1338</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>1435</v>
+      </c>
       <c r="K20" s="18">
-        <v>41521</v>
+        <v>41262</v>
       </c>
       <c r="L20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 10 meses 18 dias</v>
+        <v>9 anos, 7 meses 24 dias</v>
       </c>
       <c r="M20" s="27" t="s">
         <v>21</v>
       </c>
       <c r="N20" s="77">
-        <v>4</v>
-      </c>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K21" s="18">
-        <v>41262</v>
+        <v>30</v>
+      </c>
+      <c r="O20" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K21" s="86">
+        <v>41172</v>
       </c>
       <c r="L21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 7 meses 3 dias</v>
+        <v>9 anos, 10 meses 23 dias</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="77">
-        <v>30</v>
-      </c>
-      <c r="O21" s="85" t="s">
+      <c r="Q21" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>1458</v>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="38" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>1434</v>
       </c>
       <c r="K22" s="86">
-        <v>41172</v>
+        <v>41169</v>
       </c>
       <c r="L22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 2 dias</v>
+        <v>9 anos, 10 meses 26 dias</v>
       </c>
       <c r="M22" s="27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+      <c r="N22" s="45">
+        <v>44646</v>
+      </c>
+      <c r="O22" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -15241,23 +15456,23 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="38" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>1440</v>
-      </c>
-      <c r="K23" s="86">
-        <v>41169</v>
+        <v>1433</v>
+      </c>
+      <c r="K23" s="87">
+        <v>41094</v>
       </c>
       <c r="L23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 5 dias</v>
+        <v>10 anos, 1 meses 8 dias</v>
       </c>
       <c r="M23" s="27" t="s">
         <v>21</v>
@@ -15268,332 +15483,375 @@
       <c r="O23" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q23" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1">
       <c r="G24" s="38" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H24" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H24" s="29" t="s">
         <v>1283</v>
       </c>
-      <c r="I24" s="27" t="s">
-        <v>1239</v>
+      <c r="I24" s="29" t="s">
+        <v>1242</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>1439</v>
-      </c>
-      <c r="K24" s="87">
-        <v>41094</v>
+        <v>1432</v>
+      </c>
+      <c r="K24" s="86">
+        <v>41051</v>
       </c>
       <c r="L24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 0 meses 18 dias</v>
+        <v>10 anos, 2 meses 21 dias</v>
       </c>
       <c r="M24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="45">
-        <v>44646</v>
+      <c r="N24" s="78">
+        <v>11</v>
       </c>
       <c r="O24" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q24" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="38" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H25" s="29" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="I25" s="29" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>1438</v>
-      </c>
-      <c r="K25" s="86">
-        <v>41051</v>
+      <c r="I25" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K25" s="87">
+        <v>41047</v>
       </c>
       <c r="L25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 0 dias</v>
+        <v>10 anos, 2 meses 25 dias</v>
       </c>
       <c r="M25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="78">
-        <v>11</v>
+      <c r="N25" s="77">
+        <v>5</v>
       </c>
       <c r="O25" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>1168</v>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A26" s="27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>1117</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E26" s="8"/>
+        <v>1118</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>1121</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="38" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>1285</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>1425</v>
-      </c>
-      <c r="K26" s="87">
-        <v>41047</v>
+      <c r="I26" s="27" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K26" s="86">
+        <v>41031</v>
       </c>
       <c r="L26" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 4 dias</v>
+        <v>10 anos, 3 meses 10 dias</v>
       </c>
       <c r="M26" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="77">
-        <v>5</v>
+      <c r="N26" s="78">
+        <v>1</v>
       </c>
       <c r="O26" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q26" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="38" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>1119</v>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1">
+      <c r="G27" s="29" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>1440</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="K27" s="86">
-        <v>41031</v>
+        <v>40975</v>
       </c>
       <c r="L27" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 20 dias</v>
-      </c>
-      <c r="M27" s="27" t="s">
+        <v>10 anos, 5 meses 5 dias</v>
+      </c>
+      <c r="M27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="78">
-        <v>1</v>
-      </c>
-      <c r="O27" s="80" t="s">
+      <c r="O27" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="G28" s="29" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>1372</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>1446</v>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>1445</v>
-      </c>
-      <c r="K28" s="86">
-        <v>40975</v>
+        <v>1430</v>
+      </c>
+      <c r="K28" s="18">
+        <v>40875</v>
       </c>
       <c r="L28" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 4 meses 15 dias</v>
-      </c>
-      <c r="M28" s="29" t="s">
+        <v>10 anos, 8 meses 15 dias</v>
+      </c>
+      <c r="M28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O28" s="71" t="s">
+      <c r="N28" s="77">
+        <v>10</v>
+      </c>
+      <c r="O28" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q28" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>1345</v>
+        <v>233</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>1338</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1288</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>1436</v>
+        <v>1292</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>1428</v>
       </c>
       <c r="K29" s="18">
-        <v>40875</v>
+        <v>40555</v>
       </c>
       <c r="L29" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 7 meses 25 dias</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>21</v>
+        <v>11 anos, 7 meses 0 dias</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="N29" s="77">
-        <v>10</v>
-      </c>
-      <c r="O29" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A30" s="29" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>1422</v>
-      </c>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A30" s="27" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>1417</v>
-      </c>
-      <c r="K30" s="86">
-        <v>40814</v>
+        <v>1338</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K30" s="87">
+        <v>40553</v>
       </c>
       <c r="L30" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 9 meses 25 dias</v>
+        <v>11 anos, 7 meses 2 dias</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="N30" s="45">
+        <v>44618</v>
+      </c>
+      <c r="O30" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q30" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="K31" s="18">
-        <v>40555</v>
+        <v>40117</v>
       </c>
       <c r="L31" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 6 meses 10 dias</v>
+        <v>12 anos, 9 meses 12 dias</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>35</v>
@@ -15601,599 +15859,743 @@
       <c r="N31" s="77">
         <v>15</v>
       </c>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A32" s="27" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>1451</v>
-      </c>
-      <c r="K32" s="87">
-        <v>40553</v>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A32" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K32" s="86">
+        <v>39982</v>
       </c>
       <c r="L32" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 6 meses 12 dias</v>
-      </c>
-      <c r="M32" s="27" t="s">
+        <v>13 anos, 1 meses 25 dias</v>
+      </c>
+      <c r="M32" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="45">
-        <v>44618</v>
-      </c>
-      <c r="O32" s="85" t="s">
+      <c r="N32" s="80">
+        <v>44706</v>
+      </c>
+      <c r="O32" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="K33" s="18">
-        <v>40117</v>
+        <v>39967</v>
       </c>
       <c r="L33" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 8 meses 22 dias</v>
+        <v>13 anos, 2 meses 9 dias</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N33" s="77">
-        <v>15</v>
-      </c>
-      <c r="O33" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A34" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>742</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>1448</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>1449</v>
-      </c>
-      <c r="K34" s="86">
-        <v>39982</v>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K34" s="18">
+        <v>39563</v>
       </c>
       <c r="L34" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 1 meses 4 dias</v>
-      </c>
-      <c r="M34" s="29" t="s">
+        <v>14 anos, 3 meses 18 dias</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="80">
-        <v>44706</v>
-      </c>
-      <c r="O34" s="71" t="s">
+      <c r="N34" s="77">
+        <v>16</v>
+      </c>
+      <c r="O34" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>167</v>
-      </c>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A35" s="27" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>168</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="27" t="s">
         <v>1340</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>1291</v>
+        <v>39</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>1432</v>
-      </c>
-      <c r="K35" s="18">
-        <v>39967</v>
+        <v>38</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K35" s="87">
+        <v>39464</v>
       </c>
       <c r="L35" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 1 meses 19 dias</v>
+        <v>14 anos, 6 meses 26 dias</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N35" s="77">
-        <v>19</v>
-      </c>
-      <c r="O35" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="8"/>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1">
       <c r="G36" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I36" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="39" t="s">
-        <v>1431</v>
-      </c>
-      <c r="K36" s="18">
-        <v>39563</v>
+        <v>1338</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K36" s="86">
+        <v>39378</v>
       </c>
       <c r="L36" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 2 meses 28 dias</v>
-      </c>
-      <c r="M36" s="8" t="s">
+        <v>14 anos, 9 meses 20 dias</v>
+      </c>
+      <c r="M36" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N36" s="77">
-        <v>16</v>
-      </c>
-      <c r="O36" s="80" t="s">
+      <c r="Q36" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A37" s="27" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="8"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1">
+      <c r="E37" s="29" t="s">
+        <v>1260</v>
+      </c>
       <c r="G37" s="27" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>1452</v>
-      </c>
-      <c r="K37" s="87">
-        <v>39464</v>
+        <v>1338</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K37" s="86">
+        <v>39275</v>
       </c>
       <c r="L37" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 6 meses 5 dias</v>
-      </c>
-      <c r="M37" s="8" t="s">
+        <v>15 anos, 1 meses 0 dias</v>
+      </c>
+      <c r="M37" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="77">
-        <v>12</v>
-      </c>
-      <c r="O37" s="80" t="s">
+      <c r="N37" s="80">
+        <v>44621</v>
+      </c>
+      <c r="O37" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q37" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1">
-      <c r="G38" s="27" t="s">
-        <v>1340</v>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1">
+      <c r="G38" s="29" t="s">
+        <v>1342</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K38" s="86">
-        <v>39378</v>
-      </c>
-      <c r="L38" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 8 meses 30 dias</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1">
-      <c r="E39" s="29" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>1340</v>
+        <v>1456</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q38" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A39" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>1342</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>1275</v>
+        <v>1500</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>1249</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>1447</v>
+        <v>1495</v>
       </c>
       <c r="K39" s="86">
-        <v>39275</v>
+        <v>42915</v>
       </c>
       <c r="L39" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15 anos, 0 meses 10 dias</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" s="80">
-        <v>44621</v>
-      </c>
-      <c r="O39" s="71" t="s">
+        <v>5 anos, 1 meses 14 dias</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1">
-      <c r="G40" s="29" t="s">
-        <v>1344</v>
-      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1">
       <c r="I40" s="29" t="s">
-        <v>1465</v>
+        <v>1489</v>
       </c>
       <c r="M40" s="29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A41" s="29" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>1344</v>
+      <c r="O40" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40" s="29">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1">
+      <c r="G41" s="38" t="s">
+        <v>1342</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>1516</v>
+        <v>1286</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>1511</v>
-      </c>
-      <c r="K41" s="86">
-        <v>42915</v>
-      </c>
-      <c r="L41" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 0 meses 24 dias</v>
-      </c>
-      <c r="M41" s="29" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A42" s="29" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K42" s="86">
+        <v>39999</v>
+      </c>
+      <c r="L42" s="6" t="str">
+        <f t="shared" ref="L42:L44" ca="1" si="1">DATEDIF(K42,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K42,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K42,TODAY(),"MD")&amp;" dias"</f>
+        <v>13 anos, 1 meses 7 dias</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q42" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A43" s="29" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K43" s="86">
+        <v>39911</v>
+      </c>
+      <c r="L43" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>13 anos, 4 meses 4 dias</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q43" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A44" s="29" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K44" s="86">
+        <v>40214</v>
+      </c>
+      <c r="L44" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>12 anos, 6 meses 7 dias</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q44" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K45" s="86">
+        <v>40757</v>
+      </c>
+      <c r="L45" s="6" t="str">
+        <f ca="1">DATEDIF(K45,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K45,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K45,TODAY(),"MD")&amp;" dias"</f>
+        <v>11 anos, 0 meses 10 dias</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="78">
+        <v>21</v>
+      </c>
+      <c r="O45" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A46" s="29" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K46" s="86">
+        <v>42688</v>
+      </c>
+      <c r="L46" s="6" t="str">
+        <f ca="1">DATEDIF(K46,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K46,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K46,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 8 meses 29 dias</v>
+      </c>
+      <c r="M46" s="29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1">
-      <c r="I42" s="29" t="s">
-        <v>1504</v>
-      </c>
-      <c r="M42" s="29" t="s">
+      <c r="Q46" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+      <c r="E50" s="29" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K50" s="86">
+        <v>39622</v>
+      </c>
+      <c r="L50" s="6" t="str">
+        <f ca="1">DATEDIF(K50,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K50,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K50,TODAY(),"MD")&amp;" dias"</f>
+        <v>14 anos, 1 meses 20 dias</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J51" s="27"/>
+      <c r="K51" s="87">
+        <v>42941</v>
+      </c>
+      <c r="L51" s="6" t="str">
+        <f ca="1">DATEDIF(K51,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K51,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K51,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 0 meses 18 dias</v>
+      </c>
+      <c r="M51" s="27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1">
-      <c r="G43" s="38" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>1386</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1">
-      <c r="I44" s="29" t="s">
-        <v>1522</v>
-      </c>
-      <c r="M44" s="29" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1">
-      <c r="I45" s="29" t="s">
-        <v>1523</v>
-      </c>
-      <c r="M45" s="29" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1">
-      <c r="I46" s="29" t="s">
-        <v>1524</v>
-      </c>
-      <c r="M46" s="29" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1"/>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1">
-      <c r="E52" s="29" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>1376</v>
-      </c>
-      <c r="K52" s="86">
-        <v>39622</v>
+      <c r="N51" s="77">
+        <v>19</v>
+      </c>
+      <c r="O51" s="45"/>
+      <c r="Q51" s="45"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="18">
+        <v>42629</v>
       </c>
       <c r="L52" s="6" t="str">
         <f ca="1">DATEDIF(K52,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K52,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K52,TODAY(),"MD")&amp;" dias"</f>
-        <v>14 anos, 0 meses 30 dias</v>
+        <v>5 anos, 10 meses 27 dias</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>1217</v>
+        <v>64</v>
+      </c>
+      <c r="N52" s="77">
+        <v>26</v>
+      </c>
+      <c r="O52" s="17"/>
+      <c r="Q52" s="17"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A53" s="29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>1380</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>1270</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>1211</v>
-      </c>
-      <c r="J53" s="27"/>
-      <c r="K53" s="87">
-        <v>42941</v>
+        <v>1341</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K53" s="86">
+        <v>42528</v>
       </c>
       <c r="L53" s="6" t="str">
         <f ca="1">DATEDIF(K53,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K53,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K53,TODAY(),"MD")&amp;" dias"</f>
-        <v>4 anos, 11 meses 28 dias</v>
-      </c>
-      <c r="M53" s="27" t="s">
+        <v>6 anos, 2 meses 5 dias</v>
+      </c>
+      <c r="M53" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N53" s="77">
-        <v>19</v>
-      </c>
-      <c r="O53" s="45"/>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>240</v>
+      <c r="N53" s="80">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A54" s="29" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>1416</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="18">
-        <v>42629</v>
+        <v>1338</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K54" s="86">
+        <v>40814</v>
       </c>
       <c r="L54" s="6" t="str">
         <f ca="1">DATEDIF(K54,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K54,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K54,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 10 meses 6 dias</v>
+        <v>10 anos, 10 meses 15 dias</v>
       </c>
       <c r="M54" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="N54" s="77">
-        <v>26</v>
-      </c>
-      <c r="O54" s="17"/>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>1247</v>
-      </c>
-      <c r="J55" s="39" t="s">
-        <v>1435</v>
-      </c>
-      <c r="K55" s="86">
-        <v>40757</v>
-      </c>
-      <c r="L55" s="6" t="str">
-        <f ca="1">DATEDIF(K55,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K55,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K55,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 11 meses 20 dias</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N55" s="78">
         <v>21</v>
       </c>
-      <c r="O55" s="85" t="s">
+      <c r="Q54" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -17083,23 +17485,14 @@
     <row r="951" ht="15.75" customHeight="1"/>
     <row r="952" ht="15.75" customHeight="1"/>
     <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:O40">
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-    <filterColumn colId="14"/>
-  </autoFilter>
+  <autoFilter ref="A2:Q46"/>
   <sortState ref="A3:P43">
     <sortCondition descending="1" ref="K3"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I1:Q1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17109,11 +17502,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A270" sqref="A270:XFD270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17179,7 +17572,7 @@
         <v>44541</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C4" s="52">
         <v>100</v>
@@ -17193,7 +17586,7 @@
         <v>44576</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C5" s="52">
         <v>100</v>
@@ -17207,7 +17600,7 @@
         <v>44596</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C6" s="52">
         <v>99.9</v>
@@ -17216,7 +17609,7 @@
         <v>170</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -17463,7 +17856,7 @@
         <v>44611</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C23" s="52">
         <v>100</v>
@@ -17548,7 +17941,7 @@
         <v>170</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -17598,7 +17991,7 @@
         <v>44624</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C32" s="52">
         <v>141.4</v>
@@ -17607,7 +18000,7 @@
         <v>170</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -17615,7 +18008,7 @@
         <v>44624</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C33" s="52">
         <v>100</v>
@@ -17725,7 +18118,7 @@
         <v>170</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -17733,7 +18126,7 @@
         <v>44631</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C41" s="52">
         <v>143.9</v>
@@ -17742,7 +18135,7 @@
         <v>242</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -17773,7 +18166,7 @@
         <v>170</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -17781,7 +18174,7 @@
         <v>44636</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C44" s="52">
         <v>142.4</v>
@@ -17815,7 +18208,7 @@
         <v>44638</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C46" s="52">
         <v>99.9</v>
@@ -17844,7 +18237,7 @@
         <v>44669</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -17864,7 +18257,7 @@
         <v>44669</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -17872,7 +18265,7 @@
         <v>44639</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C49" s="52">
         <v>100</v>
@@ -17881,7 +18274,7 @@
         <v>176</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -17889,7 +18282,7 @@
         <v>44639</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C50" s="52">
         <v>129.9</v>
@@ -17903,7 +18296,7 @@
         <v>44639</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C51" s="52">
         <v>99.9</v>
@@ -17926,7 +18319,7 @@
         <v>170</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -17934,7 +18327,7 @@
         <v>44639</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C53" s="52">
         <v>140</v>
@@ -17943,7 +18336,7 @@
         <v>170</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -17951,7 +18344,7 @@
         <v>44641</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C54" s="52">
         <v>240.9</v>
@@ -17960,7 +18353,7 @@
         <v>170</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -18005,7 +18398,7 @@
         <v>182</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -18022,7 +18415,7 @@
         <v>170</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -18030,7 +18423,7 @@
         <v>44646</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C59" s="52">
         <v>100</v>
@@ -18058,7 +18451,7 @@
         <v>44648</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C61" s="52">
         <v>99.9</v>
@@ -18067,7 +18460,7 @@
         <v>170</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -18089,7 +18482,7 @@
         <v>44650</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C63" s="52">
         <v>100</v>
@@ -18103,7 +18496,7 @@
         <v>44652</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C64" s="52">
         <v>100</v>
@@ -18117,7 +18510,7 @@
         <v>44652</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C65" s="52">
         <v>100</v>
@@ -18131,7 +18524,7 @@
         <v>44653</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C66" s="52">
         <v>99</v>
@@ -18145,7 +18538,7 @@
         <v>44653</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C67" s="52">
         <v>129.9</v>
@@ -18173,7 +18566,7 @@
         <v>44656</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C69" s="52">
         <v>130</v>
@@ -18193,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -18229,7 +18622,7 @@
         <v>44657</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C73" s="52">
         <v>130</v>
@@ -18243,7 +18636,7 @@
         <v>44659</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C74" s="52">
         <v>129.9</v>
@@ -18263,7 +18656,7 @@
         <v>130</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>1157</v>
@@ -18274,7 +18667,7 @@
         <v>44660</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C76" s="52">
         <v>195</v>
@@ -18288,7 +18681,7 @@
         <v>44660</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C77" s="52">
         <v>99.9</v>
@@ -18311,7 +18704,7 @@
         <v>170</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -18328,7 +18721,7 @@
         <v>170</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -18345,7 +18738,7 @@
         <v>170</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -18353,7 +18746,7 @@
         <v>44664</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C81" s="52">
         <f>130 + 65 + 30 + 65</f>
@@ -18363,7 +18756,7 @@
         <v>242</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -18380,7 +18773,7 @@
         <v>242</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -18388,7 +18781,7 @@
         <v>44666</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C83" s="52">
         <v>129.9</v>
@@ -18397,7 +18790,7 @@
         <v>242</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -18419,7 +18812,7 @@
         <v>44667</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C85" s="52">
         <v>129.9</v>
@@ -18433,7 +18826,7 @@
         <v>44669</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C86" s="52">
         <v>129.9</v>
@@ -18442,7 +18835,7 @@
         <v>170</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -18459,7 +18852,7 @@
         <v>170</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -18481,7 +18874,7 @@
         <v>44673</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C89" s="52">
         <v>129.9</v>
@@ -18490,7 +18883,7 @@
         <v>170</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -18507,7 +18900,7 @@
         <v>170</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -18515,7 +18908,7 @@
         <v>44673</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C91" s="52">
         <v>100</v>
@@ -18529,7 +18922,7 @@
         <v>44673</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C92" s="52">
         <v>102.4</v>
@@ -18538,7 +18931,7 @@
         <v>242</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -18546,7 +18939,7 @@
         <v>44673</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C93" s="52">
         <v>130</v>
@@ -18574,7 +18967,7 @@
         <v>44674</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C95" s="52">
         <v>100</v>
@@ -18611,7 +19004,7 @@
         <v>170</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -18633,7 +19026,7 @@
         <v>44679</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C99" s="52">
         <v>129.9</v>
@@ -18642,7 +19035,7 @@
         <v>182</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -18650,7 +19043,7 @@
         <v>44679</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C100" s="52">
         <v>129.9</v>
@@ -18664,7 +19057,7 @@
         <v>44679</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C101" s="52">
         <v>130</v>
@@ -18678,7 +19071,7 @@
         <v>44680</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C102" s="52">
         <v>99.9</v>
@@ -18692,7 +19085,7 @@
         <v>44680</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C103" s="52">
         <v>130</v>
@@ -18706,7 +19099,7 @@
         <v>44683</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C104" s="52">
         <v>152.5</v>
@@ -18715,7 +19108,7 @@
         <v>170</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -18723,7 +19116,7 @@
         <v>44685</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C105" s="52">
         <v>152.5</v>
@@ -18732,7 +19125,7 @@
         <v>170</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -18740,7 +19133,7 @@
         <v>44686</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C106" s="52">
         <v>129.9</v>
@@ -18749,7 +19142,7 @@
         <v>170</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -18757,7 +19150,7 @@
         <v>44686</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C107" s="52">
         <v>130</v>
@@ -18785,7 +19178,7 @@
         <v>44687</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C109" s="52">
         <v>180</v>
@@ -18799,7 +19192,7 @@
         <v>44688</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C110" s="52">
         <v>99.9</v>
@@ -18810,7 +19203,7 @@
         <v>44688</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C111" s="52">
         <v>130</v>
@@ -18824,7 +19217,7 @@
         <v>44690</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C112" s="52">
         <v>195</v>
@@ -18838,7 +19231,7 @@
         <v>44690</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C113" s="52">
         <v>150</v>
@@ -18847,7 +19240,7 @@
         <v>170</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -18855,7 +19248,7 @@
         <v>44694</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C114" s="52">
         <v>195</v>
@@ -18869,7 +19262,7 @@
         <v>44694</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C115" s="52">
         <v>129.9</v>
@@ -18878,7 +19271,7 @@
         <v>170</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -18886,7 +19279,7 @@
         <v>44695</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C116" s="52">
         <v>99.9</v>
@@ -18914,7 +19307,7 @@
         <v>44700</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C118" s="52">
         <v>129.9</v>
@@ -18923,7 +19316,7 @@
         <v>170</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -18940,7 +19333,7 @@
         <v>170</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -18957,7 +19350,7 @@
         <v>242</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -18974,7 +19367,7 @@
         <v>170</v>
       </c>
       <c r="F121" s="29" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -18996,7 +19389,7 @@
         <v>44706</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C123" s="52">
         <v>100</v>
@@ -19010,7 +19403,7 @@
         <v>44708</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C124" s="52">
         <v>130</v>
@@ -19033,7 +19426,7 @@
         <v>170</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -19041,7 +19434,7 @@
         <v>44708</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C126" s="52">
         <v>148.9</v>
@@ -19050,7 +19443,7 @@
         <v>170</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -19067,7 +19460,7 @@
         <v>176</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -19075,7 +19468,7 @@
         <v>44708</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C128" s="52">
         <v>129.9</v>
@@ -19089,7 +19482,7 @@
         <v>44709</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C129" s="52">
         <v>129.9</v>
@@ -19103,7 +19496,7 @@
         <v>44709</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C130" s="52">
         <v>130</v>
@@ -19117,7 +19510,7 @@
         <v>44711</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C131" s="52">
         <v>99.9</v>
@@ -19154,7 +19547,7 @@
         <v>170</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -19162,7 +19555,7 @@
         <v>44713</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C134" s="52">
         <v>100</v>
@@ -19176,7 +19569,7 @@
         <v>44713</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C135" s="52">
         <v>100</v>
@@ -19185,7 +19578,7 @@
         <v>242</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -19193,7 +19586,7 @@
         <v>44714</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C136" s="52">
         <v>100</v>
@@ -19207,7 +19600,7 @@
         <v>44718</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C137" s="52">
         <v>130</v>
@@ -19230,7 +19623,7 @@
         <v>170</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -19238,7 +19631,7 @@
         <v>44718</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C139" s="52">
         <v>130</v>
@@ -19252,7 +19645,7 @@
         <v>44718</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="C140" s="52">
         <v>195</v>
@@ -19266,7 +19659,7 @@
         <v>44721</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="C141" s="52">
         <v>99</v>
@@ -19280,7 +19673,7 @@
         <v>44722</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="C142" s="52">
         <v>195</v>
@@ -19308,7 +19701,7 @@
         <v>44723</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C144" s="52">
         <v>100</v>
@@ -19336,7 +19729,7 @@
         <v>44727</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C146" s="52">
         <v>130</v>
@@ -19364,7 +19757,7 @@
         <v>44727</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C148" s="52">
         <v>100</v>
@@ -19378,7 +19771,7 @@
         <v>44729</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C149" s="52">
         <v>260</v>
@@ -19392,7 +19785,7 @@
         <v>44730</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C150" s="52">
         <v>130</v>
@@ -19401,7 +19794,7 @@
         <v>170</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -19409,7 +19802,7 @@
         <v>44730</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C151" s="52">
         <v>130</v>
@@ -19423,7 +19816,7 @@
         <v>44734</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C152" s="52">
         <v>130</v>
@@ -19437,7 +19830,7 @@
         <v>44734</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="C153" s="52">
         <v>100</v>
@@ -19451,7 +19844,7 @@
         <v>44734</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C154" s="52">
         <v>100</v>
@@ -19465,7 +19858,7 @@
         <v>44736</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C155" s="52">
         <v>100</v>
@@ -19479,7 +19872,7 @@
         <v>44736</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="C156" s="52">
         <v>130</v>
@@ -19493,7 +19886,7 @@
         <v>44736</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C157" s="52">
         <v>130</v>
@@ -19521,7 +19914,7 @@
         <v>44737</v>
       </c>
       <c r="B159" s="29" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="C159" s="52">
         <v>130</v>
@@ -19530,7 +19923,7 @@
         <v>170</v>
       </c>
       <c r="F159" s="29" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -19538,7 +19931,7 @@
         <v>44739</v>
       </c>
       <c r="B160" s="29" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C160" s="52">
         <v>130</v>
@@ -19549,7 +19942,7 @@
         <v>44739</v>
       </c>
       <c r="B161" s="29" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C161" s="52">
         <v>129.9</v>
@@ -19558,7 +19951,7 @@
         <v>170</v>
       </c>
       <c r="F161" s="29" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -19566,7 +19959,7 @@
         <v>44740</v>
       </c>
       <c r="B162" s="29" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C162" s="52">
         <v>130</v>
@@ -19580,7 +19973,7 @@
         <v>44741</v>
       </c>
       <c r="B163" s="29" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C163" s="52">
         <v>130</v>
@@ -19594,7 +19987,7 @@
         <v>44742</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C164" s="52">
         <v>130</v>
@@ -19608,7 +20001,7 @@
         <v>44743</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C165" s="52">
         <v>130</v>
@@ -19617,7 +20010,7 @@
         <v>170</v>
       </c>
       <c r="F165" s="29" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -19625,7 +20018,7 @@
         <v>44743</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C166" s="52">
         <v>130</v>
@@ -19634,7 +20027,7 @@
         <v>170</v>
       </c>
       <c r="F166" s="29" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -19642,7 +20035,7 @@
         <v>44746</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="C167" s="52">
         <v>100</v>
@@ -19656,7 +20049,7 @@
         <v>44747</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C168" s="52">
         <v>130</v>
@@ -19665,7 +20058,7 @@
         <v>170</v>
       </c>
       <c r="F168" s="29" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -19673,7 +20066,7 @@
         <v>44748</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="C169" s="52">
         <v>100</v>
@@ -19687,7 +20080,7 @@
         <v>44748</v>
       </c>
       <c r="B170" s="29" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C170" s="52">
         <v>92.5</v>
@@ -19696,7 +20089,7 @@
         <v>170</v>
       </c>
       <c r="F170" s="29" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -19713,7 +20106,7 @@
         <v>170</v>
       </c>
       <c r="F171" s="29" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -19721,7 +20114,7 @@
         <v>44750</v>
       </c>
       <c r="B172" s="29" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
       <c r="C172" s="52">
         <v>130</v>
@@ -19730,7 +20123,7 @@
         <v>242</v>
       </c>
       <c r="F172" s="29" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -19738,7 +20131,7 @@
         <v>44750</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C173" s="52">
         <v>195</v>
@@ -19752,7 +20145,7 @@
         <v>44751</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C174" s="52">
         <v>130</v>
@@ -19761,7 +20154,7 @@
         <v>170</v>
       </c>
       <c r="F174" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -19769,7 +20162,7 @@
         <v>44753</v>
       </c>
       <c r="B175" s="29" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C175" s="52">
         <v>99</v>
@@ -19778,265 +20171,811 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="176" spans="1:6">
+      <c r="A176" s="38">
+        <v>44757</v>
+      </c>
+      <c r="B176" s="29" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C176" s="52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="29">
+        <v>11</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C177" s="52">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="29">
+        <v>4</v>
+      </c>
+      <c r="B178" s="29" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C178" s="52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="29">
+        <v>11</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C179" s="52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="29">
+        <v>10</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C180" s="52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="29">
         <v>15</v>
       </c>
       <c r="B181" s="29" t="s">
-        <v>1457</v>
+        <v>1292</v>
       </c>
       <c r="C181" s="52">
         <v>130</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="29">
+    <row r="182" spans="1:6">
+      <c r="A182" s="38">
+        <v>44755</v>
+      </c>
+      <c r="B182" s="29" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C182" s="52">
+        <v>130</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="29">
+        <v>8</v>
+      </c>
+      <c r="B183" s="29" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C183" s="52">
+        <v>130</v>
+      </c>
+      <c r="D183" s="89"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="29">
+        <v>13</v>
+      </c>
+      <c r="B184" s="29" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C184" s="52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="29">
+        <v>13</v>
+      </c>
+      <c r="B185" s="29" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C185" s="52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="29">
         <v>11</v>
       </c>
-      <c r="B182" s="29" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="29">
-        <v>4</v>
-      </c>
-      <c r="B183" s="29" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="29">
+      <c r="B186" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C186" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="29">
+        <v>15</v>
+      </c>
+      <c r="B187" s="29" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C187" s="52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="29">
         <v>11</v>
       </c>
-      <c r="B184" s="29" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="29">
-        <v>10</v>
-      </c>
-      <c r="B185" s="29" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="29">
-        <v>15</v>
-      </c>
-      <c r="B186" s="29" t="s">
+      <c r="B188" s="29" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C188" s="52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="38">
+        <v>44760</v>
+      </c>
+      <c r="B189" s="29" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="29">
-        <v>8</v>
-      </c>
-      <c r="B187" s="29" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="29">
-        <v>8</v>
-      </c>
-      <c r="B188" s="29" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="29">
-        <v>13</v>
-      </c>
-      <c r="B189" s="29" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="29">
-        <v>13</v>
+      <c r="C189" s="52">
+        <v>129.9</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="38">
+        <v>44762</v>
       </c>
       <c r="B190" s="29" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="29">
-        <v>11</v>
+        <v>1455</v>
+      </c>
+      <c r="C190" s="52">
+        <v>100</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="38">
+        <v>44765</v>
       </c>
       <c r="B191" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="29">
-        <v>15</v>
+        <v>1285</v>
+      </c>
+      <c r="C191" s="52">
+        <v>130</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F191" s="29" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="38">
+        <v>44764</v>
       </c>
       <c r="B192" s="29" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="29">
-        <v>11</v>
+        <v>1291</v>
+      </c>
+      <c r="C192" s="52">
+        <v>130</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F192" s="29" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="38">
+        <v>44764</v>
       </c>
       <c r="B193" s="29" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="C193" s="52">
+        <v>130</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F193" s="29" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="38">
-        <v>44760</v>
+        <v>44765</v>
       </c>
       <c r="B194" s="29" t="s">
-        <v>1294</v>
+        <v>1459</v>
       </c>
       <c r="C194" s="52">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="D194" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>182</v>
+      </c>
+      <c r="F194" s="29" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="38">
-        <v>44762</v>
+        <v>44769</v>
       </c>
       <c r="B195" s="29" t="s">
-        <v>1464</v>
+        <v>1267</v>
       </c>
       <c r="C195" s="52">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D195" s="29" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="29">
+      <c r="F195" s="29" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B196" s="29" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C196" s="52">
+        <v>130</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F196" s="29" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B197" s="29" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C197" s="52">
+        <v>130</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F197" s="29" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B198" s="29" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C198" s="52">
+        <v>130</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F198" s="29" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B199" s="29" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C199" s="52">
+        <v>130</v>
+      </c>
+      <c r="D199" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F199" s="29" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B200" s="29" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C200" s="52">
+        <v>130</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F200" s="29" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B201" s="29" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C201" s="52">
+        <v>100</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B202" s="29" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C202" s="52">
+        <v>130</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C203" s="52">
+        <v>130</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C208" s="52">
+        <v>100</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B209" s="29" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C209" s="52">
+        <v>130</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B210" s="29" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C210" s="52">
+        <v>130</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B211" s="29" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C211" s="52">
+        <v>130</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B212" s="29" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C212" s="52">
+        <v>130</v>
+      </c>
+      <c r="D212" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B213" s="29" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C213" s="52">
+        <v>130</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="38">
+        <v>44781</v>
+      </c>
+      <c r="B214" s="29" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C214" s="52">
+        <v>90</v>
+      </c>
+      <c r="D214" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F214" s="53"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="38">
+        <v>44781</v>
+      </c>
+      <c r="B215" s="29" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C215" s="52">
+        <v>90</v>
+      </c>
+      <c r="D215" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F215" s="53" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="38">
+        <v>44781</v>
+      </c>
+      <c r="B216" s="29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C216" s="52">
+        <v>130</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F216" s="29" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B217" s="29" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C217" s="52">
+        <v>130</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B218" s="29" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C218" s="52">
+        <v>130</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="38">
+        <v>44783</v>
+      </c>
+      <c r="B219" s="29" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C219" s="52">
+        <v>130</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="38">
+        <v>44782</v>
+      </c>
+      <c r="B220" s="29" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C220" s="52">
+        <v>130</v>
+      </c>
+      <c r="D220" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F220" s="29" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="38">
+        <v>44783</v>
+      </c>
+      <c r="B221" s="29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C221" s="52">
+        <v>195</v>
+      </c>
+      <c r="D221" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="29">
+        <v>25</v>
+      </c>
+      <c r="B226" s="29" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="29">
+        <v>8</v>
+      </c>
+      <c r="B232" s="29" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="29">
+        <v>8</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="29">
         <v>11</v>
       </c>
-      <c r="B209" s="29" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="29">
+      <c r="B234" s="29" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="29">
+        <v>11</v>
+      </c>
+      <c r="B235" s="29" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="29">
+        <v>8</v>
+      </c>
+      <c r="B242" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="29">
+        <v>8</v>
+      </c>
+      <c r="B243" s="29" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="29">
+        <v>11</v>
+      </c>
+      <c r="B252" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="29">
+        <v>13</v>
+      </c>
+      <c r="B254" s="29" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="29">
+        <v>13</v>
+      </c>
+      <c r="B255" s="29" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="29">
         <v>15</v>
       </c>
-      <c r="B210" s="29" t="s">
+      <c r="B256" s="29" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="29">
+        <v>15</v>
+      </c>
+      <c r="B257" s="29" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="29">
+        <v>15</v>
+      </c>
+      <c r="B258" s="29" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="29">
+        <v>15</v>
+      </c>
+      <c r="B259" s="29" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="29">
+    <row r="260" spans="1:2">
+      <c r="A260" s="29">
         <v>15</v>
       </c>
-      <c r="B211" s="29" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="29">
+      <c r="B260" s="29" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="29">
+        <v>15</v>
+      </c>
+      <c r="B261" s="29" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="29">
+        <v>15</v>
+      </c>
+      <c r="B262" s="29" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="29">
         <v>16</v>
       </c>
-      <c r="B212" s="29" t="s">
+      <c r="B263" s="29" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="29">
+        <v>19</v>
+      </c>
+      <c r="B264" s="29" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="29">
+        <v>19</v>
+      </c>
+      <c r="B265" s="29" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="29">
+        <v>20</v>
+      </c>
+      <c r="B266" s="29" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="29">
+        <v>25</v>
+      </c>
+      <c r="B267" s="29" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="29">
+        <v>25</v>
+      </c>
+      <c r="B268" s="29" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="29">
+        <v>25</v>
+      </c>
+      <c r="B269" s="29" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="29">
+        <v>30</v>
+      </c>
+      <c r="B270" s="29" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="29">
+        <v>30</v>
+      </c>
+      <c r="B271" s="29" t="s">
         <v>1290</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="29">
-        <v>19</v>
-      </c>
-      <c r="B213" s="29" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="29">
-        <v>19</v>
-      </c>
-      <c r="B214" s="29" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="29">
-        <v>25</v>
-      </c>
-      <c r="B215" s="29" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="29">
-        <v>25</v>
-      </c>
-      <c r="B216" s="29" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="29">
-        <v>30</v>
-      </c>
-      <c r="B217" s="29" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="29">
-        <v>25</v>
-      </c>
-      <c r="B218" s="29" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="29">
-        <v>20</v>
-      </c>
-      <c r="B219" s="29" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="29">
-        <v>25</v>
-      </c>
-      <c r="B220" s="29" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="29">
-        <v>25</v>
-      </c>
-      <c r="B221" s="29" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="29">
-        <v>25</v>
-      </c>
-      <c r="B225" s="29" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="29">
-        <v>8</v>
-      </c>
-      <c r="B230" s="29" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F101"/>
-  <sortState ref="A2:F185">
-    <sortCondition ref="A1"/>
+  <sortState ref="A242:B275">
+    <sortCondition ref="A275"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -20045,11 +20984,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD37"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20061,7 +21000,7 @@
     <col min="5" max="5" width="9.140625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5 16384:16384">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>162</v>
       </c>
@@ -20075,402 +21014,367 @@
         <v>1159</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5 16384:16384">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="38">
-        <v>44638</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>1200</v>
+        <v>44660</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>1115</v>
       </c>
       <c r="C2" s="52">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5 16384:16384">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="38">
-        <v>44653</v>
+        <v>44695</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1200</v>
+        <v>1366</v>
       </c>
       <c r="C3" s="52">
-        <v>6.5</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5 16384:16384">
-      <c r="A4" s="38">
-        <v>44657</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C4" s="52">
-        <v>5</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5 16384:16384">
-      <c r="A5" s="38">
-        <v>44660</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C5" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5 16384:16384">
-      <c r="A6" s="38">
-        <v>44678</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C6" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5 16384:16384">
-      <c r="A7" s="38">
-        <v>44695</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C7" s="52">
         <f>2.5+2.5</f>
         <v>5</v>
       </c>
-      <c r="D7" s="55" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5 16384:16384">
-      <c r="A8" s="38">
+      <c r="D3" s="55" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38">
         <v>44708</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C8" s="52">
+      <c r="B4" s="29" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C4" s="52">
         <f>2.5+7</f>
         <v>9.5</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5 16384:16384">
-      <c r="A9" s="38">
+      <c r="D4" s="55" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="38">
         <v>44715</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C9" s="52">
+      <c r="B5" s="29" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C5" s="52">
         <f>5+3+5</f>
         <v>13</v>
       </c>
+      <c r="D5" s="55" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38">
+        <v>44736</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C6" s="52">
+        <f>5+5+4</f>
+        <v>14</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="38">
+        <v>44750</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C7" s="52">
+        <f>5+2.5+5+5</f>
+        <v>17.5</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="38">
+        <v>44750</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C8" s="52">
+        <f>5+5+5+5</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="38">
+        <v>44755</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C9" s="52">
+        <v>2.5</v>
+      </c>
       <c r="D9" s="55" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="38">
+        <v>44757</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C10" s="52">
+        <f>6.5+6.5</f>
+        <v>13</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="10" spans="1:5 16384:16384">
-      <c r="A10" s="38">
-        <v>44715</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C10" s="52">
-        <v>5</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5 16384:16384">
+    <row r="11" spans="1:5">
       <c r="A11" s="38">
-        <v>44716</v>
+        <v>44758</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>1196</v>
+        <v>1510</v>
       </c>
       <c r="C11" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5 16384:16384">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="38">
-        <v>44722</v>
+        <v>44762</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>1090</v>
+        <v>1511</v>
       </c>
       <c r="C12" s="52">
-        <v>5</v>
+        <f>5+2.5</f>
+        <v>7.5</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>1369</v>
-      </c>
-      <c r="XFD12" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5 16384:16384">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="38">
-        <v>44722</v>
+        <v>44762</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>1200</v>
+        <v>1513</v>
       </c>
       <c r="C13" s="52">
-        <v>3</v>
+        <f>5+5+5</f>
+        <v>15</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5 16384:16384">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="38">
-        <v>44727</v>
+        <v>44762</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>1200</v>
+        <v>1505</v>
       </c>
       <c r="C14" s="52">
-        <f>4+4</f>
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>1518</v>
+        <v>1189</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5 16384:16384">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="38">
-        <v>44729</v>
+        <v>44769</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>1142</v>
       </c>
       <c r="C15" s="52">
-        <f>13+2.5</f>
-        <v>15.5</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E15" s="71" t="s">
+        <f>2.5+6.5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="38">
+        <v>44769</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C16" s="52">
+        <f>5+5+5+5+2.5</f>
+        <v>22.5</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E16" s="71" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5 16384:16384">
-      <c r="A16" s="38">
-        <v>44729</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C16" s="52">
-        <v>4</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="38">
-        <v>44736</v>
+        <v>44769</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>1335</v>
+        <v>1501</v>
       </c>
       <c r="C17" s="52">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="38">
-        <v>44736</v>
+        <v>44769</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1470</v>
+        <v>1097</v>
       </c>
       <c r="C18" s="52">
-        <f>5+5</f>
-        <v>10</v>
+        <f>5+5+2.5</f>
+        <v>12.5</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>1490</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="38">
-        <v>44736</v>
+        <v>44771</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1370</v>
+        <v>1501</v>
       </c>
       <c r="C19" s="52">
-        <f>5+5+4</f>
-        <v>14</v>
+        <f>2.5+3</f>
+        <v>5.5</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>1412</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="38">
-        <v>44737</v>
+        <v>44771</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>1335</v>
+        <v>1199</v>
       </c>
       <c r="C20" s="52">
-        <f>5 +5</f>
-        <v>10</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>1471</v>
+        <f>3+2.5</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="38">
-        <v>44737</v>
+        <v>44771</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>1470</v>
+        <v>1558</v>
       </c>
       <c r="C21" s="52">
-        <v>5</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>1369</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="38">
-        <v>44737</v>
+        <v>44771</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>1097</v>
+        <v>1140</v>
       </c>
       <c r="C22" s="52">
-        <f>5+2.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="38">
-        <v>44737</v>
+        <v>44771</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1142</v>
+        <v>1551</v>
       </c>
       <c r="C23" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E23" s="71" t="s">
-        <v>93</v>
+        <f>3+5</f>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="38">
-        <v>44737</v>
+        <v>44772</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>1142</v>
+        <v>1318</v>
       </c>
       <c r="C24" s="52">
         <v>2.5</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E24" s="71" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="38">
-        <v>44737</v>
+        <v>44772</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1196</v>
+        <v>1097</v>
       </c>
       <c r="C25" s="52">
-        <v>5</v>
+        <f>5+5+5+2.5</f>
+        <v>17.5</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="38">
-        <v>44741</v>
+        <v>44772</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1097</v>
+        <v>1553</v>
       </c>
       <c r="C26" s="52">
-        <f>5+5+5</f>
-        <v>15</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>93</v>
+        <f>6.5+6.5</f>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="38">
-        <v>44744</v>
+        <v>44772</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1319</v>
+        <v>1140</v>
       </c>
       <c r="C27" s="52">
         <v>2.5</v>
@@ -20478,85 +21382,80 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="38">
-        <v>44744</v>
+        <v>44776</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1470</v>
+        <v>1318</v>
       </c>
       <c r="C28" s="52">
-        <v>3</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>1489</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="38">
-        <v>44744</v>
+        <v>44776</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1142</v>
+        <v>1501</v>
       </c>
       <c r="C29" s="52">
-        <v>5</v>
-      </c>
-      <c r="E29" s="71" t="s">
-        <v>93</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="38">
-        <v>44744</v>
+        <v>44776</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1335</v>
+        <v>1199</v>
       </c>
       <c r="C30" s="52">
-        <v>5</v>
+        <f>3+3+5</f>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="38">
-        <v>44745</v>
+        <v>44776</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1517</v>
+        <v>1551</v>
       </c>
       <c r="C31" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>1190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="38">
-        <v>44745</v>
+        <v>44776</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1470</v>
+        <v>1097</v>
       </c>
       <c r="C32" s="52">
-        <f>5+5</f>
-        <v>10</v>
+        <f>5+2.5+5+5</f>
+        <v>17.5</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>1490</v>
+        <v>1568</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="38">
-        <v>44745</v>
+        <v>44776</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C33" s="52">
-        <f>5+2.5</f>
-        <v>7.5</v>
+        <f>6+2.5+6</f>
+        <v>14.5</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>1363</v>
+        <v>1567</v>
       </c>
       <c r="E33" s="71" t="s">
         <v>93</v>
@@ -20564,75 +21463,162 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="38">
-        <v>44748</v>
+        <v>44778</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>1319</v>
+        <v>1501</v>
       </c>
       <c r="C34" s="52">
-        <f>5+2.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>1363</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="38">
-        <v>44748</v>
+        <v>44778</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>1097</v>
+        <v>1551</v>
       </c>
       <c r="C35" s="52">
-        <f>5+2.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E35" s="71" t="s">
-        <v>93</v>
+        <f>6 + 5</f>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="38">
-        <v>44750</v>
+        <v>44778</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>1370</v>
+        <v>1552</v>
       </c>
       <c r="C36" s="52">
-        <f>5+2.5+5+5</f>
-        <v>17.5</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>1505</v>
+        <f>5+5+5+6+6</f>
+        <v>27</v>
+      </c>
+      <c r="D36" s="90" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="38">
-        <v>44750</v>
+        <v>44778</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>1506</v>
+        <v>1318</v>
       </c>
       <c r="C37" s="52">
-        <f>5+5+5+5</f>
-        <v>20</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>1507</v>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C38" s="52">
+        <f>6+6+6</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C39" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C40" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C41" s="52">
+        <f>2.5+6</f>
+        <v>8.5</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C42" s="52">
+        <f>7+6+13+7+2.5+7+6</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C43" s="52">
+        <f>6+6.5+6+13+6+6+5</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C44" s="52">
+        <v>4</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C45" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E37">
+  <autoFilter ref="A1:E45">
     <filterColumn colId="1"/>
     <sortState ref="A2:E52">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:E55">
+  <sortState ref="A2:E65">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -20702,107 +21688,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
-      <c r="A1" s="90">
+      <c r="A1" s="92">
         <v>44541</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92">
         <v>44548</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92">
         <v>44569</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90">
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92">
         <v>44576</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90">
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92">
         <v>44583</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90" t="s">
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92" t="s">
         <v>948</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91">
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="93">
         <v>44596</v>
       </c>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91">
+      <c r="T1" s="93"/>
+      <c r="U1" s="93">
         <v>44597</v>
       </c>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91">
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93">
         <v>44603</v>
       </c>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91">
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93">
         <v>44604</v>
       </c>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91">
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93">
         <v>44610</v>
       </c>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91">
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93">
         <v>44611</v>
       </c>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
       <c r="AH1" s="61">
         <v>44617</v>
       </c>
       <c r="AI1" s="63"/>
-      <c r="AJ1" s="91">
+      <c r="AJ1" s="93">
         <v>44618</v>
       </c>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="90">
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="92">
         <v>44624</v>
       </c>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="91">
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="93">
         <v>44625</v>
       </c>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AS1" s="90">
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AS1" s="92">
         <v>44631</v>
       </c>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="91">
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="93">
         <v>44632</v>
       </c>
-      <c r="AV1" s="91"/>
-      <c r="AW1" s="91"/>
-      <c r="AY1" s="90">
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AY1" s="92">
         <v>44638</v>
       </c>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="91">
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="93">
         <v>44639</v>
       </c>
-      <c r="BB1" s="91"/>
-      <c r="BC1" s="91"/>
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="93"/>
       <c r="BE1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="BF1" t="s">
         <v>1068</v>
       </c>
       <c r="BG1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="13.5" customHeight="1">
@@ -21133,16 +22119,16 @@
         <v>1096</v>
       </c>
       <c r="BC3" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="BE3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="BF3" s="66" t="s">
         <v>1017</v>
       </c>
       <c r="BG3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="13.5" customHeight="1">
@@ -21298,7 +22284,7 @@
         <v>1126</v>
       </c>
       <c r="BC4" s="31" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="13.5" customHeight="1">
@@ -21451,10 +22437,10 @@
         <v>1144</v>
       </c>
       <c r="BB5" s="56" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="BC5" s="31" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="13.5" customHeight="1">
@@ -21569,7 +22555,7 @@
         <v>1131</v>
       </c>
       <c r="AN6" s="34" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AO6" s="31" t="s">
         <v>1134</v>
@@ -21716,13 +22702,13 @@
         <v>1097</v>
       </c>
       <c r="AL7" s="31" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AM7" s="31" t="s">
         <v>1132</v>
       </c>
       <c r="AN7" s="34" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AO7" s="31" t="s">
         <v>1130</v>
@@ -21754,7 +22740,7 @@
         <v>1133</v>
       </c>
       <c r="AZ7" s="70" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="BA7" s="56" t="s">
         <v>1145</v>
@@ -21854,7 +22840,7 @@
         <v>109</v>
       </c>
       <c r="AI8" s="70" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AJ8" s="31" t="s">
         <v>91</v>
@@ -22097,7 +23083,7 @@
       <c r="AF10" s="29"/>
       <c r="AG10" s="29"/>
       <c r="AH10" s="34" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AI10" s="29"/>
       <c r="AJ10" s="56" t="s">
@@ -22128,7 +23114,7 @@
         <v>1009</v>
       </c>
       <c r="AU10" s="34" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AV10" s="31" t="s">
         <v>1141</v>
@@ -22237,14 +23223,14 @@
       </c>
       <c r="AX11" s="67"/>
       <c r="AY11" s="31" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AZ11" s="29"/>
       <c r="BA11" s="31" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="BB11" s="31" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="BC11" s="29"/>
     </row>
@@ -22321,19 +23307,19 @@
         <v>1145</v>
       </c>
       <c r="AV12" s="56" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AW12" s="70" t="s">
         <v>1197</v>
-      </c>
-      <c r="AW12" s="70" t="s">
-        <v>1198</v>
       </c>
       <c r="AX12" s="67"/>
       <c r="AY12" s="56" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="29"/>
       <c r="BB12" s="31" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="BC12" s="29"/>
     </row>
@@ -22404,14 +23390,14 @@
       <c r="AU13" s="29"/>
       <c r="AV13" s="54"/>
       <c r="AW13" s="70" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AX13" s="67"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="40"/>
       <c r="BA13" s="29"/>
       <c r="BB13" s="31" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="BC13" s="40" t="s">
         <v>1125</v>
@@ -22493,7 +23479,7 @@
       <c r="AZ14" s="40"/>
       <c r="BA14" s="29"/>
       <c r="BB14" s="31" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="BC14" s="40" t="s">
         <v>1097</v>
@@ -22560,7 +23546,7 @@
       <c r="AU15" s="29"/>
       <c r="AV15" s="54"/>
       <c r="AW15" s="31" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AX15" s="67"/>
       <c r="AY15" s="29"/>
@@ -22568,10 +23554,10 @@
         <v>1142</v>
       </c>
       <c r="BA15" s="43" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="BB15" s="31" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="BC15" s="40" t="s">
         <v>1096</v>
@@ -22689,7 +23675,7 @@
       <c r="AS17" s="40"/>
       <c r="AT17" s="40"/>
       <c r="AU17" s="43" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AV17" s="54"/>
       <c r="AW17" s="40" t="s">
@@ -22699,7 +23685,7 @@
       <c r="AY17" s="29"/>
       <c r="AZ17" s="29"/>
       <c r="BA17" s="44" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="BB17" s="29"/>
       <c r="BC17" s="62" t="s">
@@ -22760,7 +23746,7 @@
       <c r="AW18" s="40"/>
       <c r="AX18" s="67"/>
       <c r="AY18" s="43" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AZ18" s="34" t="s">
         <v>1125</v>
@@ -23035,7 +24021,7 @@
       <c r="AU22" s="40"/>
       <c r="AV22" s="40"/>
       <c r="AW22" s="68" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AX22" s="67"/>
       <c r="AY22" s="40"/>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">acertaram!$A$1:$F$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">APAGADOS!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ATIVOS!$A$2:$Q$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">caderneta!$A$1:$E$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ATIVOS!$A$2:$Q$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">caderneta!$A$1:$E$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CONTATEI!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NÃO!$A$1:$M$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="1590">
   <si>
     <t>atualizado em</t>
   </si>
@@ -4728,9 +4728,6 @@
     <t>torcida + água</t>
   </si>
   <si>
-    <t>não sei se pegou a última cerveja</t>
-  </si>
-  <si>
     <t>cartão de crédito (3x)</t>
   </si>
   <si>
@@ -4756,6 +4753,66 @@
   </si>
   <si>
     <t>4 cervejas + 1 água</t>
+  </si>
+  <si>
+    <t>Pedro (sub07)</t>
+  </si>
+  <si>
+    <t>mateus (rodrigo)</t>
+  </si>
+  <si>
+    <t>joão henrique</t>
+  </si>
+  <si>
+    <t>1 torcida</t>
+  </si>
+  <si>
+    <t>3 cervejas (R$6,00) + 1 heineken (R$7,00) + 1 água</t>
+  </si>
+  <si>
+    <t>2 heineken + 1 bud</t>
+  </si>
+  <si>
+    <t>felipe</t>
+  </si>
+  <si>
+    <t>cauã (vanessa)</t>
+  </si>
+  <si>
+    <t>3 heineken (R$21,00) + 2 budweiser (R$12,00) + 1 amendoim 400g (R$13,00) + 1 água (R$2,50)</t>
+  </si>
+  <si>
+    <t>1 água + 1 gatorade</t>
+  </si>
+  <si>
+    <t>4 heineken (R$28,00) + 1 água (R$2,50) + 1 amendoim 400g (R$13,00)</t>
+  </si>
+  <si>
+    <t>2 budweiser (R$12,00) + 1 água (R$2,50)</t>
+  </si>
+  <si>
+    <t>murilo/miguel</t>
+  </si>
+  <si>
+    <t>murilo</t>
+  </si>
+  <si>
+    <t>3 cervejas (R$15,00) + 1 água</t>
+  </si>
+  <si>
+    <t>Aluno, Sub07, Marcia, Pedro</t>
+  </si>
+  <si>
+    <t>(15) 99178-2606</t>
+  </si>
+  <si>
+    <t>65 shorts</t>
+  </si>
+  <si>
+    <t>37 bebidas</t>
+  </si>
+  <si>
+    <t>103,50 bebidas</t>
   </si>
 </sst>
 </file>
@@ -5091,10 +5148,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13138,7 +13195,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
       <c r="G33" s="53" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -13161,7 +13218,7 @@
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
       <c r="G34" s="53" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
@@ -13749,7 +13806,7 @@
       </c>
       <c r="H3" s="6" t="str">
         <f t="shared" ref="H3:H24" ca="1" si="0">DATEDIF(I3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I3,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 6 meses 17 dias</v>
+        <v>6 anos, 6 meses 28 dias</v>
       </c>
       <c r="I3" s="6">
         <v>42395</v>
@@ -13784,7 +13841,7 @@
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 1 meses 13 dias</v>
+        <v>8 anos, 1 meses 24 dias</v>
       </c>
       <c r="I4" s="6">
         <v>41820</v>
@@ -13821,7 +13878,7 @@
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 2 meses 9 dias</v>
+        <v>11 anos, 2 meses 20 dias</v>
       </c>
       <c r="I5" s="6">
         <v>40697</v>
@@ -13858,7 +13915,7 @@
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 1 meses 22 dias</v>
+        <v>9 anos, 2 meses 2 dias</v>
       </c>
       <c r="I6" s="6">
         <v>41446</v>
@@ -13893,7 +13950,7 @@
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 7 meses 12 dias</v>
+        <v>122 anos, 7 meses 23 dias</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -13928,7 +13985,7 @@
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 10 meses 17 dias</v>
+        <v>10 anos, 10 meses 28 dias</v>
       </c>
       <c r="I8" s="6">
         <v>40812</v>
@@ -13965,7 +14022,7 @@
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 1 meses 5 dias</v>
+        <v>14 anos, 1 meses 16 dias</v>
       </c>
       <c r="I9" s="6">
         <v>39636</v>
@@ -14002,7 +14059,7 @@
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 3 meses 29 dias</v>
+        <v>8 anos, 4 meses 9 dias</v>
       </c>
       <c r="I10" s="6">
         <v>41743</v>
@@ -14029,7 +14086,7 @@
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 17 dias</v>
+        <v>6 anos, 7 meses 28 dias</v>
       </c>
       <c r="I11" s="38">
         <v>42364</v>
@@ -14066,7 +14123,7 @@
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 1 dias</v>
+        <v>6 anos, 1 meses 12 dias</v>
       </c>
       <c r="I12" s="6">
         <v>42562</v>
@@ -14100,7 +14157,7 @@
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 6 meses 7 dias</v>
+        <v>7 anos, 6 meses 18 dias</v>
       </c>
       <c r="I13" s="6">
         <v>42040</v>
@@ -14122,7 +14179,7 @@
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 5 dias</v>
+        <v>10 anos, 3 meses 16 dias</v>
       </c>
       <c r="I14" s="38">
         <v>41036</v>
@@ -14158,7 +14215,7 @@
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 6 meses 13 dias</v>
+        <v>10 anos, 6 meses 24 dias</v>
       </c>
       <c r="I15" s="64">
         <v>40938</v>
@@ -14186,7 +14243,7 @@
       </c>
       <c r="H16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 1 meses 27 dias</v>
+        <v>5 anos, 2 meses 7 dias</v>
       </c>
       <c r="I16" s="6">
         <v>42902</v>
@@ -14222,7 +14279,7 @@
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 2 meses 21 dias</v>
+        <v>5 anos, 3 meses 1 dias</v>
       </c>
       <c r="I17" s="26">
         <v>42877</v>
@@ -14255,7 +14312,7 @@
       </c>
       <c r="H18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 3 dias</v>
+        <v>6 anos, 1 meses 14 dias</v>
       </c>
       <c r="I18" s="6">
         <v>42560</v>
@@ -14288,7 +14345,7 @@
       </c>
       <c r="H19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 3 meses 21 dias</v>
+        <v>6 anos, 4 meses 1 dias</v>
       </c>
       <c r="I19" s="26">
         <v>42482</v>
@@ -14319,7 +14376,7 @@
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 1 dias</v>
+        <v>6 anos, 4 meses 12 dias</v>
       </c>
       <c r="I20" s="26">
         <v>42471</v>
@@ -14355,7 +14412,7 @@
       </c>
       <c r="H21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 7 dias</v>
+        <v>6 anos, 7 meses 18 dias</v>
       </c>
       <c r="I21" s="6">
         <v>42374</v>
@@ -14405,7 +14462,7 @@
       </c>
       <c r="H23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 9 dias</v>
+        <v>5 anos, 8 meses 20 dias</v>
       </c>
       <c r="I23" s="87">
         <v>42707</v>
@@ -14426,7 +14483,7 @@
       </c>
       <c r="H24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 4 dias</v>
+        <v>11 anos, 1 meses 15 dias</v>
       </c>
       <c r="I24" s="86">
         <v>40732</v>
@@ -14449,11 +14506,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q953"/>
+  <dimension ref="A1:Q950"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14585,8 +14642,8 @@
         <v>43368</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f t="shared" ref="L3:L39" ca="1" si="0">DATEDIF(K3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K3,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 10 meses 18 dias</v>
+        <f t="shared" ref="L3:L36" ca="1" si="0">DATEDIF(K3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K3,TODAY(),"MD")&amp;" dias"</f>
+        <v>3 anos, 10 meses 29 dias</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>64</v>
@@ -14632,7 +14689,7 @@
       </c>
       <c r="L4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 0 meses 3 dias</v>
+        <v>5 anos, 0 meses 14 dias</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>64</v>
@@ -14679,7 +14736,7 @@
       </c>
       <c r="L5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 19 dias</v>
+        <v>5 anos, 9 meses 30 dias</v>
       </c>
       <c r="M5" s="27" t="s">
         <v>64</v>
@@ -14724,7 +14781,7 @@
       </c>
       <c r="L6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 23 dias</v>
+        <v>6 anos, 2 meses 3 dias</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>64</v>
@@ -14778,7 +14835,7 @@
       </c>
       <c r="L7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 13 dias</v>
+        <v>6 anos, 8 meses 24 dias</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>64</v>
@@ -14832,7 +14889,7 @@
       </c>
       <c r="L8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 26 dias</v>
+        <v>6 anos, 10 meses 6 dias</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>64</v>
@@ -14884,7 +14941,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 9 meses 28 dias</v>
+        <v>6 anos, 10 meses 8 dias</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>64</v>
@@ -14928,7 +14985,7 @@
       </c>
       <c r="L10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 10 meses 18 dias</v>
+        <v>6 anos, 10 meses 29 dias</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>64</v>
@@ -14980,7 +15037,7 @@
       </c>
       <c r="L11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 9 dias</v>
+        <v>7 anos, 0 meses 20 dias</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>64</v>
@@ -15032,7 +15089,7 @@
       </c>
       <c r="L12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 1 meses 28 dias</v>
+        <v>7 anos, 2 meses 8 dias</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>64</v>
@@ -15069,7 +15126,7 @@
       </c>
       <c r="L13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 3 meses 30 dias</v>
+        <v>7 anos, 4 meses 10 dias</v>
       </c>
       <c r="M13" s="27" t="s">
         <v>64</v>
@@ -15088,319 +15145,334 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A14" s="29" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>1392</v>
+      </c>
       <c r="E14" s="29" t="s">
-        <v>1363</v>
+        <v>1393</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>1371</v>
+        <v>1387</v>
       </c>
       <c r="K14" s="86">
-        <v>42076</v>
+        <v>42058</v>
       </c>
       <c r="L14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 30 dias</v>
-      </c>
-      <c r="M14" s="29" t="s">
+        <v>7 anos, 6 meses 0 dias</v>
+      </c>
+      <c r="M14" s="27" t="s">
         <v>64</v>
+      </c>
+      <c r="N14" s="80">
+        <v>44713</v>
       </c>
       <c r="Q14" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>1393</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>1388</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>1387</v>
-      </c>
-      <c r="K15" s="86">
-        <v>42058</v>
+      <c r="E15" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="27" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K15" s="87">
+        <v>42019</v>
       </c>
       <c r="L15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 5 meses 20 dias</v>
+        <v>7 anos, 7 meses 8 dias</v>
       </c>
       <c r="M15" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="80">
-        <v>44713</v>
+      <c r="N15" s="45">
+        <v>44660</v>
+      </c>
+      <c r="O15" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="29">
+        <v>100</v>
       </c>
       <c r="Q15" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="E16" s="8" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>63</v>
+      </c>
       <c r="G16" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>1436</v>
-      </c>
-      <c r="K16" s="87">
-        <v>42019</v>
+        <v>1338</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K16" s="86">
+        <v>41878</v>
       </c>
       <c r="L16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 6 meses 28 dias</v>
+        <v>7 anos, 11 meses 27 dias</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="45">
-        <v>44660</v>
-      </c>
-      <c r="O16" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="29">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="71" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="N16" s="78">
+        <v>30</v>
+      </c>
+      <c r="O16" s="80"/>
+      <c r="Q16" s="80" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>1338</v>
+      <c r="A17" s="29" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>1343</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>1278</v>
+        <v>1459</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>1245</v>
+        <v>1476</v>
       </c>
       <c r="K17" s="86">
-        <v>41878</v>
+        <v>41613</v>
       </c>
       <c r="L17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 11 meses 16 dias</v>
+        <v>8 anos, 8 meses 18 dias</v>
       </c>
       <c r="M17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="78">
-        <v>30</v>
-      </c>
-      <c r="O17" s="80"/>
-      <c r="Q17" s="80" t="s">
-        <v>93</v>
+      <c r="Q17" s="71" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A18" s="29" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>1481</v>
-      </c>
+      <c r="A18" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="38" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>1459</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>1476</v>
-      </c>
-      <c r="K18" s="86">
-        <v>41613</v>
+        <v>1342</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="18">
+        <v>41521</v>
       </c>
       <c r="L18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 8 meses 7 dias</v>
+        <v>8 anos, 11 meses 19 dias</v>
       </c>
       <c r="M18" s="27" t="s">
         <v>21</v>
       </c>
+      <c r="N18" s="77">
+        <v>4</v>
+      </c>
+      <c r="O18" s="17"/>
       <c r="Q18" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="A19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="38" t="s">
-        <v>1342</v>
+      <c r="G19" s="27" t="s">
+        <v>1338</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>1435</v>
+      </c>
       <c r="K19" s="18">
-        <v>41521</v>
+        <v>41262</v>
       </c>
       <c r="L19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 11 meses 8 dias</v>
+        <v>9 anos, 8 meses 4 dias</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="N19" s="77">
-        <v>4</v>
-      </c>
-      <c r="O19" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="O19" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="29">
+        <v>125</v>
+      </c>
       <c r="Q19" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="27" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>1435</v>
-      </c>
-      <c r="K20" s="18">
-        <v>41262</v>
+      <c r="A20" s="29" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K20" s="86">
+        <v>41172</v>
       </c>
       <c r="L20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 7 meses 24 dias</v>
+        <v>9 anos, 11 meses 3 dias</v>
       </c>
       <c r="M20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="77">
-        <v>30</v>
-      </c>
-      <c r="O20" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="29">
-        <v>125</v>
-      </c>
       <c r="Q20" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>1454</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>1455</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>1449</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="38" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>1434</v>
       </c>
       <c r="K21" s="86">
-        <v>41172</v>
+        <v>41169</v>
       </c>
       <c r="L21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 23 dias</v>
+        <v>9 anos, 11 meses 6 dias</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>21</v>
+      </c>
+      <c r="N21" s="45">
+        <v>44646</v>
+      </c>
+      <c r="O21" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="29">
+        <v>125</v>
       </c>
       <c r="Q21" s="71" t="s">
         <v>18</v>
@@ -15417,20 +15489,20 @@
         <v>1342</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>1434</v>
-      </c>
-      <c r="K22" s="86">
-        <v>41169</v>
+        <v>1433</v>
+      </c>
+      <c r="K22" s="87">
+        <v>41094</v>
       </c>
       <c r="L22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 10 meses 26 dias</v>
+        <v>10 anos, 1 meses 19 dias</v>
       </c>
       <c r="M22" s="27" t="s">
         <v>21</v>
@@ -15449,36 +15521,30 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
       <c r="G23" s="38" t="s">
         <v>1342</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>1282</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>1238</v>
+      <c r="H23" s="29" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>1242</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>1433</v>
-      </c>
-      <c r="K23" s="87">
-        <v>41094</v>
+        <v>1432</v>
+      </c>
+      <c r="K23" s="86">
+        <v>41051</v>
       </c>
       <c r="L23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 1 meses 8 dias</v>
+        <v>10 anos, 3 meses 1 dias</v>
       </c>
       <c r="M23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="45">
-        <v>44646</v>
+      <c r="N23" s="78">
+        <v>11</v>
       </c>
       <c r="O23" s="80" t="s">
         <v>18</v>
@@ -15491,30 +15557,44 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="38" t="s">
         <v>1342</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>1283</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>1432</v>
-      </c>
-      <c r="K24" s="86">
-        <v>41051</v>
+      <c r="H24" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K24" s="87">
+        <v>41047</v>
       </c>
       <c r="L24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 21 dias</v>
+        <v>10 anos, 3 meses 5 dias</v>
       </c>
       <c r="M24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="78">
-        <v>11</v>
+      <c r="N24" s="77">
+        <v>5</v>
       </c>
       <c r="O24" s="80" t="s">
         <v>18</v>
@@ -15527,44 +15607,46 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>1167</v>
+      <c r="A25" s="27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>1117</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>1118</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>1121</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="38" t="s">
         <v>1342</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>1165</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>1419</v>
-      </c>
-      <c r="K25" s="87">
-        <v>41047</v>
+        <v>1285</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K25" s="86">
+        <v>41031</v>
       </c>
       <c r="L25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 2 meses 25 dias</v>
+        <v>10 anos, 3 meses 21 dias</v>
       </c>
       <c r="M25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="77">
-        <v>5</v>
+      <c r="N25" s="78">
+        <v>1</v>
       </c>
       <c r="O25" s="80" t="s">
         <v>18</v>
@@ -15577,48 +15659,50 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="G26" s="38" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>1119</v>
+        <v>24</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>1431</v>
-      </c>
-      <c r="K26" s="86">
-        <v>41031</v>
+        <v>1430</v>
+      </c>
+      <c r="K26" s="18">
+        <v>40875</v>
       </c>
       <c r="L26" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 10 dias</v>
+        <v>10 anos, 8 meses 26 dias</v>
       </c>
       <c r="M26" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="78">
-        <v>1</v>
-      </c>
-      <c r="O26" s="80" t="s">
+      <c r="N26" s="77">
+        <v>10</v>
+      </c>
+      <c r="O26" s="85" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="29">
@@ -15629,87 +15713,100 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
-      <c r="G27" s="29" t="s">
+      <c r="A27" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>1338</v>
       </c>
-      <c r="H27" s="29" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>1440</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>1439</v>
-      </c>
-      <c r="K27" s="86">
-        <v>40975</v>
+      <c r="H27" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K27" s="18">
+        <v>40555</v>
       </c>
       <c r="L27" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 5 meses 5 dias</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="71" t="s">
+        <v>11 anos, 7 meses 11 dias</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="77">
+        <v>15</v>
+      </c>
+      <c r="O27" s="80" t="s">
         <v>18</v>
       </c>
       <c r="P27" s="29">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="A28" s="27" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>1343</v>
+        <v>1358</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="27" t="s">
+        <v>1338</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>1287</v>
+        <v>1294</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>24</v>
+        <v>1241</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>1430</v>
-      </c>
-      <c r="K28" s="18">
-        <v>40875</v>
+        <v>1445</v>
+      </c>
+      <c r="K28" s="87">
+        <v>40553</v>
       </c>
       <c r="L28" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 8 meses 15 dias</v>
+        <v>11 anos, 7 meses 13 dias</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="77">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="N28" s="45">
+        <v>44618</v>
       </c>
       <c r="O28" s="85" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="29">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="71" t="s">
         <v>18</v>
@@ -15717,41 +15814,41 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G29" s="27" t="s">
         <v>1338</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J29" s="39" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K29" s="18">
-        <v>40555</v>
+        <v>40117</v>
       </c>
       <c r="L29" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 7 meses 0 dias</v>
+        <v>12 anos, 9 meses 23 dias</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>35</v>
@@ -15759,7 +15856,7 @@
       <c r="N29" s="77">
         <v>15</v>
       </c>
-      <c r="O29" s="80" t="s">
+      <c r="O29" s="85" t="s">
         <v>18</v>
       </c>
       <c r="P29" s="29">
@@ -15770,42 +15867,38 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A30" s="27" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="27" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>1241</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>1445</v>
-      </c>
-      <c r="K30" s="87">
-        <v>40553</v>
+      <c r="A30" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K30" s="86">
+        <v>39982</v>
       </c>
       <c r="L30" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 7 meses 2 dias</v>
-      </c>
-      <c r="M30" s="27" t="s">
+        <v>13 anos, 2 meses 5 dias</v>
+      </c>
+      <c r="M30" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="45">
-        <v>44618</v>
-      </c>
-      <c r="O30" s="85" t="s">
+      <c r="N30" s="80">
+        <v>44706</v>
+      </c>
+      <c r="O30" s="71" t="s">
         <v>18</v>
       </c>
       <c r="P30" s="29">
@@ -15817,49 +15910,49 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>1338</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K31" s="18">
-        <v>40117</v>
+        <v>39967</v>
       </c>
       <c r="L31" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 9 meses 12 dias</v>
+        <v>13 anos, 2 meses 20 dias</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N31" s="77">
-        <v>15</v>
-      </c>
-      <c r="O31" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="71" t="s">
         <v>18</v>
       </c>
       <c r="P31" s="29">
@@ -15870,38 +15963,48 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>742</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>1444</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>1442</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>1443</v>
-      </c>
-      <c r="K32" s="86">
-        <v>39982</v>
+      <c r="A32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K32" s="18">
+        <v>39563</v>
       </c>
       <c r="L32" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 1 meses 25 dias</v>
-      </c>
-      <c r="M32" s="29" t="s">
+        <v>14 anos, 3 meses 29 dias</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="80">
-        <v>44706</v>
-      </c>
-      <c r="O32" s="71" t="s">
+      <c r="N32" s="77">
+        <v>16</v>
+      </c>
+      <c r="O32" s="80" t="s">
         <v>18</v>
       </c>
       <c r="P32" s="29">
@@ -15912,50 +16015,42 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>167</v>
-      </c>
+      <c r="A33" s="27" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>168</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="27" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1290</v>
+        <v>39</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>1426</v>
-      </c>
-      <c r="K33" s="18">
-        <v>39967</v>
+        <v>38</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K33" s="87">
+        <v>39464</v>
       </c>
       <c r="L33" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 2 meses 9 dias</v>
+        <v>14 anos, 7 meses 6 dias</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N33" s="77">
-        <v>19</v>
-      </c>
-      <c r="O33" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="80" t="s">
         <v>18</v>
       </c>
       <c r="P33" s="29">
@@ -15966,48 +16061,35 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="8"/>
+      <c r="E34" s="29" t="s">
+        <v>1260</v>
+      </c>
       <c r="G34" s="27" t="s">
         <v>1338</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>1425</v>
-      </c>
-      <c r="K34" s="18">
-        <v>39563</v>
+      <c r="H34" s="29" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K34" s="86">
+        <v>39275</v>
       </c>
       <c r="L34" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 3 meses 18 dias</v>
-      </c>
-      <c r="M34" s="8" t="s">
+        <v>15 anos, 1 meses 11 dias</v>
+      </c>
+      <c r="M34" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="77">
-        <v>16</v>
-      </c>
-      <c r="O34" s="80" t="s">
+      <c r="N34" s="80">
+        <v>44621</v>
+      </c>
+      <c r="O34" s="71" t="s">
         <v>18</v>
       </c>
       <c r="P34" s="29">
@@ -16018,223 +16100,229 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A35" s="27" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>1446</v>
-      </c>
-      <c r="K35" s="87">
-        <v>39464</v>
-      </c>
-      <c r="L35" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 6 meses 26 dias</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N35" s="77">
-        <v>12</v>
-      </c>
-      <c r="O35" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="P35" s="29">
-        <v>100</v>
+      <c r="G35" s="29" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="Q35" s="71" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
-      <c r="G36" s="27" t="s">
-        <v>1338</v>
+      <c r="A36" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>1500</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>1461</v>
+        <v>1495</v>
       </c>
       <c r="K36" s="86">
-        <v>39378</v>
+        <v>42915</v>
       </c>
       <c r="L36" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 9 meses 20 dias</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>35</v>
+        <v>5 anos, 1 meses 25 dias</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="Q36" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1">
-      <c r="E37" s="29" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>1274</v>
-      </c>
       <c r="I37" s="29" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K37" s="86">
-        <v>39275</v>
-      </c>
-      <c r="L37" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>15 anos, 1 meses 0 dias</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="80">
-        <v>44621</v>
+        <v>1489</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="O37" s="71" t="s">
         <v>18</v>
       </c>
       <c r="P37" s="29">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="Q37" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1">
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="38" t="s">
         <v>1342</v>
       </c>
+      <c r="H38" s="29" t="s">
+        <v>1286</v>
+      </c>
       <c r="I38" s="29" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M38" s="29" t="s">
-        <v>64</v>
+        <v>1382</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="Q38" s="71" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>1496</v>
+        <v>1531</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1497</v>
+        <v>1532</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>1499</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>1500</v>
+        <v>1533</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>1343</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>1495</v>
+        <v>1530</v>
       </c>
       <c r="K39" s="86">
-        <v>42915</v>
+        <v>39999</v>
       </c>
       <c r="L39" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 1 meses 14 dias</v>
+        <f t="shared" ref="L39:L41" ca="1" si="1">DATEDIF(K39,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K39,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K39,TODAY(),"MD")&amp;" dias"</f>
+        <v>13 anos, 1 meses 18 dias</v>
       </c>
       <c r="M39" s="29" t="s">
-        <v>64</v>
+        <v>1229</v>
       </c>
       <c r="Q39" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A40" s="29" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>1342</v>
+      </c>
       <c r="I40" s="29" t="s">
-        <v>1489</v>
+        <v>1519</v>
+      </c>
+      <c r="K40" s="86">
+        <v>39911</v>
+      </c>
+      <c r="L40" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>13 anos, 4 meses 15 dias</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="P40" s="29">
-        <v>66</v>
+        <v>1229</v>
       </c>
       <c r="Q40" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A41" s="29" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>1529</v>
+      </c>
       <c r="G41" s="38" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>1286</v>
+        <v>1343</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>1382</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>21</v>
+        <v>1524</v>
+      </c>
+      <c r="K41" s="86">
+        <v>40214</v>
+      </c>
+      <c r="L41" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>12 anos, 6 meses 18 dias</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>1229</v>
       </c>
       <c r="Q41" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A42" s="29" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>1534</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>1530</v>
+      <c r="A42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>1429</v>
       </c>
       <c r="K42" s="86">
-        <v>39999</v>
+        <v>40757</v>
       </c>
       <c r="L42" s="6" t="str">
-        <f t="shared" ref="L42:L44" ca="1" si="1">DATEDIF(K42,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K42,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K42,TODAY(),"MD")&amp;" dias"</f>
-        <v>13 anos, 1 meses 7 dias</v>
-      </c>
-      <c r="M42" s="29" t="s">
-        <v>1229</v>
+        <f ca="1">DATEDIF(K42,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K42,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K42,TODAY(),"MD")&amp;" dias"</f>
+        <v>11 anos, 0 meses 21 dias</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="78">
+        <v>21</v>
+      </c>
+      <c r="O42" s="85" t="s">
+        <v>18</v>
       </c>
       <c r="Q42" s="71" t="s">
         <v>18</v>
@@ -16242,360 +16330,353 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1521</v>
+        <v>1541</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>1522</v>
+        <v>1542</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>1523</v>
+        <v>1543</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>1544</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>1342</v>
+        <v>1343</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>1548</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>1519</v>
+        <v>1539</v>
       </c>
       <c r="K43" s="86">
-        <v>39911</v>
+        <v>42688</v>
       </c>
       <c r="L43" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 4 meses 4 dias</v>
+        <f ca="1">DATEDIF(K43,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K43,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K43,TODAY(),"MD")&amp;" dias"</f>
+        <v>5 anos, 9 meses 9 dias</v>
       </c>
       <c r="M43" s="29" t="s">
-        <v>1229</v>
+        <v>64</v>
       </c>
       <c r="Q43" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A44" s="29" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>1528</v>
-      </c>
       <c r="E44" s="29" t="s">
-        <v>1529</v>
+        <v>1586</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>1343</v>
       </c>
+      <c r="H44" s="29" t="s">
+        <v>1585</v>
+      </c>
       <c r="I44" s="29" t="s">
-        <v>1524</v>
-      </c>
-      <c r="K44" s="86">
-        <v>40214</v>
-      </c>
-      <c r="L44" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>12 anos, 6 meses 7 dias</v>
-      </c>
-      <c r="M44" s="29" t="s">
-        <v>1229</v>
+        <v>1570</v>
       </c>
       <c r="Q44" s="71" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="27" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J45" s="39" t="s">
-        <v>1429</v>
-      </c>
-      <c r="K45" s="86">
-        <v>40757</v>
-      </c>
-      <c r="L45" s="6" t="str">
-        <f ca="1">DATEDIF(K45,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K45,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K45,TODAY(),"MD")&amp;" dias"</f>
-        <v>11 anos, 0 meses 10 dias</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N45" s="78">
-        <v>21</v>
-      </c>
-      <c r="O45" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q45" s="71" t="s">
-        <v>18</v>
+      <c r="I45" s="29" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A46" s="29" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>1548</v>
-      </c>
       <c r="I46" s="29" t="s">
-        <v>1539</v>
-      </c>
-      <c r="K46" s="86">
-        <v>42688</v>
-      </c>
-      <c r="L46" s="6" t="str">
-        <f ca="1">DATEDIF(K46,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K46,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K46,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 8 meses 29 dias</v>
-      </c>
-      <c r="M46" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q46" s="71" t="s">
-        <v>18</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="48" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="49" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1">
-      <c r="E50" s="29" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>1372</v>
-      </c>
-      <c r="K50" s="86">
-        <v>39622</v>
-      </c>
-      <c r="L50" s="6" t="str">
-        <f ca="1">DATEDIF(K50,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K50,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K50,TODAY(),"MD")&amp;" dias"</f>
-        <v>14 anos, 1 meses 20 dias</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J51" s="27"/>
-      <c r="K51" s="87">
-        <v>42941</v>
-      </c>
-      <c r="L51" s="6" t="str">
-        <f ca="1">DATEDIF(K51,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K51,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K51,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 0 meses 18 dias</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="N51" s="77">
-        <v>19</v>
-      </c>
-      <c r="O51" s="45"/>
-      <c r="Q51" s="45"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>1546</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="18">
-        <v>42629</v>
-      </c>
-      <c r="L52" s="6" t="str">
-        <f ca="1">DATEDIF(K52,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K52,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K52,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 10 meses 27 dias</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="N52" s="77">
-        <v>26</v>
-      </c>
-      <c r="O52" s="17"/>
-      <c r="Q52" s="17"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A53" s="29" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>1545</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>1374</v>
-      </c>
-      <c r="K53" s="86">
-        <v>42528</v>
-      </c>
-      <c r="L53" s="6" t="str">
-        <f ca="1">DATEDIF(K53,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K53,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K53,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 2 meses 5 dias</v>
-      </c>
-      <c r="M53" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="N53" s="80">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A54" s="29" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>1415</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>1411</v>
-      </c>
-      <c r="K54" s="86">
-        <v>40814</v>
-      </c>
-      <c r="L54" s="6" t="str">
-        <f ca="1">DATEDIF(K54,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K54,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K54,TODAY(),"MD")&amp;" dias"</f>
-        <v>10 anos, 10 meses 15 dias</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q54" s="71" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="55" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1">
+      <c r="E57" s="29" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K57" s="86">
+        <v>39622</v>
+      </c>
+      <c r="L57" s="6" t="str">
+        <f t="shared" ref="L57:L63" ca="1" si="2">DATEDIF(K57,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K57,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K57,TODAY(),"MD")&amp;" dias"</f>
+        <v>14 anos, 2 meses 0 dias</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J58" s="27"/>
+      <c r="K58" s="87">
+        <v>42941</v>
+      </c>
+      <c r="L58" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>5 anos, 0 meses 29 dias</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N58" s="77">
+        <v>19</v>
+      </c>
+      <c r="O58" s="45"/>
+      <c r="Q58" s="45"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="18">
+        <v>42629</v>
+      </c>
+      <c r="L59" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>5 anos, 11 meses 7 dias</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N59" s="77">
+        <v>26</v>
+      </c>
+      <c r="O59" s="17"/>
+      <c r="Q59" s="17"/>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A60" s="29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K60" s="86">
+        <v>42528</v>
+      </c>
+      <c r="L60" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>6 anos, 2 meses 16 dias</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="N60" s="80">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A61" s="29" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I61" s="29" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K61" s="86">
+        <v>40814</v>
+      </c>
+      <c r="L61" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>10 anos, 10 meses 26 dias</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1">
+      <c r="G62" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K62" s="86">
+        <v>39378</v>
+      </c>
+      <c r="L62" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>14 anos, 10 meses 0 dias</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" customHeight="1">
+      <c r="G63" s="29" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K63" s="86">
+        <v>40975</v>
+      </c>
+      <c r="L63" s="6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>10 anos, 5 meses 16 dias</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P63" s="29">
+        <v>125</v>
+      </c>
+      <c r="Q63" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1">
+      <c r="E64" s="29" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K64" s="86">
+        <v>42076</v>
+      </c>
+      <c r="L64" s="6" t="str">
+        <f ca="1">DATEDIF(K64,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K64,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K64,TODAY(),"MD")&amp;" dias"</f>
+        <v>7 anos, 5 meses 10 dias</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q64" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -17482,11 +17563,8 @@
     <row r="948" ht="15.75" customHeight="1"/>
     <row r="949" ht="15.75" customHeight="1"/>
     <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:Q46"/>
+  <autoFilter ref="A2:Q43"/>
   <sortState ref="A3:P43">
     <sortCondition descending="1" ref="K3"/>
   </sortState>
@@ -17502,11 +17580,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A270" sqref="A270:XFD270"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20558,68 +20636,128 @@
         <v>176</v>
       </c>
     </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C204" s="52">
+        <v>100</v>
+      </c>
+      <c r="D204" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B205" s="29" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C205" s="52">
+        <v>130</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C206" s="52">
+        <v>130</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B207" s="29" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C207" s="52">
+        <v>130</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
     <row r="208" spans="1:6">
       <c r="A208" s="38">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B208" s="29" t="s">
-        <v>39</v>
+        <v>1558</v>
       </c>
       <c r="C208" s="52">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="38">
-        <v>44778</v>
+        <v>44776</v>
       </c>
       <c r="B209" s="29" t="s">
-        <v>1398</v>
+        <v>1559</v>
       </c>
       <c r="C209" s="52">
         <v>130</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="38">
-        <v>44779</v>
+        <v>44781</v>
       </c>
       <c r="B210" s="29" t="s">
-        <v>1556</v>
+        <v>1281</v>
       </c>
       <c r="C210" s="52">
-        <v>130</v>
-      </c>
-      <c r="D210" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D210" s="53" t="s">
         <v>170</v>
       </c>
+      <c r="F210" s="53"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="38">
-        <v>44779</v>
+        <v>44781</v>
       </c>
       <c r="B211" s="29" t="s">
-        <v>1557</v>
+        <v>1282</v>
       </c>
       <c r="C211" s="52">
-        <v>130</v>
-      </c>
-      <c r="D211" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D211" s="53" t="s">
         <v>170</v>
+      </c>
+      <c r="F211" s="53" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="38">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="B212" s="29" t="s">
-        <v>1558</v>
+        <v>1114</v>
       </c>
       <c r="C212" s="52">
         <v>130</v>
@@ -20627,59 +20765,58 @@
       <c r="D212" s="29" t="s">
         <v>170</v>
       </c>
+      <c r="F212" s="29" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="38">
-        <v>44776</v>
+        <v>44779</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="C213" s="52">
         <v>130</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="38">
-        <v>44781</v>
+        <v>44785</v>
       </c>
       <c r="B214" s="29" t="s">
-        <v>1281</v>
+        <v>1381</v>
       </c>
       <c r="C214" s="52">
-        <v>90</v>
-      </c>
-      <c r="D214" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D214" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="F214" s="53"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="38">
-        <v>44781</v>
+        <v>44783</v>
       </c>
       <c r="B215" s="29" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="C215" s="52">
-        <v>90</v>
-      </c>
-      <c r="D215" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D215" s="29" t="s">
         <v>170</v>
-      </c>
-      <c r="F215" s="53" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="38">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B216" s="29" t="s">
-        <v>1114</v>
+        <v>1287</v>
       </c>
       <c r="C216" s="52">
         <v>130</v>
@@ -20688,29 +20825,29 @@
         <v>170</v>
       </c>
       <c r="F216" s="29" t="s">
-        <v>1369</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="38">
-        <v>44779</v>
+        <v>44783</v>
       </c>
       <c r="B217" s="29" t="s">
-        <v>1566</v>
+        <v>1268</v>
       </c>
       <c r="C217" s="52">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="38">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B218" s="29" t="s">
-        <v>1381</v>
+        <v>1415</v>
       </c>
       <c r="C218" s="52">
         <v>130</v>
@@ -20721,24 +20858,24 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="38">
-        <v>44783</v>
+        <v>44786</v>
       </c>
       <c r="B219" s="29" t="s">
-        <v>1274</v>
+        <v>1500</v>
       </c>
       <c r="C219" s="52">
         <v>130</v>
       </c>
       <c r="D219" s="29" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="38">
-        <v>44782</v>
+        <v>44786</v>
       </c>
       <c r="B220" s="29" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="C220" s="52">
         <v>130</v>
@@ -20747,229 +20884,283 @@
         <v>170</v>
       </c>
       <c r="F220" s="29" t="s">
-        <v>1311</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="38">
-        <v>44783</v>
+        <v>44786</v>
       </c>
       <c r="B221" s="29" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C221" s="52">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="D221" s="29" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="29">
-        <v>25</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B222" s="29" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C222" s="52">
+        <v>150</v>
+      </c>
+      <c r="D222" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B223" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C223" s="52">
+        <v>100</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="38">
+        <v>44788</v>
+      </c>
+      <c r="B224" s="29" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C224" s="52">
+        <v>130</v>
+      </c>
+      <c r="D224" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F224" s="29" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="38">
+        <v>44789</v>
+      </c>
+      <c r="B225" s="29" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C225" s="52">
+        <v>130</v>
+      </c>
+      <c r="D225" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F225" s="29" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="38">
+        <v>44792</v>
       </c>
       <c r="B226" s="29" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="29">
+        <v>1283</v>
+      </c>
+      <c r="C226" s="52">
+        <v>130</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F226" s="29" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="38">
+        <v>44790</v>
+      </c>
+      <c r="B227" s="29" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C227" s="52">
+        <v>130</v>
+      </c>
+      <c r="D227" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="38">
+        <v>44790</v>
+      </c>
+      <c r="B228" s="29" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C228" s="52">
+        <v>130</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="38">
+        <v>44062</v>
+      </c>
+      <c r="B229" s="29" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C229" s="52">
+        <v>130</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="38">
+        <v>44062</v>
+      </c>
+      <c r="B230" s="29" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C230" s="52">
+        <v>130</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F230" s="29" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="38">
+        <v>44059</v>
+      </c>
+      <c r="B231" s="29" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C231" s="52">
+        <v>130</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="38">
+        <v>44061</v>
+      </c>
+      <c r="B232" s="29" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C232" s="52">
+        <v>100</v>
+      </c>
+      <c r="D232" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="29">
+        <v>16</v>
+      </c>
+      <c r="B235" s="29" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="29">
         <v>8</v>
       </c>
-      <c r="B232" s="29" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="29">
-        <v>8</v>
-      </c>
-      <c r="B233" s="29" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="29">
-        <v>11</v>
-      </c>
-      <c r="B234" s="29" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="29">
-        <v>11</v>
-      </c>
-      <c r="B235" s="29" t="s">
-        <v>1283</v>
+      <c r="B236" s="29" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="29">
+        <v>15</v>
+      </c>
+      <c r="B238" s="29" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="29">
+        <v>15</v>
+      </c>
+      <c r="B239" s="29" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="29">
+        <v>19</v>
+      </c>
+      <c r="B241" s="29" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="29">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B242" s="29" t="s">
-        <v>39</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="29">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B243" s="29" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="29">
-        <v>11</v>
-      </c>
-      <c r="B252" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="29">
-        <v>13</v>
-      </c>
-      <c r="B254" s="29" t="s">
-        <v>1519</v>
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="29">
+        <v>25</v>
+      </c>
+      <c r="B244" s="29" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="29">
+        <v>25</v>
+      </c>
+      <c r="B245" s="29" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="29">
+        <v>30</v>
+      </c>
+      <c r="B246" s="29" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="29">
+        <v>30</v>
+      </c>
+      <c r="B247" s="29" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="29">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B255" s="29" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="29">
-        <v>15</v>
-      </c>
-      <c r="B256" s="29" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="29">
-        <v>15</v>
-      </c>
-      <c r="B257" s="29" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="29">
-        <v>15</v>
-      </c>
-      <c r="B258" s="29" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="29">
-        <v>15</v>
-      </c>
-      <c r="B259" s="29" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="29">
-        <v>15</v>
-      </c>
-      <c r="B260" s="29" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="29">
-        <v>15</v>
-      </c>
-      <c r="B261" s="29" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="29">
-        <v>15</v>
-      </c>
-      <c r="B262" s="29" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="29">
-        <v>16</v>
-      </c>
-      <c r="B263" s="29" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="29">
-        <v>19</v>
-      </c>
-      <c r="B264" s="29" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="29">
-        <v>19</v>
-      </c>
-      <c r="B265" s="29" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="29">
-        <v>20</v>
-      </c>
-      <c r="B266" s="29" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="29">
-        <v>25</v>
-      </c>
-      <c r="B267" s="29" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="29">
-        <v>25</v>
-      </c>
-      <c r="B268" s="29" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="29">
-        <v>25</v>
-      </c>
-      <c r="B269" s="29" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="29">
-        <v>30</v>
-      </c>
-      <c r="B270" s="29" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="29">
-        <v>30</v>
-      </c>
-      <c r="B271" s="29" t="s">
-        <v>1290</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -20984,11 +21175,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="A51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21155,16 +21346,17 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="38">
-        <v>44758</v>
+        <v>44762</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C11" s="52">
-        <v>2.5</v>
+        <f>5+2.5</f>
+        <v>7.5</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>1189</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -21172,14 +21364,14 @@
         <v>44762</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C12" s="52">
-        <f>5+2.5</f>
-        <v>7.5</v>
+        <f>5+5+5</f>
+        <v>15</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>1512</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -21187,31 +21379,31 @@
         <v>44762</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="C13" s="52">
-        <f>5+5+5</f>
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>1460</v>
+        <v>1189</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="38">
-        <v>44762</v>
+        <v>44769</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>1505</v>
+        <v>1142</v>
       </c>
       <c r="C14" s="52">
-        <v>2.5</v>
+        <f>2.5+6.5</f>
+        <v>9</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>1514</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -21219,11 +21411,17 @@
         <v>44769</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>1142</v>
+        <v>1096</v>
       </c>
       <c r="C15" s="52">
-        <f>2.5+6.5</f>
-        <v>9</v>
+        <f>5+5+5+5+2.5</f>
+        <v>22.5</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -21231,17 +21429,10 @@
         <v>44769</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>1096</v>
+        <v>1501</v>
       </c>
       <c r="C16" s="52">
-        <f>5+5+5+5+2.5</f>
-        <v>22.5</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>93</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -21249,25 +21440,32 @@
         <v>44769</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>1501</v>
+        <v>1097</v>
       </c>
       <c r="C17" s="52">
-        <v>2.5</v>
+        <f>5+5+2.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="38">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1097</v>
+        <v>1501</v>
       </c>
       <c r="C18" s="52">
-        <f>5+5+2.5</f>
-        <v>12.5</v>
+        <f>2.5+3</f>
+        <v>5.5</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -21275,14 +21473,11 @@
         <v>44771</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1501</v>
+        <v>1199</v>
       </c>
       <c r="C19" s="52">
-        <f>2.5+3</f>
+        <f>3+2.5</f>
         <v>5.5</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -21290,11 +21485,10 @@
         <v>44771</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>1199</v>
+        <v>1558</v>
       </c>
       <c r="C20" s="52">
-        <f>3+2.5</f>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -21302,10 +21496,10 @@
         <v>44771</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>1558</v>
+        <v>1140</v>
       </c>
       <c r="C21" s="52">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -21313,22 +21507,22 @@
         <v>44771</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>1140</v>
+        <v>1551</v>
       </c>
       <c r="C22" s="52">
-        <v>4</v>
+        <f>3+5</f>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="38">
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1551</v>
+        <v>1318</v>
       </c>
       <c r="C23" s="52">
-        <f>3+5</f>
-        <v>8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -21336,10 +21530,17 @@
         <v>44772</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>1318</v>
+        <v>1097</v>
       </c>
       <c r="C24" s="52">
-        <v>2.5</v>
+        <f>5+5+5+2.5</f>
+        <v>17.5</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -21347,14 +21548,11 @@
         <v>44772</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1097</v>
+        <v>1553</v>
       </c>
       <c r="C25" s="52">
-        <f>5+5+5+2.5</f>
-        <v>17.5</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>1568</v>
+        <f>6.5+6.5</f>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -21362,19 +21560,18 @@
         <v>44772</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1553</v>
+        <v>1140</v>
       </c>
       <c r="C26" s="52">
-        <f>6.5+6.5</f>
-        <v>13</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="38">
-        <v>44772</v>
+        <v>44776</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1140</v>
+        <v>1318</v>
       </c>
       <c r="C27" s="52">
         <v>2.5</v>
@@ -21385,7 +21582,7 @@
         <v>44776</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1318</v>
+        <v>1501</v>
       </c>
       <c r="C28" s="52">
         <v>2.5</v>
@@ -21396,10 +21593,11 @@
         <v>44776</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1501</v>
+        <v>1199</v>
       </c>
       <c r="C29" s="52">
-        <v>2.5</v>
+        <f>3+3+5</f>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -21407,11 +21605,10 @@
         <v>44776</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1199</v>
+        <v>1551</v>
       </c>
       <c r="C30" s="52">
-        <f>3+3+5</f>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -21419,10 +21616,17 @@
         <v>44776</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1551</v>
+        <v>1097</v>
       </c>
       <c r="C31" s="52">
-        <v>5</v>
+        <f>5+2.5+5+5</f>
+        <v>17.5</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -21430,35 +21634,28 @@
         <v>44776</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C32" s="52">
-        <f>5+2.5+5+5</f>
-        <v>17.5</v>
+        <f>6+2.5+6</f>
+        <v>14.5</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>1561</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="38">
-        <v>44776</v>
+        <v>44778</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1096</v>
+        <v>1501</v>
       </c>
       <c r="C33" s="52">
-        <f>6+2.5+6</f>
-        <v>14.5</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E33" s="71" t="s">
-        <v>93</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -21466,10 +21663,11 @@
         <v>44778</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>1501</v>
+        <v>1551</v>
       </c>
       <c r="C34" s="52">
-        <v>2.5</v>
+        <f>6 + 5</f>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -21477,11 +21675,14 @@
         <v>44778</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C35" s="52">
-        <f>6 + 5</f>
-        <v>11</v>
+        <f>5+5+5+6+6</f>
+        <v>27</v>
+      </c>
+      <c r="D35" s="90" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -21489,14 +21690,10 @@
         <v>44778</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>1552</v>
+        <v>1318</v>
       </c>
       <c r="C36" s="52">
-        <f>5+5+5+6+6</f>
-        <v>27</v>
-      </c>
-      <c r="D36" s="90" t="s">
-        <v>1564</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -21504,22 +21701,22 @@
         <v>44778</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>1318</v>
+        <v>1154</v>
       </c>
       <c r="C37" s="52">
-        <v>2.5</v>
+        <f>6+6+6</f>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="38">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>1154</v>
+        <v>1318</v>
       </c>
       <c r="C38" s="52">
-        <f>6+6+6</f>
-        <v>18</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -21527,10 +21724,17 @@
         <v>44779</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1147</v>
+        <v>1097</v>
       </c>
       <c r="C39" s="52">
-        <v>2.5</v>
+        <f>2.5+6</f>
+        <v>8.5</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -21538,10 +21742,14 @@
         <v>44779</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1318</v>
+        <v>1142</v>
       </c>
       <c r="C40" s="52">
-        <v>2.5</v>
+        <f>7+6+13+7+2.5+7+6</f>
+        <v>48.5</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -21549,14 +21757,11 @@
         <v>44779</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="C41" s="52">
-        <f>2.5+6</f>
-        <v>8.5</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>1569</v>
+        <f>6+6.5+6+13+6+6+5</f>
+        <v>48.5</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -21564,11 +21769,13 @@
         <v>44779</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>1142</v>
+        <v>1553</v>
       </c>
       <c r="C42" s="52">
-        <f>7+6+13+7+2.5+7+6</f>
-        <v>48.5</v>
+        <v>4</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -21576,43 +21783,303 @@
         <v>44779</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1086</v>
+        <v>1140</v>
       </c>
       <c r="C43" s="52">
-        <f>6+6.5+6+13+6+6+5</f>
-        <v>48.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="38">
-        <v>44779</v>
+        <v>44783</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>1553</v>
+        <v>1571</v>
       </c>
       <c r="C44" s="52">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>1554</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="38">
-        <v>44779</v>
+        <v>44783</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>1140</v>
+        <v>1501</v>
       </c>
       <c r="C45" s="52">
         <v>2.5</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>1555</v>
-      </c>
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C46" s="52">
+        <f>6+6+2.5</f>
+        <v>14.5</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C47" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C48" s="52">
+        <f>2.5+2.5</f>
+        <v>5</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C49" s="52">
+        <f>6+6+6+6</f>
+        <v>24</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C50" s="52">
+        <f>7+7+13+7+2.5+7</f>
+        <v>43.5</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C51" s="52">
+        <v>3</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C52" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E52" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C53" s="52">
+        <f>2.5+2.5</f>
+        <v>5</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C54" s="52">
+        <v>3</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C55" s="52">
+        <f>6+2.5+6+6+7</f>
+        <v>27.5</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E55" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C56" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C57" s="52">
+        <f>2.5+2.5</f>
+        <v>5</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C58" s="52">
+        <f>7+6+7</f>
+        <v>20</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C59" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C60" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C61" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D61" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C62" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E45">
+  <autoFilter ref="A1:E62">
     <filterColumn colId="1"/>
     <sortState ref="A2:E52">
       <sortCondition ref="A1"/>
@@ -21688,99 +22155,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
-      <c r="A1" s="92">
+      <c r="A1" s="93">
         <v>44541</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93">
         <v>44548</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93">
         <v>44569</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93">
         <v>44576</v>
       </c>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93">
         <v>44583</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92" t="s">
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93" t="s">
         <v>948</v>
       </c>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="93">
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="92">
         <v>44596</v>
       </c>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93">
+      <c r="T1" s="92"/>
+      <c r="U1" s="92">
         <v>44597</v>
       </c>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93">
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92">
         <v>44603</v>
       </c>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93">
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92">
         <v>44604</v>
       </c>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93">
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92">
         <v>44610</v>
       </c>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93">
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92">
         <v>44611</v>
       </c>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
       <c r="AH1" s="61">
         <v>44617</v>
       </c>
       <c r="AI1" s="63"/>
-      <c r="AJ1" s="93">
+      <c r="AJ1" s="92">
         <v>44618</v>
       </c>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="92">
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="93">
         <v>44624</v>
       </c>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="93">
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="92">
         <v>44625</v>
       </c>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AS1" s="92">
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AS1" s="93">
         <v>44631</v>
       </c>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="93">
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="92">
         <v>44632</v>
       </c>
-      <c r="AV1" s="93"/>
-      <c r="AW1" s="93"/>
-      <c r="AY1" s="92">
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AY1" s="93">
         <v>44638</v>
       </c>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="93">
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="92">
         <v>44639</v>
       </c>
-      <c r="BB1" s="93"/>
-      <c r="BC1" s="93"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
       <c r="BE1" t="s">
         <v>1177</v>
       </c>
@@ -25058,6 +25525,12 @@
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -25071,12 +25544,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/contatos-rsa.xlsx
+++ b/contatos-rsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">acertaram!$A$1:$F$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">APAGADOS!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ATIVOS!$A$2:$Q$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">caderneta!$A$1:$E$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">caderneta!$A$1:$E$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CONTATEI!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NA SEMANA'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NÃO!$A$1:$M$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3798" uniqueCount="1595">
   <si>
     <t>atualizado em</t>
   </si>
@@ -4266,9 +4266,6 @@
     <t>DADOS PESSOAIS</t>
   </si>
   <si>
-    <t>2 cervejas + 1 salgadinho</t>
-  </si>
-  <si>
     <t>2/2 cartão de débito</t>
   </si>
   <si>
@@ -4515,21 +4512,9 @@
     <t>josé arthur</t>
   </si>
   <si>
-    <t>1 água + 3 cervejas</t>
-  </si>
-  <si>
-    <t>arthur (reginaldo)</t>
-  </si>
-  <si>
     <t>4 cervejas</t>
   </si>
   <si>
-    <t>2 cervejas + 1 pipoca doce</t>
-  </si>
-  <si>
-    <t>1 água + 1 heineken</t>
-  </si>
-  <si>
     <t>Joaquim Massanori dos Reis Nogata</t>
   </si>
   <si>
@@ -4725,9 +4710,6 @@
     <t>matheus (novo sub07)</t>
   </si>
   <si>
-    <t>torcida + água</t>
-  </si>
-  <si>
     <t>cartão de crédito (3x)</t>
   </si>
   <si>
@@ -4813,6 +4795,39 @@
   </si>
   <si>
     <t>103,50 bebidas</t>
+  </si>
+  <si>
+    <t>3 skol + 1 água + 1 torcida</t>
+  </si>
+  <si>
+    <t>4 petra + 1 água</t>
+  </si>
+  <si>
+    <t>2 petra + 1 água</t>
+  </si>
+  <si>
+    <t>1 petra</t>
+  </si>
+  <si>
+    <t>leo (aparecido)</t>
+  </si>
+  <si>
+    <t>1 budweiser</t>
+  </si>
+  <si>
+    <t>2 skol + 1 água</t>
+  </si>
+  <si>
+    <t>4 stella + 1 água</t>
+  </si>
+  <si>
+    <t>1 cerveja + 2 águas</t>
+  </si>
+  <si>
+    <t>2 guaraná antarctica + 2 torcida</t>
+  </si>
+  <si>
+    <t>1 torcida + 1 água</t>
   </si>
 </sst>
 </file>
@@ -5148,10 +5163,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5539,27 +5554,27 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="13.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="76.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="76.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="13" width="16.26953125" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="17" max="18" width="8.26953125" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" customWidth="1"/>
     <col min="20" max="24" width="11" customWidth="1"/>
-    <col min="25" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="25" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8376,18 +8391,18 @@
       <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="29" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="29" customWidth="1"/>
-    <col min="10" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="29" customWidth="1"/>
+    <col min="10" max="26" width="8.54296875" customWidth="1"/>
+    <col min="27" max="1025" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
@@ -12270,16 +12285,16 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="22" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
@@ -12290,7 +12305,7 @@
         <v>154</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>2</v>
@@ -12299,7 +12314,7 @@
         <v>1110</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>162</v>
@@ -12308,7 +12323,7 @@
         <v>1064</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I1" s="50" t="s">
         <v>162</v>
@@ -12317,7 +12332,7 @@
         <v>1064</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L1" s="50" t="s">
         <v>162</v>
@@ -12328,7 +12343,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="29" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B2" s="29">
         <v>9</v>
@@ -12355,7 +12370,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="29" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B3" s="29">
         <v>11</v>
@@ -12384,7 +12399,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B4" s="29">
         <v>20</v>
@@ -12498,7 +12513,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
@@ -12684,7 +12699,7 @@
         <v>44713</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -12849,7 +12864,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="29" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B19" s="29">
         <v>12</v>
@@ -12926,7 +12941,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="29" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B22" s="29">
         <v>15</v>
@@ -13064,10 +13079,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="29" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>1228</v>
@@ -13135,7 +13150,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="29" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="B31" s="29">
         <v>12</v>
@@ -13162,7 +13177,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="29" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29" t="s">
@@ -13183,7 +13198,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="29" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
@@ -13195,7 +13210,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
       <c r="G33" s="53" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -13218,7 +13233,7 @@
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
       <c r="G34" s="53" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
@@ -13338,14 +13353,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -13505,7 +13520,7 @@
       <selection activeCell="H21" sqref="A14:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="81" bestFit="1" customWidth="1"/>
@@ -13717,15 +13732,15 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="29"/>
-    <col min="7" max="7" width="35.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="29"/>
-    <col min="12" max="12" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.1796875" style="29"/>
+    <col min="7" max="7" width="35.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" style="29"/>
+    <col min="12" max="12" width="10.7265625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -13806,7 +13821,7 @@
       </c>
       <c r="H3" s="6" t="str">
         <f t="shared" ref="H3:H24" ca="1" si="0">DATEDIF(I3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(I3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(I3,TODAY(),"MD")&amp;" dias"</f>
-        <v>6 anos, 6 meses 28 dias</v>
+        <v>6 anos, 7 meses 0 dias</v>
       </c>
       <c r="I3" s="6">
         <v>42395</v>
@@ -13841,7 +13856,7 @@
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 1 meses 24 dias</v>
+        <v>8 anos, 1 meses 27 dias</v>
       </c>
       <c r="I4" s="6">
         <v>41820</v>
@@ -13878,7 +13893,7 @@
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 2 meses 20 dias</v>
+        <v>11 anos, 2 meses 23 dias</v>
       </c>
       <c r="I5" s="6">
         <v>40697</v>
@@ -13915,7 +13930,7 @@
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 2 meses 2 dias</v>
+        <v>9 anos, 2 meses 5 dias</v>
       </c>
       <c r="I6" s="6">
         <v>41446</v>
@@ -13950,7 +13965,7 @@
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>122 anos, 7 meses 23 dias</v>
+        <v>122 anos, 7 meses 26 dias</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -13985,7 +14000,7 @@
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 10 meses 28 dias</v>
+        <v>10 anos, 11 meses 0 dias</v>
       </c>
       <c r="I8" s="6">
         <v>40812</v>
@@ -14022,7 +14037,7 @@
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 1 meses 16 dias</v>
+        <v>14 anos, 1 meses 19 dias</v>
       </c>
       <c r="I9" s="6">
         <v>39636</v>
@@ -14059,7 +14074,7 @@
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 4 meses 9 dias</v>
+        <v>8 anos, 4 meses 12 dias</v>
       </c>
       <c r="I10" s="6">
         <v>41743</v>
@@ -14086,7 +14101,7 @@
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 28 dias</v>
+        <v>6 anos, 8 meses 0 dias</v>
       </c>
       <c r="I11" s="38">
         <v>42364</v>
@@ -14123,7 +14138,7 @@
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 12 dias</v>
+        <v>6 anos, 1 meses 15 dias</v>
       </c>
       <c r="I12" s="6">
         <v>42562</v>
@@ -14157,7 +14172,7 @@
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 6 meses 18 dias</v>
+        <v>7 anos, 6 meses 21 dias</v>
       </c>
       <c r="I13" s="6">
         <v>42040</v>
@@ -14179,7 +14194,7 @@
       </c>
       <c r="H14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 16 dias</v>
+        <v>10 anos, 3 meses 19 dias</v>
       </c>
       <c r="I14" s="38">
         <v>41036</v>
@@ -14215,7 +14230,7 @@
       </c>
       <c r="H15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 6 meses 24 dias</v>
+        <v>10 anos, 6 meses 27 dias</v>
       </c>
       <c r="I15" s="64">
         <v>40938</v>
@@ -14243,7 +14258,7 @@
       </c>
       <c r="H16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 2 meses 7 dias</v>
+        <v>5 anos, 2 meses 10 dias</v>
       </c>
       <c r="I16" s="6">
         <v>42902</v>
@@ -14279,7 +14294,7 @@
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 3 meses 1 dias</v>
+        <v>5 anos, 3 meses 4 dias</v>
       </c>
       <c r="I17" s="26">
         <v>42877</v>
@@ -14312,7 +14327,7 @@
       </c>
       <c r="H18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 1 meses 14 dias</v>
+        <v>6 anos, 1 meses 17 dias</v>
       </c>
       <c r="I18" s="6">
         <v>42560</v>
@@ -14345,7 +14360,7 @@
       </c>
       <c r="H19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 1 dias</v>
+        <v>6 anos, 4 meses 4 dias</v>
       </c>
       <c r="I19" s="26">
         <v>42482</v>
@@ -14376,7 +14391,7 @@
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 4 meses 12 dias</v>
+        <v>6 anos, 4 meses 15 dias</v>
       </c>
       <c r="I20" s="26">
         <v>42471</v>
@@ -14412,7 +14427,7 @@
       </c>
       <c r="H21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 7 meses 18 dias</v>
+        <v>6 anos, 7 meses 21 dias</v>
       </c>
       <c r="I21" s="6">
         <v>42374</v>
@@ -14462,7 +14477,7 @@
       </c>
       <c r="H23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 8 meses 20 dias</v>
+        <v>5 anos, 8 meses 23 dias</v>
       </c>
       <c r="I23" s="87">
         <v>42707</v>
@@ -14476,14 +14491,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="E24" s="29" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>1252</v>
       </c>
       <c r="H24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 1 meses 15 dias</v>
+        <v>11 anos, 1 meses 18 dias</v>
       </c>
       <c r="I24" s="86">
         <v>40732</v>
@@ -14509,30 +14524,30 @@
   <dimension ref="A1:Q950"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" style="29" customWidth="1"/>
     <col min="2" max="2" width="9" style="29" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" style="29" customWidth="1"/>
     <col min="7" max="7" width="11" style="29" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="29" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="78" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="71" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="29" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="71" customWidth="1"/>
-    <col min="18" max="1011" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="45.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.1796875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.54296875" style="29" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="78" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="71" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" style="29" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="71" customWidth="1"/>
+    <col min="18" max="1011" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -14602,13 +14617,13 @@
         <v>1347</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14643,7 +14658,7 @@
       </c>
       <c r="L3" s="6" t="str">
         <f t="shared" ref="L3:L36" ca="1" si="0">DATEDIF(K3,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K3,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K3,TODAY(),"MD")&amp;" dias"</f>
-        <v>3 anos, 10 meses 29 dias</v>
+        <v>3 anos, 11 meses 1 dias</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>64</v>
@@ -14689,7 +14704,7 @@
       </c>
       <c r="L4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 0 meses 14 dias</v>
+        <v>5 anos, 0 meses 17 dias</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>64</v>
@@ -14736,7 +14751,7 @@
       </c>
       <c r="L5" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 9 meses 30 dias</v>
+        <v>5 anos, 10 meses 2 dias</v>
       </c>
       <c r="M5" s="27" t="s">
         <v>64</v>
@@ -14774,14 +14789,14 @@
         <v>79</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="K6" s="18">
         <v>42541</v>
       </c>
       <c r="L6" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 2 meses 3 dias</v>
+        <v>6 anos, 2 meses 6 dias</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>64</v>
@@ -14828,14 +14843,14 @@
         <v>205</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="K7" s="18">
         <v>42338</v>
       </c>
       <c r="L7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 8 meses 24 dias</v>
+        <v>6 anos, 8 meses 27 dias</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>64</v>
@@ -14882,14 +14897,14 @@
         <v>1091</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="K8" s="87">
         <v>42294</v>
       </c>
       <c r="L8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 10 meses 6 dias</v>
+        <v>6 anos, 10 meses 9 dias</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>64</v>
@@ -14934,14 +14949,14 @@
         <v>188</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="K9" s="18">
         <v>42292</v>
       </c>
       <c r="L9" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 10 meses 8 dias</v>
+        <v>6 anos, 10 meses 11 dias</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>64</v>
@@ -14978,14 +14993,14 @@
         <v>1247</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K10" s="86">
         <v>42272</v>
       </c>
       <c r="L10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6 anos, 10 meses 29 dias</v>
+        <v>6 anos, 11 meses 1 dias</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>64</v>
@@ -15030,14 +15045,14 @@
         <v>84</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="K11" s="18">
         <v>42219</v>
       </c>
       <c r="L11" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 0 meses 20 dias</v>
+        <v>7 anos, 0 meses 23 dias</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>64</v>
@@ -15089,7 +15104,7 @@
       </c>
       <c r="L12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 2 meses 8 dias</v>
+        <v>7 anos, 2 meses 11 dias</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>64</v>
@@ -15119,14 +15134,14 @@
         <v>1244</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="K13" s="86">
         <v>42107</v>
       </c>
       <c r="L13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 4 meses 10 dias</v>
+        <v>7 anos, 4 meses 13 dias</v>
       </c>
       <c r="M13" s="27" t="s">
         <v>64</v>
@@ -15174,7 +15189,7 @@
       </c>
       <c r="L14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 6 meses 0 dias</v>
+        <v>7 anos, 6 meses 3 dias</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>64</v>
@@ -15201,14 +15216,14 @@
         <v>1265</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K15" s="87">
         <v>42019</v>
       </c>
       <c r="L15" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 7 meses 8 dias</v>
+        <v>7 anos, 7 meses 11 dias</v>
       </c>
       <c r="M15" s="27" t="s">
         <v>64</v>
@@ -15252,7 +15267,7 @@
       </c>
       <c r="L16" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7 anos, 11 meses 27 dias</v>
+        <v>7 anos, 11 meses 30 dias</v>
       </c>
       <c r="M16" s="27" t="s">
         <v>21</v>
@@ -15267,35 +15282,35 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1">
       <c r="A17" s="29" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>1477</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="29" t="s">
         <v>1478</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="D17" s="29" t="s">
         <v>1479</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="29" t="s">
         <v>1480</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>1481</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>1343</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="K17" s="86">
         <v>41613</v>
       </c>
       <c r="L17" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 8 meses 18 dias</v>
+        <v>8 anos, 8 meses 21 dias</v>
       </c>
       <c r="M17" s="27" t="s">
         <v>21</v>
@@ -15336,7 +15351,7 @@
       </c>
       <c r="L18" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8 anos, 11 meses 19 dias</v>
+        <v>8 anos, 11 meses 22 dias</v>
       </c>
       <c r="M18" s="27" t="s">
         <v>21</v>
@@ -15372,14 +15387,14 @@
         <v>61</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K19" s="18">
         <v>41262</v>
       </c>
       <c r="L19" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 8 meses 4 dias</v>
+        <v>9 anos, 8 meses 7 dias</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>21</v>
@@ -15399,35 +15414,35 @@
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1">
       <c r="A20" s="29" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>1450</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>1451</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="D20" s="29" t="s">
         <v>1452</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="E20" s="29" t="s">
         <v>1453</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>1454</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>1341</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K20" s="86">
         <v>41172</v>
       </c>
       <c r="L20" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 3 dias</v>
+        <v>9 anos, 11 meses 6 dias</v>
       </c>
       <c r="M20" s="27" t="s">
         <v>21</v>
@@ -15453,14 +15468,14 @@
         <v>1249</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="K21" s="86">
         <v>41169</v>
       </c>
       <c r="L21" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9 anos, 11 meses 6 dias</v>
+        <v>9 anos, 11 meses 9 dias</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>21</v>
@@ -15495,14 +15510,14 @@
         <v>1238</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="K22" s="87">
         <v>41094</v>
       </c>
       <c r="L22" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 1 meses 19 dias</v>
+        <v>10 anos, 1 meses 22 dias</v>
       </c>
       <c r="M22" s="27" t="s">
         <v>21</v>
@@ -15531,14 +15546,14 @@
         <v>1242</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="K23" s="86">
         <v>41051</v>
       </c>
       <c r="L23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 1 dias</v>
+        <v>10 anos, 3 meses 4 dias</v>
       </c>
       <c r="M23" s="27" t="s">
         <v>21</v>
@@ -15581,14 +15596,14 @@
         <v>1165</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="K24" s="87">
         <v>41047</v>
       </c>
       <c r="L24" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 5 dias</v>
+        <v>10 anos, 3 meses 8 dias</v>
       </c>
       <c r="M24" s="27" t="s">
         <v>21</v>
@@ -15633,14 +15648,14 @@
         <v>1119</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K25" s="86">
         <v>41031</v>
       </c>
       <c r="L25" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 3 meses 21 dias</v>
+        <v>10 anos, 3 meses 24 dias</v>
       </c>
       <c r="M25" s="27" t="s">
         <v>21</v>
@@ -15687,14 +15702,14 @@
         <v>24</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="K26" s="18">
         <v>40875</v>
       </c>
       <c r="L26" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10 anos, 8 meses 26 dias</v>
+        <v>10 anos, 8 meses 29 dias</v>
       </c>
       <c r="M26" s="27" t="s">
         <v>21</v>
@@ -15741,14 +15756,14 @@
         <v>234</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K27" s="18">
         <v>40555</v>
       </c>
       <c r="L27" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 7 meses 11 dias</v>
+        <v>11 anos, 7 meses 14 dias</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>35</v>
@@ -15787,14 +15802,14 @@
         <v>1241</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="K28" s="87">
         <v>40553</v>
       </c>
       <c r="L28" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11 anos, 7 meses 13 dias</v>
+        <v>11 anos, 7 meses 16 dias</v>
       </c>
       <c r="M28" s="27" t="s">
         <v>35</v>
@@ -15841,14 +15856,14 @@
         <v>228</v>
       </c>
       <c r="J29" s="39" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K29" s="18">
         <v>40117</v>
       </c>
       <c r="L29" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 anos, 9 meses 23 dias</v>
+        <v>12 anos, 9 meses 26 dias</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>35</v>
@@ -15877,20 +15892,20 @@
         <v>1341</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I30" s="29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J30" s="29" t="s">
         <v>1442</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>1443</v>
       </c>
       <c r="K30" s="86">
         <v>39982</v>
       </c>
       <c r="L30" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 2 meses 5 dias</v>
+        <v>13 anos, 2 meses 8 dias</v>
       </c>
       <c r="M30" s="29" t="s">
         <v>35</v>
@@ -15937,14 +15952,14 @@
         <v>169</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="K31" s="18">
         <v>39967</v>
       </c>
       <c r="L31" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 anos, 2 meses 20 dias</v>
+        <v>13 anos, 2 meses 23 dias</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>35</v>
@@ -15989,14 +16004,14 @@
         <v>43</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="K32" s="18">
         <v>39563</v>
       </c>
       <c r="L32" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 3 meses 29 dias</v>
+        <v>14 anos, 4 meses 1 dias</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>35</v>
@@ -16035,14 +16050,14 @@
         <v>38</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="K33" s="87">
         <v>39464</v>
       </c>
       <c r="L33" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14 anos, 7 meses 6 dias</v>
+        <v>14 anos, 7 meses 9 dias</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>35</v>
@@ -16074,14 +16089,14 @@
         <v>1248</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="K34" s="86">
         <v>39275</v>
       </c>
       <c r="L34" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15 anos, 1 meses 11 dias</v>
+        <v>15 anos, 1 meses 14 dias</v>
       </c>
       <c r="M34" s="27" t="s">
         <v>35</v>
@@ -16104,7 +16119,7 @@
         <v>1342</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="M35" s="29" t="s">
         <v>64</v>
@@ -16115,32 +16130,32 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>1342</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="K36" s="86">
         <v>42915</v>
       </c>
       <c r="L36" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5 anos, 1 meses 25 dias</v>
+        <v>5 anos, 1 meses 28 dias</v>
       </c>
       <c r="M36" s="29" t="s">
         <v>64</v>
@@ -16151,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1">
       <c r="I37" s="29" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="M37" s="29" t="s">
         <v>64</v>
@@ -16185,29 +16200,29 @@
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>1343</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="K39" s="86">
         <v>39999</v>
       </c>
       <c r="L39" s="6" t="str">
         <f t="shared" ref="L39:L41" ca="1" si="1">DATEDIF(K39,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K39,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K39,TODAY(),"MD")&amp;" dias"</f>
-        <v>13 anos, 1 meses 18 dias</v>
+        <v>13 anos, 1 meses 21 dias</v>
       </c>
       <c r="M39" s="29" t="s">
         <v>1229</v>
@@ -16218,29 +16233,29 @@
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>1342</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="K40" s="86">
         <v>39911</v>
       </c>
       <c r="L40" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 anos, 4 meses 15 dias</v>
+        <v>13 anos, 4 meses 18 dias</v>
       </c>
       <c r="M40" s="29" t="s">
         <v>1229</v>
@@ -16251,32 +16266,32 @@
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>1343</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="K41" s="86">
         <v>40214</v>
       </c>
       <c r="L41" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>12 anos, 6 meses 18 dias</v>
+        <v>12 anos, 6 meses 21 dias</v>
       </c>
       <c r="M41" s="29" t="s">
         <v>1229</v>
@@ -16306,14 +16321,14 @@
         <v>1246</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K42" s="86">
         <v>40757</v>
       </c>
       <c r="L42" s="6" t="str">
         <f ca="1">DATEDIF(K42,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K42,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K42,TODAY(),"MD")&amp;" dias"</f>
-        <v>11 anos, 0 meses 21 dias</v>
+        <v>11 anos, 0 meses 24 dias</v>
       </c>
       <c r="M42" s="27" t="s">
         <v>35</v>
@@ -16330,35 +16345,35 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>1343</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="K43" s="86">
         <v>42688</v>
       </c>
       <c r="L43" s="6" t="str">
         <f ca="1">DATEDIF(K43,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K43,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K43,TODAY(),"MD")&amp;" dias"</f>
-        <v>5 anos, 9 meses 9 dias</v>
+        <v>5 anos, 9 meses 12 dias</v>
       </c>
       <c r="M43" s="29" t="s">
         <v>64</v>
@@ -16369,16 +16384,16 @@
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1">
       <c r="E44" s="29" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>1343</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="Q44" s="71" t="s">
         <v>18</v>
@@ -16391,7 +16406,7 @@
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1">
       <c r="I46" s="29" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1"/>
@@ -16422,7 +16437,7 @@
       </c>
       <c r="L57" s="6" t="str">
         <f t="shared" ref="L57:L63" ca="1" si="2">DATEDIF(K57,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K57,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K57,TODAY(),"MD")&amp;" dias"</f>
-        <v>14 anos, 2 meses 0 dias</v>
+        <v>14 anos, 2 meses 3 dias</v>
       </c>
       <c r="M57" s="27" t="s">
         <v>35</v>
@@ -16451,7 +16466,7 @@
         <v>1340</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="I58" s="27" t="s">
         <v>1210</v>
@@ -16462,7 +16477,7 @@
       </c>
       <c r="L58" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5 anos, 0 meses 29 dias</v>
+        <v>5 anos, 1 meses 1 dias</v>
       </c>
       <c r="M58" s="27" t="s">
         <v>64</v>
@@ -16496,7 +16511,7 @@
         <v>1338</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>241</v>
@@ -16507,7 +16522,7 @@
       </c>
       <c r="L59" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5 anos, 11 meses 7 dias</v>
+        <v>5 anos, 11 meses 10 dias</v>
       </c>
       <c r="M59" s="27" t="s">
         <v>64</v>
@@ -16538,7 +16553,7 @@
         <v>1341</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="I60" s="29" t="s">
         <v>1374</v>
@@ -16548,7 +16563,7 @@
       </c>
       <c r="L60" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6 anos, 2 meses 16 dias</v>
+        <v>6 anos, 2 meses 19 dias</v>
       </c>
       <c r="M60" s="29" t="s">
         <v>64</v>
@@ -16559,35 +16574,35 @@
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1">
       <c r="A61" s="29" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G61" s="27" t="s">
         <v>1338</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="K61" s="86">
         <v>40814</v>
       </c>
       <c r="L61" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10 anos, 10 meses 26 dias</v>
+        <v>10 anos, 10 meses 29 dias</v>
       </c>
       <c r="M61" s="27" t="s">
         <v>21</v>
@@ -16601,14 +16616,14 @@
         <v>1338</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K62" s="86">
         <v>39378</v>
       </c>
       <c r="L62" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>14 anos, 10 meses 0 dias</v>
+        <v>14 anos, 10 meses 3 dias</v>
       </c>
       <c r="M62" s="27" t="s">
         <v>35</v>
@@ -16625,17 +16640,17 @@
         <v>1368</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="J63" s="27" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="K63" s="86">
         <v>40975</v>
       </c>
       <c r="L63" s="6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>10 anos, 5 meses 16 dias</v>
+        <v>10 anos, 5 meses 19 dias</v>
       </c>
       <c r="M63" s="29" t="s">
         <v>21</v>
@@ -16668,7 +16683,7 @@
       </c>
       <c r="L64" s="6" t="str">
         <f ca="1">DATEDIF(K64,TODAY(),"y")&amp;" anos, "&amp;DATEDIF(K64,TODAY(),"YM")&amp;" meses "&amp;DATEDIF(K64,TODAY(),"MD")&amp;" dias"</f>
-        <v>7 anos, 5 meses 10 dias</v>
+        <v>7 anos, 5 meses 13 dias</v>
       </c>
       <c r="M64" s="29" t="s">
         <v>64</v>
@@ -17582,19 +17597,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="29"/>
+    <col min="5" max="5" width="10.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -19723,7 +19738,7 @@
         <v>44718</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C140" s="52">
         <v>195</v>
@@ -19737,7 +19752,7 @@
         <v>44721</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C141" s="52">
         <v>99</v>
@@ -19751,7 +19766,7 @@
         <v>44722</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C142" s="52">
         <v>195</v>
@@ -19872,7 +19887,7 @@
         <v>170</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -19908,7 +19923,7 @@
         <v>44734</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C153" s="52">
         <v>100</v>
@@ -19950,7 +19965,7 @@
         <v>44736</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C156" s="52">
         <v>130</v>
@@ -19992,7 +20007,7 @@
         <v>44737</v>
       </c>
       <c r="B159" s="29" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C159" s="52">
         <v>130</v>
@@ -20029,7 +20044,7 @@
         <v>170</v>
       </c>
       <c r="F161" s="29" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -20088,7 +20103,7 @@
         <v>170</v>
       </c>
       <c r="F165" s="29" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -20105,7 +20120,7 @@
         <v>170</v>
       </c>
       <c r="F166" s="29" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -20113,7 +20128,7 @@
         <v>44746</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C167" s="52">
         <v>100</v>
@@ -20136,7 +20151,7 @@
         <v>170</v>
       </c>
       <c r="F168" s="29" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -20144,7 +20159,7 @@
         <v>44748</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C169" s="52">
         <v>100</v>
@@ -20167,7 +20182,7 @@
         <v>170</v>
       </c>
       <c r="F170" s="29" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -20184,7 +20199,7 @@
         <v>170</v>
       </c>
       <c r="F171" s="29" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -20192,7 +20207,7 @@
         <v>44750</v>
       </c>
       <c r="B172" s="29" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C172" s="52">
         <v>130</v>
@@ -20254,7 +20269,7 @@
         <v>44757</v>
       </c>
       <c r="B176" s="29" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C176" s="52">
         <v>130</v>
@@ -20320,7 +20335,7 @@
         <v>44755</v>
       </c>
       <c r="B182" s="29" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C182" s="52">
         <v>130</v>
@@ -20334,7 +20349,7 @@
         <v>8</v>
       </c>
       <c r="B183" s="29" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="C183" s="52">
         <v>130</v>
@@ -20346,7 +20361,7 @@
         <v>13</v>
       </c>
       <c r="B184" s="29" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="C184" s="52">
         <v>130</v>
@@ -20357,7 +20372,7 @@
         <v>13</v>
       </c>
       <c r="B185" s="29" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="C185" s="52">
         <v>130</v>
@@ -20415,7 +20430,7 @@
         <v>44762</v>
       </c>
       <c r="B190" s="29" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C190" s="52">
         <v>100</v>
@@ -20438,7 +20453,7 @@
         <v>242</v>
       </c>
       <c r="F191" s="29" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -20455,7 +20470,7 @@
         <v>170</v>
       </c>
       <c r="F192" s="29" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -20480,7 +20495,7 @@
         <v>44765</v>
       </c>
       <c r="B194" s="29" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C194" s="52">
         <v>130</v>
@@ -20489,7 +20504,7 @@
         <v>182</v>
       </c>
       <c r="F194" s="29" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -20540,7 +20555,7 @@
         <v>182</v>
       </c>
       <c r="F197" s="29" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -20557,7 +20572,7 @@
         <v>170</v>
       </c>
       <c r="F198" s="29" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -20574,7 +20589,7 @@
         <v>170</v>
       </c>
       <c r="F199" s="29" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -20591,7 +20606,7 @@
         <v>170</v>
       </c>
       <c r="F200" s="29" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -20599,7 +20614,7 @@
         <v>44771</v>
       </c>
       <c r="B201" s="29" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C201" s="52">
         <v>100</v>
@@ -20669,7 +20684,7 @@
         <v>44779</v>
       </c>
       <c r="B206" s="29" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="C206" s="52">
         <v>130</v>
@@ -20683,7 +20698,7 @@
         <v>44779</v>
       </c>
       <c r="B207" s="29" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="C207" s="52">
         <v>130</v>
@@ -20697,7 +20712,7 @@
         <v>44778</v>
       </c>
       <c r="B208" s="29" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="C208" s="52">
         <v>130</v>
@@ -20711,7 +20726,7 @@
         <v>44776</v>
       </c>
       <c r="B209" s="29" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="C209" s="52">
         <v>130</v>
@@ -20749,7 +20764,7 @@
         <v>170</v>
       </c>
       <c r="F211" s="53" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -20774,7 +20789,7 @@
         <v>44779</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="C213" s="52">
         <v>130</v>
@@ -20847,7 +20862,7 @@
         <v>44786</v>
       </c>
       <c r="B218" s="29" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C218" s="52">
         <v>130</v>
@@ -20861,7 +20876,7 @@
         <v>44786</v>
       </c>
       <c r="B219" s="29" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="C219" s="52">
         <v>130</v>
@@ -20906,7 +20921,7 @@
         <v>44785</v>
       </c>
       <c r="B222" s="29" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="C222" s="52">
         <v>150</v>
@@ -20934,7 +20949,7 @@
         <v>44788</v>
       </c>
       <c r="B224" s="29" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="C224" s="52">
         <v>130</v>
@@ -20951,7 +20966,7 @@
         <v>44789</v>
       </c>
       <c r="B225" s="29" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C225" s="52">
         <v>130</v>
@@ -20960,7 +20975,7 @@
         <v>170</v>
       </c>
       <c r="F225" s="29" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -20977,7 +20992,7 @@
         <v>170</v>
       </c>
       <c r="F226" s="29" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -20985,7 +21000,7 @@
         <v>44790</v>
       </c>
       <c r="B227" s="29" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="C227" s="52">
         <v>130</v>
@@ -20999,7 +21014,7 @@
         <v>44790</v>
       </c>
       <c r="B228" s="29" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="C228" s="52">
         <v>130</v>
@@ -21036,7 +21051,7 @@
         <v>170</v>
       </c>
       <c r="F230" s="29" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -21058,7 +21073,7 @@
         <v>44061</v>
       </c>
       <c r="B232" s="29" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C232" s="52">
         <v>100</v>
@@ -21067,12 +21082,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="29">
-        <v>16</v>
-      </c>
-      <c r="B235" s="29" t="s">
+    <row r="233" spans="1:6">
+      <c r="A233" s="38">
+        <v>44067</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C233" s="52">
+        <v>130</v>
+      </c>
+      <c r="D233" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="38">
+        <v>44068</v>
+      </c>
+      <c r="B234" s="29" t="s">
         <v>1289</v>
+      </c>
+      <c r="C234" s="52">
+        <v>65</v>
+      </c>
+      <c r="D234" s="29" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -21080,71 +21115,55 @@
         <v>8</v>
       </c>
       <c r="B236" s="29" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B238" s="29" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="29">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B239" s="29" t="s">
-        <v>1285</v>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="29">
+        <v>25</v>
+      </c>
+      <c r="B240" s="29" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B241" s="29" t="s">
-        <v>1267</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="29">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B242" s="29" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="29">
-        <v>25</v>
-      </c>
-      <c r="B243" s="29" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="29">
-        <v>25</v>
-      </c>
-      <c r="B244" s="29" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="29">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B245" s="29" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="29">
-        <v>30</v>
-      </c>
-      <c r="B246" s="29" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -21152,6 +21171,14 @@
         <v>30</v>
       </c>
       <c r="B247" s="29" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="29">
+        <v>30</v>
+      </c>
+      <c r="B248" s="29" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -21175,20 +21202,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="A51:D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="52"/>
-    <col min="4" max="4" width="9.140625" style="55"/>
-    <col min="5" max="5" width="9.140625" style="71"/>
+    <col min="1" max="1" width="10.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="52"/>
+    <col min="4" max="4" width="9.1796875" style="55"/>
+    <col min="5" max="5" width="9.1796875" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -21224,862 +21251,971 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="38">
-        <v>44695</v>
+        <v>44755</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1366</v>
+        <v>1500</v>
       </c>
       <c r="C3" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38">
+        <v>44757</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C4" s="52">
+        <f>6.5+6.5</f>
+        <v>13</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="38">
+        <v>44762</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C5" s="52">
+        <f>5+2.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38">
+        <v>44762</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C6" s="52">
+        <f>5+5+5</f>
+        <v>15</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="38">
+        <v>44762</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="38">
+        <v>44769</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C8" s="52">
+        <f>2.5+6.5</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="38">
+        <v>44769</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C9" s="52">
+        <f>5+5+5+5+2.5</f>
+        <v>22.5</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="38">
+        <v>44769</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C10" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="38">
+        <v>44769</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C11" s="52">
+        <f>5+5+2.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C12" s="52">
+        <f>2.5+3</f>
+        <v>5.5</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C13" s="52">
+        <f>3+2.5</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C14" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="38">
+        <v>44771</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C15" s="52">
+        <f>3+5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="38">
+        <v>44772</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C16" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="38">
+        <v>44772</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C17" s="52">
+        <f>5+5+5+2.5</f>
+        <v>17.5</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="38">
+        <v>44772</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C18" s="52">
+        <f>6.5+6.5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="38">
+        <v>44772</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C19" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C20" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C21" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C22" s="52">
+        <f>3+3+5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C23" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C24" s="52">
+        <f>5+2.5+5+5</f>
+        <v>17.5</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="38">
+        <v>44776</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C25" s="52">
+        <f>6+2.5+6</f>
+        <v>14.5</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C26" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C27" s="52">
+        <f>6 + 5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C28" s="52">
+        <f>5+5+5+6+6</f>
+        <v>27</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C29" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="38">
+        <v>44778</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C30" s="52">
+        <f>6+6+6</f>
+        <v>18</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C31" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C32" s="52">
+        <f>2.5+6</f>
+        <v>8.5</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C33" s="52">
+        <f>7+6+13+7+2.5+7+6</f>
+        <v>48.5</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C34" s="52">
+        <f>6+6.5+6+13+6+6+5</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C35" s="52">
+        <v>4</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="38">
+        <v>44779</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C36" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="38">
+        <v>44783</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C37" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="38">
+        <v>44783</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C38" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C39" s="52">
+        <f>6+6+2.5</f>
+        <v>14.5</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C40" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C41" s="52">
         <f>2.5+2.5</f>
         <v>5</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D41" s="55" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="38">
-        <v>44708</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C4" s="52">
-        <f>2.5+7</f>
-        <v>9.5</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="38">
-        <v>44715</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C5" s="52">
-        <f>5+3+5</f>
-        <v>13</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="38">
-        <v>44736</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C6" s="52">
-        <f>5+5+4</f>
-        <v>14</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="38">
-        <v>44750</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C7" s="52">
-        <f>5+2.5+5+5</f>
-        <v>17.5</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="38">
-        <v>44750</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C8" s="52">
-        <f>5+5+5+5</f>
+    <row r="42" spans="1:5">
+      <c r="A42" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C42" s="52">
+        <f>6+6+6+6</f>
+        <v>24</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C43" s="52">
+        <f>7+7+13+7+2.5+7</f>
+        <v>43.5</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="38">
+        <v>44785</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C44" s="52">
+        <v>3</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C45" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E45" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C46" s="52">
+        <f>2.5+2.5</f>
+        <v>5</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C47" s="52">
+        <v>3</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C48" s="52">
+        <f>6+2.5+6+6+7</f>
+        <v>27.5</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C49" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C50" s="52">
+        <f>2.5+2.5</f>
+        <v>5</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C51" s="52">
+        <f>7+6+7</f>
         <v>20</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="38">
-        <v>44755</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C9" s="52">
+      <c r="D51" s="55" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C52" s="52">
         <v>2.5</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D52" s="55" t="s">
         <v>1189</v>
       </c>
-      <c r="E9" s="71" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="38">
-        <v>44757</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C10" s="52">
-        <f>6.5+6.5</f>
-        <v>13</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="38">
-        <v>44762</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C11" s="52">
-        <f>5+2.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="38">
-        <v>44762</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C12" s="52">
-        <f>5+5+5</f>
-        <v>15</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="38">
-        <v>44762</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C13" s="52">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C53" s="52">
         <v>2.5</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D53" s="55" t="s">
         <v>1189</v>
       </c>
-      <c r="E13" s="71" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38">
-        <v>44769</v>
-      </c>
-      <c r="B14" s="29" t="s">
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C54" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="38">
+        <v>44786</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C55" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="38">
+        <v>44792</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C56" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="38">
+        <v>44792</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C57" s="52">
+        <f>5+5+3+3</f>
+        <v>16</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
